--- a/ansteypeファイル/DB設計 テーブル定義書.xlsx
+++ b/ansteypeファイル/DB設計 テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CE2C02-0DE2-409B-B436-C22D0C4C0B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A04B0FF-207D-4B53-BEA1-AFE4D3462662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4668" yWindow="2580" windowWidth="17280" windowHeight="9984" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="996" windowWidth="10272" windowHeight="9984" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="305">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -2709,6 +2709,16 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2720,24 +2730,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2749,16 +2759,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3031,34 +3031,34 @@
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="4"/>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="4"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="60"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3182,12 +3182,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -3208,10 +3208,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="70"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="16" t="s">
         <v>301</v>
       </c>
@@ -3227,15 +3227,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
@@ -3262,10 +3262,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B6" s="13">
@@ -3288,8 +3288,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="62"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="13">
@@ -3308,8 +3308,8 @@
         <v>193</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="62"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B8" s="13">
@@ -3328,8 +3328,8 @@
         <v>193</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="13">
@@ -3348,8 +3348,8 @@
         <v>193</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="62"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="13">
@@ -3368,8 +3368,8 @@
         <v>257</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="62"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="13">
@@ -3388,8 +3388,8 @@
         <v>197</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="62"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B12" s="13">
@@ -3408,8 +3408,8 @@
         <v>193</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="62"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
@@ -3428,8 +3428,8 @@
         <v>197</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="62"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="13">
@@ -3448,8 +3448,8 @@
         <v>193</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="62"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="13">
@@ -3462,8 +3462,8 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="62"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="13">
@@ -3476,8 +3476,8 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="62"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="13">
@@ -3490,8 +3490,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="20"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="62"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="67"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="13">
@@ -3504,8 +3504,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="62"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="13">
@@ -3518,8 +3518,8 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="62"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="13">
@@ -3532,8 +3532,8 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="62"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="13">
@@ -3546,8 +3546,8 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="62"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="13">
@@ -3560,8 +3560,8 @@
       <c r="G22" s="14"/>
       <c r="H22" s="20"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="62"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="67"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="13">
@@ -3574,8 +3574,8 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="62"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="67"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="13">
@@ -3588,8 +3588,8 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="62"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="67"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="26"/>
@@ -3720,163 +3720,171 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="69"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="B40:K52"/>
     <mergeCell ref="B2:E2"/>
@@ -3893,14 +3901,6 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3931,12 +3931,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -3957,10 +3957,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="70"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="16" t="s">
         <v>302</v>
       </c>
@@ -3976,15 +3976,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
@@ -4011,10 +4011,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B6" s="13">
@@ -4037,8 +4037,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="62"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13">
@@ -4057,8 +4057,8 @@
         <v>193</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="62"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.65">
       <c r="B8" s="13">
@@ -4081,8 +4081,8 @@
         <v>208</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="13">
@@ -4101,8 +4101,8 @@
         <v>197</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="62"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B10" s="13">
@@ -4121,8 +4121,8 @@
         <v>193</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="62"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="13">
@@ -4141,8 +4141,8 @@
         <v>197</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="62"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="13">
@@ -4161,8 +4161,8 @@
         <v>193</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="62"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B13" s="13">
@@ -4175,8 +4175,8 @@
       <c r="G13" s="14"/>
       <c r="H13" s="20"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="62"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="13">
@@ -4189,8 +4189,8 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="62"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="13">
@@ -4203,8 +4203,8 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="62"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="13">
@@ -4217,8 +4217,8 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="62"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="13">
@@ -4231,8 +4231,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="62"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="67"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="13">
@@ -4245,8 +4245,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="20"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="62"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="13">
@@ -4259,8 +4259,8 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="62"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="13">
@@ -4273,8 +4273,8 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="62"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="13">
@@ -4287,8 +4287,8 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="62"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="13">
@@ -4301,8 +4301,8 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="62"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="67"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="13">
@@ -4315,8 +4315,8 @@
       <c r="G23" s="14"/>
       <c r="H23" s="20"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="62"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="67"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="13">
@@ -4329,8 +4329,8 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="62"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="67"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="13">
@@ -4343,8 +4343,8 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="62"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="67"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="26"/>
@@ -4475,169 +4475,170 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="69"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
     </row>
     <row r="53" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="55"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B41:K53"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
@@ -4650,13 +4651,12 @@
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B41:K53"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4687,12 +4687,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -4713,10 +4713,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="70"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="16" t="s">
         <v>303</v>
       </c>
@@ -4732,15 +4732,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
@@ -4767,10 +4767,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B6" s="13">
@@ -4793,8 +4793,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="62"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13">
@@ -4813,8 +4813,8 @@
         <v>193</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="62"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="13">
@@ -4833,8 +4833,8 @@
         <v>193</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="13">
@@ -4853,8 +4853,8 @@
         <v>193</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="62"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
@@ -5013,8 +5013,8 @@
         <v>193</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="62"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="67"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="13">
@@ -5033,8 +5033,8 @@
         <v>193</v>
       </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="62"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="13">
@@ -5053,8 +5053,8 @@
         <v>193</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="62"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="13">
@@ -5073,8 +5073,8 @@
         <v>193</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="62"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="13"/>
@@ -5113,8 +5113,8 @@
         <v>197</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="62"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="67"/>
     </row>
     <row r="23" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B23" s="13">
@@ -5133,8 +5133,8 @@
         <v>193</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="62"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="67"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="13">
@@ -5153,8 +5153,8 @@
         <v>197</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="62"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="67"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="13">
@@ -5173,8 +5173,8 @@
         <v>193</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="62"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="67"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="7" t="s">
@@ -5182,173 +5182,163 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="69"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J8:K8"/>
@@ -5356,6 +5346,16 @@
     <mergeCell ref="B30:K42"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5386,12 +5386,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -5412,10 +5412,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="70"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="16" t="s">
         <v>304</v>
       </c>
@@ -5431,15 +5431,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
@@ -5466,10 +5466,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B6" s="13">
@@ -5492,8 +5492,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="62"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B7" s="13">
@@ -5516,8 +5516,8 @@
         <v>193</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="62"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="13">
@@ -5536,8 +5536,8 @@
         <v>193</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="13">
@@ -5576,8 +5576,8 @@
         <v>193</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="62"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="13">
@@ -5596,8 +5596,8 @@
         <v>197</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="62"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="1:11" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B12" s="13">
@@ -5616,8 +5616,8 @@
         <v>193</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="62"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
@@ -5636,8 +5636,8 @@
         <v>197</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="62"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="13">
@@ -5656,8 +5656,8 @@
         <v>193</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="62"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22"/>
@@ -5692,169 +5692,163 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="69"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="B22:K34"/>
@@ -5862,6 +5856,12 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5876,7 +5876,7 @@
   </sheetPr>
   <dimension ref="A2:K85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
@@ -5892,12 +5892,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -5918,10 +5918,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="70"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="16" t="s">
         <v>177</v>
       </c>
@@ -5937,15 +5937,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
@@ -5972,10 +5972,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B6" s="13">
@@ -5998,8 +5998,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="62"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="13">
@@ -6042,8 +6042,8 @@
         <v>193</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="13">
@@ -6284,8 +6284,8 @@
         <v>193</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="62"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="13">
@@ -6306,8 +6306,8 @@
         <v>193</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="62"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="13">
@@ -6328,8 +6328,8 @@
         <v>193</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="62"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="13">
@@ -6350,8 +6350,8 @@
         <v>193</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="62"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="67"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="13">
@@ -6372,8 +6372,8 @@
         <v>208</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="62"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="67"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="13">
@@ -6394,8 +6394,8 @@
         <v>193</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="62"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="67"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="13">
@@ -6416,8 +6416,8 @@
         <v>195</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="62"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="67"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="13">
@@ -6438,8 +6438,8 @@
         <v>195</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="62"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="67"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="13">
@@ -6460,8 +6460,8 @@
         <v>195</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="62"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="13">
@@ -6482,8 +6482,8 @@
         <v>195</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="62"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="67"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="13">
@@ -6504,8 +6504,8 @@
         <v>195</v>
       </c>
       <c r="I29" s="13"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="62"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="13">
@@ -6526,8 +6526,8 @@
         <v>193</v>
       </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="62"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="13">
@@ -6548,8 +6548,8 @@
         <v>193</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="62"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="67"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="13">
@@ -6570,8 +6570,8 @@
         <v>197</v>
       </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="62"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="67"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="13">
@@ -6810,8 +6810,8 @@
         <v>197</v>
       </c>
       <c r="I44" s="13"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="62"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="67"/>
     </row>
     <row r="45" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B45" s="13">
@@ -6830,8 +6830,8 @@
         <v>193</v>
       </c>
       <c r="I45" s="13"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="62"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="67"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="13">
@@ -6850,8 +6850,8 @@
         <v>197</v>
       </c>
       <c r="I46" s="13"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="62"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="67"/>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="13">
@@ -6870,8 +6870,8 @@
         <v>193</v>
       </c>
       <c r="I47" s="13"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="62"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="67"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="26"/>
@@ -7122,169 +7122,170 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="69"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="55"/>
+      <c r="B73" s="73"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="59"/>
+      <c r="J73" s="59"/>
+      <c r="K73" s="59"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="55"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="55"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
+      <c r="K74" s="59"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="55"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
-      <c r="K75" s="55"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="55"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="55"/>
-      <c r="K76" s="55"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="59"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="55"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="55"/>
-      <c r="K77" s="55"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="59"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="55"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="55"/>
-      <c r="K78" s="55"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="59"/>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="55"/>
-      <c r="K79" s="55"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="59"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="55"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="55"/>
-      <c r="K80" s="55"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="59"/>
+      <c r="K80" s="59"/>
     </row>
     <row r="81" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="55"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="55"/>
-      <c r="K81" s="55"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="59"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="59"/>
+      <c r="K81" s="59"/>
     </row>
     <row r="82" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="55"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="55"/>
-      <c r="K82" s="55"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="59"/>
     </row>
     <row r="83" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="55"/>
-      <c r="K83" s="55"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="59"/>
+      <c r="I83" s="59"/>
+      <c r="J83" s="59"/>
+      <c r="K83" s="59"/>
     </row>
     <row r="84" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="55"/>
-      <c r="K84" s="55"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="59"/>
     </row>
     <row r="85" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="55"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="55"/>
-      <c r="K85" s="55"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B73:K85"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -7297,13 +7298,12 @@
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B73:K85"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7339,71 +7339,71 @@
       <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
     </row>
     <row r="4" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="51" t="s">
         <v>292</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="52" t="s">
         <v>293</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="52" t="s">
         <v>295</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
-      <c r="K6" s="66" t="s">
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="K6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="53"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="57"/>
     </row>
     <row r="7" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12">
@@ -7415,18 +7415,18 @@
       <c r="D7" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="56"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="67"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="60"/>
     </row>
     <row r="8" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="12">
@@ -7438,18 +7438,18 @@
       <c r="D8" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="56"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="60"/>
     </row>
     <row r="9" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="12">
@@ -7461,18 +7461,18 @@
       <c r="D9" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="56"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="60"/>
     </row>
     <row r="10" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="12">
@@ -7484,41 +7484,41 @@
       <c r="D10" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="56"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="60"/>
     </row>
     <row r="11" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="12">
         <v>8</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="53" t="s">
         <v>301</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="56"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="60"/>
     </row>
     <row r="12" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="12">
@@ -7530,18 +7530,18 @@
       <c r="D12" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="56"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="60"/>
     </row>
     <row r="13" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="12">
@@ -7553,18 +7553,18 @@
       <c r="D13" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="59"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="63"/>
     </row>
     <row r="14" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="12">
@@ -7576,43 +7576,38 @@
       <c r="D14" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="12">
         <v>12</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="54" t="s">
         <v>151</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
     </row>
     <row r="16" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K6:P13"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
@@ -7623,6 +7618,11 @@
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E14:H14"/>
+    <mergeCell ref="K6:P13"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E15:H15"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <hyperlinks>
@@ -7671,12 +7671,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -7697,10 +7697,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="70"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="16" t="s">
         <v>292</v>
       </c>
@@ -7716,15 +7716,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
@@ -7751,10 +7751,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B6" s="13">
@@ -7777,8 +7777,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="62"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13">
@@ -7797,8 +7797,8 @@
         <v>193</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="62"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="13">
@@ -7817,8 +7817,8 @@
         <v>193</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="13">
@@ -7857,8 +7857,8 @@
         <v>193</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="62"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="15" x14ac:dyDescent="0.45">
       <c r="B11" s="13">
@@ -7977,8 +7977,8 @@
         <v>194</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="62"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="13">
@@ -7997,8 +7997,8 @@
         <v>194</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="62"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="67"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="22"/>
@@ -8018,8 +8018,8 @@
         <v>197</v>
       </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="62"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="22"/>
@@ -8039,8 +8039,8 @@
         <v>193</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="62"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="22"/>
@@ -8060,8 +8060,8 @@
         <v>197</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="62"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="22"/>
@@ -8081,8 +8081,8 @@
         <v>193</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="62"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22"/>
@@ -8117,160 +8117,160 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="69"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -8319,12 +8319,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -8345,10 +8345,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="70"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="17" t="s">
         <v>294</v>
       </c>
@@ -8364,15 +8364,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
@@ -8399,10 +8399,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B6" s="13">
@@ -8425,8 +8425,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="62"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="13">
@@ -8447,8 +8447,8 @@
         <v>193</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="62"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="13">
@@ -8469,8 +8469,8 @@
         <v>193</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="13">
@@ -8489,8 +8489,8 @@
         <v>197</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="62"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="13">
@@ -8509,8 +8509,8 @@
         <v>193</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="62"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
@@ -8530,8 +8530,8 @@
         <v>197</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="62"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="13">
@@ -8550,8 +8550,8 @@
         <v>193</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="62"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="26"/>
@@ -8571,168 +8571,163 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="69"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B18:K30"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="B2:E2"/>
@@ -8740,6 +8735,11 @@
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B18:K30"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8768,12 +8768,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -8794,10 +8794,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="70"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="17" t="s">
         <v>296</v>
       </c>
@@ -8813,15 +8813,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
@@ -8848,10 +8848,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B6" s="13">
@@ -8872,8 +8872,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="62"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B7" s="13">
@@ -8896,8 +8896,8 @@
         <v>208</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="62"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="13">
@@ -9036,8 +9036,8 @@
         <v>197</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="62"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B15" s="13">
@@ -9056,8 +9056,8 @@
         <v>193</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="62"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="13">
@@ -9076,8 +9076,8 @@
         <v>197</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="62"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="13">
@@ -9096,8 +9096,8 @@
         <v>193</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="62"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="67"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="26"/>
@@ -9300,174 +9300,174 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="69"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B39:K51"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B39:K51"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9499,12 +9499,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -9525,10 +9525,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="70"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="16" t="s">
         <v>297</v>
       </c>
@@ -9544,15 +9544,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
@@ -9579,10 +9579,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B6" s="13">
@@ -9603,8 +9603,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="62"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="13">
@@ -9623,8 +9623,8 @@
         <v>193</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="62"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.45">
       <c r="B8" s="13">
@@ -9643,8 +9643,8 @@
         <v>193</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="13">
@@ -9663,8 +9663,8 @@
         <v>193</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="62"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B10" s="13">
@@ -9687,8 +9687,8 @@
         <v>208</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="62"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="13">
@@ -9707,8 +9707,8 @@
         <v>195</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="62"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B12" s="13">
@@ -9751,8 +9751,8 @@
         <v>197</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="62"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B14" s="13">
@@ -9771,8 +9771,8 @@
         <v>193</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="62"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="13">
@@ -9791,8 +9791,8 @@
         <v>197</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="62"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="13">
@@ -9811,8 +9811,8 @@
         <v>193</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="62"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="13">
@@ -9825,8 +9825,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="62"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="67"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="13">
@@ -9839,8 +9839,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="62"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="1:11" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B19" s="13">
@@ -9853,8 +9853,8 @@
       <c r="G19" s="14"/>
       <c r="H19" s="20"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="62"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="13">
@@ -9867,8 +9867,8 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="62"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="13">
@@ -9881,8 +9881,8 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="62"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="26"/>
@@ -9929,169 +9929,166 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="69"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="B30:K42"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J13:K13"/>
@@ -10103,9 +10100,12 @@
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10137,12 +10137,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -10163,10 +10163,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="70"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="16" t="s">
         <v>298</v>
       </c>
@@ -10182,15 +10182,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
@@ -10217,10 +10217,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B6" s="13">
@@ -10367,8 +10367,8 @@
         <v>197</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="62"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
       <c r="B13" s="13">
@@ -10387,8 +10387,8 @@
         <v>193</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="62"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="13">
@@ -10407,8 +10407,8 @@
         <v>197</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="62"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="13">
@@ -10427,8 +10427,8 @@
         <v>193</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="62"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="13">
@@ -10591,160 +10591,160 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="69"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10771,8 +10771,8 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10788,12 +10788,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -10814,10 +10814,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="70"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="16" t="s">
         <v>299</v>
       </c>
@@ -10833,15 +10833,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
@@ -10868,10 +10868,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B6" s="13">
@@ -10888,12 +10888,14 @@
         <v>26</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="62"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="13">
@@ -10910,7 +10912,9 @@
       <c r="G7" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="I7" s="13"/>
       <c r="J7" s="38"/>
       <c r="K7" s="35"/>
@@ -10930,10 +10934,12 @@
       <c r="G8" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="13">
@@ -10950,7 +10956,9 @@
       <c r="G9" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="I9" s="13"/>
       <c r="J9" s="38"/>
       <c r="K9" s="35"/>
@@ -10970,7 +10978,9 @@
       <c r="G10" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="I10" s="13"/>
       <c r="J10" s="38"/>
       <c r="K10" s="35"/>
@@ -10990,7 +11000,9 @@
       <c r="G11" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="I11" s="13"/>
       <c r="J11" s="38"/>
       <c r="K11" s="35"/>
@@ -11010,7 +11022,9 @@
       <c r="G12" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="I12" s="13"/>
       <c r="J12" s="38"/>
       <c r="K12" s="35"/>
@@ -11030,7 +11044,9 @@
       <c r="G13" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="38"/>
       <c r="K13" s="35"/>
@@ -11050,7 +11066,9 @@
       <c r="G14" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="I14" s="13"/>
       <c r="J14" s="38"/>
       <c r="K14" s="35"/>
@@ -11070,7 +11088,9 @@
       <c r="G15" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="I15" s="13"/>
       <c r="J15" s="38"/>
       <c r="K15" s="35"/>
@@ -11090,7 +11110,9 @@
       <c r="G16" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="I16" s="13"/>
       <c r="J16" s="38"/>
       <c r="K16" s="35"/>
@@ -11110,7 +11132,9 @@
       <c r="G17" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="I17" s="13"/>
       <c r="J17" s="38"/>
       <c r="K17" s="35"/>
@@ -11130,7 +11154,9 @@
       <c r="G18" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="I18" s="13"/>
       <c r="J18" s="38"/>
       <c r="K18" s="35"/>
@@ -11150,10 +11176,12 @@
       <c r="G19" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="62"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="13">
@@ -11170,10 +11198,12 @@
       <c r="G20" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="62"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="13">
@@ -11190,10 +11220,12 @@
       <c r="G21" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="62"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="13">
@@ -11210,10 +11242,12 @@
       <c r="G22" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="62"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="67"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="13">
@@ -11230,10 +11264,12 @@
       <c r="G23" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="62"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="67"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="13">
@@ -11250,10 +11286,12 @@
       <c r="G24" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="62"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="67"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="13">
@@ -11270,10 +11308,12 @@
       <c r="G25" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="H25" s="14"/>
+      <c r="H25" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="62"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="67"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="13">
@@ -11290,10 +11330,12 @@
       <c r="G26" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="14"/>
+      <c r="H26" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="62"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="67"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="13">
@@ -11310,10 +11352,12 @@
       <c r="G27" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="62"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="13">
@@ -11330,10 +11374,12 @@
       <c r="G28" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="H28" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="62"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="67"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="13">
@@ -11350,10 +11396,12 @@
       <c r="G29" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="I29" s="13"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="62"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="13">
@@ -11370,10 +11418,12 @@
       <c r="G30" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="14"/>
+      <c r="H30" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="62"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="13">
@@ -11390,10 +11440,12 @@
       <c r="G31" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="H31" s="14"/>
+      <c r="H31" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="62"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="67"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="13">
@@ -11410,10 +11462,12 @@
       <c r="G32" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="H32" s="14"/>
+      <c r="H32" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="62"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="67"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="13">
@@ -11428,7 +11482,9 @@
         <v>114</v>
       </c>
       <c r="G33" s="42"/>
-      <c r="H33" s="14"/>
+      <c r="H33" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="I33" s="13"/>
       <c r="J33" s="38"/>
       <c r="K33" s="35"/>
@@ -11446,7 +11502,9 @@
         <v>115</v>
       </c>
       <c r="G34" s="42"/>
-      <c r="H34" s="14"/>
+      <c r="H34" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="I34" s="13"/>
       <c r="J34" s="38"/>
       <c r="K34" s="35"/>
@@ -11464,7 +11522,9 @@
         <v>116</v>
       </c>
       <c r="G35" s="42"/>
-      <c r="H35" s="14"/>
+      <c r="H35" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="I35" s="13"/>
       <c r="J35" s="38"/>
       <c r="K35" s="35"/>
@@ -11482,7 +11542,9 @@
         <v>117</v>
       </c>
       <c r="G36" s="42"/>
-      <c r="H36" s="14"/>
+      <c r="H36" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="I36" s="13"/>
       <c r="J36" s="38"/>
       <c r="K36" s="35"/>
@@ -11504,8 +11566,8 @@
         <v>197</v>
       </c>
       <c r="I37" s="13"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="62"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="67"/>
     </row>
     <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="13">
@@ -11524,8 +11586,8 @@
         <v>193</v>
       </c>
       <c r="I38" s="13"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="62"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="67"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="13">
@@ -11544,8 +11606,8 @@
         <v>197</v>
       </c>
       <c r="I39" s="13"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="62"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="67"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="13">
@@ -11564,8 +11626,8 @@
         <v>193</v>
       </c>
       <c r="I40" s="13"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="62"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="67"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="26"/>
@@ -11660,163 +11722,172 @@
       </c>
     </row>
     <row r="53" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="69"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
     </row>
     <row r="54" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="55"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
     </row>
     <row r="55" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
     </row>
     <row r="56" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
     </row>
     <row r="57" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
     </row>
     <row r="58" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="55"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
     </row>
     <row r="59" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
     </row>
     <row r="60" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
     </row>
     <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
     </row>
     <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
     </row>
     <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
     </row>
     <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="55"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
     </row>
     <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
@@ -11833,15 +11904,6 @@
     <mergeCell ref="J40:K40"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11872,12 +11934,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -11898,10 +11960,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="70"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="16" t="s">
         <v>300</v>
       </c>
@@ -11917,15 +11979,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
@@ -11952,10 +12014,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B6" s="13">
@@ -11978,8 +12040,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="62"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="13">
@@ -12022,8 +12084,8 @@
         <v>193</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="13">
@@ -12264,8 +12326,8 @@
         <v>193</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="62"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="13">
@@ -12286,8 +12348,8 @@
         <v>193</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="62"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="13">
@@ -12308,8 +12370,8 @@
         <v>193</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="62"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="13">
@@ -12330,8 +12392,8 @@
         <v>193</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="62"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="67"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="13">
@@ -12352,8 +12414,8 @@
         <v>208</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="62"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="67"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="13">
@@ -12374,8 +12436,8 @@
         <v>193</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="62"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="67"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="13">
@@ -12396,8 +12458,8 @@
         <v>195</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="62"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="67"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="13">
@@ -12418,8 +12480,8 @@
         <v>195</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="62"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="67"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="13">
@@ -12440,8 +12502,8 @@
         <v>195</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="62"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="13">
@@ -12462,8 +12524,8 @@
         <v>195</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="62"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="67"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="13">
@@ -12484,8 +12546,8 @@
         <v>195</v>
       </c>
       <c r="I29" s="13"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="62"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="13">
@@ -12506,8 +12568,8 @@
         <v>193</v>
       </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="62"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="13">
@@ -12528,8 +12590,8 @@
         <v>193</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="62"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="67"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="13">
@@ -12550,8 +12612,8 @@
         <v>197</v>
       </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="62"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="67"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="13">
@@ -12790,8 +12852,8 @@
         <v>197</v>
       </c>
       <c r="I44" s="13"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="62"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="67"/>
     </row>
     <row r="45" spans="2:11" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="13">
@@ -12810,8 +12872,8 @@
         <v>193</v>
       </c>
       <c r="I45" s="13"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="62"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="67"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="13">
@@ -12830,8 +12892,8 @@
         <v>197</v>
       </c>
       <c r="I46" s="13"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="62"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="67"/>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="13">
@@ -12850,8 +12912,8 @@
         <v>193</v>
       </c>
       <c r="I47" s="13"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="62"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="67"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="26"/>
@@ -13102,168 +13164,167 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="69"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="55"/>
+      <c r="B73" s="73"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="59"/>
+      <c r="J73" s="59"/>
+      <c r="K73" s="59"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="55"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="55"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
+      <c r="K74" s="59"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="55"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
-      <c r="K75" s="55"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="55"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="55"/>
-      <c r="K76" s="55"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="59"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="55"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="55"/>
-      <c r="K77" s="55"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="59"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="55"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="55"/>
-      <c r="K78" s="55"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="59"/>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="55"/>
-      <c r="K79" s="55"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="59"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="55"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="55"/>
-      <c r="K80" s="55"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="59"/>
+      <c r="K80" s="59"/>
     </row>
     <row r="81" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="55"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="55"/>
-      <c r="K81" s="55"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="59"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="59"/>
+      <c r="K81" s="59"/>
     </row>
     <row r="82" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="55"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="55"/>
-      <c r="K82" s="55"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="59"/>
     </row>
     <row r="83" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="55"/>
-      <c r="K83" s="55"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="59"/>
+      <c r="I83" s="59"/>
+      <c r="J83" s="59"/>
+      <c r="K83" s="59"/>
     </row>
     <row r="84" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="55"/>
-      <c r="K84" s="55"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="59"/>
     </row>
     <row r="85" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="55"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="55"/>
-      <c r="K85" s="55"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="B73:K85"/>
     <mergeCell ref="J19:K19"/>
@@ -13280,10 +13341,11 @@
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ansteypeファイル/DB設計 テーブル定義書.xlsx
+++ b/ansteypeファイル/DB設計 テーブル定義書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ans_client\ansteypeファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A04B0FF-207D-4B53-BEA1-AFE4D3462662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="996" windowWidth="10272" windowHeight="9984" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="1000" windowWidth="10270" windowHeight="9980" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -2244,8 +2243,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2730,24 +2729,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2761,8 +2760,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2974,7 +2973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2984,12 +2983,12 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="15.75" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3001,35 +3000,35 @@
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" ht="15.75" customHeight="1">
       <c r="B3" s="4"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="15.75" customHeight="1">
       <c r="B4" s="4"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="4"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11" ht="15.75" customHeight="1">
       <c r="B8" s="4"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="4"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="4"/>
       <c r="D10" s="55" t="s">
         <v>0</v>
@@ -3041,7 +3040,7 @@
       <c r="I10" s="57"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="4"/>
       <c r="D11" s="58"/>
       <c r="E11" s="59"/>
@@ -3051,7 +3050,7 @@
       <c r="I11" s="60"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="4"/>
       <c r="D12" s="61"/>
       <c r="E12" s="62"/>
@@ -3061,43 +3060,43 @@
       <c r="I12" s="63"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" ht="15.75" customHeight="1">
       <c r="B13" s="4"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="4"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="4"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="4"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="4"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="4"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="4"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="4"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="4"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="4"/>
       <c r="H22" s="6" t="s">
         <v>1</v>
@@ -3107,7 +3106,7 @@
       </c>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="4"/>
       <c r="H23" s="6" t="s">
         <v>3</v>
@@ -3117,27 +3116,27 @@
       </c>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="4"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="4"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="4"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="4"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="4"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -3159,7 +3158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3170,24 +3169,24 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="15.75" customHeight="1">
       <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -3207,11 +3206,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:11" ht="15.75" customHeight="1">
       <c r="B3" s="74"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
         <v>301</v>
       </c>
@@ -3223,21 +3222,21 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="15.75" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="72"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
@@ -3265,9 +3264,9 @@
       <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="67"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="K5" s="66"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
         <v>1</v>
       </c>
@@ -3289,9 +3288,9 @@
         <v>27</v>
       </c>
       <c r="J6" s="76"/>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K6" s="66"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
         <v>2</v>
       </c>
@@ -3309,9 +3308,9 @@
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="76"/>
-      <c r="K7" s="67"/>
-    </row>
-    <row r="8" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="K7" s="66"/>
+    </row>
+    <row r="8" spans="2:11" ht="14">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -3329,9 +3328,9 @@
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="76"/>
-      <c r="K8" s="67"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
         <v>5</v>
       </c>
@@ -3349,9 +3348,9 @@
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="72"/>
-      <c r="K9" s="67"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K9" s="66"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
         <v>6</v>
       </c>
@@ -3369,9 +3368,9 @@
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="76"/>
-      <c r="K10" s="67"/>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K10" s="66"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
         <v>9</v>
       </c>
@@ -3389,9 +3388,9 @@
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="76"/>
-      <c r="K11" s="67"/>
-    </row>
-    <row r="12" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="K11" s="66"/>
+    </row>
+    <row r="12" spans="2:11" ht="14">
       <c r="B12" s="13">
         <v>10</v>
       </c>
@@ -3409,9 +3408,9 @@
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="76"/>
-      <c r="K12" s="67"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K12" s="66"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" customHeight="1">
       <c r="B13" s="13">
         <v>11</v>
       </c>
@@ -3429,9 +3428,9 @@
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="72"/>
-      <c r="K13" s="67"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K13" s="66"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
         <v>12</v>
       </c>
@@ -3449,9 +3448,9 @@
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="72"/>
-      <c r="K14" s="67"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K14" s="66"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
         <v>11</v>
       </c>
@@ -3463,9 +3462,9 @@
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
       <c r="J15" s="76"/>
-      <c r="K15" s="67"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K15" s="66"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
         <v>12</v>
       </c>
@@ -3477,9 +3476,9 @@
       <c r="H16" s="14"/>
       <c r="I16" s="13"/>
       <c r="J16" s="76"/>
-      <c r="K16" s="67"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K16" s="66"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
         <v>13</v>
       </c>
@@ -3491,9 +3490,9 @@
       <c r="H17" s="20"/>
       <c r="I17" s="13"/>
       <c r="J17" s="76"/>
-      <c r="K17" s="67"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="66"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
         <v>14</v>
       </c>
@@ -3505,9 +3504,9 @@
       <c r="H18" s="14"/>
       <c r="I18" s="13"/>
       <c r="J18" s="72"/>
-      <c r="K18" s="67"/>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K18" s="66"/>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="13">
         <v>15</v>
       </c>
@@ -3519,9 +3518,9 @@
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
       <c r="J19" s="72"/>
-      <c r="K19" s="67"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K19" s="66"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
         <v>16</v>
       </c>
@@ -3533,9 +3532,9 @@
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
       <c r="J20" s="76"/>
-      <c r="K20" s="67"/>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="66"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
         <v>17</v>
       </c>
@@ -3547,9 +3546,9 @@
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
       <c r="J21" s="76"/>
-      <c r="K21" s="67"/>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K21" s="66"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
         <v>18</v>
       </c>
@@ -3561,9 +3560,9 @@
       <c r="H22" s="20"/>
       <c r="I22" s="13"/>
       <c r="J22" s="76"/>
-      <c r="K22" s="67"/>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K22" s="66"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
         <v>19</v>
       </c>
@@ -3575,9 +3574,9 @@
       <c r="H23" s="14"/>
       <c r="I23" s="13"/>
       <c r="J23" s="72"/>
-      <c r="K23" s="67"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="66"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
         <v>20</v>
       </c>
@@ -3589,9 +3588,9 @@
       <c r="H24" s="14"/>
       <c r="I24" s="13"/>
       <c r="J24" s="72"/>
-      <c r="K24" s="67"/>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K24" s="66"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="26"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -3603,7 +3602,7 @@
       <c r="J25" s="22"/>
       <c r="K25" s="29"/>
     </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="26"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -3615,7 +3614,7 @@
       <c r="J26" s="22"/>
       <c r="K26" s="29"/>
     </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="26"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -3627,7 +3626,7 @@
       <c r="J27" s="22"/>
       <c r="K27" s="29"/>
     </row>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="26"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -3639,7 +3638,7 @@
       <c r="J28" s="22"/>
       <c r="K28" s="29"/>
     </row>
-    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="26"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -3651,7 +3650,7 @@
       <c r="J29" s="22"/>
       <c r="K29" s="29"/>
     </row>
-    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="26"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -3663,7 +3662,7 @@
       <c r="J30" s="22"/>
       <c r="K30" s="29"/>
     </row>
-    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="26"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
@@ -3675,7 +3674,7 @@
       <c r="J31" s="22"/>
       <c r="K31" s="29"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="26"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -3687,7 +3686,7 @@
       <c r="J32" s="22"/>
       <c r="K32" s="29"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="B33" s="26"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -3699,7 +3698,7 @@
       <c r="J33" s="22"/>
       <c r="K33" s="29"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -3711,15 +3710,15 @@
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="B35" s="23"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="B39" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="B40" s="73"/>
       <c r="C40" s="59"/>
       <c r="D40" s="59"/>
@@ -3731,7 +3730,7 @@
       <c r="J40" s="59"/>
       <c r="K40" s="59"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
       <c r="D41" s="59"/>
@@ -3743,7 +3742,7 @@
       <c r="J41" s="59"/>
       <c r="K41" s="59"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
       <c r="B42" s="59"/>
       <c r="C42" s="59"/>
       <c r="D42" s="59"/>
@@ -3755,7 +3754,7 @@
       <c r="J42" s="59"/>
       <c r="K42" s="59"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="B43" s="59"/>
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
@@ -3767,7 +3766,7 @@
       <c r="J43" s="59"/>
       <c r="K43" s="59"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="B44" s="59"/>
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
@@ -3779,7 +3778,7 @@
       <c r="J44" s="59"/>
       <c r="K44" s="59"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="B45" s="59"/>
       <c r="C45" s="59"/>
       <c r="D45" s="59"/>
@@ -3791,7 +3790,7 @@
       <c r="J45" s="59"/>
       <c r="K45" s="59"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
       <c r="B46" s="59"/>
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
@@ -3803,7 +3802,7 @@
       <c r="J46" s="59"/>
       <c r="K46" s="59"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="B47" s="59"/>
       <c r="C47" s="59"/>
       <c r="D47" s="59"/>
@@ -3815,7 +3814,7 @@
       <c r="J47" s="59"/>
       <c r="K47" s="59"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
       <c r="B48" s="59"/>
       <c r="C48" s="59"/>
       <c r="D48" s="59"/>
@@ -3827,7 +3826,7 @@
       <c r="J48" s="59"/>
       <c r="K48" s="59"/>
     </row>
-    <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15.75" customHeight="1">
       <c r="B49" s="59"/>
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
@@ -3839,7 +3838,7 @@
       <c r="J49" s="59"/>
       <c r="K49" s="59"/>
     </row>
-    <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15.75" customHeight="1">
       <c r="B50" s="59"/>
       <c r="C50" s="59"/>
       <c r="D50" s="59"/>
@@ -3851,7 +3850,7 @@
       <c r="J50" s="59"/>
       <c r="K50" s="59"/>
     </row>
-    <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="15.75" customHeight="1">
       <c r="B51" s="59"/>
       <c r="C51" s="59"/>
       <c r="D51" s="59"/>
@@ -3863,7 +3862,7 @@
       <c r="J51" s="59"/>
       <c r="K51" s="59"/>
     </row>
-    <row r="52" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="15.75" customHeight="1">
       <c r="B52" s="59"/>
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
@@ -3877,14 +3876,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="B40:K52"/>
     <mergeCell ref="B2:E2"/>
@@ -3901,6 +3892,14 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3908,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECFA1E7-C6F6-44A1-B1E6-E9B2934D91FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3919,24 +3918,24 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="15.75" customHeight="1">
       <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -3956,11 +3955,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:11" ht="15.75" customHeight="1">
       <c r="B3" s="74"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
         <v>302</v>
       </c>
@@ -3972,21 +3971,21 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="15.75" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="72"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
@@ -4014,9 +4013,9 @@
       <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="67"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="K5" s="66"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
         <v>1</v>
       </c>
@@ -4038,9 +4037,9 @@
         <v>27</v>
       </c>
       <c r="J6" s="76"/>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K6" s="66"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
         <v>2</v>
       </c>
@@ -4058,9 +4057,9 @@
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="76"/>
-      <c r="K7" s="67"/>
-    </row>
-    <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.65">
+      <c r="K7" s="66"/>
+    </row>
+    <row r="8" spans="2:11" ht="16">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -4082,9 +4081,9 @@
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="76"/>
-      <c r="K8" s="67"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
         <v>9</v>
       </c>
@@ -4102,9 +4101,9 @@
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="76"/>
-      <c r="K9" s="67"/>
-    </row>
-    <row r="10" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="K9" s="66"/>
+    </row>
+    <row r="10" spans="2:11" ht="14">
       <c r="B10" s="13">
         <v>10</v>
       </c>
@@ -4122,9 +4121,9 @@
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="76"/>
-      <c r="K10" s="67"/>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K10" s="66"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
         <v>11</v>
       </c>
@@ -4142,9 +4141,9 @@
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="72"/>
-      <c r="K11" s="67"/>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K11" s="66"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
         <v>12</v>
       </c>
@@ -4162,9 +4161,9 @@
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="72"/>
-      <c r="K12" s="67"/>
-    </row>
-    <row r="13" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="K12" s="66"/>
+    </row>
+    <row r="13" spans="2:11" ht="14">
       <c r="B13" s="13">
         <v>3</v>
       </c>
@@ -4176,9 +4175,9 @@
       <c r="H13" s="20"/>
       <c r="I13" s="13"/>
       <c r="J13" s="76"/>
-      <c r="K13" s="67"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K13" s="66"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
         <v>4</v>
       </c>
@@ -4190,9 +4189,9 @@
       <c r="H14" s="14"/>
       <c r="I14" s="13"/>
       <c r="J14" s="72"/>
-      <c r="K14" s="67"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K14" s="66"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
         <v>5</v>
       </c>
@@ -4204,9 +4203,9 @@
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
       <c r="J15" s="72"/>
-      <c r="K15" s="67"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K15" s="66"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
         <v>1</v>
       </c>
@@ -4218,9 +4217,9 @@
       <c r="H16" s="14"/>
       <c r="I16" s="13"/>
       <c r="J16" s="76"/>
-      <c r="K16" s="67"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K16" s="66"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
         <v>2</v>
       </c>
@@ -4232,9 +4231,9 @@
       <c r="H17" s="14"/>
       <c r="I17" s="13"/>
       <c r="J17" s="76"/>
-      <c r="K17" s="67"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K17" s="66"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
         <v>3</v>
       </c>
@@ -4246,9 +4245,9 @@
       <c r="H18" s="20"/>
       <c r="I18" s="13"/>
       <c r="J18" s="76"/>
-      <c r="K18" s="67"/>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K18" s="66"/>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="13">
         <v>4</v>
       </c>
@@ -4260,9 +4259,9 @@
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
       <c r="J19" s="72"/>
-      <c r="K19" s="67"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K19" s="66"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
         <v>5</v>
       </c>
@@ -4274,9 +4273,9 @@
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
       <c r="J20" s="72"/>
-      <c r="K20" s="67"/>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="66"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
         <v>1</v>
       </c>
@@ -4288,9 +4287,9 @@
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
       <c r="J21" s="76"/>
-      <c r="K21" s="67"/>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K21" s="66"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
         <v>2</v>
       </c>
@@ -4302,9 +4301,9 @@
       <c r="H22" s="14"/>
       <c r="I22" s="13"/>
       <c r="J22" s="76"/>
-      <c r="K22" s="67"/>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K22" s="66"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
         <v>3</v>
       </c>
@@ -4316,9 +4315,9 @@
       <c r="H23" s="20"/>
       <c r="I23" s="13"/>
       <c r="J23" s="76"/>
-      <c r="K23" s="67"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="66"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
         <v>4</v>
       </c>
@@ -4330,9 +4329,9 @@
       <c r="H24" s="14"/>
       <c r="I24" s="13"/>
       <c r="J24" s="72"/>
-      <c r="K24" s="67"/>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K24" s="66"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
         <v>5</v>
       </c>
@@ -4344,9 +4343,9 @@
       <c r="H25" s="14"/>
       <c r="I25" s="13"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="67"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="66"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="26"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -4358,7 +4357,7 @@
       <c r="J26" s="22"/>
       <c r="K26" s="29"/>
     </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="26"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -4370,7 +4369,7 @@
       <c r="J27" s="22"/>
       <c r="K27" s="29"/>
     </row>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="26"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -4382,7 +4381,7 @@
       <c r="J28" s="22"/>
       <c r="K28" s="29"/>
     </row>
-    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="26"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -4394,7 +4393,7 @@
       <c r="J29" s="22"/>
       <c r="K29" s="29"/>
     </row>
-    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="26"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -4406,7 +4405,7 @@
       <c r="J30" s="22"/>
       <c r="K30" s="29"/>
     </row>
-    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="26"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
@@ -4418,7 +4417,7 @@
       <c r="J31" s="22"/>
       <c r="K31" s="29"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="26"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -4430,7 +4429,7 @@
       <c r="J32" s="22"/>
       <c r="K32" s="29"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="B33" s="26"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -4442,7 +4441,7 @@
       <c r="J33" s="22"/>
       <c r="K33" s="29"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="B34" s="26"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -4454,7 +4453,7 @@
       <c r="J34" s="22"/>
       <c r="K34" s="29"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -4466,15 +4465,15 @@
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
     </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="B36" s="23"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="B40" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="B41" s="73"/>
       <c r="C41" s="59"/>
       <c r="D41" s="59"/>
@@ -4486,7 +4485,7 @@
       <c r="J41" s="59"/>
       <c r="K41" s="59"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
       <c r="B42" s="59"/>
       <c r="C42" s="59"/>
       <c r="D42" s="59"/>
@@ -4498,7 +4497,7 @@
       <c r="J42" s="59"/>
       <c r="K42" s="59"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="B43" s="59"/>
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
@@ -4510,7 +4509,7 @@
       <c r="J43" s="59"/>
       <c r="K43" s="59"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="B44" s="59"/>
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
@@ -4522,7 +4521,7 @@
       <c r="J44" s="59"/>
       <c r="K44" s="59"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="B45" s="59"/>
       <c r="C45" s="59"/>
       <c r="D45" s="59"/>
@@ -4534,7 +4533,7 @@
       <c r="J45" s="59"/>
       <c r="K45" s="59"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
       <c r="B46" s="59"/>
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
@@ -4546,7 +4545,7 @@
       <c r="J46" s="59"/>
       <c r="K46" s="59"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="B47" s="59"/>
       <c r="C47" s="59"/>
       <c r="D47" s="59"/>
@@ -4558,7 +4557,7 @@
       <c r="J47" s="59"/>
       <c r="K47" s="59"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
       <c r="B48" s="59"/>
       <c r="C48" s="59"/>
       <c r="D48" s="59"/>
@@ -4570,7 +4569,7 @@
       <c r="J48" s="59"/>
       <c r="K48" s="59"/>
     </row>
-    <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15.75" customHeight="1">
       <c r="B49" s="59"/>
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
@@ -4582,7 +4581,7 @@
       <c r="J49" s="59"/>
       <c r="K49" s="59"/>
     </row>
-    <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15.75" customHeight="1">
       <c r="B50" s="59"/>
       <c r="C50" s="59"/>
       <c r="D50" s="59"/>
@@ -4594,7 +4593,7 @@
       <c r="J50" s="59"/>
       <c r="K50" s="59"/>
     </row>
-    <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="15.75" customHeight="1">
       <c r="B51" s="59"/>
       <c r="C51" s="59"/>
       <c r="D51" s="59"/>
@@ -4606,7 +4605,7 @@
       <c r="J51" s="59"/>
       <c r="K51" s="59"/>
     </row>
-    <row r="52" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="15.75" customHeight="1">
       <c r="B52" s="59"/>
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
@@ -4618,7 +4617,7 @@
       <c r="J52" s="59"/>
       <c r="K52" s="59"/>
     </row>
-    <row r="53" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="15.75" customHeight="1">
       <c r="B53" s="59"/>
       <c r="C53" s="59"/>
       <c r="D53" s="59"/>
@@ -4632,13 +4631,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B41:K53"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
@@ -4651,12 +4649,13 @@
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B41:K53"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4664,35 +4663,33 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="15.75" customHeight="1">
       <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -4712,11 +4709,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" ht="15.75" customHeight="1">
       <c r="B3" s="74"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
         <v>303</v>
       </c>
@@ -4728,21 +4725,21 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="15.75" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="72"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
@@ -4770,9 +4767,9 @@
       <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="67"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="K5" s="66"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
         <v>1</v>
       </c>
@@ -4794,9 +4791,9 @@
         <v>27</v>
       </c>
       <c r="J6" s="76"/>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K6" s="66"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
         <v>2</v>
       </c>
@@ -4814,9 +4811,9 @@
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="76"/>
-      <c r="K7" s="67"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K7" s="66"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -4834,9 +4831,9 @@
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="72"/>
-      <c r="K8" s="67"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
         <v>4</v>
       </c>
@@ -4854,9 +4851,9 @@
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="72"/>
-      <c r="K9" s="67"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K9" s="66"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
         <v>5</v>
       </c>
@@ -4870,13 +4867,13 @@
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="37"/>
       <c r="K10" s="35"/>
     </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
         <v>6</v>
       </c>
@@ -4890,13 +4887,13 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="37"/>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
         <v>7</v>
       </c>
@@ -4910,13 +4907,13 @@
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="37"/>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" ht="15.75" customHeight="1">
       <c r="B13" s="13">
         <v>8</v>
       </c>
@@ -4930,13 +4927,13 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="37"/>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
         <v>9</v>
       </c>
@@ -4950,13 +4947,13 @@
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="37"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
         <v>10</v>
       </c>
@@ -4970,13 +4967,13 @@
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="37"/>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
         <v>11</v>
       </c>
@@ -4990,13 +4987,13 @@
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="37"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
         <v>12</v>
       </c>
@@ -5014,9 +5011,9 @@
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="76"/>
-      <c r="K17" s="67"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="66"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
         <v>13</v>
       </c>
@@ -5034,9 +5031,9 @@
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="76"/>
-      <c r="K18" s="67"/>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K18" s="66"/>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="13">
         <v>14</v>
       </c>
@@ -5054,9 +5051,9 @@
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="76"/>
-      <c r="K19" s="67"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K19" s="66"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
         <v>15</v>
       </c>
@@ -5074,9 +5071,9 @@
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="72"/>
-      <c r="K20" s="67"/>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="66"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -5096,7 +5093,7 @@
       <c r="J21" s="37"/>
       <c r="K21" s="35"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
         <v>9</v>
       </c>
@@ -5114,9 +5111,9 @@
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="76"/>
-      <c r="K22" s="67"/>
-    </row>
-    <row r="23" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="K22" s="66"/>
+    </row>
+    <row r="23" spans="2:11" ht="14">
       <c r="B23" s="13">
         <v>10</v>
       </c>
@@ -5134,9 +5131,9 @@
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="76"/>
-      <c r="K23" s="67"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="66"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
         <v>11</v>
       </c>
@@ -5154,9 +5151,9 @@
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="72"/>
-      <c r="K24" s="67"/>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K24" s="66"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
         <v>12</v>
       </c>
@@ -5174,14 +5171,14 @@
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="67"/>
-    </row>
-    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="66"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="73"/>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
@@ -5193,7 +5190,7 @@
       <c r="J30" s="59"/>
       <c r="K30" s="59"/>
     </row>
-    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="59"/>
       <c r="C31" s="59"/>
       <c r="D31" s="59"/>
@@ -5205,7 +5202,7 @@
       <c r="J31" s="59"/>
       <c r="K31" s="59"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="59"/>
       <c r="C32" s="59"/>
       <c r="D32" s="59"/>
@@ -5217,7 +5214,7 @@
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
     </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
@@ -5229,7 +5226,7 @@
       <c r="J33" s="59"/>
       <c r="K33" s="59"/>
     </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="59"/>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
@@ -5241,7 +5238,7 @@
       <c r="J34" s="59"/>
       <c r="K34" s="59"/>
     </row>
-    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="59"/>
       <c r="C35" s="59"/>
       <c r="D35" s="59"/>
@@ -5253,7 +5250,7 @@
       <c r="J35" s="59"/>
       <c r="K35" s="59"/>
     </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
       <c r="D36" s="59"/>
@@ -5265,7 +5262,7 @@
       <c r="J36" s="59"/>
       <c r="K36" s="59"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
@@ -5277,7 +5274,7 @@
       <c r="J37" s="59"/>
       <c r="K37" s="59"/>
     </row>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="59"/>
       <c r="C38" s="59"/>
       <c r="D38" s="59"/>
@@ -5289,7 +5286,7 @@
       <c r="J38" s="59"/>
       <c r="K38" s="59"/>
     </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
@@ -5301,7 +5298,7 @@
       <c r="J39" s="59"/>
       <c r="K39" s="59"/>
     </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:11" ht="15.75" customHeight="1">
       <c r="B40" s="59"/>
       <c r="C40" s="59"/>
       <c r="D40" s="59"/>
@@ -5313,7 +5310,7 @@
       <c r="J40" s="59"/>
       <c r="K40" s="59"/>
     </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:11" ht="15.75" customHeight="1">
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
       <c r="D41" s="59"/>
@@ -5325,7 +5322,7 @@
       <c r="J41" s="59"/>
       <c r="K41" s="59"/>
     </row>
-    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="59"/>
       <c r="C42" s="59"/>
       <c r="D42" s="59"/>
@@ -5339,6 +5336,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J8:K8"/>
@@ -5346,16 +5353,6 @@
     <mergeCell ref="B30:K42"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5363,7 +5360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263D0C80-7743-4B97-8E4C-9B689FBA528C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5374,24 +5371,24 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -5411,11 +5408,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="74"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
         <v>304</v>
       </c>
@@ -5427,21 +5424,21 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="72"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
@@ -5469,9 +5466,9 @@
       <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="67"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="K5" s="66"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
         <v>1</v>
       </c>
@@ -5493,9 +5490,9 @@
         <v>27</v>
       </c>
       <c r="J6" s="76"/>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="K6" s="66"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
         <v>2</v>
       </c>
@@ -5517,9 +5514,9 @@
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="76"/>
-      <c r="K7" s="67"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K7" s="66"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -5537,9 +5534,9 @@
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="76"/>
-      <c r="K8" s="67"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
         <v>4</v>
       </c>
@@ -5559,7 +5556,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="15">
       <c r="B10" s="13">
         <v>5</v>
       </c>
@@ -5577,9 +5574,9 @@
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="76"/>
-      <c r="K10" s="67"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K10" s="66"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
         <v>9</v>
       </c>
@@ -5597,9 +5594,9 @@
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="76"/>
-      <c r="K11" s="67"/>
-    </row>
-    <row r="12" spans="1:11" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="K11" s="66"/>
+    </row>
+    <row r="12" spans="1:11" ht="14">
       <c r="B12" s="13">
         <v>10</v>
       </c>
@@ -5617,9 +5614,9 @@
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="76"/>
-      <c r="K12" s="67"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K12" s="66"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="13">
         <v>11</v>
       </c>
@@ -5637,9 +5634,9 @@
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="72"/>
-      <c r="K13" s="67"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K13" s="66"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
         <v>12</v>
       </c>
@@ -5657,9 +5654,9 @@
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="72"/>
-      <c r="K14" s="67"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K14" s="66"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="22"/>
       <c r="B15" s="26"/>
       <c r="C15" s="22"/>
@@ -5671,7 +5668,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="22"/>
       <c r="B16" s="26"/>
       <c r="C16" s="22"/>
@@ -5683,15 +5680,15 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="23"/>
     </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="73"/>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
@@ -5703,7 +5700,7 @@
       <c r="J22" s="59"/>
       <c r="K22" s="59"/>
     </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="59"/>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
@@ -5715,7 +5712,7 @@
       <c r="J23" s="59"/>
       <c r="K23" s="59"/>
     </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
@@ -5727,7 +5724,7 @@
       <c r="J24" s="59"/>
       <c r="K24" s="59"/>
     </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
@@ -5739,7 +5736,7 @@
       <c r="J25" s="59"/>
       <c r="K25" s="59"/>
     </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="59"/>
       <c r="C26" s="59"/>
       <c r="D26" s="59"/>
@@ -5751,7 +5748,7 @@
       <c r="J26" s="59"/>
       <c r="K26" s="59"/>
     </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="59"/>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -5763,7 +5760,7 @@
       <c r="J27" s="59"/>
       <c r="K27" s="59"/>
     </row>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="59"/>
       <c r="C28" s="59"/>
       <c r="D28" s="59"/>
@@ -5775,7 +5772,7 @@
       <c r="J28" s="59"/>
       <c r="K28" s="59"/>
     </row>
-    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -5787,7 +5784,7 @@
       <c r="J29" s="59"/>
       <c r="K29" s="59"/>
     </row>
-    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
@@ -5799,7 +5796,7 @@
       <c r="J30" s="59"/>
       <c r="K30" s="59"/>
     </row>
-    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="59"/>
       <c r="C31" s="59"/>
       <c r="D31" s="59"/>
@@ -5811,7 +5808,7 @@
       <c r="J31" s="59"/>
       <c r="K31" s="59"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="59"/>
       <c r="C32" s="59"/>
       <c r="D32" s="59"/>
@@ -5823,7 +5820,7 @@
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
     </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
@@ -5835,7 +5832,7 @@
       <c r="J33" s="59"/>
       <c r="K33" s="59"/>
     </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="59"/>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
@@ -5849,6 +5846,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="B22:K34"/>
@@ -5856,12 +5859,6 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5869,7 +5866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE652DC-610C-4EDE-A16B-F6A68B4E4C02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5880,24 +5877,24 @@
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="15.75" customHeight="1">
       <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -5917,11 +5914,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:11" ht="15.75" customHeight="1">
       <c r="B3" s="74"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
         <v>177</v>
       </c>
@@ -5933,21 +5930,21 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="15.75" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="72"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
@@ -5975,9 +5972,9 @@
       <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="67"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="K5" s="66"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
         <v>1</v>
       </c>
@@ -5999,9 +5996,9 @@
         <v>27</v>
       </c>
       <c r="J6" s="76"/>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K6" s="66"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
         <v>2</v>
       </c>
@@ -6023,7 +6020,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="35"/>
     </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -6043,9 +6040,9 @@
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="76"/>
-      <c r="K8" s="67"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
         <v>4</v>
       </c>
@@ -6067,7 +6064,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
         <v>5</v>
       </c>
@@ -6089,7 +6086,7 @@
       <c r="J10" s="38"/>
       <c r="K10" s="35"/>
     </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
         <v>6</v>
       </c>
@@ -6111,7 +6108,7 @@
       <c r="J11" s="38"/>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
         <v>7</v>
       </c>
@@ -6133,7 +6130,7 @@
       <c r="J12" s="38"/>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:11" ht="15.75" customHeight="1">
       <c r="B13" s="13">
         <v>8</v>
       </c>
@@ -6155,7 +6152,7 @@
       <c r="J13" s="38"/>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
         <v>9</v>
       </c>
@@ -6177,7 +6174,7 @@
       <c r="J14" s="38"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
         <v>10</v>
       </c>
@@ -6199,7 +6196,7 @@
       <c r="J15" s="38"/>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
         <v>11</v>
       </c>
@@ -6221,7 +6218,7 @@
       <c r="J16" s="38"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
         <v>12</v>
       </c>
@@ -6243,7 +6240,7 @@
       <c r="J17" s="38"/>
       <c r="K17" s="35"/>
     </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
         <v>13</v>
       </c>
@@ -6265,7 +6262,7 @@
       <c r="J18" s="38"/>
       <c r="K18" s="35"/>
     </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="13">
         <v>14</v>
       </c>
@@ -6285,9 +6282,9 @@
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="76"/>
-      <c r="K19" s="67"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K19" s="66"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
         <v>15</v>
       </c>
@@ -6307,9 +6304,9 @@
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="76"/>
-      <c r="K20" s="67"/>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K20" s="66"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
         <v>16</v>
       </c>
@@ -6329,9 +6326,9 @@
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="76"/>
-      <c r="K21" s="67"/>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K21" s="66"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
         <v>17</v>
       </c>
@@ -6351,9 +6348,9 @@
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="76"/>
-      <c r="K22" s="67"/>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K22" s="66"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
         <v>18</v>
       </c>
@@ -6373,9 +6370,9 @@
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="76"/>
-      <c r="K23" s="67"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K23" s="66"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
         <v>19</v>
       </c>
@@ -6395,9 +6392,9 @@
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="76"/>
-      <c r="K24" s="67"/>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K24" s="66"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
         <v>20</v>
       </c>
@@ -6417,9 +6414,9 @@
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="76"/>
-      <c r="K25" s="67"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K25" s="66"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="13">
         <v>21</v>
       </c>
@@ -6439,9 +6436,9 @@
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="76"/>
-      <c r="K26" s="67"/>
-    </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K26" s="66"/>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="13">
         <v>22</v>
       </c>
@@ -6461,9 +6458,9 @@
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="76"/>
-      <c r="K27" s="67"/>
-    </row>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K27" s="66"/>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="13">
         <v>23</v>
       </c>
@@ -6483,9 +6480,9 @@
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="76"/>
-      <c r="K28" s="67"/>
-    </row>
-    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K28" s="66"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="13">
         <v>24</v>
       </c>
@@ -6505,9 +6502,9 @@
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="76"/>
-      <c r="K29" s="67"/>
-    </row>
-    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K29" s="66"/>
+    </row>
+    <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="13">
         <v>25</v>
       </c>
@@ -6527,9 +6524,9 @@
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="76"/>
-      <c r="K30" s="67"/>
-    </row>
-    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K30" s="66"/>
+    </row>
+    <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="13">
         <v>26</v>
       </c>
@@ -6549,9 +6546,9 @@
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="76"/>
-      <c r="K31" s="67"/>
-    </row>
-    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K31" s="66"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="13">
         <v>27</v>
       </c>
@@ -6571,9 +6568,9 @@
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="76"/>
-      <c r="K32" s="67"/>
-    </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K32" s="66"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="13">
         <v>28</v>
       </c>
@@ -6593,7 +6590,7 @@
       <c r="J33" s="38"/>
       <c r="K33" s="35"/>
     </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="13">
         <v>29</v>
       </c>
@@ -6613,7 +6610,7 @@
       <c r="J34" s="38"/>
       <c r="K34" s="35"/>
     </row>
-    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="13">
         <v>30</v>
       </c>
@@ -6633,7 +6630,7 @@
       <c r="J35" s="38"/>
       <c r="K35" s="35"/>
     </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="13">
         <v>31</v>
       </c>
@@ -6653,7 +6650,7 @@
       <c r="J36" s="38"/>
       <c r="K36" s="35"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="13">
         <v>32</v>
       </c>
@@ -6673,7 +6670,7 @@
       <c r="J37" s="38"/>
       <c r="K37" s="35"/>
     </row>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="13">
         <v>33</v>
       </c>
@@ -6693,7 +6690,7 @@
       <c r="J38" s="38"/>
       <c r="K38" s="35"/>
     </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="B39" s="13">
         <v>34</v>
       </c>
@@ -6713,7 +6710,7 @@
       <c r="J39" s="38"/>
       <c r="K39" s="35"/>
     </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:11" ht="15.75" customHeight="1">
       <c r="B40" s="13">
         <v>35</v>
       </c>
@@ -6733,7 +6730,7 @@
       <c r="J40" s="38"/>
       <c r="K40" s="35"/>
     </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:11" ht="15.75" customHeight="1">
       <c r="B41" s="13">
         <v>36</v>
       </c>
@@ -6753,7 +6750,7 @@
       <c r="J41" s="38"/>
       <c r="K41" s="35"/>
     </row>
-    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="13">
         <v>37</v>
       </c>
@@ -6773,7 +6770,7 @@
       <c r="J42" s="38"/>
       <c r="K42" s="35"/>
     </row>
-    <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:11" ht="15.75" customHeight="1">
       <c r="B43" s="13">
         <v>38</v>
       </c>
@@ -6793,7 +6790,7 @@
       <c r="J43" s="38"/>
       <c r="K43" s="35"/>
     </row>
-    <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:11" ht="15.75" customHeight="1">
       <c r="B44" s="13">
         <v>9</v>
       </c>
@@ -6811,9 +6808,9 @@
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="76"/>
-      <c r="K44" s="67"/>
-    </row>
-    <row r="45" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="K44" s="66"/>
+    </row>
+    <row r="45" spans="2:11" ht="14">
       <c r="B45" s="13">
         <v>10</v>
       </c>
@@ -6831,9 +6828,9 @@
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="76"/>
-      <c r="K45" s="67"/>
-    </row>
-    <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K45" s="66"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" customHeight="1">
       <c r="B46" s="13">
         <v>11</v>
       </c>
@@ -6851,9 +6848,9 @@
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="72"/>
-      <c r="K46" s="67"/>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K46" s="66"/>
+    </row>
+    <row r="47" spans="2:11" ht="15.75" customHeight="1">
       <c r="B47" s="13">
         <v>12</v>
       </c>
@@ -6871,9 +6868,9 @@
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="72"/>
-      <c r="K47" s="67"/>
-    </row>
-    <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K47" s="66"/>
+    </row>
+    <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="26"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
@@ -6885,7 +6882,7 @@
       <c r="J48" s="22"/>
       <c r="K48" s="29"/>
     </row>
-    <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15.75" customHeight="1">
       <c r="B49" s="26"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
@@ -6897,7 +6894,7 @@
       <c r="J49" s="22"/>
       <c r="K49" s="29"/>
     </row>
-    <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15.75" customHeight="1">
       <c r="B50" s="26"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
@@ -6909,7 +6906,7 @@
       <c r="J50" s="22"/>
       <c r="K50" s="29"/>
     </row>
-    <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="15.75" customHeight="1">
       <c r="B51" s="26"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
@@ -6921,7 +6918,7 @@
       <c r="J51" s="22"/>
       <c r="K51" s="29"/>
     </row>
-    <row r="52" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="15.75" customHeight="1">
       <c r="B52" s="26"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
@@ -6933,7 +6930,7 @@
       <c r="J52" s="22"/>
       <c r="K52" s="29"/>
     </row>
-    <row r="53" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="15.75" customHeight="1">
       <c r="B53" s="26"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
@@ -6945,7 +6942,7 @@
       <c r="J53" s="22"/>
       <c r="K53" s="29"/>
     </row>
-    <row r="54" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15.75" customHeight="1">
       <c r="B54" s="26"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
@@ -6957,7 +6954,7 @@
       <c r="J54" s="22"/>
       <c r="K54" s="29"/>
     </row>
-    <row r="55" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="15.75" customHeight="1">
       <c r="B55" s="26"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
@@ -6969,7 +6966,7 @@
       <c r="J55" s="22"/>
       <c r="K55" s="29"/>
     </row>
-    <row r="56" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="15.75" customHeight="1">
       <c r="B56" s="26"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -6981,7 +6978,7 @@
       <c r="J56" s="22"/>
       <c r="K56" s="29"/>
     </row>
-    <row r="57" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="15.75" customHeight="1">
       <c r="B57" s="26"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -6993,7 +6990,7 @@
       <c r="J57" s="22"/>
       <c r="K57" s="29"/>
     </row>
-    <row r="58" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="15.75" customHeight="1">
       <c r="B58" s="26"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -7005,7 +7002,7 @@
       <c r="J58" s="22"/>
       <c r="K58" s="29"/>
     </row>
-    <row r="59" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15.75" customHeight="1">
       <c r="B59" s="26"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
@@ -7017,7 +7014,7 @@
       <c r="J59" s="22"/>
       <c r="K59" s="29"/>
     </row>
-    <row r="60" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="15.75" customHeight="1">
       <c r="B60" s="26"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
@@ -7029,7 +7026,7 @@
       <c r="J60" s="22"/>
       <c r="K60" s="29"/>
     </row>
-    <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15.75" customHeight="1">
       <c r="B61" s="26"/>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
@@ -7041,7 +7038,7 @@
       <c r="J61" s="22"/>
       <c r="K61" s="29"/>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1">
       <c r="B62" s="26"/>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
@@ -7053,7 +7050,7 @@
       <c r="J62" s="22"/>
       <c r="K62" s="29"/>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1">
       <c r="B63" s="26"/>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
@@ -7065,7 +7062,7 @@
       <c r="J63" s="22"/>
       <c r="K63" s="29"/>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1">
       <c r="B64" s="26"/>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
@@ -7077,7 +7074,7 @@
       <c r="J64" s="22"/>
       <c r="K64" s="29"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="B65" s="26"/>
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
@@ -7089,7 +7086,7 @@
       <c r="J65" s="22"/>
       <c r="K65" s="29"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="15.75" customHeight="1">
       <c r="B66" s="26"/>
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
@@ -7101,7 +7098,7 @@
       <c r="J66" s="22"/>
       <c r="K66" s="29"/>
     </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
@@ -7113,15 +7110,15 @@
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
     </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:11" ht="15.75" customHeight="1">
       <c r="B68" s="23"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
       <c r="B72" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15.75" customHeight="1">
       <c r="B73" s="73"/>
       <c r="C73" s="59"/>
       <c r="D73" s="59"/>
@@ -7133,7 +7130,7 @@
       <c r="J73" s="59"/>
       <c r="K73" s="59"/>
     </row>
-    <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="15.75" customHeight="1">
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
       <c r="D74" s="59"/>
@@ -7145,7 +7142,7 @@
       <c r="J74" s="59"/>
       <c r="K74" s="59"/>
     </row>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15.75" customHeight="1">
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
       <c r="D75" s="59"/>
@@ -7157,7 +7154,7 @@
       <c r="J75" s="59"/>
       <c r="K75" s="59"/>
     </row>
-    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="15.75" customHeight="1">
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
       <c r="D76" s="59"/>
@@ -7169,7 +7166,7 @@
       <c r="J76" s="59"/>
       <c r="K76" s="59"/>
     </row>
-    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="15.75" customHeight="1">
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
       <c r="D77" s="59"/>
@@ -7181,7 +7178,7 @@
       <c r="J77" s="59"/>
       <c r="K77" s="59"/>
     </row>
-    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="15.75" customHeight="1">
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
       <c r="D78" s="59"/>
@@ -7193,7 +7190,7 @@
       <c r="J78" s="59"/>
       <c r="K78" s="59"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15.75" customHeight="1">
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
       <c r="D79" s="59"/>
@@ -7205,7 +7202,7 @@
       <c r="J79" s="59"/>
       <c r="K79" s="59"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="15.75" customHeight="1">
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
       <c r="D80" s="59"/>
@@ -7217,7 +7214,7 @@
       <c r="J80" s="59"/>
       <c r="K80" s="59"/>
     </row>
-    <row r="81" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:11" ht="15.75" customHeight="1">
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
       <c r="D81" s="59"/>
@@ -7229,7 +7226,7 @@
       <c r="J81" s="59"/>
       <c r="K81" s="59"/>
     </row>
-    <row r="82" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:11" ht="15.75" customHeight="1">
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
       <c r="D82" s="59"/>
@@ -7241,7 +7238,7 @@
       <c r="J82" s="59"/>
       <c r="K82" s="59"/>
     </row>
-    <row r="83" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:11" ht="15.75" customHeight="1">
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
       <c r="D83" s="59"/>
@@ -7253,7 +7250,7 @@
       <c r="J83" s="59"/>
       <c r="K83" s="59"/>
     </row>
-    <row r="84" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:11" ht="15.75" customHeight="1">
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
       <c r="D84" s="59"/>
@@ -7265,7 +7262,7 @@
       <c r="J84" s="59"/>
       <c r="K84" s="59"/>
     </row>
-    <row r="85" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:11" ht="15.75" customHeight="1">
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
       <c r="D85" s="59"/>
@@ -7279,13 +7276,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B73:K85"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -7298,12 +7294,13 @@
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B73:K85"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7311,7 +7308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -7321,15 +7318,15 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:16" ht="15" customHeight="1"/>
+    <row r="3" spans="2:16" ht="19.5" customHeight="1">
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
@@ -7339,14 +7336,14 @@
       <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-    </row>
-    <row r="4" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
+    </row>
+    <row r="4" spans="2:16" ht="33.75" customHeight="1">
       <c r="B4" s="12">
         <v>1</v>
       </c>
@@ -7356,14 +7353,14 @@
       <c r="D4" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
-    </row>
-    <row r="5" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
+    </row>
+    <row r="5" spans="2:16" ht="33.75" customHeight="1">
       <c r="B5" s="12">
         <v>2</v>
       </c>
@@ -7376,11 +7373,11 @@
       <c r="E5" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="67"/>
-    </row>
-    <row r="6" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="66"/>
+    </row>
+    <row r="6" spans="2:16" ht="33.75" customHeight="1">
       <c r="B6" s="12">
         <v>3</v>
       </c>
@@ -7393,10 +7390,10 @@
       <c r="E6" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67"/>
-      <c r="K6" s="64" t="s">
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
+      <c r="K6" s="70" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="56"/>
@@ -7405,7 +7402,7 @@
       <c r="O6" s="56"/>
       <c r="P6" s="57"/>
     </row>
-    <row r="7" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" ht="33.75" customHeight="1">
       <c r="B7" s="12">
         <v>4</v>
       </c>
@@ -7415,12 +7412,12 @@
       <c r="D7" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
       <c r="K7" s="58"/>
       <c r="L7" s="59"/>
       <c r="M7" s="59"/>
@@ -7428,7 +7425,7 @@
       <c r="O7" s="59"/>
       <c r="P7" s="60"/>
     </row>
-    <row r="8" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" ht="33.75" customHeight="1">
       <c r="B8" s="12">
         <v>5</v>
       </c>
@@ -7441,9 +7438,9 @@
       <c r="E8" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
       <c r="K8" s="58"/>
       <c r="L8" s="59"/>
       <c r="M8" s="59"/>
@@ -7451,7 +7448,7 @@
       <c r="O8" s="59"/>
       <c r="P8" s="60"/>
     </row>
-    <row r="9" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16" ht="33.75" customHeight="1">
       <c r="B9" s="12">
         <v>6</v>
       </c>
@@ -7464,9 +7461,9 @@
       <c r="E9" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
       <c r="K9" s="58"/>
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
@@ -7474,7 +7471,7 @@
       <c r="O9" s="59"/>
       <c r="P9" s="60"/>
     </row>
-    <row r="10" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16" ht="33.75" customHeight="1">
       <c r="B10" s="12">
         <v>7</v>
       </c>
@@ -7487,9 +7484,9 @@
       <c r="E10" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
       <c r="K10" s="58"/>
       <c r="L10" s="59"/>
       <c r="M10" s="59"/>
@@ -7497,7 +7494,7 @@
       <c r="O10" s="59"/>
       <c r="P10" s="60"/>
     </row>
-    <row r="11" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:16" ht="33.75" customHeight="1">
       <c r="B11" s="12">
         <v>8</v>
       </c>
@@ -7510,9 +7507,9 @@
       <c r="E11" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
       <c r="K11" s="58"/>
       <c r="L11" s="59"/>
       <c r="M11" s="59"/>
@@ -7520,7 +7517,7 @@
       <c r="O11" s="59"/>
       <c r="P11" s="60"/>
     </row>
-    <row r="12" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" ht="33.75" customHeight="1">
       <c r="B12" s="12">
         <v>9</v>
       </c>
@@ -7533,9 +7530,9 @@
       <c r="E12" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
       <c r="K12" s="58"/>
       <c r="L12" s="59"/>
       <c r="M12" s="59"/>
@@ -7543,7 +7540,7 @@
       <c r="O12" s="59"/>
       <c r="P12" s="60"/>
     </row>
-    <row r="13" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:16" ht="33.75" customHeight="1">
       <c r="B13" s="12">
         <v>10</v>
       </c>
@@ -7556,9 +7553,9 @@
       <c r="E13" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
       <c r="K13" s="61"/>
       <c r="L13" s="62"/>
       <c r="M13" s="62"/>
@@ -7566,7 +7563,7 @@
       <c r="O13" s="62"/>
       <c r="P13" s="63"/>
     </row>
-    <row r="14" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:16" ht="33.75" customHeight="1">
       <c r="B14" s="12">
         <v>11</v>
       </c>
@@ -7579,11 +7576,11 @@
       <c r="E14" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="67"/>
-    </row>
-    <row r="15" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+    </row>
+    <row r="15" spans="2:16" ht="33.75" customHeight="1">
       <c r="B15" s="12">
         <v>12</v>
       </c>
@@ -7596,11 +7593,11 @@
       <c r="E15" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
-    </row>
-    <row r="16" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+    </row>
+    <row r="16" spans="2:16" ht="33.75" customHeight="1">
       <c r="E16" s="59"/>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
@@ -7608,6 +7605,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K6:P13"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
@@ -7618,37 +7620,32 @@
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E14:H14"/>
-    <mergeCell ref="K6:P13"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E15:H15"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <hyperlinks>
-    <hyperlink ref="C7" location="担当者情報!A1" display="PERSON_CHARGE_INFO" xr:uid="{73061C8D-A816-4009-A0E3-55157405291D}"/>
-    <hyperlink ref="C8" location="単価情報!A1" display="UNIT_PRICE_INFO" xr:uid="{7716529C-0964-43F8-953A-D423B9BED485}"/>
-    <hyperlink ref="C9" location="案件マスタ情報!A1" display="MATTER_MASTER_INFO" xr:uid="{193C75DF-5955-4090-80D2-63AE8E59774C}"/>
-    <hyperlink ref="C10" location="見積情報!A1" display="ESTIMATION_INFO" xr:uid="{E48671E9-11DE-4C92-9140-9AF91A280EB2}"/>
-    <hyperlink ref="C11" location="見積請求作成情報!A1" display="見積請求作成情報" xr:uid="{C0F2C004-D57B-4873-8150-83671C22DDFE}"/>
-    <hyperlink ref="C12" location="PDF作成情報!A1" display="PDF作成情報" xr:uid="{572BBFDB-E334-4FB7-88BB-566D5A0194D9}"/>
-    <hyperlink ref="C13" location="見積請求作成情報!A1" display="QUOTATION_CLAIM_SETTING_INFO" xr:uid="{357F7A2C-2195-4E42-B382-F40D2B969BF2}"/>
-    <hyperlink ref="C14" location="請求減算ルール情報!A1" display="CLAIM_SUBTRACTION_RULE" xr:uid="{2167ADE2-B207-4793-BE81-D4A919AC6EBE}"/>
-    <hyperlink ref="C15" location="請求情報!A1" display="請求情報" xr:uid="{AFCF3AAA-7F17-4318-8419-6F27492E8EA8}"/>
-    <hyperlink ref="D10" location="見積情報!A1" display="見積情報" xr:uid="{CFC6A442-2FD4-4F67-8C02-0543717541D8}"/>
-    <hyperlink ref="D11" location="見積請求作成情報!A1" display="見積請求作成情報" xr:uid="{27DA1E75-FCA8-4585-80D7-EAB7F122ABF4}"/>
-    <hyperlink ref="D13" location="見積請求設定情報!A1" display="見積請求設定情報" xr:uid="{CA918B1F-6A59-402B-A4D7-671C6815E5D0}"/>
-    <hyperlink ref="D14" location="請求減算ルール!A1" display="請求減算ルール" xr:uid="{3A52BDAD-8D8F-4909-AB10-5209203BB5CA}"/>
-    <hyperlink ref="C4" location="基本設定情報!A1" display="BASIC_SETTING_INFO" xr:uid="{6F1700D6-FC8D-48C1-991E-1FCD0A1D4DE9}"/>
-    <hyperlink ref="C5" location="取引先情報!A1" display="BUSINESS_PARTNER_INFO" xr:uid="{115688AB-5CAA-40BB-B135-88DE24652908}"/>
-    <hyperlink ref="C6" location="取引先店舗情報!A1" display="BUSINESS_PARTNER_STORE" xr:uid="{E26633EA-66B5-4A8F-B7F7-2EFEE7695B43}"/>
+    <hyperlink ref="C7" location="担当者情報!A1" display="PERSON_CHARGE_INFO"/>
+    <hyperlink ref="C8" location="単価情報!A1" display="UNIT_PRICE_INFO"/>
+    <hyperlink ref="C9" location="案件マスタ情報!A1" display="MATTER_MASTER_INFO"/>
+    <hyperlink ref="C10" location="見積情報!A1" display="ESTIMATION_INFO"/>
+    <hyperlink ref="C11" location="見積請求作成情報!A1" display="見積請求作成情報"/>
+    <hyperlink ref="C12" location="PDF作成情報!A1" display="PDF作成情報"/>
+    <hyperlink ref="C13" location="見積請求作成情報!A1" display="QUOTATION_CLAIM_SETTING_INFO"/>
+    <hyperlink ref="C14" location="請求減算ルール情報!A1" display="CLAIM_SUBTRACTION_RULE"/>
+    <hyperlink ref="C15" location="請求情報!A1" display="請求情報"/>
+    <hyperlink ref="D10" location="見積情報!A1" display="見積情報"/>
+    <hyperlink ref="D11" location="見積請求作成情報!A1" display="見積請求作成情報"/>
+    <hyperlink ref="D13" location="見積請求設定情報!A1" display="見積請求設定情報"/>
+    <hyperlink ref="D14" location="請求減算ルール!A1" display="請求減算ルール"/>
+    <hyperlink ref="C4" location="基本設定情報!A1" display="BASIC_SETTING_INFO"/>
+    <hyperlink ref="C5" location="取引先情報!A1" display="BUSINESS_PARTNER_INFO"/>
+    <hyperlink ref="C6" location="取引先店舗情報!A1" display="BUSINESS_PARTNER_STORE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7659,24 +7656,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="15.75" customHeight="1">
       <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -7696,11 +7693,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:11" ht="15.75" customHeight="1">
       <c r="B3" s="74"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
         <v>292</v>
       </c>
@@ -7712,21 +7709,21 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="15.75" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="72"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
@@ -7754,9 +7751,9 @@
       <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="67"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="K5" s="66"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
         <v>1</v>
       </c>
@@ -7778,9 +7775,9 @@
         <v>27</v>
       </c>
       <c r="J6" s="76"/>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K6" s="66"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
         <v>2</v>
       </c>
@@ -7798,9 +7795,9 @@
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="76"/>
-      <c r="K7" s="67"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K7" s="66"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -7818,9 +7815,9 @@
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="76"/>
-      <c r="K8" s="67"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
         <v>4</v>
       </c>
@@ -7840,7 +7837,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="2:11" ht="15.3" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:11" ht="16.5">
       <c r="B10" s="13">
         <v>5</v>
       </c>
@@ -7858,9 +7855,9 @@
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="76"/>
-      <c r="K10" s="67"/>
-    </row>
-    <row r="11" spans="2:11" ht="15" x14ac:dyDescent="0.45">
+      <c r="K10" s="66"/>
+    </row>
+    <row r="11" spans="2:11" ht="15">
       <c r="B11" s="13">
         <v>6</v>
       </c>
@@ -7880,7 +7877,7 @@
       <c r="J11" s="38"/>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" spans="2:11" ht="15" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:11" ht="15">
       <c r="B12" s="13">
         <v>7</v>
       </c>
@@ -7900,7 +7897,7 @@
       <c r="J12" s="38"/>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" spans="2:11" ht="15" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:11" ht="15">
       <c r="B13" s="13">
         <v>8</v>
       </c>
@@ -7920,7 +7917,7 @@
       <c r="J13" s="38"/>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="2:11" ht="15" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:11" ht="15">
       <c r="B14" s="13">
         <v>9</v>
       </c>
@@ -7940,7 +7937,7 @@
       <c r="J14" s="38"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="2:11" ht="15" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:11" ht="15">
       <c r="B15" s="13">
         <v>10</v>
       </c>
@@ -7960,7 +7957,7 @@
       <c r="J15" s="38"/>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
         <v>11</v>
       </c>
@@ -7978,9 +7975,9 @@
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="72"/>
-      <c r="K16" s="67"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K16" s="66"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
         <v>12</v>
       </c>
@@ -7998,9 +7995,9 @@
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="72"/>
-      <c r="K17" s="67"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="66"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="22"/>
       <c r="B18" s="13">
         <v>13</v>
@@ -8019,9 +8016,9 @@
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="72"/>
-      <c r="K18" s="67"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K18" s="66"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="A19" s="22"/>
       <c r="B19" s="13">
         <v>14</v>
@@ -8040,9 +8037,9 @@
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="72"/>
-      <c r="K19" s="67"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K19" s="66"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="A20" s="22"/>
       <c r="B20" s="13">
         <v>15</v>
@@ -8061,9 +8058,9 @@
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="72"/>
-      <c r="K20" s="67"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K20" s="66"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="22"/>
       <c r="B21" s="13">
         <v>16</v>
@@ -8082,9 +8079,9 @@
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="72"/>
-      <c r="K21" s="67"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K21" s="66"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="26"/>
       <c r="C22" s="22"/>
@@ -8096,7 +8093,7 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="22"/>
       <c r="B23" s="26"/>
       <c r="C23" s="22"/>
@@ -8108,15 +8105,15 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="B24" s="23"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="B28" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="B29" s="73"/>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -8128,7 +8125,7 @@
       <c r="J29" s="59"/>
       <c r="K29" s="59"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
@@ -8140,7 +8137,7 @@
       <c r="J30" s="59"/>
       <c r="K30" s="59"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="B31" s="59"/>
       <c r="C31" s="59"/>
       <c r="D31" s="59"/>
@@ -8152,7 +8149,7 @@
       <c r="J31" s="59"/>
       <c r="K31" s="59"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="B32" s="59"/>
       <c r="C32" s="59"/>
       <c r="D32" s="59"/>
@@ -8164,7 +8161,7 @@
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
     </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
@@ -8176,7 +8173,7 @@
       <c r="J33" s="59"/>
       <c r="K33" s="59"/>
     </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="59"/>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
@@ -8188,7 +8185,7 @@
       <c r="J34" s="59"/>
       <c r="K34" s="59"/>
     </row>
-    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="59"/>
       <c r="C35" s="59"/>
       <c r="D35" s="59"/>
@@ -8200,7 +8197,7 @@
       <c r="J35" s="59"/>
       <c r="K35" s="59"/>
     </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
       <c r="D36" s="59"/>
@@ -8212,7 +8209,7 @@
       <c r="J36" s="59"/>
       <c r="K36" s="59"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
@@ -8224,7 +8221,7 @@
       <c r="J37" s="59"/>
       <c r="K37" s="59"/>
     </row>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="59"/>
       <c r="C38" s="59"/>
       <c r="D38" s="59"/>
@@ -8236,7 +8233,7 @@
       <c r="J38" s="59"/>
       <c r="K38" s="59"/>
     </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
@@ -8248,7 +8245,7 @@
       <c r="J39" s="59"/>
       <c r="K39" s="59"/>
     </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:11" ht="15.75" customHeight="1">
       <c r="B40" s="59"/>
       <c r="C40" s="59"/>
       <c r="D40" s="59"/>
@@ -8260,7 +8257,7 @@
       <c r="J40" s="59"/>
       <c r="K40" s="59"/>
     </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:11" ht="15.75" customHeight="1">
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
       <c r="D41" s="59"/>
@@ -8296,7 +8293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2F0174-430C-4F84-9510-D45BA2BE79DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8307,24 +8304,24 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -8344,11 +8341,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="74"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="17" t="s">
         <v>294</v>
       </c>
@@ -8360,21 +8357,21 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="72"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
@@ -8402,9 +8399,9 @@
       <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="67"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="K5" s="66"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
         <v>1</v>
       </c>
@@ -8426,9 +8423,9 @@
         <v>27</v>
       </c>
       <c r="J6" s="76"/>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K6" s="66"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
         <v>1</v>
       </c>
@@ -8448,9 +8445,9 @@
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="76"/>
-      <c r="K7" s="67"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K7" s="66"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
         <v>2</v>
       </c>
@@ -8470,9 +8467,9 @@
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="76"/>
-      <c r="K8" s="67"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
         <v>8</v>
       </c>
@@ -8490,9 +8487,9 @@
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="72"/>
-      <c r="K9" s="67"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K9" s="66"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
         <v>9</v>
       </c>
@@ -8510,9 +8507,9 @@
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="72"/>
-      <c r="K10" s="67"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K10" s="66"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="22"/>
       <c r="B11" s="13">
         <v>10</v>
@@ -8531,9 +8528,9 @@
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="72"/>
-      <c r="K11" s="67"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K11" s="66"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
         <v>11</v>
       </c>
@@ -8551,9 +8548,9 @@
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="72"/>
-      <c r="K12" s="67"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K12" s="66"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="26"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -8565,12 +8562,12 @@
       <c r="J13" s="22"/>
       <c r="K13" s="29"/>
     </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="73"/>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
@@ -8582,7 +8579,7 @@
       <c r="J18" s="59"/>
       <c r="K18" s="59"/>
     </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
@@ -8594,7 +8591,7 @@
       <c r="J19" s="59"/>
       <c r="K19" s="59"/>
     </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
@@ -8606,7 +8603,7 @@
       <c r="J20" s="59"/>
       <c r="K20" s="59"/>
     </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -8618,7 +8615,7 @@
       <c r="J21" s="59"/>
       <c r="K21" s="59"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
@@ -8630,7 +8627,7 @@
       <c r="J22" s="59"/>
       <c r="K22" s="59"/>
     </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="59"/>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
@@ -8642,7 +8639,7 @@
       <c r="J23" s="59"/>
       <c r="K23" s="59"/>
     </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
@@ -8654,7 +8651,7 @@
       <c r="J24" s="59"/>
       <c r="K24" s="59"/>
     </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
@@ -8666,7 +8663,7 @@
       <c r="J25" s="59"/>
       <c r="K25" s="59"/>
     </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="59"/>
       <c r="C26" s="59"/>
       <c r="D26" s="59"/>
@@ -8678,7 +8675,7 @@
       <c r="J26" s="59"/>
       <c r="K26" s="59"/>
     </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="59"/>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -8690,7 +8687,7 @@
       <c r="J27" s="59"/>
       <c r="K27" s="59"/>
     </row>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="59"/>
       <c r="C28" s="59"/>
       <c r="D28" s="59"/>
@@ -8702,7 +8699,7 @@
       <c r="J28" s="59"/>
       <c r="K28" s="59"/>
     </row>
-    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -8714,7 +8711,7 @@
       <c r="J29" s="59"/>
       <c r="K29" s="59"/>
     </row>
-    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
@@ -8728,6 +8725,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:K30"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="B2:E2"/>
@@ -8735,11 +8737,6 @@
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B18:K30"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8747,7 +8744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBD2FF4-F9DA-4737-9A02-AB0B954AFF98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8756,24 +8753,24 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="15.75" customHeight="1">
       <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -8793,11 +8790,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" ht="15.75" customHeight="1">
       <c r="B3" s="74"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="17" t="s">
         <v>296</v>
       </c>
@@ -8809,21 +8806,21 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="15.75" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="72"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
@@ -8851,9 +8848,9 @@
       <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="67"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="K5" s="66"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
         <v>1</v>
       </c>
@@ -8873,9 +8870,9 @@
         <v>27</v>
       </c>
       <c r="J6" s="76"/>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="K6" s="66"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
         <v>2</v>
       </c>
@@ -8897,9 +8894,9 @@
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="76"/>
-      <c r="K7" s="67"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K7" s="66"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -8919,7 +8916,7 @@
       <c r="J8" s="38"/>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
         <v>4</v>
       </c>
@@ -8939,7 +8936,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
         <v>5</v>
       </c>
@@ -8959,7 +8956,7 @@
       <c r="J10" s="38"/>
       <c r="K10" s="35"/>
     </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
         <v>6</v>
       </c>
@@ -8979,7 +8976,7 @@
       <c r="J11" s="38"/>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
         <v>7</v>
       </c>
@@ -8999,7 +8996,7 @@
       <c r="J12" s="38"/>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" ht="15.75" customHeight="1">
       <c r="B13" s="13">
         <v>8</v>
       </c>
@@ -9019,7 +9016,7 @@
       <c r="J13" s="38"/>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
         <v>9</v>
       </c>
@@ -9037,9 +9034,9 @@
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="76"/>
-      <c r="K14" s="67"/>
-    </row>
-    <row r="15" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="K14" s="66"/>
+    </row>
+    <row r="15" spans="2:11" ht="14">
       <c r="B15" s="13">
         <v>10</v>
       </c>
@@ -9057,9 +9054,9 @@
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="76"/>
-      <c r="K15" s="67"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K15" s="66"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
         <v>11</v>
       </c>
@@ -9077,9 +9074,9 @@
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="72"/>
-      <c r="K16" s="67"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K16" s="66"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
         <v>12</v>
       </c>
@@ -9097,9 +9094,9 @@
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="72"/>
-      <c r="K17" s="67"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="66"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="26"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -9111,7 +9108,7 @@
       <c r="J18" s="22"/>
       <c r="K18" s="29"/>
     </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="26"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -9123,7 +9120,7 @@
       <c r="J19" s="22"/>
       <c r="K19" s="29"/>
     </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="26"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -9135,7 +9132,7 @@
       <c r="J20" s="22"/>
       <c r="K20" s="29"/>
     </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="26"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -9147,7 +9144,7 @@
       <c r="J21" s="22"/>
       <c r="K21" s="29"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="26"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -9159,7 +9156,7 @@
       <c r="J22" s="22"/>
       <c r="K22" s="29"/>
     </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="26"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -9171,7 +9168,7 @@
       <c r="J23" s="22"/>
       <c r="K23" s="29"/>
     </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="26"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -9183,7 +9180,7 @@
       <c r="J24" s="22"/>
       <c r="K24" s="29"/>
     </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="26"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -9195,7 +9192,7 @@
       <c r="J25" s="22"/>
       <c r="K25" s="29"/>
     </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="26"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -9207,7 +9204,7 @@
       <c r="J26" s="22"/>
       <c r="K26" s="29"/>
     </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="26"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -9219,7 +9216,7 @@
       <c r="J27" s="22"/>
       <c r="K27" s="29"/>
     </row>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="26"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -9231,7 +9228,7 @@
       <c r="J28" s="22"/>
       <c r="K28" s="29"/>
     </row>
-    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="26"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -9243,7 +9240,7 @@
       <c r="J29" s="22"/>
       <c r="K29" s="29"/>
     </row>
-    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="26"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -9255,7 +9252,7 @@
       <c r="J30" s="22"/>
       <c r="K30" s="29"/>
     </row>
-    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="26"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
@@ -9267,7 +9264,7 @@
       <c r="J31" s="22"/>
       <c r="K31" s="29"/>
     </row>
-    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="26"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -9279,7 +9276,7 @@
       <c r="J32" s="22"/>
       <c r="K32" s="29"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -9291,15 +9288,15 @@
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="B34" s="23"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="B38" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="B39" s="73"/>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
@@ -9311,7 +9308,7 @@
       <c r="J39" s="59"/>
       <c r="K39" s="59"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="B40" s="59"/>
       <c r="C40" s="59"/>
       <c r="D40" s="59"/>
@@ -9323,7 +9320,7 @@
       <c r="J40" s="59"/>
       <c r="K40" s="59"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
       <c r="D41" s="59"/>
@@ -9335,7 +9332,7 @@
       <c r="J41" s="59"/>
       <c r="K41" s="59"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
       <c r="B42" s="59"/>
       <c r="C42" s="59"/>
       <c r="D42" s="59"/>
@@ -9347,7 +9344,7 @@
       <c r="J42" s="59"/>
       <c r="K42" s="59"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="B43" s="59"/>
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
@@ -9359,7 +9356,7 @@
       <c r="J43" s="59"/>
       <c r="K43" s="59"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="B44" s="59"/>
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
@@ -9371,7 +9368,7 @@
       <c r="J44" s="59"/>
       <c r="K44" s="59"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="B45" s="59"/>
       <c r="C45" s="59"/>
       <c r="D45" s="59"/>
@@ -9383,7 +9380,7 @@
       <c r="J45" s="59"/>
       <c r="K45" s="59"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
       <c r="B46" s="59"/>
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
@@ -9395,7 +9392,7 @@
       <c r="J46" s="59"/>
       <c r="K46" s="59"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="B47" s="59"/>
       <c r="C47" s="59"/>
       <c r="D47" s="59"/>
@@ -9407,7 +9404,7 @@
       <c r="J47" s="59"/>
       <c r="K47" s="59"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
       <c r="B48" s="59"/>
       <c r="C48" s="59"/>
       <c r="D48" s="59"/>
@@ -9419,7 +9416,7 @@
       <c r="J48" s="59"/>
       <c r="K48" s="59"/>
     </row>
-    <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15.75" customHeight="1">
       <c r="B49" s="59"/>
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
@@ -9431,7 +9428,7 @@
       <c r="J49" s="59"/>
       <c r="K49" s="59"/>
     </row>
-    <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15.75" customHeight="1">
       <c r="B50" s="59"/>
       <c r="C50" s="59"/>
       <c r="D50" s="59"/>
@@ -9443,7 +9440,7 @@
       <c r="J50" s="59"/>
       <c r="K50" s="59"/>
     </row>
-    <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="15.75" customHeight="1">
       <c r="B51" s="59"/>
       <c r="C51" s="59"/>
       <c r="D51" s="59"/>
@@ -9457,17 +9454,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B39:K51"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B39:K51"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9476,7 +9473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEC3664-7E05-442C-801E-7148E038BFAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9487,24 +9484,24 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="15.75" customHeight="1">
       <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -9524,11 +9521,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" ht="15.75" customHeight="1">
       <c r="B3" s="74"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
         <v>297</v>
       </c>
@@ -9540,21 +9537,21 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="15.75" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="72"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
@@ -9582,9 +9579,9 @@
       <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="67"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="K5" s="66"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
         <v>1</v>
       </c>
@@ -9604,9 +9601,9 @@
         <v>27</v>
       </c>
       <c r="J6" s="76"/>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K6" s="66"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
         <v>2</v>
       </c>
@@ -9624,9 +9621,9 @@
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="76"/>
-      <c r="K7" s="67"/>
-    </row>
-    <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.45">
+      <c r="K7" s="66"/>
+    </row>
+    <row r="8" spans="2:11" ht="15">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -9644,9 +9641,9 @@
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="76"/>
-      <c r="K8" s="67"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
         <v>4</v>
       </c>
@@ -9664,9 +9661,9 @@
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="72"/>
-      <c r="K9" s="67"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="K9" s="66"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
         <v>5</v>
       </c>
@@ -9688,9 +9685,9 @@
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="72"/>
-      <c r="K10" s="67"/>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K10" s="66"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
         <v>6</v>
       </c>
@@ -9708,9 +9705,9 @@
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="76"/>
-      <c r="K11" s="67"/>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="K11" s="66"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
         <v>7</v>
       </c>
@@ -9734,7 +9731,7 @@
       <c r="J12" s="38"/>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" ht="15.75" customHeight="1">
       <c r="B13" s="13">
         <v>9</v>
       </c>
@@ -9752,9 +9749,9 @@
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="76"/>
-      <c r="K13" s="67"/>
-    </row>
-    <row r="14" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="K13" s="66"/>
+    </row>
+    <row r="14" spans="2:11" ht="14">
       <c r="B14" s="13">
         <v>10</v>
       </c>
@@ -9772,9 +9769,9 @@
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="76"/>
-      <c r="K14" s="67"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K14" s="66"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
         <v>11</v>
       </c>
@@ -9792,9 +9789,9 @@
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="72"/>
-      <c r="K15" s="67"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K15" s="66"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
         <v>12</v>
       </c>
@@ -9812,9 +9809,9 @@
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="72"/>
-      <c r="K16" s="67"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K16" s="66"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
         <v>12</v>
       </c>
@@ -9826,9 +9823,9 @@
       <c r="H17" s="14"/>
       <c r="I17" s="13"/>
       <c r="J17" s="76"/>
-      <c r="K17" s="67"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="66"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
         <v>13</v>
       </c>
@@ -9840,9 +9837,9 @@
       <c r="H18" s="14"/>
       <c r="I18" s="13"/>
       <c r="J18" s="76"/>
-      <c r="K18" s="67"/>
-    </row>
-    <row r="19" spans="1:11" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="K18" s="66"/>
+    </row>
+    <row r="19" spans="1:11" ht="14">
       <c r="B19" s="13">
         <v>14</v>
       </c>
@@ -9854,9 +9851,9 @@
       <c r="H19" s="20"/>
       <c r="I19" s="13"/>
       <c r="J19" s="76"/>
-      <c r="K19" s="67"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K19" s="66"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
         <v>15</v>
       </c>
@@ -9868,9 +9865,9 @@
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
       <c r="J20" s="72"/>
-      <c r="K20" s="67"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="66"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
         <v>16</v>
       </c>
@@ -9882,9 +9879,9 @@
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
       <c r="J21" s="72"/>
-      <c r="K21" s="67"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K21" s="66"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="B22" s="26"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -9896,7 +9893,7 @@
       <c r="J22" s="22"/>
       <c r="K22" s="29"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="B23" s="26"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -9908,7 +9905,7 @@
       <c r="J23" s="22"/>
       <c r="K23" s="29"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -9920,15 +9917,15 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="B25" s="23"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="B29" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
       <c r="B30" s="73"/>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
@@ -9940,7 +9937,7 @@
       <c r="J30" s="59"/>
       <c r="K30" s="59"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="B31" s="59"/>
       <c r="C31" s="59"/>
       <c r="D31" s="59"/>
@@ -9952,7 +9949,7 @@
       <c r="J31" s="59"/>
       <c r="K31" s="59"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="B32" s="59"/>
       <c r="C32" s="59"/>
       <c r="D32" s="59"/>
@@ -9964,7 +9961,7 @@
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
     </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
@@ -9976,7 +9973,7 @@
       <c r="J33" s="59"/>
       <c r="K33" s="59"/>
     </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="59"/>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
@@ -9988,7 +9985,7 @@
       <c r="J34" s="59"/>
       <c r="K34" s="59"/>
     </row>
-    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="59"/>
       <c r="C35" s="59"/>
       <c r="D35" s="59"/>
@@ -10000,7 +9997,7 @@
       <c r="J35" s="59"/>
       <c r="K35" s="59"/>
     </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
       <c r="D36" s="59"/>
@@ -10012,7 +10009,7 @@
       <c r="J36" s="59"/>
       <c r="K36" s="59"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
@@ -10024,7 +10021,7 @@
       <c r="J37" s="59"/>
       <c r="K37" s="59"/>
     </row>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="59"/>
       <c r="C38" s="59"/>
       <c r="D38" s="59"/>
@@ -10036,7 +10033,7 @@
       <c r="J38" s="59"/>
       <c r="K38" s="59"/>
     </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
@@ -10048,7 +10045,7 @@
       <c r="J39" s="59"/>
       <c r="K39" s="59"/>
     </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:11" ht="15.75" customHeight="1">
       <c r="B40" s="59"/>
       <c r="C40" s="59"/>
       <c r="D40" s="59"/>
@@ -10060,7 +10057,7 @@
       <c r="J40" s="59"/>
       <c r="K40" s="59"/>
     </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:11" ht="15.75" customHeight="1">
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
       <c r="D41" s="59"/>
@@ -10072,7 +10069,7 @@
       <c r="J41" s="59"/>
       <c r="K41" s="59"/>
     </row>
-    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="59"/>
       <c r="C42" s="59"/>
       <c r="D42" s="59"/>
@@ -10086,6 +10083,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -10100,12 +10103,6 @@
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10114,7 +10111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E544E8-48EC-4ADE-85DB-DA06C95880DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10125,24 +10122,24 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="15.75" customHeight="1">
       <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -10162,11 +10159,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:11" ht="15.75" customHeight="1">
       <c r="B3" s="74"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
         <v>298</v>
       </c>
@@ -10178,21 +10175,21 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="15.75" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="72"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
@@ -10220,9 +10217,9 @@
       <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="67"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="K5" s="66"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
         <v>1</v>
       </c>
@@ -10246,7 +10243,7 @@
       <c r="J6" s="38"/>
       <c r="K6" s="35"/>
     </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
         <v>2</v>
       </c>
@@ -10270,7 +10267,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="35"/>
     </row>
-    <row r="8" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:11" ht="14">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -10290,7 +10287,7 @@
       <c r="J8" s="38"/>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
         <v>4</v>
       </c>
@@ -10310,7 +10307,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
         <v>5</v>
       </c>
@@ -10330,7 +10327,7 @@
       <c r="J10" s="37"/>
       <c r="K10" s="35"/>
     </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
         <v>1</v>
       </c>
@@ -10350,7 +10347,7 @@
       <c r="J11" s="38"/>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
         <v>9</v>
       </c>
@@ -10368,9 +10365,9 @@
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="76"/>
-      <c r="K12" s="67"/>
-    </row>
-    <row r="13" spans="2:11" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="K12" s="66"/>
+    </row>
+    <row r="13" spans="2:11" ht="14">
       <c r="B13" s="13">
         <v>10</v>
       </c>
@@ -10388,9 +10385,9 @@
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="76"/>
-      <c r="K13" s="67"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K13" s="66"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
         <v>11</v>
       </c>
@@ -10408,9 +10405,9 @@
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="72"/>
-      <c r="K14" s="67"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K14" s="66"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
         <v>12</v>
       </c>
@@ -10428,9 +10425,9 @@
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="72"/>
-      <c r="K15" s="67"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K15" s="66"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
         <v>1</v>
       </c>
@@ -10444,7 +10441,7 @@
       <c r="J16" s="38"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
         <v>2</v>
       </c>
@@ -10458,7 +10455,7 @@
       <c r="J17" s="38"/>
       <c r="K17" s="35"/>
     </row>
-    <row r="18" spans="1:11" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="14">
       <c r="B18" s="13">
         <v>3</v>
       </c>
@@ -10472,7 +10469,7 @@
       <c r="J18" s="38"/>
       <c r="K18" s="35"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="B19" s="13">
         <v>4</v>
       </c>
@@ -10486,7 +10483,7 @@
       <c r="J19" s="37"/>
       <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
         <v>5</v>
       </c>
@@ -10500,7 +10497,7 @@
       <c r="J20" s="37"/>
       <c r="K20" s="35"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
         <v>1</v>
       </c>
@@ -10514,7 +10511,7 @@
       <c r="J21" s="38"/>
       <c r="K21" s="35"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
         <v>2</v>
       </c>
@@ -10528,7 +10525,7 @@
       <c r="J22" s="38"/>
       <c r="K22" s="35"/>
     </row>
-    <row r="23" spans="1:11" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" ht="14">
       <c r="B23" s="13">
         <v>3</v>
       </c>
@@ -10542,7 +10539,7 @@
       <c r="J23" s="38"/>
       <c r="K23" s="35"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
         <v>4</v>
       </c>
@@ -10556,7 +10553,7 @@
       <c r="J24" s="37"/>
       <c r="K24" s="35"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
         <v>5</v>
       </c>
@@ -10570,7 +10567,7 @@
       <c r="J25" s="37"/>
       <c r="K25" s="35"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -10582,15 +10579,15 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="B27" s="23"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="B31" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="B32" s="73"/>
       <c r="C32" s="59"/>
       <c r="D32" s="59"/>
@@ -10602,7 +10599,7 @@
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
     </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
@@ -10614,7 +10611,7 @@
       <c r="J33" s="59"/>
       <c r="K33" s="59"/>
     </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="59"/>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
@@ -10626,7 +10623,7 @@
       <c r="J34" s="59"/>
       <c r="K34" s="59"/>
     </row>
-    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="59"/>
       <c r="C35" s="59"/>
       <c r="D35" s="59"/>
@@ -10638,7 +10635,7 @@
       <c r="J35" s="59"/>
       <c r="K35" s="59"/>
     </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
       <c r="D36" s="59"/>
@@ -10650,7 +10647,7 @@
       <c r="J36" s="59"/>
       <c r="K36" s="59"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
@@ -10662,7 +10659,7 @@
       <c r="J37" s="59"/>
       <c r="K37" s="59"/>
     </row>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="59"/>
       <c r="C38" s="59"/>
       <c r="D38" s="59"/>
@@ -10674,7 +10671,7 @@
       <c r="J38" s="59"/>
       <c r="K38" s="59"/>
     </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
@@ -10686,7 +10683,7 @@
       <c r="J39" s="59"/>
       <c r="K39" s="59"/>
     </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:11" ht="15.75" customHeight="1">
       <c r="B40" s="59"/>
       <c r="C40" s="59"/>
       <c r="D40" s="59"/>
@@ -10698,7 +10695,7 @@
       <c r="J40" s="59"/>
       <c r="K40" s="59"/>
     </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:11" ht="15.75" customHeight="1">
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
       <c r="D41" s="59"/>
@@ -10710,7 +10707,7 @@
       <c r="J41" s="59"/>
       <c r="K41" s="59"/>
     </row>
-    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="59"/>
       <c r="C42" s="59"/>
       <c r="D42" s="59"/>
@@ -10722,7 +10719,7 @@
       <c r="J42" s="59"/>
       <c r="K42" s="59"/>
     </row>
-    <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:11" ht="15.75" customHeight="1">
       <c r="B43" s="59"/>
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
@@ -10734,7 +10731,7 @@
       <c r="J43" s="59"/>
       <c r="K43" s="59"/>
     </row>
-    <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:11" ht="15.75" customHeight="1">
       <c r="B44" s="59"/>
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
@@ -10764,36 +10761,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA52C6-F8A0-4735-8F09-72CCD7128716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="15.75" customHeight="1">
       <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -10813,11 +10810,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" ht="15.75" customHeight="1">
       <c r="B3" s="74"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
         <v>299</v>
       </c>
@@ -10829,21 +10826,21 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="15.75" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="72"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
@@ -10871,9 +10868,9 @@
       <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="67"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="K5" s="66"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
         <v>1</v>
       </c>
@@ -10895,9 +10892,9 @@
         <v>27</v>
       </c>
       <c r="J6" s="76"/>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K6" s="66"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
         <v>2</v>
       </c>
@@ -10919,7 +10916,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="35"/>
     </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -10939,9 +10936,9 @@
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="76"/>
-      <c r="K8" s="67"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
         <v>4</v>
       </c>
@@ -10963,7 +10960,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
         <v>5</v>
       </c>
@@ -10985,7 +10982,7 @@
       <c r="J10" s="38"/>
       <c r="K10" s="35"/>
     </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
         <v>6</v>
       </c>
@@ -11007,7 +11004,7 @@
       <c r="J11" s="38"/>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
         <v>7</v>
       </c>
@@ -11029,7 +11026,7 @@
       <c r="J12" s="38"/>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:11" ht="15.75" customHeight="1">
       <c r="B13" s="13">
         <v>8</v>
       </c>
@@ -11051,7 +11048,7 @@
       <c r="J13" s="38"/>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
         <v>9</v>
       </c>
@@ -11073,7 +11070,7 @@
       <c r="J14" s="38"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
         <v>10</v>
       </c>
@@ -11095,7 +11092,7 @@
       <c r="J15" s="38"/>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
         <v>11</v>
       </c>
@@ -11117,7 +11114,7 @@
       <c r="J16" s="38"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
         <v>12</v>
       </c>
@@ -11139,7 +11136,7 @@
       <c r="J17" s="38"/>
       <c r="K17" s="35"/>
     </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
         <v>13</v>
       </c>
@@ -11161,7 +11158,7 @@
       <c r="J18" s="38"/>
       <c r="K18" s="35"/>
     </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="13">
         <v>14</v>
       </c>
@@ -11181,9 +11178,9 @@
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="76"/>
-      <c r="K19" s="67"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K19" s="66"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
         <v>15</v>
       </c>
@@ -11203,9 +11200,9 @@
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="76"/>
-      <c r="K20" s="67"/>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K20" s="66"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
         <v>16</v>
       </c>
@@ -11225,9 +11222,9 @@
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="76"/>
-      <c r="K21" s="67"/>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K21" s="66"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
         <v>17</v>
       </c>
@@ -11247,9 +11244,9 @@
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="76"/>
-      <c r="K22" s="67"/>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K22" s="66"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
         <v>18</v>
       </c>
@@ -11269,9 +11266,9 @@
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="76"/>
-      <c r="K23" s="67"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K23" s="66"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
         <v>19</v>
       </c>
@@ -11291,9 +11288,9 @@
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="76"/>
-      <c r="K24" s="67"/>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K24" s="66"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
         <v>20</v>
       </c>
@@ -11313,9 +11310,9 @@
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="76"/>
-      <c r="K25" s="67"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K25" s="66"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="13">
         <v>21</v>
       </c>
@@ -11335,9 +11332,9 @@
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="76"/>
-      <c r="K26" s="67"/>
-    </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K26" s="66"/>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="13">
         <v>22</v>
       </c>
@@ -11357,9 +11354,9 @@
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="76"/>
-      <c r="K27" s="67"/>
-    </row>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K27" s="66"/>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="13">
         <v>23</v>
       </c>
@@ -11379,9 +11376,9 @@
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="76"/>
-      <c r="K28" s="67"/>
-    </row>
-    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K28" s="66"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="13">
         <v>24</v>
       </c>
@@ -11401,9 +11398,9 @@
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="76"/>
-      <c r="K29" s="67"/>
-    </row>
-    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K29" s="66"/>
+    </row>
+    <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="13">
         <v>25</v>
       </c>
@@ -11423,9 +11420,9 @@
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="76"/>
-      <c r="K30" s="67"/>
-    </row>
-    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K30" s="66"/>
+    </row>
+    <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="13">
         <v>26</v>
       </c>
@@ -11445,9 +11442,9 @@
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="76"/>
-      <c r="K31" s="67"/>
-    </row>
-    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K31" s="66"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="13">
         <v>27</v>
       </c>
@@ -11467,9 +11464,9 @@
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="76"/>
-      <c r="K32" s="67"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K32" s="66"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="B33" s="13">
         <v>28</v>
       </c>
@@ -11489,7 +11486,7 @@
       <c r="J33" s="38"/>
       <c r="K33" s="35"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="B34" s="13">
         <v>29</v>
       </c>
@@ -11509,7 +11506,7 @@
       <c r="J34" s="38"/>
       <c r="K34" s="35"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="B35" s="13">
         <v>30</v>
       </c>
@@ -11529,7 +11526,7 @@
       <c r="J35" s="38"/>
       <c r="K35" s="35"/>
     </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="B36" s="13">
         <v>31</v>
       </c>
@@ -11549,7 +11546,7 @@
       <c r="J36" s="38"/>
       <c r="K36" s="35"/>
     </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="B37" s="13">
         <v>9</v>
       </c>
@@ -11567,9 +11564,9 @@
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="76"/>
-      <c r="K37" s="67"/>
-    </row>
-    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="K37" s="66"/>
+    </row>
+    <row r="38" spans="1:11" ht="15">
       <c r="B38" s="13">
         <v>10</v>
       </c>
@@ -11587,9 +11584,9 @@
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="76"/>
-      <c r="K38" s="67"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K38" s="66"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="B39" s="13">
         <v>11</v>
       </c>
@@ -11607,9 +11604,9 @@
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="72"/>
-      <c r="K39" s="67"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K39" s="66"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="B40" s="13">
         <v>12</v>
       </c>
@@ -11627,9 +11624,9 @@
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="72"/>
-      <c r="K40" s="67"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K40" s="66"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="B41" s="26"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
@@ -11641,7 +11638,7 @@
       <c r="J41" s="22"/>
       <c r="K41" s="29"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
       <c r="B42" s="26"/>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
@@ -11653,7 +11650,7 @@
       <c r="J42" s="22"/>
       <c r="K42" s="29"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="B43" s="26"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
@@ -11665,7 +11662,7 @@
       <c r="J43" s="22"/>
       <c r="K43" s="29"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="B44" s="26"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
@@ -11677,7 +11674,7 @@
       <c r="J44" s="22"/>
       <c r="K44" s="29"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="B45" s="26"/>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
@@ -11689,7 +11686,7 @@
       <c r="J45" s="22"/>
       <c r="K45" s="29"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
       <c r="B46" s="26"/>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
@@ -11701,7 +11698,7 @@
       <c r="J46" s="22"/>
       <c r="K46" s="29"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -11713,15 +11710,15 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
       <c r="B48" s="23"/>
     </row>
-    <row r="52" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="15.75" customHeight="1">
       <c r="B52" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="15.75" customHeight="1">
       <c r="B53" s="73"/>
       <c r="C53" s="59"/>
       <c r="D53" s="59"/>
@@ -11733,7 +11730,7 @@
       <c r="J53" s="59"/>
       <c r="K53" s="59"/>
     </row>
-    <row r="54" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15.75" customHeight="1">
       <c r="B54" s="59"/>
       <c r="C54" s="59"/>
       <c r="D54" s="59"/>
@@ -11745,7 +11742,7 @@
       <c r="J54" s="59"/>
       <c r="K54" s="59"/>
     </row>
-    <row r="55" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="15.75" customHeight="1">
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
       <c r="D55" s="59"/>
@@ -11757,7 +11754,7 @@
       <c r="J55" s="59"/>
       <c r="K55" s="59"/>
     </row>
-    <row r="56" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="15.75" customHeight="1">
       <c r="B56" s="59"/>
       <c r="C56" s="59"/>
       <c r="D56" s="59"/>
@@ -11769,7 +11766,7 @@
       <c r="J56" s="59"/>
       <c r="K56" s="59"/>
     </row>
-    <row r="57" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="15.75" customHeight="1">
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
       <c r="D57" s="59"/>
@@ -11781,7 +11778,7 @@
       <c r="J57" s="59"/>
       <c r="K57" s="59"/>
     </row>
-    <row r="58" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="15.75" customHeight="1">
       <c r="B58" s="59"/>
       <c r="C58" s="59"/>
       <c r="D58" s="59"/>
@@ -11793,7 +11790,7 @@
       <c r="J58" s="59"/>
       <c r="K58" s="59"/>
     </row>
-    <row r="59" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15.75" customHeight="1">
       <c r="B59" s="59"/>
       <c r="C59" s="59"/>
       <c r="D59" s="59"/>
@@ -11805,7 +11802,7 @@
       <c r="J59" s="59"/>
       <c r="K59" s="59"/>
     </row>
-    <row r="60" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="15.75" customHeight="1">
       <c r="B60" s="59"/>
       <c r="C60" s="59"/>
       <c r="D60" s="59"/>
@@ -11817,7 +11814,7 @@
       <c r="J60" s="59"/>
       <c r="K60" s="59"/>
     </row>
-    <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15.75" customHeight="1">
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
       <c r="D61" s="59"/>
@@ -11829,7 +11826,7 @@
       <c r="J61" s="59"/>
       <c r="K61" s="59"/>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1">
       <c r="B62" s="59"/>
       <c r="C62" s="59"/>
       <c r="D62" s="59"/>
@@ -11841,7 +11838,7 @@
       <c r="J62" s="59"/>
       <c r="K62" s="59"/>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1">
       <c r="B63" s="59"/>
       <c r="C63" s="59"/>
       <c r="D63" s="59"/>
@@ -11853,7 +11850,7 @@
       <c r="J63" s="59"/>
       <c r="K63" s="59"/>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1">
       <c r="B64" s="59"/>
       <c r="C64" s="59"/>
       <c r="D64" s="59"/>
@@ -11865,7 +11862,7 @@
       <c r="J64" s="59"/>
       <c r="K64" s="59"/>
     </row>
-    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:11" ht="15.75" customHeight="1">
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
       <c r="D65" s="59"/>
@@ -11879,18 +11876,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
     <mergeCell ref="B53:K65"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J23:K23"/>
@@ -11904,6 +11889,18 @@
     <mergeCell ref="J40:K40"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11911,7 +11908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7988DF88-4E44-47A2-8309-BB0D4D9EB880}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11922,24 +11919,24 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="15.75" customHeight="1">
       <c r="B2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -11959,11 +11956,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:11" ht="15.75" customHeight="1">
       <c r="B3" s="74"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
         <v>300</v>
       </c>
@@ -11975,21 +11972,21 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="15.75" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="72"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
@@ -12017,9 +12014,9 @@
       <c r="J5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="67"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="K5" s="66"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
         <v>1</v>
       </c>
@@ -12041,9 +12038,9 @@
         <v>27</v>
       </c>
       <c r="J6" s="76"/>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K6" s="66"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
         <v>2</v>
       </c>
@@ -12065,7 +12062,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="35"/>
     </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -12085,9 +12082,9 @@
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="76"/>
-      <c r="K8" s="67"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
         <v>4</v>
       </c>
@@ -12109,7 +12106,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
         <v>5</v>
       </c>
@@ -12131,7 +12128,7 @@
       <c r="J10" s="38"/>
       <c r="K10" s="35"/>
     </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
         <v>6</v>
       </c>
@@ -12153,7 +12150,7 @@
       <c r="J11" s="38"/>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
         <v>7</v>
       </c>
@@ -12175,7 +12172,7 @@
       <c r="J12" s="38"/>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:11" ht="15.75" customHeight="1">
       <c r="B13" s="13">
         <v>8</v>
       </c>
@@ -12197,7 +12194,7 @@
       <c r="J13" s="38"/>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
         <v>9</v>
       </c>
@@ -12219,7 +12216,7 @@
       <c r="J14" s="38"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
         <v>10</v>
       </c>
@@ -12241,7 +12238,7 @@
       <c r="J15" s="38"/>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
         <v>11</v>
       </c>
@@ -12263,7 +12260,7 @@
       <c r="J16" s="38"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
         <v>12</v>
       </c>
@@ -12285,7 +12282,7 @@
       <c r="J17" s="38"/>
       <c r="K17" s="35"/>
     </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
         <v>13</v>
       </c>
@@ -12307,7 +12304,7 @@
       <c r="J18" s="38"/>
       <c r="K18" s="35"/>
     </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="13">
         <v>14</v>
       </c>
@@ -12327,9 +12324,9 @@
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="76"/>
-      <c r="K19" s="67"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K19" s="66"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
         <v>15</v>
       </c>
@@ -12349,9 +12346,9 @@
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="76"/>
-      <c r="K20" s="67"/>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K20" s="66"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
         <v>16</v>
       </c>
@@ -12371,9 +12368,9 @@
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="76"/>
-      <c r="K21" s="67"/>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K21" s="66"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
         <v>17</v>
       </c>
@@ -12393,9 +12390,9 @@
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="76"/>
-      <c r="K22" s="67"/>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K22" s="66"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
         <v>18</v>
       </c>
@@ -12415,9 +12412,9 @@
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="76"/>
-      <c r="K23" s="67"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K23" s="66"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
         <v>19</v>
       </c>
@@ -12437,9 +12434,9 @@
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="76"/>
-      <c r="K24" s="67"/>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K24" s="66"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
         <v>20</v>
       </c>
@@ -12459,9 +12456,9 @@
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="76"/>
-      <c r="K25" s="67"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K25" s="66"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="13">
         <v>21</v>
       </c>
@@ -12481,9 +12478,9 @@
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="76"/>
-      <c r="K26" s="67"/>
-    </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K26" s="66"/>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="13">
         <v>22</v>
       </c>
@@ -12503,9 +12500,9 @@
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="76"/>
-      <c r="K27" s="67"/>
-    </row>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K27" s="66"/>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="13">
         <v>23</v>
       </c>
@@ -12525,9 +12522,9 @@
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="76"/>
-      <c r="K28" s="67"/>
-    </row>
-    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K28" s="66"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="13">
         <v>24</v>
       </c>
@@ -12547,9 +12544,9 @@
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="76"/>
-      <c r="K29" s="67"/>
-    </row>
-    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K29" s="66"/>
+    </row>
+    <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="13">
         <v>25</v>
       </c>
@@ -12569,9 +12566,9 @@
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="76"/>
-      <c r="K30" s="67"/>
-    </row>
-    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K30" s="66"/>
+    </row>
+    <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="13">
         <v>26</v>
       </c>
@@ -12591,9 +12588,9 @@
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="76"/>
-      <c r="K31" s="67"/>
-    </row>
-    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K31" s="66"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="13">
         <v>27</v>
       </c>
@@ -12613,9 +12610,9 @@
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="76"/>
-      <c r="K32" s="67"/>
-    </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K32" s="66"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="13">
         <v>28</v>
       </c>
@@ -12635,7 +12632,7 @@
       <c r="J33" s="38"/>
       <c r="K33" s="35"/>
     </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="13">
         <v>29</v>
       </c>
@@ -12655,7 +12652,7 @@
       <c r="J34" s="38"/>
       <c r="K34" s="35"/>
     </row>
-    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="13">
         <v>30</v>
       </c>
@@ -12675,7 +12672,7 @@
       <c r="J35" s="38"/>
       <c r="K35" s="35"/>
     </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="13">
         <v>31</v>
       </c>
@@ -12695,7 +12692,7 @@
       <c r="J36" s="38"/>
       <c r="K36" s="35"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="13">
         <v>32</v>
       </c>
@@ -12715,7 +12712,7 @@
       <c r="J37" s="38"/>
       <c r="K37" s="35"/>
     </row>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="13">
         <v>33</v>
       </c>
@@ -12735,7 +12732,7 @@
       <c r="J38" s="38"/>
       <c r="K38" s="35"/>
     </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="B39" s="13">
         <v>34</v>
       </c>
@@ -12755,7 +12752,7 @@
       <c r="J39" s="38"/>
       <c r="K39" s="35"/>
     </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:11" ht="15.75" customHeight="1">
       <c r="B40" s="13">
         <v>35</v>
       </c>
@@ -12775,7 +12772,7 @@
       <c r="J40" s="38"/>
       <c r="K40" s="35"/>
     </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:11" ht="15.75" customHeight="1">
       <c r="B41" s="13">
         <v>36</v>
       </c>
@@ -12795,7 +12792,7 @@
       <c r="J41" s="38"/>
       <c r="K41" s="35"/>
     </row>
-    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="13">
         <v>37</v>
       </c>
@@ -12815,7 +12812,7 @@
       <c r="J42" s="38"/>
       <c r="K42" s="35"/>
     </row>
-    <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:11" ht="15.75" customHeight="1">
       <c r="B43" s="13">
         <v>38</v>
       </c>
@@ -12835,7 +12832,7 @@
       <c r="J43" s="38"/>
       <c r="K43" s="35"/>
     </row>
-    <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:11" ht="15.75" customHeight="1">
       <c r="B44" s="13">
         <v>9</v>
       </c>
@@ -12853,9 +12850,9 @@
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="76"/>
-      <c r="K44" s="67"/>
-    </row>
-    <row r="45" spans="2:11" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="K44" s="66"/>
+    </row>
+    <row r="45" spans="2:11" ht="15">
       <c r="B45" s="13">
         <v>10</v>
       </c>
@@ -12873,9 +12870,9 @@
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="76"/>
-      <c r="K45" s="67"/>
-    </row>
-    <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K45" s="66"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" customHeight="1">
       <c r="B46" s="13">
         <v>11</v>
       </c>
@@ -12893,9 +12890,9 @@
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="72"/>
-      <c r="K46" s="67"/>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K46" s="66"/>
+    </row>
+    <row r="47" spans="2:11" ht="15.75" customHeight="1">
       <c r="B47" s="13">
         <v>12</v>
       </c>
@@ -12913,9 +12910,9 @@
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="72"/>
-      <c r="K47" s="67"/>
-    </row>
-    <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K47" s="66"/>
+    </row>
+    <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="26"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
@@ -12927,7 +12924,7 @@
       <c r="J48" s="22"/>
       <c r="K48" s="29"/>
     </row>
-    <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15.75" customHeight="1">
       <c r="B49" s="26"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
@@ -12939,7 +12936,7 @@
       <c r="J49" s="22"/>
       <c r="K49" s="29"/>
     </row>
-    <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15.75" customHeight="1">
       <c r="B50" s="26"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
@@ -12951,7 +12948,7 @@
       <c r="J50" s="22"/>
       <c r="K50" s="29"/>
     </row>
-    <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="15.75" customHeight="1">
       <c r="B51" s="26"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
@@ -12963,7 +12960,7 @@
       <c r="J51" s="22"/>
       <c r="K51" s="29"/>
     </row>
-    <row r="52" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="15.75" customHeight="1">
       <c r="B52" s="26"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
@@ -12975,7 +12972,7 @@
       <c r="J52" s="22"/>
       <c r="K52" s="29"/>
     </row>
-    <row r="53" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="15.75" customHeight="1">
       <c r="B53" s="26"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
@@ -12987,7 +12984,7 @@
       <c r="J53" s="22"/>
       <c r="K53" s="29"/>
     </row>
-    <row r="54" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15.75" customHeight="1">
       <c r="B54" s="26"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
@@ -12999,7 +12996,7 @@
       <c r="J54" s="22"/>
       <c r="K54" s="29"/>
     </row>
-    <row r="55" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="15.75" customHeight="1">
       <c r="B55" s="26"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
@@ -13011,7 +13008,7 @@
       <c r="J55" s="22"/>
       <c r="K55" s="29"/>
     </row>
-    <row r="56" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="15.75" customHeight="1">
       <c r="B56" s="26"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -13023,7 +13020,7 @@
       <c r="J56" s="22"/>
       <c r="K56" s="29"/>
     </row>
-    <row r="57" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="15.75" customHeight="1">
       <c r="B57" s="26"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -13035,7 +13032,7 @@
       <c r="J57" s="22"/>
       <c r="K57" s="29"/>
     </row>
-    <row r="58" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="15.75" customHeight="1">
       <c r="B58" s="26"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -13047,7 +13044,7 @@
       <c r="J58" s="22"/>
       <c r="K58" s="29"/>
     </row>
-    <row r="59" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15.75" customHeight="1">
       <c r="B59" s="26"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
@@ -13059,7 +13056,7 @@
       <c r="J59" s="22"/>
       <c r="K59" s="29"/>
     </row>
-    <row r="60" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="15.75" customHeight="1">
       <c r="B60" s="26"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
@@ -13071,7 +13068,7 @@
       <c r="J60" s="22"/>
       <c r="K60" s="29"/>
     </row>
-    <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15.75" customHeight="1">
       <c r="B61" s="26"/>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
@@ -13083,7 +13080,7 @@
       <c r="J61" s="22"/>
       <c r="K61" s="29"/>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1">
       <c r="B62" s="26"/>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
@@ -13095,7 +13092,7 @@
       <c r="J62" s="22"/>
       <c r="K62" s="29"/>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1">
       <c r="B63" s="26"/>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
@@ -13107,7 +13104,7 @@
       <c r="J63" s="22"/>
       <c r="K63" s="29"/>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1">
       <c r="B64" s="26"/>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
@@ -13119,7 +13116,7 @@
       <c r="J64" s="22"/>
       <c r="K64" s="29"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="B65" s="26"/>
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
@@ -13131,7 +13128,7 @@
       <c r="J65" s="22"/>
       <c r="K65" s="29"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="15.75" customHeight="1">
       <c r="B66" s="26"/>
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
@@ -13143,7 +13140,7 @@
       <c r="J66" s="22"/>
       <c r="K66" s="29"/>
     </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
@@ -13155,15 +13152,15 @@
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
     </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:11" ht="15.75" customHeight="1">
       <c r="B68" s="23"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
       <c r="B72" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15.75" customHeight="1">
       <c r="B73" s="73"/>
       <c r="C73" s="59"/>
       <c r="D73" s="59"/>
@@ -13175,7 +13172,7 @@
       <c r="J73" s="59"/>
       <c r="K73" s="59"/>
     </row>
-    <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="15.75" customHeight="1">
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
       <c r="D74" s="59"/>
@@ -13187,7 +13184,7 @@
       <c r="J74" s="59"/>
       <c r="K74" s="59"/>
     </row>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15.75" customHeight="1">
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
       <c r="D75" s="59"/>
@@ -13199,7 +13196,7 @@
       <c r="J75" s="59"/>
       <c r="K75" s="59"/>
     </row>
-    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="15.75" customHeight="1">
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
       <c r="D76" s="59"/>
@@ -13211,7 +13208,7 @@
       <c r="J76" s="59"/>
       <c r="K76" s="59"/>
     </row>
-    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="15.75" customHeight="1">
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
       <c r="D77" s="59"/>
@@ -13223,7 +13220,7 @@
       <c r="J77" s="59"/>
       <c r="K77" s="59"/>
     </row>
-    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="15.75" customHeight="1">
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
       <c r="D78" s="59"/>
@@ -13235,7 +13232,7 @@
       <c r="J78" s="59"/>
       <c r="K78" s="59"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15.75" customHeight="1">
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
       <c r="D79" s="59"/>
@@ -13247,7 +13244,7 @@
       <c r="J79" s="59"/>
       <c r="K79" s="59"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="15.75" customHeight="1">
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
       <c r="D80" s="59"/>
@@ -13259,7 +13256,7 @@
       <c r="J80" s="59"/>
       <c r="K80" s="59"/>
     </row>
-    <row r="81" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:11" ht="15.75" customHeight="1">
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
       <c r="D81" s="59"/>
@@ -13271,7 +13268,7 @@
       <c r="J81" s="59"/>
       <c r="K81" s="59"/>
     </row>
-    <row r="82" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:11" ht="15.75" customHeight="1">
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
       <c r="D82" s="59"/>
@@ -13283,7 +13280,7 @@
       <c r="J82" s="59"/>
       <c r="K82" s="59"/>
     </row>
-    <row r="83" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:11" ht="15.75" customHeight="1">
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
       <c r="D83" s="59"/>
@@ -13295,7 +13292,7 @@
       <c r="J83" s="59"/>
       <c r="K83" s="59"/>
     </row>
-    <row r="84" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:11" ht="15.75" customHeight="1">
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
       <c r="D84" s="59"/>
@@ -13307,7 +13304,7 @@
       <c r="J84" s="59"/>
       <c r="K84" s="59"/>
     </row>
-    <row r="85" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:11" ht="15.75" customHeight="1">
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
       <c r="D85" s="59"/>
@@ -13321,11 +13318,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="B73:K85"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -13341,11 +13338,11 @@
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J31:K31"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ansteypeファイル/DB設計 テーブル定義書.xlsx
+++ b/ansteypeファイル/DB設計 テーブル定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="1000" windowWidth="10270" windowHeight="9980" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="10980" yWindow="1000" windowWidth="10270" windowHeight="9980" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="306">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -1824,9 +1824,6 @@
     <t>LAST_NAME</t>
   </si>
   <si>
-    <t>FIRST_NAME</t>
-  </si>
-  <si>
     <t>PARTNER_STORE_ID</t>
   </si>
   <si>
@@ -2108,28 +2105,6 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>見積請求作成情報テーブルの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
       <t>取引先店舗情報テーブルの</t>
     </r>
     <r>
@@ -2239,12 +2214,76 @@
     <t>CLAIM_SUBTRACTION_RULE</t>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <t>FIRST_NAME</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>見積請求作成情報テーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1:見積TO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2:請求TO
+3:見積CC
+4:請求CC</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>ミツモリ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2431,6 +2470,13 @@
       <name val="Arial"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2612,7 +2658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2758,6 +2804,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3212,7 +3276,7 @@
       <c r="D3" s="65"/>
       <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>152</v>
@@ -3297,7 +3361,7 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F7" s="41" t="s">
         <v>129</v>
@@ -3317,7 +3381,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>128</v>
@@ -3337,7 +3401,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F9" s="41" t="s">
         <v>130</v>
@@ -3357,14 +3421,14 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>131</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="76"/>
@@ -3961,7 +4025,7 @@
       <c r="D3" s="65"/>
       <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>125</v>
@@ -4068,13 +4132,13 @@
         <v>27</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>208</v>
@@ -4670,7 +4734,7 @@
   </sheetPr>
   <dimension ref="B2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -4715,7 +4779,7 @@
       <c r="D3" s="65"/>
       <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>150</v>
@@ -4800,7 +4864,7 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>140</v>
@@ -4820,7 +4884,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>141</v>
@@ -4840,7 +4904,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>37</v>
@@ -4860,7 +4924,7 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>132</v>
@@ -4880,7 +4944,7 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>133</v>
@@ -4900,7 +4964,7 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>134</v>
@@ -4920,7 +4984,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>135</v>
@@ -4940,7 +5004,7 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>136</v>
@@ -4960,7 +5024,7 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>137</v>
@@ -4980,7 +5044,7 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>138</v>
@@ -5000,7 +5064,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>38</v>
@@ -5020,7 +5084,7 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>142</v>
@@ -5040,7 +5104,7 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>39</v>
@@ -5060,7 +5124,7 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>40</v>
@@ -5078,7 +5142,7 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F21" s="45" t="s">
         <v>55</v>
@@ -5414,7 +5478,7 @@
       <c r="D3" s="65"/>
       <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>155</v>
@@ -5501,13 +5565,13 @@
         <v>27</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>144</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>193</v>
@@ -5523,7 +5587,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>146</v>
@@ -5543,7 +5607,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>145</v>
@@ -5563,7 +5627,7 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>147</v>
@@ -6005,7 +6069,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>88</v>
@@ -6027,7 +6091,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>65</v>
@@ -6049,7 +6113,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>66</v>
@@ -6071,7 +6135,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>67</v>
@@ -6115,7 +6179,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>69</v>
@@ -6137,7 +6201,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>70</v>
@@ -6159,7 +6223,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>71</v>
@@ -6181,7 +6245,7 @@
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>72</v>
@@ -6203,7 +6267,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>73</v>
@@ -6225,7 +6289,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>74</v>
@@ -6247,7 +6311,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F18" s="42" t="s">
         <v>61</v>
@@ -6269,7 +6333,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>75</v>
@@ -6291,7 +6355,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>76</v>
@@ -6313,7 +6377,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>77</v>
@@ -6335,7 +6399,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>23</v>
@@ -6357,7 +6421,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>78</v>
@@ -6379,7 +6443,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F24" s="42" t="s">
         <v>79</v>
@@ -6401,7 +6465,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>80</v>
@@ -6423,7 +6487,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F26" s="42" t="s">
         <v>81</v>
@@ -6445,7 +6509,7 @@
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F27" s="42" t="s">
         <v>82</v>
@@ -6467,7 +6531,7 @@
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F28" s="42" t="s">
         <v>83</v>
@@ -6489,7 +6553,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>84</v>
@@ -6511,7 +6575,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>85</v>
@@ -6533,7 +6597,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F31" s="42" t="s">
         <v>86</v>
@@ -6555,7 +6619,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F32" s="42" t="s">
         <v>87</v>
@@ -6577,7 +6641,7 @@
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>114</v>
@@ -6597,7 +6661,7 @@
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F34" s="42" t="s">
         <v>115</v>
@@ -6617,7 +6681,7 @@
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>116</v>
@@ -6637,7 +6701,7 @@
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F36" s="42" t="s">
         <v>117</v>
@@ -6657,7 +6721,7 @@
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F37" s="42" t="s">
         <v>118</v>
@@ -6677,7 +6741,7 @@
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F38" s="42" t="s">
         <v>119</v>
@@ -6697,7 +6761,7 @@
       <c r="C39" s="13"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F39" s="42" t="s">
         <v>120</v>
@@ -6717,7 +6781,7 @@
       <c r="C40" s="13"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F40" s="42" t="s">
         <v>121</v>
@@ -6737,7 +6801,7 @@
       <c r="C41" s="13"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F41" s="42" t="s">
         <v>122</v>
@@ -6757,7 +6821,7 @@
       <c r="C42" s="13"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F42" s="42" t="s">
         <v>123</v>
@@ -6777,7 +6841,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F43" s="42" t="s">
         <v>139</v>
@@ -7348,7 +7412,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>157</v>
@@ -7365,7 +7429,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>158</v>
@@ -7382,7 +7446,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>159</v>
@@ -7407,7 +7471,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>167</v>
@@ -7430,7 +7494,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>165</v>
@@ -7453,7 +7517,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D9" s="48" t="s">
         <v>154</v>
@@ -7476,7 +7540,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>148</v>
@@ -7499,7 +7563,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>149</v>
@@ -7522,7 +7586,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>156</v>
@@ -7545,7 +7609,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D13" s="47" t="s">
         <v>150</v>
@@ -7568,7 +7632,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>160</v>
@@ -7699,7 +7763,7 @@
       <c r="D3" s="65"/>
       <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>32</v>
@@ -8347,7 +8411,7 @@
       <c r="D3" s="65"/>
       <c r="E3" s="66"/>
       <c r="F3" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G3" s="49" t="s">
         <v>175</v>
@@ -8751,7 +8815,9 @@
   </sheetPr>
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -8796,7 +8862,7 @@
       <c r="D3" s="65"/>
       <c r="E3" s="66"/>
       <c r="F3" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>48</v>
@@ -8887,7 +8953,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>208</v>
@@ -9480,15 +9546,14 @@
   </sheetPr>
   <dimension ref="A2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.6328125" customWidth="1"/>
     <col min="2" max="3" width="8.36328125" customWidth="1"/>
     <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="5" max="5" width="31.26953125" customWidth="1"/>
     <col min="7" max="7" width="25.36328125" customWidth="1"/>
     <col min="9" max="9" width="8.6328125" customWidth="1"/>
     <col min="10" max="10" width="9.08984375" customWidth="1"/>
@@ -9527,7 +9592,7 @@
       <c r="D3" s="65"/>
       <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>176</v>
@@ -9630,7 +9695,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>210</v>
+        <v>303</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>54</v>
@@ -9672,13 +9737,13 @@
         <v>27</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>208</v>
@@ -9687,42 +9752,42 @@
       <c r="J10" s="72"/>
       <c r="K10" s="66"/>
     </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B11" s="13">
+    <row r="11" spans="2:11" s="81" customFormat="1" ht="49.5" customHeight="1">
+      <c r="B11" s="12">
         <v>6</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F11" s="41" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="66"/>
+      <c r="G11" s="82" t="s">
+        <v>305</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
         <v>7</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="25" t="s">
-        <v>27</v>
-      </c>
+      <c r="D12" s="25"/>
       <c r="E12" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>208</v>
@@ -10165,7 +10230,7 @@
       <c r="D3" s="65"/>
       <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>153</v>
@@ -10252,13 +10317,13 @@
         <v>27</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>208</v>
@@ -10274,7 +10339,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>61</v>
@@ -10294,7 +10359,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F9" s="41" t="s">
         <v>23</v>
@@ -10314,7 +10379,7 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>62</v>
@@ -10334,7 +10399,7 @@
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F11" s="41" t="s">
         <v>63</v>
@@ -10816,7 +10881,7 @@
       <c r="D3" s="65"/>
       <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>154</v>
@@ -10901,7 +10966,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>88</v>
@@ -10923,7 +10988,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>65</v>
@@ -10945,7 +11010,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>66</v>
@@ -10967,7 +11032,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>67</v>
@@ -11011,7 +11076,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>69</v>
@@ -11033,7 +11098,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>70</v>
@@ -11055,7 +11120,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>71</v>
@@ -11077,7 +11142,7 @@
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>72</v>
@@ -11099,7 +11164,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>73</v>
@@ -11121,7 +11186,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>74</v>
@@ -11143,7 +11208,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F18" s="42" t="s">
         <v>61</v>
@@ -11165,7 +11230,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>75</v>
@@ -11187,7 +11252,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>76</v>
@@ -11209,7 +11274,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>77</v>
@@ -11231,7 +11296,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>23</v>
@@ -11253,7 +11318,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>78</v>
@@ -11275,7 +11340,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F24" s="42" t="s">
         <v>79</v>
@@ -11297,7 +11362,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>80</v>
@@ -11319,10 +11384,10 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G26" s="42" t="s">
         <v>107</v>
@@ -11341,10 +11406,10 @@
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G27" s="42" t="s">
         <v>108</v>
@@ -11363,7 +11428,7 @@
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F28" s="42" t="s">
         <v>83</v>
@@ -11385,7 +11450,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>84</v>
@@ -11407,7 +11472,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>85</v>
@@ -11429,7 +11494,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F31" s="42" t="s">
         <v>86</v>
@@ -11451,7 +11516,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F32" s="42" t="s">
         <v>87</v>
@@ -11473,7 +11538,7 @@
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>114</v>
@@ -11493,7 +11558,7 @@
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F34" s="42" t="s">
         <v>115</v>
@@ -11513,7 +11578,7 @@
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>116</v>
@@ -11533,7 +11598,7 @@
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F36" s="42" t="s">
         <v>117</v>
@@ -11892,15 +11957,15 @@
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11962,7 +12027,7 @@
       <c r="D3" s="65"/>
       <c r="E3" s="66"/>
       <c r="F3" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>148</v>
@@ -12047,7 +12112,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>88</v>
@@ -12069,7 +12134,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>65</v>
@@ -12091,7 +12156,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>66</v>
@@ -12113,7 +12178,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>67</v>
@@ -12157,7 +12222,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>69</v>
@@ -12179,7 +12244,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>70</v>
@@ -12201,7 +12266,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>71</v>
@@ -12223,7 +12288,7 @@
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>72</v>
@@ -12245,7 +12310,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>73</v>
@@ -12267,7 +12332,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>74</v>
@@ -12289,7 +12354,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F18" s="42" t="s">
         <v>61</v>
@@ -12311,7 +12376,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>75</v>
@@ -12333,7 +12398,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>76</v>
@@ -12355,7 +12420,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>77</v>
@@ -12377,7 +12442,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>23</v>
@@ -12399,7 +12464,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>78</v>
@@ -12421,7 +12486,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F24" s="42" t="s">
         <v>79</v>
@@ -12443,7 +12508,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>80</v>
@@ -12465,10 +12530,10 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G26" s="42" t="s">
         <v>107</v>
@@ -12487,10 +12552,10 @@
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G27" s="42" t="s">
         <v>108</v>
@@ -12509,7 +12574,7 @@
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F28" s="42" t="s">
         <v>83</v>
@@ -12531,7 +12596,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>84</v>
@@ -12553,7 +12618,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>85</v>
@@ -12575,7 +12640,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F31" s="42" t="s">
         <v>86</v>
@@ -12597,7 +12662,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F32" s="42" t="s">
         <v>87</v>
@@ -12619,7 +12684,7 @@
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>114</v>
@@ -12639,7 +12704,7 @@
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F34" s="42" t="s">
         <v>115</v>
@@ -12659,7 +12724,7 @@
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>116</v>
@@ -12679,7 +12744,7 @@
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F36" s="42" t="s">
         <v>117</v>
@@ -12699,7 +12764,7 @@
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F37" s="42" t="s">
         <v>118</v>
@@ -12719,7 +12784,7 @@
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F38" s="42" t="s">
         <v>119</v>
@@ -12739,7 +12804,7 @@
       <c r="C39" s="13"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F39" s="42" t="s">
         <v>120</v>
@@ -12759,7 +12824,7 @@
       <c r="C40" s="13"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F40" s="42" t="s">
         <v>121</v>
@@ -12779,7 +12844,7 @@
       <c r="C41" s="13"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F41" s="42" t="s">
         <v>122</v>
@@ -12799,7 +12864,7 @@
       <c r="C42" s="13"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F42" s="42" t="s">
         <v>123</v>
@@ -12819,7 +12884,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="14"/>
       <c r="E43" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F43" s="42" t="s">
         <v>139</v>
@@ -12839,7 +12904,7 @@
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="42" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F44" s="42" t="s">
         <v>28</v>
@@ -12859,7 +12924,7 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="42" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F45" s="42" t="s">
         <v>29</v>
@@ -12879,7 +12944,7 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="42" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F46" s="42" t="s">
         <v>30</v>
@@ -12899,7 +12964,7 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="42" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F47" s="42" t="s">
         <v>31</v>
@@ -13318,11 +13383,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="B73:K85"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -13335,14 +13408,6 @@
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ansteypeファイル/DB設計 テーブル定義書.xlsx
+++ b/ansteypeファイル/DB設計 テーブル定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="1000" windowWidth="10270" windowHeight="9980" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="10980" yWindow="1000" windowWidth="10270" windowHeight="9980" tabRatio="756" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="308">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -1275,16 +1275,6 @@
   </si>
   <si>
     <t>保存先</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>見積、請求</t>
-    <rPh sb="0" eb="2">
-      <t>ミツモリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイキュウ</t>
-    </rPh>
     <phoneticPr fontId="9"/>
   </si>
   <si>
@@ -2314,6 +2304,20 @@
   </si>
   <si>
     <t>ORDER_TYPE</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TYPE_FLAG</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>１：見積　２：請求</t>
+    <rPh sb="2" eb="4">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイキュウ</t>
+    </rPh>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -2820,6 +2824,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2864,9 +2871,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3141,34 +3145,34 @@
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="4"/>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="4"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="67"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="4"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1">
@@ -3292,12 +3296,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -3318,15 +3322,15 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -3337,15 +3341,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -3372,10 +3376,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -3393,13 +3397,13 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="72"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -3408,18 +3412,18 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F7" s="41" t="s">
         <v>126</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="72"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="14">
       <c r="B8" s="13">
@@ -3428,18 +3432,18 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>125</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="72"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -3448,18 +3452,18 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F9" s="41" t="s">
         <v>127</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="72"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
@@ -3468,18 +3472,18 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>128</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="72"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
@@ -3488,18 +3492,18 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="72"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="14">
       <c r="B12" s="13">
@@ -3508,18 +3512,18 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="72"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1">
       <c r="B13" s="13">
@@ -3528,18 +3532,18 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="72"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
@@ -3548,18 +3552,18 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F14" s="39" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="24"/>
       <c r="H14" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="72"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
@@ -3572,8 +3576,8 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="72"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="73"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
@@ -3586,8 +3590,8 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="72"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="73"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
@@ -3600,8 +3604,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="20"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="72"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
@@ -3614,8 +3618,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="72"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="73"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="13">
@@ -3628,8 +3632,8 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="72"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
@@ -3642,8 +3646,8 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="72"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
@@ -3656,8 +3660,8 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="72"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="73"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
@@ -3670,8 +3674,8 @@
       <c r="G22" s="14"/>
       <c r="H22" s="20"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="72"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="73"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
@@ -3684,8 +3688,8 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="72"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="73"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
@@ -3698,8 +3702,8 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="72"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="73"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="26"/>
@@ -3830,160 +3834,160 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B40" s="79"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="66"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -4026,7 +4030,7 @@
   <dimension ref="A2:K53"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4041,12 +4045,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -4067,12 +4071,12 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>122</v>
@@ -4086,15 +4090,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -4121,10 +4125,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -4142,13 +4146,13 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="72"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -4164,11 +4168,11 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="72"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="16">
       <c r="B8" s="13">
@@ -4179,20 +4183,20 @@
         <v>27</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="72"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -4201,18 +4205,18 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="72"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="14">
       <c r="B10" s="13">
@@ -4221,18 +4225,18 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F10" s="39" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="72"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
@@ -4241,18 +4245,18 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="72"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
@@ -4261,18 +4265,18 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="72"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:11" ht="14">
       <c r="B13" s="13">
@@ -4285,8 +4289,8 @@
       <c r="G13" s="14"/>
       <c r="H13" s="20"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="72"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
@@ -4299,8 +4303,8 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="72"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
@@ -4313,8 +4317,8 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="72"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="73"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
@@ -4327,8 +4331,8 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="72"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="73"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
@@ -4341,8 +4345,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="72"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
@@ -4355,8 +4359,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="20"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="72"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="73"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="13">
@@ -4369,8 +4373,8 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="72"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
@@ -4383,8 +4387,8 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="72"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
@@ -4397,8 +4401,8 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="72"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="73"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
@@ -4411,8 +4415,8 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="72"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="73"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
@@ -4425,8 +4429,8 @@
       <c r="G23" s="14"/>
       <c r="H23" s="20"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="72"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="73"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
@@ -4439,8 +4443,8 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="72"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="73"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
@@ -4453,8 +4457,8 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="72"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="73"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="26"/>
@@ -4585,160 +4589,160 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B41" s="79"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="66"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
     </row>
     <row r="53" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -4781,7 +4785,7 @@
   </sheetPr>
   <dimension ref="B2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -4795,12 +4799,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -4821,15 +4825,15 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -4840,15 +4844,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -4875,10 +4879,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -4896,13 +4900,13 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="72"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -4911,18 +4915,18 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>137</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="72"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
@@ -4931,18 +4935,18 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>138</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="72"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -4951,18 +4955,18 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>37</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="72"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
@@ -4971,14 +4975,14 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>129</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="37"/>
@@ -4991,14 +4995,14 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>130</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="37"/>
@@ -5011,14 +5015,14 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>131</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="37"/>
@@ -5031,14 +5035,14 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>132</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="37"/>
@@ -5051,14 +5055,14 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>133</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="37"/>
@@ -5071,14 +5075,14 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>134</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="37"/>
@@ -5091,14 +5095,14 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>135</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="37"/>
@@ -5111,18 +5115,18 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="72"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
@@ -5131,18 +5135,18 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>139</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="72"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="73"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="13">
@@ -5151,18 +5155,18 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="72"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
@@ -5171,34 +5175,34 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="72"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="50" t="s">
-        <v>207</v>
+        <v>306</v>
       </c>
       <c r="F21" s="45" t="s">
         <v>54</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>140</v>
+        <v>307</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="37"/>
@@ -5211,18 +5215,18 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="72"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="73"/>
     </row>
     <row r="23" spans="2:11" ht="14">
       <c r="B23" s="13">
@@ -5231,18 +5235,18 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F23" s="39" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="72"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="73"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
@@ -5251,18 +5255,18 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="72"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="73"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
@@ -5271,18 +5275,18 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F25" s="39" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="72"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="73"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="7" t="s">
@@ -5290,160 +5294,160 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B30" s="79"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -5494,12 +5498,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -5520,15 +5524,15 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -5539,15 +5543,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -5574,10 +5578,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -5595,13 +5599,13 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="72"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -5612,20 +5616,20 @@
         <v>27</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="72"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
@@ -5634,18 +5638,18 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="72"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -5654,14 +5658,14 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="38"/>
@@ -5674,18 +5678,18 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="72"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
@@ -5694,18 +5698,18 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="72"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="1:11" ht="14">
       <c r="B12" s="13">
@@ -5714,18 +5718,18 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="72"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="13">
@@ -5734,18 +5738,18 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="72"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
@@ -5754,18 +5758,18 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F14" s="39" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="24"/>
       <c r="H14" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="72"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="22"/>
@@ -5800,160 +5804,160 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B22" s="79"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5984,7 +5988,7 @@
   </sheetPr>
   <dimension ref="A2:K85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
@@ -6000,12 +6004,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -6026,12 +6030,12 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>121</v>
@@ -6045,15 +6049,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -6080,10 +6084,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -6101,13 +6105,13 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="72"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -6116,7 +6120,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>85</v>
@@ -6125,7 +6129,7 @@
         <v>86</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="38"/>
@@ -6138,7 +6142,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>62</v>
@@ -6147,11 +6151,11 @@
         <v>87</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="72"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -6160,7 +6164,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>63</v>
@@ -6169,7 +6173,7 @@
         <v>88</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="38"/>
@@ -6182,7 +6186,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>64</v>
@@ -6191,7 +6195,7 @@
         <v>89</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="38"/>
@@ -6204,7 +6208,7 @@
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F11" s="42" t="s">
         <v>65</v>
@@ -6213,7 +6217,7 @@
         <v>90</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="38"/>
@@ -6226,7 +6230,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>66</v>
@@ -6235,7 +6239,7 @@
         <v>91</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="38"/>
@@ -6248,7 +6252,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>67</v>
@@ -6257,7 +6261,7 @@
         <v>92</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="38"/>
@@ -6270,7 +6274,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>68</v>
@@ -6279,7 +6283,7 @@
         <v>93</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="38"/>
@@ -6292,7 +6296,7 @@
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>69</v>
@@ -6301,7 +6305,7 @@
         <v>94</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="38"/>
@@ -6314,7 +6318,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>70</v>
@@ -6323,7 +6327,7 @@
         <v>95</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="38"/>
@@ -6336,7 +6340,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>71</v>
@@ -6345,7 +6349,7 @@
         <v>96</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="38"/>
@@ -6358,7 +6362,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F18" s="42" t="s">
         <v>60</v>
@@ -6367,7 +6371,7 @@
         <v>97</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="38"/>
@@ -6380,7 +6384,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>72</v>
@@ -6389,11 +6393,11 @@
         <v>98</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="72"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
@@ -6402,7 +6406,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>73</v>
@@ -6411,11 +6415,11 @@
         <v>99</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="72"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
@@ -6424,7 +6428,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>74</v>
@@ -6433,11 +6437,11 @@
         <v>99</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="72"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="73"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
@@ -6446,7 +6450,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>23</v>
@@ -6455,11 +6459,11 @@
         <v>100</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="72"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="73"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
@@ -6468,7 +6472,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>75</v>
@@ -6477,11 +6481,11 @@
         <v>101</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="72"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="73"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
@@ -6490,7 +6494,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F24" s="42" t="s">
         <v>76</v>
@@ -6499,11 +6503,11 @@
         <v>102</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="72"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="73"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
@@ -6512,7 +6516,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>77</v>
@@ -6521,11 +6525,11 @@
         <v>103</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="72"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="73"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="13">
@@ -6534,7 +6538,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F26" s="42" t="s">
         <v>78</v>
@@ -6543,11 +6547,11 @@
         <v>104</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="72"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="73"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="13">
@@ -6556,7 +6560,7 @@
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F27" s="42" t="s">
         <v>79</v>
@@ -6565,11 +6569,11 @@
         <v>105</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="72"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="73"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="13">
@@ -6578,7 +6582,7 @@
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F28" s="42" t="s">
         <v>80</v>
@@ -6587,11 +6591,11 @@
         <v>106</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="72"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="73"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="13">
@@ -6600,7 +6604,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>81</v>
@@ -6609,11 +6613,11 @@
         <v>107</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I29" s="13"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="72"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="73"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="13">
@@ -6622,7 +6626,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>82</v>
@@ -6631,11 +6635,11 @@
         <v>108</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="72"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="73"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="13">
@@ -6644,7 +6648,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F31" s="42" t="s">
         <v>83</v>
@@ -6653,11 +6657,11 @@
         <v>109</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="72"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="73"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="13">
@@ -6666,7 +6670,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F32" s="42" t="s">
         <v>84</v>
@@ -6675,11 +6679,11 @@
         <v>110</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="72"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="73"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="13">
@@ -6688,14 +6692,14 @@
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>111</v>
       </c>
       <c r="G33" s="42"/>
       <c r="H33" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="38"/>
@@ -6708,14 +6712,14 @@
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F34" s="42" t="s">
         <v>112</v>
       </c>
       <c r="G34" s="42"/>
       <c r="H34" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="38"/>
@@ -6728,14 +6732,14 @@
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>113</v>
       </c>
       <c r="G35" s="42"/>
       <c r="H35" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="38"/>
@@ -6748,14 +6752,14 @@
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F36" s="42" t="s">
         <v>114</v>
       </c>
       <c r="G36" s="42"/>
       <c r="H36" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="38"/>
@@ -6768,14 +6772,14 @@
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F37" s="42" t="s">
         <v>115</v>
       </c>
       <c r="G37" s="42"/>
       <c r="H37" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="38"/>
@@ -6788,14 +6792,14 @@
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F38" s="42" t="s">
         <v>116</v>
       </c>
       <c r="G38" s="42"/>
       <c r="H38" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="38"/>
@@ -6808,14 +6812,14 @@
       <c r="C39" s="13"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F39" s="42" t="s">
         <v>117</v>
       </c>
       <c r="G39" s="42"/>
       <c r="H39" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="38"/>
@@ -6828,14 +6832,14 @@
       <c r="C40" s="13"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F40" s="42" t="s">
         <v>118</v>
       </c>
       <c r="G40" s="42"/>
       <c r="H40" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="38"/>
@@ -6848,14 +6852,14 @@
       <c r="C41" s="13"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F41" s="42" t="s">
         <v>119</v>
       </c>
       <c r="G41" s="42"/>
       <c r="H41" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="38"/>
@@ -6868,14 +6872,14 @@
       <c r="C42" s="13"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F42" s="42" t="s">
         <v>120</v>
       </c>
       <c r="G42" s="42"/>
       <c r="H42" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="38"/>
@@ -6888,14 +6892,14 @@
       <c r="C43" s="13"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F43" s="42" t="s">
         <v>136</v>
       </c>
       <c r="G43" s="44"/>
       <c r="H43" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="38"/>
@@ -6908,18 +6912,18 @@
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I44" s="13"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="72"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="73"/>
     </row>
     <row r="45" spans="2:11" ht="14">
       <c r="B45" s="13">
@@ -6928,18 +6932,18 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F45" s="39" t="s">
         <v>29</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I45" s="13"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="72"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="73"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
       <c r="B46" s="13">
@@ -6948,18 +6952,18 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I46" s="13"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="72"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="73"/>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1">
       <c r="B47" s="13">
@@ -6968,18 +6972,18 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F47" s="39" t="s">
         <v>31</v>
       </c>
       <c r="G47" s="24"/>
       <c r="H47" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I47" s="13"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="72"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="73"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="26"/>
@@ -7230,160 +7234,160 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B73" s="79"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="65"/>
-      <c r="J73" s="65"/>
-      <c r="K73" s="65"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
-      <c r="J74" s="65"/>
-      <c r="K74" s="65"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
+      <c r="K74" s="66"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="65"/>
-      <c r="K75" s="65"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="66"/>
+      <c r="K75" s="66"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="65"/>
-      <c r="K76" s="65"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="66"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="65"/>
-      <c r="K77" s="65"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="66"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="65"/>
-      <c r="J78" s="65"/>
-      <c r="K78" s="65"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="66"/>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="65"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="66"/>
+      <c r="K79" s="66"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="65"/>
-      <c r="I80" s="65"/>
-      <c r="J80" s="65"/>
-      <c r="K80" s="65"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="66"/>
+      <c r="J80" s="66"/>
+      <c r="K80" s="66"/>
     </row>
     <row r="81" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="65"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="65"/>
-      <c r="I81" s="65"/>
-      <c r="J81" s="65"/>
-      <c r="K81" s="65"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="66"/>
     </row>
     <row r="82" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="65"/>
-      <c r="I82" s="65"/>
-      <c r="J82" s="65"/>
-      <c r="K82" s="65"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
     </row>
     <row r="83" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="65"/>
-      <c r="K83" s="65"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="66"/>
     </row>
     <row r="84" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="65"/>
-      <c r="I84" s="65"/>
-      <c r="J84" s="65"/>
-      <c r="K84" s="65"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="66"/>
     </row>
     <row r="85" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="65"/>
-      <c r="H85" s="65"/>
-      <c r="I85" s="65"/>
-      <c r="J85" s="65"/>
-      <c r="K85" s="65"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -7447,272 +7451,272 @@
       <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:16" ht="33.75" customHeight="1">
       <c r="B4" s="12">
         <v>1</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+        <v>153</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="2:16" ht="33.75" customHeight="1">
       <c r="B5" s="12">
         <v>2</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72"/>
+        <v>154</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="2:16" ht="33.75" customHeight="1">
       <c r="B6" s="12">
         <v>3</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72"/>
-      <c r="K6" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="73"/>
+      <c r="K6" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="64"/>
     </row>
     <row r="7" spans="2:16" ht="33.75" customHeight="1">
       <c r="B7" s="12">
         <v>4</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="72"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="66"/>
+        <v>163</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="67"/>
     </row>
     <row r="8" spans="2:16" ht="33.75" customHeight="1">
       <c r="B8" s="12">
         <v>5</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D8" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="72"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="66"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="67"/>
     </row>
     <row r="9" spans="2:16" ht="33.75" customHeight="1">
       <c r="B9" s="12">
         <v>6</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="66"/>
+        <v>150</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="67"/>
     </row>
     <row r="10" spans="2:16" ht="33.75" customHeight="1">
       <c r="B10" s="12">
         <v>7</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="66"/>
+        <v>144</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="67"/>
     </row>
     <row r="11" spans="2:16" ht="33.75" customHeight="1">
       <c r="B11" s="12">
         <v>8</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="66"/>
+        <v>145</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="67"/>
     </row>
     <row r="12" spans="2:16" ht="33.75" customHeight="1">
       <c r="B12" s="12">
         <v>9</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="72"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="66"/>
+        <v>152</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="73"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="67"/>
     </row>
     <row r="13" spans="2:16" ht="33.75" customHeight="1">
       <c r="B13" s="12">
         <v>10</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="69"/>
+        <v>146</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="73"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="70"/>
     </row>
     <row r="14" spans="2:16" ht="33.75" customHeight="1">
       <c r="B14" s="12">
         <v>11</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+        <v>156</v>
+      </c>
+      <c r="E14" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="73"/>
     </row>
     <row r="15" spans="2:16" ht="33.75" customHeight="1">
       <c r="B15" s="12">
         <v>12</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="72"/>
+        <v>164</v>
+      </c>
+      <c r="E15" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73"/>
     </row>
     <row r="16" spans="2:16" ht="33.75" customHeight="1">
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -7779,12 +7783,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -7805,12 +7809,12 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>32</v>
@@ -7824,15 +7828,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -7859,10 +7863,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -7880,13 +7884,13 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="72"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -7895,18 +7899,18 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="72"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
@@ -7915,18 +7919,18 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>33</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="72"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -7935,14 +7939,14 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="38"/>
@@ -7955,18 +7959,18 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="72"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="15">
       <c r="B11" s="13">
@@ -7975,14 +7979,14 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="38"/>
@@ -7995,14 +7999,14 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="38"/>
@@ -8015,14 +8019,14 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="38"/>
@@ -8035,14 +8039,14 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="38"/>
@@ -8055,14 +8059,14 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="38"/>
@@ -8075,18 +8079,18 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="72"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="73"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
@@ -8095,18 +8099,18 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="72"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="22"/>
@@ -8116,18 +8120,18 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>28</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="72"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="73"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="A19" s="22"/>
@@ -8137,18 +8141,18 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>29</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="72"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="A20" s="22"/>
@@ -8158,18 +8162,18 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="72"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="22"/>
@@ -8179,18 +8183,18 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="72"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="73"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="22"/>
@@ -8225,160 +8229,160 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B29" s="79"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -8427,12 +8431,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -8453,15 +8457,15 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -8472,15 +8476,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -8507,10 +8511,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -8533,8 +8537,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="72"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -8543,7 +8547,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>21</v>
@@ -8552,11 +8556,11 @@
         <v>24</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="72"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
@@ -8565,7 +8569,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>34</v>
@@ -8574,11 +8578,11 @@
         <v>25</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="72"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -8587,18 +8591,18 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="72"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
@@ -8607,18 +8611,18 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="72"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="22"/>
@@ -8628,18 +8632,18 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="72"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
@@ -8648,18 +8652,18 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="72"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="26"/>
@@ -8679,160 +8683,160 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B18" s="79"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -8878,12 +8882,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -8904,12 +8908,12 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>48</v>
@@ -8923,15 +8927,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -8958,10 +8962,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -8982,8 +8986,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="72"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -8994,20 +8998,20 @@
         <v>27</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>50</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="72"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
@@ -9016,14 +9020,14 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="38"/>
@@ -9036,14 +9040,14 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>57</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="38"/>
@@ -9056,14 +9060,14 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="38"/>
@@ -9076,14 +9080,14 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="38"/>
@@ -9096,14 +9100,14 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="38"/>
@@ -9116,14 +9120,14 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>61</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="38"/>
@@ -9136,18 +9140,18 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="72"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="2:11" ht="14">
       <c r="B15" s="13">
@@ -9156,18 +9160,18 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F15" s="39" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="72"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="73"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
@@ -9176,18 +9180,18 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="72"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="73"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
@@ -9196,18 +9200,18 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="72"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="26"/>
@@ -9410,160 +9414,160 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B39" s="79"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9610,12 +9614,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -9636,15 +9640,15 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -9655,15 +9659,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -9690,10 +9694,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -9714,8 +9718,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="72"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -9724,18 +9728,18 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="72"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="15">
       <c r="B8" s="13">
@@ -9744,18 +9748,18 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="72"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -9764,18 +9768,18 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>300</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>301</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="72"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
@@ -9786,20 +9790,20 @@
         <v>27</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>55</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="72"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" s="57" customFormat="1" ht="49.5" customHeight="1">
       <c r="B11" s="12">
@@ -9808,20 +9812,20 @@
       <c r="C11" s="12"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F11" s="56" t="s">
         <v>54</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="85"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
@@ -9830,16 +9834,16 @@
       <c r="C12" s="13"/>
       <c r="D12" s="25"/>
       <c r="E12" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="38"/>
@@ -9852,18 +9856,18 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="72"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="2:11" ht="14">
       <c r="B14" s="13">
@@ -9872,18 +9876,18 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F14" s="39" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="72"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
@@ -9892,18 +9896,18 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="72"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="73"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
@@ -9912,18 +9916,18 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F16" s="39" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="72"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="73"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
@@ -9936,8 +9940,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="72"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
@@ -9950,8 +9954,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="72"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="73"/>
     </row>
     <row r="19" spans="1:11" ht="14">
       <c r="B19" s="13">
@@ -9964,8 +9968,8 @@
       <c r="G19" s="14"/>
       <c r="H19" s="20"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="72"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
@@ -9978,8 +9982,8 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="72"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
@@ -9992,8 +9996,8 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="72"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="73"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -10040,160 +10044,160 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B30" s="79"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -10232,7 +10236,7 @@
   </sheetPr>
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -10248,12 +10252,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -10274,15 +10278,15 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -10293,15 +10297,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -10328,10 +10332,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -10349,7 +10353,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
@@ -10366,16 +10370,16 @@
         <v>27</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="38"/>
@@ -10388,14 +10392,14 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>60</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="38"/>
@@ -10408,14 +10412,14 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9" s="41" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="37"/>
@@ -10427,17 +10431,17 @@
       </c>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="F10" s="56" t="s">
         <v>303</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="G10" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="G10" s="58" t="s">
-        <v>305</v>
-      </c>
       <c r="H10" s="55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="59"/>
@@ -10450,18 +10454,18 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="72"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="14">
       <c r="B12" s="13">
@@ -10470,18 +10474,18 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="72"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1">
       <c r="B13" s="13">
@@ -10490,18 +10494,18 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="72"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
@@ -10510,18 +10514,18 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F14" s="39" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="24"/>
       <c r="H14" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="72"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
@@ -10684,160 +10688,160 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B31" s="79"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10881,12 +10885,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -10907,15 +10911,15 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -10926,15 +10930,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -10961,10 +10965,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -10982,13 +10986,13 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="72"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -10997,7 +11001,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>85</v>
@@ -11006,7 +11010,7 @@
         <v>86</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="38"/>
@@ -11019,7 +11023,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>62</v>
@@ -11028,11 +11032,11 @@
         <v>87</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="72"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -11041,7 +11045,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>63</v>
@@ -11050,7 +11054,7 @@
         <v>88</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="38"/>
@@ -11063,7 +11067,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>64</v>
@@ -11072,7 +11076,7 @@
         <v>89</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="38"/>
@@ -11085,7 +11089,7 @@
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F11" s="42" t="s">
         <v>65</v>
@@ -11094,7 +11098,7 @@
         <v>90</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="38"/>
@@ -11107,7 +11111,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>66</v>
@@ -11116,7 +11120,7 @@
         <v>91</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="38"/>
@@ -11129,7 +11133,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>67</v>
@@ -11138,7 +11142,7 @@
         <v>92</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="38"/>
@@ -11151,7 +11155,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>68</v>
@@ -11160,7 +11164,7 @@
         <v>93</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="38"/>
@@ -11173,7 +11177,7 @@
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>69</v>
@@ -11182,7 +11186,7 @@
         <v>94</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="38"/>
@@ -11195,7 +11199,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>70</v>
@@ -11204,7 +11208,7 @@
         <v>95</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="38"/>
@@ -11217,7 +11221,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>71</v>
@@ -11226,7 +11230,7 @@
         <v>96</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="38"/>
@@ -11239,7 +11243,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F18" s="42" t="s">
         <v>60</v>
@@ -11248,7 +11252,7 @@
         <v>97</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="38"/>
@@ -11261,7 +11265,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>72</v>
@@ -11270,11 +11274,11 @@
         <v>98</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="72"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
@@ -11283,7 +11287,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>73</v>
@@ -11292,11 +11296,11 @@
         <v>99</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="72"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
@@ -11305,7 +11309,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>74</v>
@@ -11314,11 +11318,11 @@
         <v>99</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="72"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="73"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
@@ -11327,7 +11331,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>23</v>
@@ -11336,11 +11340,11 @@
         <v>100</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="72"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="73"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
@@ -11349,7 +11353,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>75</v>
@@ -11358,11 +11362,11 @@
         <v>101</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="72"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="73"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
@@ -11371,7 +11375,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F24" s="42" t="s">
         <v>76</v>
@@ -11380,11 +11384,11 @@
         <v>102</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="72"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="73"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
@@ -11393,7 +11397,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>77</v>
@@ -11402,11 +11406,11 @@
         <v>103</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="72"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="73"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="13">
@@ -11415,20 +11419,20 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G26" s="42" t="s">
         <v>104</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="72"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="73"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="13">
@@ -11437,20 +11441,20 @@
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G27" s="42" t="s">
         <v>105</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="72"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="73"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="13">
@@ -11459,7 +11463,7 @@
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F28" s="42" t="s">
         <v>80</v>
@@ -11468,11 +11472,11 @@
         <v>106</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="72"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="73"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="13">
@@ -11481,7 +11485,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>81</v>
@@ -11490,11 +11494,11 @@
         <v>107</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I29" s="13"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="72"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="73"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="13">
@@ -11503,7 +11507,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>82</v>
@@ -11512,11 +11516,11 @@
         <v>108</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="72"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="73"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="13">
@@ -11525,7 +11529,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F31" s="42" t="s">
         <v>83</v>
@@ -11534,11 +11538,11 @@
         <v>109</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="72"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="73"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="13">
@@ -11547,7 +11551,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F32" s="42" t="s">
         <v>84</v>
@@ -11556,11 +11560,11 @@
         <v>110</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="72"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="73"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="B33" s="13">
@@ -11569,14 +11573,14 @@
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>111</v>
       </c>
       <c r="G33" s="42"/>
       <c r="H33" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="38"/>
@@ -11589,14 +11593,14 @@
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F34" s="42" t="s">
         <v>112</v>
       </c>
       <c r="G34" s="42"/>
       <c r="H34" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="38"/>
@@ -11609,14 +11613,14 @@
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>113</v>
       </c>
       <c r="G35" s="42"/>
       <c r="H35" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="38"/>
@@ -11629,14 +11633,14 @@
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F36" s="42" t="s">
         <v>114</v>
       </c>
       <c r="G36" s="42"/>
       <c r="H36" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="38"/>
@@ -11649,18 +11653,18 @@
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F37" s="42" t="s">
         <v>28</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I37" s="13"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="72"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="73"/>
     </row>
     <row r="38" spans="1:11" ht="15">
       <c r="B38" s="13">
@@ -11669,18 +11673,18 @@
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F38" s="42" t="s">
         <v>29</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I38" s="13"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="72"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="73"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="B39" s="13">
@@ -11689,18 +11693,18 @@
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F39" s="42" t="s">
         <v>30</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I39" s="13"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="72"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="73"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="B40" s="13">
@@ -11709,18 +11713,18 @@
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F40" s="42" t="s">
         <v>31</v>
       </c>
       <c r="G40" s="24"/>
       <c r="H40" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I40" s="13"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="72"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="73"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="B41" s="26"/>
@@ -11815,160 +11819,160 @@
       </c>
     </row>
     <row r="53" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B53" s="79"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="66"/>
     </row>
     <row r="54" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="66"/>
     </row>
     <row r="55" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="66"/>
     </row>
     <row r="56" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="66"/>
     </row>
     <row r="57" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="66"/>
     </row>
     <row r="58" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66"/>
     </row>
     <row r="59" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="66"/>
     </row>
     <row r="60" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="65"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="66"/>
     </row>
     <row r="61" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="65"/>
-      <c r="K61" s="65"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
     </row>
     <row r="62" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
-      <c r="K62" s="65"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="66"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="66"/>
     </row>
     <row r="63" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="66"/>
     </row>
     <row r="64" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
-      <c r="K64" s="65"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
     </row>
     <row r="65" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="65"/>
-      <c r="J65" s="65"/>
-      <c r="K65" s="65"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -12012,7 +12016,7 @@
   <dimension ref="A2:K85"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -12027,12 +12031,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -12053,15 +12057,15 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -12072,15 +12076,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -12107,10 +12111,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -12128,13 +12132,13 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="72"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -12143,7 +12147,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>85</v>
@@ -12152,7 +12156,7 @@
         <v>86</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="38"/>
@@ -12165,7 +12169,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>62</v>
@@ -12174,11 +12178,11 @@
         <v>87</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="72"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -12187,7 +12191,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>63</v>
@@ -12196,7 +12200,7 @@
         <v>88</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="38"/>
@@ -12209,7 +12213,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>64</v>
@@ -12218,7 +12222,7 @@
         <v>89</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="38"/>
@@ -12231,7 +12235,7 @@
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F11" s="42" t="s">
         <v>65</v>
@@ -12240,7 +12244,7 @@
         <v>90</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="38"/>
@@ -12253,7 +12257,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>66</v>
@@ -12262,7 +12266,7 @@
         <v>91</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="38"/>
@@ -12275,7 +12279,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>67</v>
@@ -12284,7 +12288,7 @@
         <v>92</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="38"/>
@@ -12297,7 +12301,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>68</v>
@@ -12306,7 +12310,7 @@
         <v>93</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="38"/>
@@ -12319,7 +12323,7 @@
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>69</v>
@@ -12328,7 +12332,7 @@
         <v>94</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="38"/>
@@ -12341,7 +12345,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>70</v>
@@ -12350,7 +12354,7 @@
         <v>95</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="38"/>
@@ -12363,7 +12367,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>71</v>
@@ -12372,7 +12376,7 @@
         <v>96</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="38"/>
@@ -12385,7 +12389,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F18" s="42" t="s">
         <v>60</v>
@@ -12394,7 +12398,7 @@
         <v>97</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="38"/>
@@ -12407,7 +12411,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>72</v>
@@ -12416,11 +12420,11 @@
         <v>98</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="72"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
@@ -12429,7 +12433,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>73</v>
@@ -12438,11 +12442,11 @@
         <v>99</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="72"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
@@ -12451,7 +12455,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>74</v>
@@ -12460,11 +12464,11 @@
         <v>99</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="72"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="73"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
@@ -12473,7 +12477,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>23</v>
@@ -12482,11 +12486,11 @@
         <v>100</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="72"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="73"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
@@ -12495,7 +12499,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>75</v>
@@ -12504,11 +12508,11 @@
         <v>101</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="72"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="73"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
@@ -12517,7 +12521,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F24" s="42" t="s">
         <v>76</v>
@@ -12526,11 +12530,11 @@
         <v>102</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="72"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="73"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
@@ -12539,7 +12543,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>77</v>
@@ -12548,11 +12552,11 @@
         <v>103</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="72"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="73"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="13">
@@ -12561,20 +12565,20 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G26" s="42" t="s">
         <v>104</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="72"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="73"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="13">
@@ -12583,20 +12587,20 @@
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G27" s="42" t="s">
         <v>105</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="72"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="73"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="13">
@@ -12605,7 +12609,7 @@
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F28" s="42" t="s">
         <v>80</v>
@@ -12614,11 +12618,11 @@
         <v>106</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="72"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="73"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="13">
@@ -12627,7 +12631,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>81</v>
@@ -12636,11 +12640,11 @@
         <v>107</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I29" s="13"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="72"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="73"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="13">
@@ -12649,7 +12653,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>82</v>
@@ -12658,11 +12662,11 @@
         <v>108</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="72"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="73"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="13">
@@ -12671,7 +12675,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F31" s="42" t="s">
         <v>83</v>
@@ -12680,11 +12684,11 @@
         <v>109</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="72"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="73"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="13">
@@ -12693,7 +12697,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F32" s="42" t="s">
         <v>84</v>
@@ -12702,11 +12706,11 @@
         <v>110</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="72"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="73"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="13">
@@ -12715,14 +12719,14 @@
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>111</v>
       </c>
       <c r="G33" s="42"/>
       <c r="H33" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="38"/>
@@ -12735,14 +12739,14 @@
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F34" s="42" t="s">
         <v>112</v>
       </c>
       <c r="G34" s="42"/>
       <c r="H34" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="38"/>
@@ -12755,14 +12759,14 @@
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>113</v>
       </c>
       <c r="G35" s="42"/>
       <c r="H35" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="38"/>
@@ -12775,14 +12779,14 @@
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F36" s="42" t="s">
         <v>114</v>
       </c>
       <c r="G36" s="42"/>
       <c r="H36" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="38"/>
@@ -12795,14 +12799,14 @@
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F37" s="42" t="s">
         <v>115</v>
       </c>
       <c r="G37" s="42"/>
       <c r="H37" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="38"/>
@@ -12815,14 +12819,14 @@
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F38" s="42" t="s">
         <v>116</v>
       </c>
       <c r="G38" s="42"/>
       <c r="H38" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="38"/>
@@ -12835,14 +12839,14 @@
       <c r="C39" s="13"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F39" s="42" t="s">
         <v>117</v>
       </c>
       <c r="G39" s="42"/>
       <c r="H39" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="38"/>
@@ -12855,14 +12859,14 @@
       <c r="C40" s="13"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F40" s="42" t="s">
         <v>118</v>
       </c>
       <c r="G40" s="42"/>
       <c r="H40" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="38"/>
@@ -12875,14 +12879,14 @@
       <c r="C41" s="13"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F41" s="42" t="s">
         <v>119</v>
       </c>
       <c r="G41" s="42"/>
       <c r="H41" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="38"/>
@@ -12895,14 +12899,14 @@
       <c r="C42" s="13"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F42" s="42" t="s">
         <v>120</v>
       </c>
       <c r="G42" s="42"/>
       <c r="H42" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="38"/>
@@ -12915,14 +12919,14 @@
       <c r="C43" s="13"/>
       <c r="D43" s="14"/>
       <c r="E43" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F43" s="42" t="s">
         <v>136</v>
       </c>
       <c r="G43" s="44"/>
       <c r="H43" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="38"/>
@@ -12935,18 +12939,18 @@
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F44" s="42" t="s">
         <v>28</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I44" s="13"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="72"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="73"/>
     </row>
     <row r="45" spans="2:11" ht="15">
       <c r="B45" s="13">
@@ -12955,18 +12959,18 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F45" s="42" t="s">
         <v>29</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I45" s="13"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="72"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="73"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
       <c r="B46" s="13">
@@ -12975,18 +12979,18 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F46" s="42" t="s">
         <v>30</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I46" s="13"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="72"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="73"/>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1">
       <c r="B47" s="13">
@@ -12995,18 +12999,18 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F47" s="42" t="s">
         <v>31</v>
       </c>
       <c r="G47" s="24"/>
       <c r="H47" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I47" s="13"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="72"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="73"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="26"/>
@@ -13257,160 +13261,160 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B73" s="79"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="65"/>
-      <c r="J73" s="65"/>
-      <c r="K73" s="65"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
-      <c r="J74" s="65"/>
-      <c r="K74" s="65"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
+      <c r="K74" s="66"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="65"/>
-      <c r="K75" s="65"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="66"/>
+      <c r="K75" s="66"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="65"/>
-      <c r="K76" s="65"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="66"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="65"/>
-      <c r="K77" s="65"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="66"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="65"/>
-      <c r="J78" s="65"/>
-      <c r="K78" s="65"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="66"/>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="65"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="66"/>
+      <c r="K79" s="66"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="65"/>
-      <c r="I80" s="65"/>
-      <c r="J80" s="65"/>
-      <c r="K80" s="65"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="66"/>
+      <c r="J80" s="66"/>
+      <c r="K80" s="66"/>
     </row>
     <row r="81" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="65"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="65"/>
-      <c r="I81" s="65"/>
-      <c r="J81" s="65"/>
-      <c r="K81" s="65"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="66"/>
     </row>
     <row r="82" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="65"/>
-      <c r="I82" s="65"/>
-      <c r="J82" s="65"/>
-      <c r="K82" s="65"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
     </row>
     <row r="83" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="65"/>
-      <c r="K83" s="65"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="66"/>
     </row>
     <row r="84" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="65"/>
-      <c r="I84" s="65"/>
-      <c r="J84" s="65"/>
-      <c r="K84" s="65"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="66"/>
     </row>
     <row r="85" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="65"/>
-      <c r="H85" s="65"/>
-      <c r="I85" s="65"/>
-      <c r="J85" s="65"/>
-      <c r="K85" s="65"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="25">

--- a/ansteypeファイル/DB設計 テーブル定義書.xlsx
+++ b/ansteypeファイル/DB設計 テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ans_client\ansteypeファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3F3D06-4A8F-4493-A6F4-DEE2499156C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C12BAAB-91E5-49AC-B2EB-8F8EC235799D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="756" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="-16320" windowWidth="38640" windowHeight="15720" tabRatio="756" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一時保存記録" sheetId="19" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="331">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -1804,9 +1804,6 @@
     <t>EMAIL_CREATION_ID</t>
   </si>
   <si>
-    <t>ORDER</t>
-  </si>
-  <si>
     <t>UNIT_PRICE</t>
   </si>
   <si>
@@ -2429,94 +2426,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>ピーアップ竹ノ塚</t>
-  </si>
-  <si>
-    <t>ピーアップ西東京</t>
-  </si>
-  <si>
-    <t>ピーアップ名古屋</t>
-  </si>
-  <si>
-    <t>ラネット川口MG</t>
-  </si>
-  <si>
-    <t>ラネット渡辺MG</t>
-  </si>
-  <si>
-    <t>ラネット佐藤MG</t>
-  </si>
-  <si>
-    <t>ラネット吉岡MG</t>
-  </si>
-  <si>
-    <t>ラネット木下MG</t>
-  </si>
-  <si>
-    <t>ラネット西島MG</t>
-  </si>
-  <si>
-    <t>ラネット伊藤MG</t>
-  </si>
-  <si>
-    <t>ラネット伊津野MG</t>
-  </si>
-  <si>
-    <t>ラネット五十嵐MG</t>
-  </si>
-  <si>
-    <t>CS埼玉</t>
-  </si>
-  <si>
-    <t>CS千葉</t>
-  </si>
-  <si>
-    <t>日テレ</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>ケインズ</t>
-  </si>
-  <si>
-    <t>テラ</t>
-  </si>
-  <si>
-    <t>ＲＤ</t>
-  </si>
-  <si>
-    <t>ベルパーク</t>
-  </si>
-  <si>
-    <t>エムデジ長野</t>
-  </si>
-  <si>
-    <t>エムデジ都内東</t>
-  </si>
-  <si>
-    <t>エムデジ都内西</t>
-  </si>
-  <si>
-    <t>プラザ</t>
-  </si>
-  <si>
-    <t>ＩＤＫ</t>
-  </si>
-  <si>
-    <t>コスモネット埼玉</t>
-  </si>
-  <si>
-    <t>コスモネット千葉</t>
-  </si>
-  <si>
-    <t>ティーガイア</t>
-  </si>
-  <si>
-    <t>ピーアップ埼玉</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>MATTER_MASTER_EXE_ID</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -2534,6 +2443,18 @@
     <rPh sb="6" eb="8">
       <t>ショリ</t>
     </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>VAR_DATE</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>COUNT</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -2736,7 +2657,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2753,18 +2674,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2929,7 +2838,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3157,15 +3066,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3390,7 +3290,7 @@
   <dimension ref="A2:K37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B25" sqref="B25:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -3439,10 +3339,10 @@
       <c r="D3" s="91"/>
       <c r="E3" s="88"/>
       <c r="F3" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="G3" s="67" t="s">
         <v>317</v>
-      </c>
-      <c r="G3" s="67" t="s">
-        <v>318</v>
       </c>
       <c r="H3" s="68"/>
       <c r="I3" s="68"/>
@@ -3524,16 +3424,16 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>203</v>
+        <v>328</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="38"/>
@@ -3546,10 +3446,10 @@
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="F8" s="75" t="s">
         <v>311</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>312</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="64" t="s">
@@ -3566,10 +3466,10 @@
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="F9" s="75" t="s">
         <v>313</v>
-      </c>
-      <c r="F9" s="75" t="s">
-        <v>314</v>
       </c>
       <c r="G9" s="75"/>
       <c r="H9" s="64" t="s">
@@ -3586,10 +3486,10 @@
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
       <c r="E10" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="73" t="s">
         <v>319</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>320</v>
       </c>
       <c r="G10" s="64"/>
       <c r="H10" s="64" t="s">
@@ -3606,10 +3506,10 @@
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
       <c r="E11" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="F11" s="73" t="s">
         <v>321</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>322</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="64" t="s">
@@ -3626,10 +3526,10 @@
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
       <c r="E12" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="F12" s="73" t="s">
         <v>323</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>324</v>
       </c>
       <c r="G12" s="64"/>
       <c r="H12" s="64" t="s">
@@ -3689,10 +3589,10 @@
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="F15" s="78" t="s">
         <v>325</v>
-      </c>
-      <c r="F15" s="78" t="s">
-        <v>326</v>
       </c>
       <c r="G15" s="64"/>
       <c r="H15" s="64" t="s">
@@ -3962,7 +3862,7 @@
   <dimension ref="A2:K86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -4008,7 +3908,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>144</v>
@@ -4093,7 +3993,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>85</v>
@@ -4115,16 +4015,16 @@
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>203</v>
+        <v>328</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="38"/>
@@ -4137,7 +4037,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>62</v>
@@ -4159,7 +4059,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>63</v>
@@ -4181,7 +4081,7 @@
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F11" s="42" t="s">
         <v>64</v>
@@ -4203,7 +4103,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>192</v>
+        <v>329</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>65</v>
@@ -4212,7 +4112,7 @@
         <v>90</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="38"/>
@@ -4225,7 +4125,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>66</v>
@@ -4247,7 +4147,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>67</v>
@@ -4269,7 +4169,7 @@
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>68</v>
@@ -4291,7 +4191,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>69</v>
@@ -4313,7 +4213,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>70</v>
@@ -4335,7 +4235,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F18" s="42" t="s">
         <v>71</v>
@@ -4357,7 +4257,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>208</v>
+        <v>281</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>60</v>
@@ -4379,7 +4279,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>72</v>
@@ -4401,7 +4301,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>73</v>
@@ -4423,7 +4323,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>74</v>
@@ -4445,7 +4345,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>23</v>
@@ -4467,7 +4367,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F24" s="42" t="s">
         <v>75</v>
@@ -4489,7 +4389,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>76</v>
@@ -4511,7 +4411,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F26" s="42" t="s">
         <v>77</v>
@@ -4533,10 +4433,10 @@
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G27" s="42" t="s">
         <v>104</v>
@@ -4555,10 +4455,10 @@
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G28" s="42" t="s">
         <v>105</v>
@@ -4577,7 +4477,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>80</v>
@@ -4599,7 +4499,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>81</v>
@@ -4621,7 +4521,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F31" s="42" t="s">
         <v>82</v>
@@ -4643,7 +4543,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F32" s="42" t="s">
         <v>83</v>
@@ -4665,7 +4565,7 @@
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>84</v>
@@ -4687,7 +4587,7 @@
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F34" s="42" t="s">
         <v>111</v>
@@ -4707,7 +4607,7 @@
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>112</v>
@@ -4727,7 +4627,7 @@
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F36" s="42" t="s">
         <v>113</v>
@@ -4747,7 +4647,7 @@
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F37" s="42" t="s">
         <v>114</v>
@@ -4767,7 +4667,7 @@
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>239</v>
+        <v>330</v>
       </c>
       <c r="F38" s="42" t="s">
         <v>115</v>
@@ -4787,7 +4687,7 @@
       <c r="C39" s="13"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F39" s="42" t="s">
         <v>116</v>
@@ -4807,7 +4707,7 @@
       <c r="C40" s="13"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F40" s="42" t="s">
         <v>117</v>
@@ -4827,7 +4727,7 @@
       <c r="C41" s="13"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F41" s="42" t="s">
         <v>118</v>
@@ -4847,7 +4747,7 @@
       <c r="C42" s="13"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F42" s="42" t="s">
         <v>119</v>
@@ -4867,7 +4767,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F43" s="42" t="s">
         <v>120</v>
@@ -4887,7 +4787,7 @@
       <c r="C44" s="13"/>
       <c r="D44" s="14"/>
       <c r="E44" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F44" s="42" t="s">
         <v>136</v>
@@ -4907,10 +4807,10 @@
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="F45" s="42" t="s">
         <v>311</v>
-      </c>
-      <c r="F45" s="42" t="s">
-        <v>312</v>
       </c>
       <c r="G45" s="42"/>
       <c r="H45" s="14" t="s">
@@ -4927,10 +4827,10 @@
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="F46" s="42" t="s">
         <v>313</v>
-      </c>
-      <c r="F46" s="42" t="s">
-        <v>314</v>
       </c>
       <c r="G46" s="42"/>
       <c r="H46" s="14" t="s">
@@ -4947,7 +4847,7 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F47" s="42" t="s">
         <v>28</v>
@@ -4967,7 +4867,7 @@
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F48" s="42" t="s">
         <v>29</v>
@@ -4987,10 +4887,10 @@
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="F49" s="42" t="s">
         <v>315</v>
-      </c>
-      <c r="F49" s="42" t="s">
-        <v>316</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14" t="s">
@@ -5007,7 +4907,7 @@
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F50" s="42" t="s">
         <v>30</v>
@@ -5027,7 +4927,7 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F51" s="42" t="s">
         <v>31</v>
@@ -5497,7 +5397,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>148</v>
@@ -5582,7 +5482,7 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F7" s="41" t="s">
         <v>126</v>
@@ -5602,7 +5502,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>125</v>
@@ -5622,7 +5522,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F9" s="41" t="s">
         <v>127</v>
@@ -5642,14 +5542,14 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>128</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="114"/>
@@ -6246,7 +6146,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>122</v>
@@ -6353,13 +6253,13 @@
         <v>27</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>203</v>
@@ -7000,7 +6900,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>146</v>
@@ -7085,7 +6985,7 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>137</v>
@@ -7105,7 +7005,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>138</v>
@@ -7125,7 +7025,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>37</v>
@@ -7145,7 +7045,7 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>129</v>
@@ -7165,7 +7065,7 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>130</v>
@@ -7185,7 +7085,7 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>131</v>
@@ -7205,7 +7105,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>132</v>
@@ -7225,7 +7125,7 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>133</v>
@@ -7245,7 +7145,7 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>134</v>
@@ -7265,7 +7165,7 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>135</v>
@@ -7285,7 +7185,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>38</v>
@@ -7305,7 +7205,7 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>139</v>
@@ -7325,7 +7225,7 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>39</v>
@@ -7345,7 +7245,7 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>40</v>
@@ -7363,13 +7263,13 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F21" s="45" t="s">
         <v>54</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>203</v>
@@ -7699,7 +7599,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>151</v>
@@ -7786,13 +7686,13 @@
         <v>27</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>140</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>189</v>
@@ -7808,7 +7708,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>142</v>
@@ -7828,7 +7728,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>141</v>
@@ -7848,7 +7748,7 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>143</v>
@@ -8290,7 +8190,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>85</v>
@@ -8312,7 +8212,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>62</v>
@@ -8334,7 +8234,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>63</v>
@@ -8356,7 +8256,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>64</v>
@@ -8400,7 +8300,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>66</v>
@@ -8422,7 +8322,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>67</v>
@@ -8444,7 +8344,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>68</v>
@@ -8466,7 +8366,7 @@
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>69</v>
@@ -8488,7 +8388,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>70</v>
@@ -8510,7 +8410,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>71</v>
@@ -8532,7 +8432,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F18" s="42" t="s">
         <v>60</v>
@@ -8554,7 +8454,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>72</v>
@@ -8576,7 +8476,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>73</v>
@@ -8598,7 +8498,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>74</v>
@@ -8620,7 +8520,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>23</v>
@@ -8642,7 +8542,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>75</v>
@@ -8664,7 +8564,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F24" s="42" t="s">
         <v>76</v>
@@ -8686,7 +8586,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>77</v>
@@ -8708,7 +8608,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F26" s="42" t="s">
         <v>78</v>
@@ -8730,7 +8630,7 @@
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F27" s="42" t="s">
         <v>79</v>
@@ -8752,7 +8652,7 @@
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F28" s="42" t="s">
         <v>80</v>
@@ -8774,7 +8674,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>81</v>
@@ -8796,7 +8696,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>82</v>
@@ -8818,7 +8718,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F31" s="42" t="s">
         <v>83</v>
@@ -8840,7 +8740,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F32" s="42" t="s">
         <v>84</v>
@@ -8862,7 +8762,7 @@
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>111</v>
@@ -8882,7 +8782,7 @@
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F34" s="42" t="s">
         <v>112</v>
@@ -8902,7 +8802,7 @@
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>113</v>
@@ -8922,7 +8822,7 @@
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F36" s="42" t="s">
         <v>114</v>
@@ -8942,7 +8842,7 @@
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F37" s="42" t="s">
         <v>115</v>
@@ -8962,7 +8862,7 @@
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F38" s="42" t="s">
         <v>116</v>
@@ -8982,7 +8882,7 @@
       <c r="C39" s="13"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F39" s="42" t="s">
         <v>117</v>
@@ -9002,7 +8902,7 @@
       <c r="C40" s="13"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F40" s="42" t="s">
         <v>118</v>
@@ -9022,7 +8922,7 @@
       <c r="C41" s="13"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F41" s="42" t="s">
         <v>119</v>
@@ -9042,7 +8942,7 @@
       <c r="C42" s="13"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F42" s="42" t="s">
         <v>120</v>
@@ -9818,7 +9718,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>153</v>
@@ -9835,7 +9735,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>154</v>
@@ -9852,7 +9752,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>155</v>
@@ -9877,7 +9777,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>163</v>
@@ -9900,7 +9800,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>161</v>
@@ -9923,7 +9823,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D9" s="48" t="s">
         <v>150</v>
@@ -9946,7 +9846,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>144</v>
@@ -9969,7 +9869,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>145</v>
@@ -9992,7 +9892,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>152</v>
@@ -10015,7 +9915,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D13" s="47" t="s">
         <v>146</v>
@@ -10038,7 +9938,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>156</v>
@@ -10169,7 +10069,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>32</v>
@@ -10768,10 +10668,10 @@
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:N36"/>
+  <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:K30"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -10783,10 +10683,9 @@
     <col min="9" max="9" width="8.609375" customWidth="1"/>
     <col min="10" max="10" width="9.109375" customWidth="1"/>
     <col min="11" max="11" width="22.1640625" customWidth="1"/>
-    <col min="14" max="14" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="B2" s="112" t="s">
         <v>9</v>
       </c>
@@ -10812,13 +10711,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="112"/>
       <c r="C3" s="103"/>
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G3" s="49" t="s">
         <v>171</v>
@@ -10828,7 +10727,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
@@ -10842,7 +10741,7 @@
       <c r="J4" s="103"/>
       <c r="K4" s="104"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
@@ -10872,7 +10771,7 @@
       </c>
       <c r="K5" s="104"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
         <v>1</v>
       </c>
@@ -10896,7 +10795,7 @@
       <c r="J6" s="114"/>
       <c r="K6" s="104"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
         <v>1</v>
       </c>
@@ -10918,7 +10817,7 @@
       <c r="J7" s="114"/>
       <c r="K7" s="104"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
         <v>2</v>
       </c>
@@ -10939,11 +10838,8 @@
       <c r="I8" s="13"/>
       <c r="J8" s="114"/>
       <c r="K8" s="104"/>
-      <c r="N8" s="119" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
         <v>8</v>
       </c>
@@ -10962,11 +10858,8 @@
       <c r="I9" s="13"/>
       <c r="J9" s="110"/>
       <c r="K9" s="104"/>
-      <c r="N9" s="118" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
         <v>9</v>
       </c>
@@ -10985,11 +10878,8 @@
       <c r="I10" s="13"/>
       <c r="J10" s="110"/>
       <c r="K10" s="104"/>
-      <c r="N10" s="117" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="22"/>
       <c r="B11" s="13">
         <v>10</v>
@@ -11009,11 +10899,8 @@
       <c r="I11" s="13"/>
       <c r="J11" s="110"/>
       <c r="K11" s="104"/>
-      <c r="N11" s="118" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
         <v>11</v>
       </c>
@@ -11032,11 +10919,8 @@
       <c r="I12" s="13"/>
       <c r="J12" s="110"/>
       <c r="K12" s="104"/>
-      <c r="N12" s="117" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="26"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -11047,34 +10931,13 @@
       <c r="I13" s="26"/>
       <c r="J13" s="22"/>
       <c r="K13" s="29"/>
-      <c r="N13" s="118" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="N14" s="117" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1">
-      <c r="N15" s="118" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1">
-      <c r="N16" s="117" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="118" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="111"/>
       <c r="C18" s="97"/>
       <c r="D18" s="97"/>
@@ -11085,11 +10948,8 @@
       <c r="I18" s="97"/>
       <c r="J18" s="97"/>
       <c r="K18" s="97"/>
-      <c r="N18" s="117" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="97"/>
       <c r="C19" s="97"/>
       <c r="D19" s="97"/>
@@ -11100,11 +10960,8 @@
       <c r="I19" s="97"/>
       <c r="J19" s="97"/>
       <c r="K19" s="97"/>
-      <c r="N19" s="118" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="97"/>
       <c r="C20" s="97"/>
       <c r="D20" s="97"/>
@@ -11115,11 +10972,8 @@
       <c r="I20" s="97"/>
       <c r="J20" s="97"/>
       <c r="K20" s="97"/>
-      <c r="N20" s="117" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="97"/>
       <c r="C21" s="97"/>
       <c r="D21" s="97"/>
@@ -11130,11 +10984,8 @@
       <c r="I21" s="97"/>
       <c r="J21" s="97"/>
       <c r="K21" s="97"/>
-      <c r="N21" s="118" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="97"/>
       <c r="C22" s="97"/>
       <c r="D22" s="97"/>
@@ -11145,11 +10996,8 @@
       <c r="I22" s="97"/>
       <c r="J22" s="97"/>
       <c r="K22" s="97"/>
-      <c r="N22" s="117" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="97"/>
       <c r="C23" s="97"/>
       <c r="D23" s="97"/>
@@ -11160,11 +11008,8 @@
       <c r="I23" s="97"/>
       <c r="J23" s="97"/>
       <c r="K23" s="97"/>
-      <c r="N23" s="118" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="97"/>
       <c r="C24" s="97"/>
       <c r="D24" s="97"/>
@@ -11175,11 +11020,8 @@
       <c r="I24" s="97"/>
       <c r="J24" s="97"/>
       <c r="K24" s="97"/>
-      <c r="N24" s="117" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="97"/>
       <c r="C25" s="97"/>
       <c r="D25" s="97"/>
@@ -11190,11 +11032,8 @@
       <c r="I25" s="97"/>
       <c r="J25" s="97"/>
       <c r="K25" s="97"/>
-      <c r="N25" s="118" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="97"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
@@ -11205,11 +11044,8 @@
       <c r="I26" s="97"/>
       <c r="J26" s="97"/>
       <c r="K26" s="97"/>
-      <c r="N26" s="117" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="97"/>
       <c r="C27" s="97"/>
       <c r="D27" s="97"/>
@@ -11220,11 +11056,8 @@
       <c r="I27" s="97"/>
       <c r="J27" s="97"/>
       <c r="K27" s="97"/>
-      <c r="N27" s="118" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="97"/>
       <c r="C28" s="97"/>
       <c r="D28" s="97"/>
@@ -11235,11 +11068,8 @@
       <c r="I28" s="97"/>
       <c r="J28" s="97"/>
       <c r="K28" s="97"/>
-      <c r="N28" s="117" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="97"/>
       <c r="C29" s="97"/>
       <c r="D29" s="97"/>
@@ -11250,11 +11080,8 @@
       <c r="I29" s="97"/>
       <c r="J29" s="97"/>
       <c r="K29" s="97"/>
-      <c r="N29" s="118" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="97"/>
       <c r="C30" s="97"/>
       <c r="D30" s="97"/>
@@ -11265,39 +11092,6 @@
       <c r="I30" s="97"/>
       <c r="J30" s="97"/>
       <c r="K30" s="97"/>
-      <c r="N30" s="117" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="15.75" customHeight="1">
-      <c r="N31" s="118" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" ht="15.75" customHeight="1">
-      <c r="N32" s="117" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="33" spans="14:14" ht="15.75" customHeight="1">
-      <c r="N33" s="118" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="34" spans="14:14" ht="15.75" customHeight="1">
-      <c r="N34" s="117" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="35" spans="14:14" ht="15.75" customHeight="1">
-      <c r="N35" s="118" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="36" spans="14:14" ht="15.75" customHeight="1">
-      <c r="N36" s="117" t="s">
-        <v>354</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -11374,7 +11168,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>48</v>
@@ -11465,7 +11259,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>203</v>
@@ -11508,7 +11302,7 @@
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="38"/>
@@ -11528,7 +11322,7 @@
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="38"/>
@@ -11548,7 +11342,7 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="38"/>
@@ -11588,7 +11382,7 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="38"/>
@@ -12106,7 +11900,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>172</v>
@@ -12209,7 +12003,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>53</v>
@@ -12229,10 +12023,10 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>299</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>300</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="20" t="s">
@@ -12257,7 +12051,7 @@
         <v>55</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>203</v>
@@ -12279,7 +12073,7 @@
         <v>54</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H11" s="55" t="s">
         <v>203</v>
@@ -12295,13 +12089,13 @@
       <c r="C12" s="13"/>
       <c r="D12" s="25"/>
       <c r="E12" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>203</v>
@@ -12744,7 +12538,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>149</v>
@@ -12837,7 +12631,7 @@
         <v>59</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>203</v>
@@ -12853,7 +12647,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>60</v>
@@ -12873,7 +12667,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F9" s="41" t="s">
         <v>23</v>
@@ -12893,13 +12687,13 @@
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
       <c r="E10" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="G10" s="58" t="s">
         <v>303</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>304</v>
       </c>
       <c r="H10" s="55" t="s">
         <v>203</v>
@@ -13329,8 +13123,8 @@
   </sheetPr>
   <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="F40" sqref="F23:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -13377,7 +13171,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>150</v>
@@ -13462,7 +13256,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>85</v>
@@ -13484,16 +13278,16 @@
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>203</v>
+        <v>328</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="38"/>
@@ -13506,7 +13300,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>62</v>
@@ -13528,7 +13322,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>63</v>
@@ -13550,7 +13344,7 @@
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F11" s="42" t="s">
         <v>64</v>
@@ -13572,7 +13366,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>193</v>
+        <v>329</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>65</v>
@@ -13594,7 +13388,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>66</v>
@@ -13616,7 +13410,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>67</v>
@@ -13638,7 +13432,7 @@
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>68</v>
@@ -13660,7 +13454,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>69</v>
@@ -13682,7 +13476,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>70</v>
@@ -13704,7 +13498,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F18" s="42" t="s">
         <v>71</v>
@@ -13726,7 +13520,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>60</v>
@@ -13748,7 +13542,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>72</v>
@@ -13770,7 +13564,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>73</v>
@@ -13792,7 +13586,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>74</v>
@@ -13814,7 +13608,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>23</v>
@@ -13836,7 +13630,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F24" s="42" t="s">
         <v>75</v>
@@ -13858,7 +13652,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>76</v>
@@ -13880,7 +13674,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F26" s="42" t="s">
         <v>77</v>
@@ -13902,10 +13696,10 @@
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G27" s="42" t="s">
         <v>104</v>
@@ -13924,10 +13718,10 @@
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G28" s="42" t="s">
         <v>105</v>
@@ -13946,7 +13740,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>80</v>
@@ -13968,7 +13762,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>81</v>
@@ -13990,7 +13784,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F31" s="42" t="s">
         <v>82</v>
@@ -14012,7 +13806,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F32" s="42" t="s">
         <v>83</v>
@@ -14034,7 +13828,7 @@
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>84</v>
@@ -14056,7 +13850,7 @@
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F34" s="42" t="s">
         <v>111</v>
@@ -14076,7 +13870,7 @@
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>112</v>
@@ -14096,7 +13890,7 @@
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F36" s="42" t="s">
         <v>113</v>
@@ -14116,10 +13910,10 @@
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="F37" s="42" t="s">
         <v>311</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>312</v>
       </c>
       <c r="G37" s="42"/>
       <c r="H37" s="14" t="s">
@@ -14136,10 +13930,10 @@
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="F38" s="42" t="s">
         <v>313</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>314</v>
       </c>
       <c r="G38" s="42"/>
       <c r="H38" s="14" t="s">
@@ -14156,7 +13950,7 @@
       <c r="C39" s="13"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F39" s="42" t="s">
         <v>114</v>
@@ -14489,17 +14283,17 @@
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ansteypeファイル/DB設計 テーブル定義書.xlsx
+++ b/ansteypeファイル/DB設計 テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ans_client\ansteypeファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C12BAAB-91E5-49AC-B2EB-8F8EC235799D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF330E7-F409-4A00-84FA-ECC750ED5F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="-16320" windowWidth="38640" windowHeight="15720" tabRatio="756" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="756" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一時保存記録" sheetId="19" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="見積請求設定情報" sheetId="5" r:id="rId13"/>
     <sheet name="請求減算ルール情報" sheetId="17" r:id="rId14"/>
     <sheet name="請求情報" sheetId="18" r:id="rId15"/>
+    <sheet name="送付情報" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="345">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -1753,9 +1754,6 @@
   </si>
   <si>
     <t>DATE</t>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
@@ -1921,9 +1919,6 @@
   </si>
   <si>
     <t>TAX_EXEMPT</t>
-  </si>
-  <si>
-    <t>SUBJECT_1</t>
   </si>
   <si>
     <t>BED</t>
@@ -2455,6 +2450,109 @@
   </si>
   <si>
     <t>COUNT</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>送付情報</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>delivery_info</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>送付対象</t>
+    <rPh sb="0" eb="2">
+      <t>ソウフ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>delivery_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ｆｌｇ</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>送付先</t>
+    <rPh sb="0" eb="3">
+      <t>ソウフサキ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>shipping_address</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>店舗アドレス設定</t>
+    <rPh sb="0" eb="2">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>store_address_settings</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>代理店名</t>
+    <rPh sb="0" eb="3">
+      <t>ダイリテン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>agent_name</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>SUBJECT_1</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>subject_name</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>件名</t>
+    <rPh sb="0" eb="2">
+      <t>ケンメイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>var_date</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -2838,7 +2936,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3066,6 +3164,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3290,7 +3389,7 @@
   <dimension ref="A2:K37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:K37"/>
+      <selection activeCell="A13" sqref="A13:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -3339,10 +3438,10 @@
       <c r="D3" s="91"/>
       <c r="E3" s="88"/>
       <c r="F3" s="66" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G3" s="67" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H3" s="68"/>
       <c r="I3" s="68"/>
@@ -3409,7 +3508,7 @@
       </c>
       <c r="G6" s="64"/>
       <c r="H6" s="64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I6" s="72" t="s">
         <v>27</v>
@@ -3424,16 +3523,16 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>326</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>328</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="38"/>
@@ -3446,10 +3545,10 @@
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="64" t="s">
@@ -3466,10 +3565,10 @@
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="64" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F9" s="75" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G9" s="75"/>
       <c r="H9" s="64" t="s">
@@ -3486,10 +3585,10 @@
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
       <c r="E10" s="64" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G10" s="64"/>
       <c r="H10" s="64" t="s">
@@ -3506,14 +3605,14 @@
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
       <c r="E11" s="64" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I11" s="63"/>
       <c r="J11" s="87"/>
@@ -3526,10 +3625,10 @@
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
       <c r="E12" s="64" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G12" s="64"/>
       <c r="H12" s="64" t="s">
@@ -3554,7 +3653,7 @@
       </c>
       <c r="G13" s="64"/>
       <c r="H13" s="64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I13" s="63"/>
       <c r="J13" s="89"/>
@@ -3589,10 +3688,10 @@
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="77" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G15" s="64"/>
       <c r="H15" s="64" t="s">
@@ -3617,7 +3716,7 @@
       </c>
       <c r="G16" s="64"/>
       <c r="H16" s="64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I16" s="63"/>
       <c r="J16" s="89"/>
@@ -3861,8 +3960,8 @@
   </sheetPr>
   <dimension ref="A2:K86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -3908,7 +4007,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>144</v>
@@ -3978,7 +4077,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
@@ -3993,7 +4092,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>85</v>
@@ -4015,16 +4114,16 @@
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>326</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>328</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="38"/>
@@ -4037,7 +4136,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>62</v>
@@ -4059,7 +4158,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>63</v>
@@ -4081,7 +4180,7 @@
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F11" s="42" t="s">
         <v>64</v>
@@ -4103,7 +4202,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>65</v>
@@ -4125,7 +4224,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>66</v>
@@ -4147,7 +4246,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>67</v>
@@ -4169,7 +4268,7 @@
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>68</v>
@@ -4191,7 +4290,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>69</v>
@@ -4213,7 +4312,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>70</v>
@@ -4235,7 +4334,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F18" s="42" t="s">
         <v>71</v>
@@ -4257,7 +4356,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>60</v>
@@ -4279,7 +4378,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>72</v>
@@ -4301,7 +4400,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>73</v>
@@ -4323,7 +4422,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>74</v>
@@ -4345,7 +4444,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>23</v>
@@ -4367,7 +4466,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F24" s="42" t="s">
         <v>75</v>
@@ -4376,7 +4475,7 @@
         <v>101</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="114"/>
@@ -4389,7 +4488,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>76</v>
@@ -4411,7 +4510,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F26" s="42" t="s">
         <v>77</v>
@@ -4433,10 +4532,10 @@
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G27" s="42" t="s">
         <v>104</v>
@@ -4455,10 +4554,10 @@
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G28" s="42" t="s">
         <v>105</v>
@@ -4477,7 +4576,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>80</v>
@@ -4499,7 +4598,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>81</v>
@@ -4521,7 +4620,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F31" s="42" t="s">
         <v>82</v>
@@ -4543,7 +4642,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F32" s="42" t="s">
         <v>83</v>
@@ -4565,7 +4664,7 @@
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>84</v>
@@ -4574,7 +4673,7 @@
         <v>110</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="114"/>
@@ -4587,7 +4686,7 @@
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F34" s="42" t="s">
         <v>111</v>
@@ -4607,7 +4706,7 @@
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>112</v>
@@ -4627,7 +4726,7 @@
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F36" s="42" t="s">
         <v>113</v>
@@ -4647,7 +4746,7 @@
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F37" s="42" t="s">
         <v>114</v>
@@ -4667,14 +4766,14 @@
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F38" s="42" t="s">
         <v>115</v>
       </c>
       <c r="G38" s="42"/>
       <c r="H38" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="38"/>
@@ -4687,14 +4786,14 @@
       <c r="C39" s="13"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F39" s="42" t="s">
         <v>116</v>
       </c>
       <c r="G39" s="42"/>
       <c r="H39" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="38"/>
@@ -4707,7 +4806,7 @@
       <c r="C40" s="13"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F40" s="42" t="s">
         <v>117</v>
@@ -4727,7 +4826,7 @@
       <c r="C41" s="13"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F41" s="42" t="s">
         <v>118</v>
@@ -4747,7 +4846,7 @@
       <c r="C42" s="13"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F42" s="42" t="s">
         <v>119</v>
@@ -4767,7 +4866,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F43" s="42" t="s">
         <v>120</v>
@@ -4787,14 +4886,14 @@
       <c r="C44" s="13"/>
       <c r="D44" s="14"/>
       <c r="E44" s="42" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F44" s="42" t="s">
         <v>136</v>
       </c>
       <c r="G44" s="44"/>
       <c r="H44" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="38"/>
@@ -4807,10 +4906,10 @@
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G45" s="42"/>
       <c r="H45" s="14" t="s">
@@ -4827,10 +4926,10 @@
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G46" s="42"/>
       <c r="H46" s="14" t="s">
@@ -4847,14 +4946,14 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="42" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F47" s="42" t="s">
         <v>28</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="114"/>
@@ -4867,7 +4966,7 @@
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="42" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F48" s="42" t="s">
         <v>29</v>
@@ -4887,10 +4986,10 @@
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="42" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14" t="s">
@@ -4907,14 +5006,14 @@
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="42" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F50" s="42" t="s">
         <v>30</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I50" s="13"/>
       <c r="J50" s="110"/>
@@ -4927,7 +5026,7 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="42" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F51" s="42" t="s">
         <v>31</v>
@@ -5351,7 +5450,7 @@
   <dimension ref="A2:K52"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -5397,7 +5496,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>148</v>
@@ -5467,7 +5566,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
@@ -5482,7 +5581,7 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>244</v>
+        <v>339</v>
       </c>
       <c r="F7" s="41" t="s">
         <v>126</v>
@@ -5502,7 +5601,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>125</v>
@@ -5522,7 +5621,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F9" s="41" t="s">
         <v>127</v>
@@ -5542,14 +5641,14 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>128</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="114"/>
@@ -5569,7 +5668,7 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="114"/>
@@ -5609,7 +5708,7 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="110"/>
@@ -6146,7 +6245,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>122</v>
@@ -6216,7 +6315,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
@@ -6253,16 +6352,16 @@
         <v>27</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="114"/>
@@ -6282,7 +6381,7 @@
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="114"/>
@@ -6322,7 +6421,7 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="110"/>
@@ -6900,7 +6999,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>146</v>
@@ -6970,7 +7069,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
@@ -6985,7 +7084,7 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>137</v>
@@ -7005,7 +7104,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>138</v>
@@ -7025,7 +7124,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>37</v>
@@ -7045,14 +7144,14 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>129</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="37"/>
@@ -7065,14 +7164,14 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>130</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="37"/>
@@ -7085,14 +7184,14 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>131</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="37"/>
@@ -7105,14 +7204,14 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>132</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="37"/>
@@ -7125,14 +7224,14 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>133</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="37"/>
@@ -7145,14 +7244,14 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>134</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="37"/>
@@ -7165,14 +7264,14 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>135</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="37"/>
@@ -7185,7 +7284,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>38</v>
@@ -7205,7 +7304,7 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>139</v>
@@ -7225,7 +7324,7 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>39</v>
@@ -7245,7 +7344,7 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>40</v>
@@ -7263,16 +7362,16 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="50" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F21" s="45" t="s">
         <v>54</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="37"/>
@@ -7292,7 +7391,7 @@
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="114"/>
@@ -7332,7 +7431,7 @@
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="110"/>
@@ -7599,7 +7698,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>151</v>
@@ -7669,7 +7768,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
@@ -7686,13 +7785,13 @@
         <v>27</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>140</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>189</v>
@@ -7708,7 +7807,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>142</v>
@@ -7728,7 +7827,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>141</v>
@@ -7748,7 +7847,7 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>143</v>
@@ -7775,7 +7874,7 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="114"/>
@@ -7815,7 +7914,7 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="110"/>
@@ -8058,8 +8157,8 @@
   </sheetPr>
   <dimension ref="A2:K85"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -8175,7 +8274,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
@@ -8190,7 +8289,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>85</v>
@@ -8199,7 +8298,7 @@
         <v>86</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="38"/>
@@ -8212,7 +8311,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>62</v>
@@ -8234,7 +8333,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>63</v>
@@ -8256,7 +8355,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>64</v>
@@ -8287,7 +8386,7 @@
         <v>90</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="38"/>
@@ -8300,7 +8399,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>66</v>
@@ -8322,7 +8421,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>67</v>
@@ -8344,7 +8443,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>68</v>
@@ -8366,7 +8465,7 @@
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>69</v>
@@ -8388,7 +8487,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>70</v>
@@ -8410,7 +8509,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>71</v>
@@ -8432,7 +8531,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F18" s="42" t="s">
         <v>60</v>
@@ -8454,7 +8553,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>72</v>
@@ -8476,7 +8575,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>73</v>
@@ -8498,7 +8597,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>74</v>
@@ -8520,7 +8619,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>23</v>
@@ -8542,7 +8641,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>75</v>
@@ -8551,7 +8650,7 @@
         <v>101</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="114"/>
@@ -8564,7 +8663,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F24" s="42" t="s">
         <v>76</v>
@@ -8586,7 +8685,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>77</v>
@@ -8608,7 +8707,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F26" s="42" t="s">
         <v>78</v>
@@ -8630,7 +8729,7 @@
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F27" s="42" t="s">
         <v>79</v>
@@ -8652,7 +8751,7 @@
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F28" s="42" t="s">
         <v>80</v>
@@ -8674,7 +8773,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>81</v>
@@ -8696,7 +8795,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>82</v>
@@ -8718,7 +8817,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F31" s="42" t="s">
         <v>83</v>
@@ -8740,7 +8839,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F32" s="42" t="s">
         <v>84</v>
@@ -8749,7 +8848,7 @@
         <v>110</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="114"/>
@@ -8762,7 +8861,7 @@
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>111</v>
@@ -8782,7 +8881,7 @@
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F34" s="42" t="s">
         <v>112</v>
@@ -8802,7 +8901,7 @@
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>113</v>
@@ -8822,7 +8921,7 @@
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F36" s="42" t="s">
         <v>114</v>
@@ -8842,14 +8941,14 @@
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F37" s="42" t="s">
         <v>115</v>
       </c>
       <c r="G37" s="42"/>
       <c r="H37" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="38"/>
@@ -8862,14 +8961,14 @@
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F38" s="42" t="s">
         <v>116</v>
       </c>
       <c r="G38" s="42"/>
       <c r="H38" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="38"/>
@@ -8882,7 +8981,7 @@
       <c r="C39" s="13"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F39" s="42" t="s">
         <v>117</v>
@@ -8902,7 +9001,7 @@
       <c r="C40" s="13"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F40" s="42" t="s">
         <v>118</v>
@@ -8922,7 +9021,7 @@
       <c r="C41" s="13"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F41" s="42" t="s">
         <v>119</v>
@@ -8942,7 +9041,7 @@
       <c r="C42" s="13"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F42" s="42" t="s">
         <v>120</v>
@@ -8962,14 +9061,14 @@
       <c r="C43" s="13"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F43" s="42" t="s">
         <v>136</v>
       </c>
       <c r="G43" s="44"/>
       <c r="H43" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="38"/>
@@ -8989,7 +9088,7 @@
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="114"/>
@@ -9029,7 +9128,7 @@
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="110"/>
@@ -9492,6 +9591,820 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFECC845-0A93-43B1-98DD-C24BE4886987}">
+  <sheetPr>
+    <tabColor theme="5"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A2:K53"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.609375" customWidth="1"/>
+    <col min="2" max="3" width="8.38671875" customWidth="1"/>
+    <col min="4" max="4" width="8.609375" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="25.38671875" customWidth="1"/>
+    <col min="9" max="9" width="8.609375" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B2" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B3" s="112"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="110"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="104"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="104"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="114"/>
+      <c r="K6" s="104"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="104"/>
+    </row>
+    <row r="8" spans="2:11" ht="15">
+      <c r="B8" s="13">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="104"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B9" s="13">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="104"/>
+    </row>
+    <row r="10" spans="2:11" ht="13.8">
+      <c r="B10" s="13">
+        <v>5</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="104"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B11" s="13">
+        <v>6</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="104"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B12" s="13">
+        <v>7</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="F12" s="117" t="s">
+        <v>342</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="104"/>
+    </row>
+    <row r="13" spans="2:11" ht="15">
+      <c r="B13" s="13">
+        <v>8</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="104"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B14" s="13">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="104"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B15" s="13">
+        <v>10</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="75"/>
+      <c r="H15" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="104"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B16" s="13">
+        <v>11</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="G16" s="75"/>
+      <c r="H16" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="104"/>
+    </row>
+    <row r="17" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="76"/>
+      <c r="B17" s="13">
+        <v>12</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="I17" s="63"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="88"/>
+    </row>
+    <row r="18" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="76"/>
+      <c r="B18" s="13">
+        <v>13</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="64"/>
+      <c r="H18" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="I18" s="63"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="88"/>
+    </row>
+    <row r="19" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="76"/>
+      <c r="B19" s="13">
+        <v>14</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="77" t="s">
+        <v>322</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>323</v>
+      </c>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="I19" s="63"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="62"/>
+    </row>
+    <row r="20" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="76"/>
+      <c r="B20" s="13">
+        <v>15</v>
+      </c>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="I20" s="63"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="88"/>
+    </row>
+    <row r="21" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="76"/>
+      <c r="B21" s="13">
+        <v>16</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="64"/>
+      <c r="H21" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="I21" s="63"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="88"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B22" s="13">
+        <v>17</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="104"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B23" s="13">
+        <v>18</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="104"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B24" s="13">
+        <v>19</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="104"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B25" s="13">
+        <v>20</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="104"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B26" s="26"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="29"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B27" s="26"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B28" s="26"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="29"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B29" s="26"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="29"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B30" s="26"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="29"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B31" s="26"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="29"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B32" s="26"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="29"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B33" s="26"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="29"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B34" s="26"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="29"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B36" s="23"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B40" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B41" s="111"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B42" s="97"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="97"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B46" s="97"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="97"/>
+      <c r="K46" s="97"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="97"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B48" s="97"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="97"/>
+      <c r="J48" s="97"/>
+      <c r="K48" s="97"/>
+    </row>
+    <row r="49" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B49" s="97"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="97"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="97"/>
+    </row>
+    <row r="50" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B50" s="97"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="97"/>
+      <c r="J50" s="97"/>
+      <c r="K50" s="97"/>
+    </row>
+    <row r="51" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="97"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="97"/>
+      <c r="J51" s="97"/>
+      <c r="K51" s="97"/>
+    </row>
+    <row r="52" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B52" s="97"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="97"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="97"/>
+    </row>
+    <row r="53" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B53" s="97"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="97"/>
+      <c r="J53" s="97"/>
+      <c r="K53" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B41:K53"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+  </mergeCells>
+  <phoneticPr fontId="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
@@ -9718,7 +10631,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>153</v>
@@ -9735,7 +10648,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>154</v>
@@ -9752,7 +10665,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>155</v>
@@ -9777,7 +10690,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>163</v>
@@ -9800,7 +10713,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>161</v>
@@ -9823,7 +10736,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D9" s="48" t="s">
         <v>150</v>
@@ -9846,7 +10759,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>144</v>
@@ -9869,7 +10782,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>145</v>
@@ -9892,7 +10805,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>152</v>
@@ -9915,7 +10828,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D13" s="47" t="s">
         <v>146</v>
@@ -9938,7 +10851,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>156</v>
@@ -10069,7 +10982,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>32</v>
@@ -10382,7 +11295,7 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="110"/>
@@ -10424,7 +11337,7 @@
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="110"/>
@@ -10717,7 +11630,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G3" s="49" t="s">
         <v>171</v>
@@ -10802,7 +11715,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>21</v>
@@ -10824,7 +11737,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>34</v>
@@ -10853,7 +11766,7 @@
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="110"/>
@@ -10894,7 +11807,7 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="110"/>
@@ -11168,7 +12081,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>48</v>
@@ -11253,16 +12166,16 @@
         <v>27</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>50</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="114"/>
@@ -11275,7 +12188,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>51</v>
@@ -11295,14 +12208,14 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>57</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="38"/>
@@ -11315,14 +12228,14 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="38"/>
@@ -11335,14 +12248,14 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="38"/>
@@ -11355,7 +12268,7 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>22</v>
@@ -11375,14 +12288,14 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>61</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="38"/>
@@ -11402,7 +12315,7 @@
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="114"/>
@@ -11442,7 +12355,7 @@
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="110"/>
@@ -11900,7 +12813,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>172</v>
@@ -11983,7 +12896,7 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>52</v>
@@ -12003,7 +12916,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>53</v>
@@ -12023,10 +12936,10 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="20" t="s">
@@ -12045,16 +12958,16 @@
         <v>27</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>55</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="110"/>
@@ -12067,16 +12980,16 @@
       <c r="C11" s="12"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F11" s="56" t="s">
         <v>54</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="115"/>
@@ -12089,16 +13002,16 @@
       <c r="C12" s="13"/>
       <c r="D12" s="25"/>
       <c r="E12" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="38"/>
@@ -12118,7 +13031,7 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="114"/>
@@ -12158,7 +13071,7 @@
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="110"/>
@@ -12492,7 +13405,7 @@
   <dimension ref="A2:K43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -12538,7 +13451,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>149</v>
@@ -12608,7 +13521,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
@@ -12625,16 +13538,16 @@
         <v>27</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="38"/>
@@ -12647,7 +13560,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>60</v>
@@ -12667,7 +13580,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F9" s="41" t="s">
         <v>23</v>
@@ -12687,16 +13600,16 @@
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
       <c r="E10" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="F10" s="56" t="s">
-        <v>302</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>303</v>
-      </c>
       <c r="H10" s="55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="36"/>
@@ -12716,7 +13629,7 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="114"/>
@@ -12756,7 +13669,7 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="110"/>
@@ -13123,8 +14036,8 @@
   </sheetPr>
   <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="F40" sqref="F23:F40"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -13171,7 +14084,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>150</v>
@@ -13241,7 +14154,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
@@ -13256,7 +14169,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>85</v>
@@ -13278,16 +14191,16 @@
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>326</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>328</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="38"/>
@@ -13300,7 +14213,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>62</v>
@@ -13322,7 +14235,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>63</v>
@@ -13344,7 +14257,7 @@
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F11" s="42" t="s">
         <v>64</v>
@@ -13366,7 +14279,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>65</v>
@@ -13388,7 +14301,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>66</v>
@@ -13410,7 +14323,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>67</v>
@@ -13432,7 +14345,7 @@
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>68</v>
@@ -13454,7 +14367,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>69</v>
@@ -13476,7 +14389,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>70</v>
@@ -13498,7 +14411,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F18" s="42" t="s">
         <v>71</v>
@@ -13520,7 +14433,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>60</v>
@@ -13542,7 +14455,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>72</v>
@@ -13564,7 +14477,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>73</v>
@@ -13586,7 +14499,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>74</v>
@@ -13608,7 +14521,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>23</v>
@@ -13630,7 +14543,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F24" s="42" t="s">
         <v>75</v>
@@ -13639,7 +14552,7 @@
         <v>101</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="114"/>
@@ -13652,7 +14565,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>76</v>
@@ -13674,7 +14587,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F26" s="42" t="s">
         <v>77</v>
@@ -13696,10 +14609,10 @@
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G27" s="42" t="s">
         <v>104</v>
@@ -13718,10 +14631,10 @@
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G28" s="42" t="s">
         <v>105</v>
@@ -13740,7 +14653,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>80</v>
@@ -13762,7 +14675,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>81</v>
@@ -13784,7 +14697,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F31" s="42" t="s">
         <v>82</v>
@@ -13806,7 +14719,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F32" s="42" t="s">
         <v>83</v>
@@ -13828,7 +14741,7 @@
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>84</v>
@@ -13850,7 +14763,7 @@
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F34" s="42" t="s">
         <v>111</v>
@@ -13870,7 +14783,7 @@
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>112</v>
@@ -13890,7 +14803,7 @@
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F36" s="42" t="s">
         <v>113</v>
@@ -13910,10 +14823,10 @@
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G37" s="42"/>
       <c r="H37" s="14" t="s">
@@ -13930,10 +14843,10 @@
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F38" s="42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G38" s="42"/>
       <c r="H38" s="14" t="s">
@@ -13950,7 +14863,7 @@
       <c r="C39" s="13"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F39" s="42" t="s">
         <v>114</v>
@@ -13977,7 +14890,7 @@
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="114"/>
@@ -14017,7 +14930,7 @@
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="110"/>

--- a/ansteypeファイル/DB設計 テーブル定義書.xlsx
+++ b/ansteypeファイル/DB設計 テーブル定義書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ans_client\ansteypeファイル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ans_client\ansteypeファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF330E7-F409-4A00-84FA-ECC750ED5F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="756" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="23230" windowHeight="13870" tabRatio="756" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="一時保存記録" sheetId="19" r:id="rId1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="371">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -2457,10 +2456,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>delivery_info</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>送付対象</t>
     <rPh sb="0" eb="2">
       <t>ソウフ</t>
@@ -2555,11 +2550,257 @@
     <t>var_date</t>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <t>WEEK1_AMOUNT</t>
+  </si>
+  <si>
+    <t>第1週合計金額</t>
+  </si>
+  <si>
+    <r>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>週の合計金額</t>
+    </r>
+  </si>
+  <si>
+    <t>NUMERIC(10, 2)</t>
+  </si>
+  <si>
+    <t>WEEK2_AMOUNT</t>
+  </si>
+  <si>
+    <t>第2週合計金額</t>
+  </si>
+  <si>
+    <r>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>週の合計金額</t>
+    </r>
+  </si>
+  <si>
+    <t>WEEK3_AMOUNT</t>
+  </si>
+  <si>
+    <t>第3週合計金額</t>
+  </si>
+  <si>
+    <r>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>週の合計金額</t>
+    </r>
+  </si>
+  <si>
+    <t>WEEK4_AMOUNT</t>
+  </si>
+  <si>
+    <t>第4週合計金額</t>
+  </si>
+  <si>
+    <r>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>週の合計金額</t>
+    </r>
+  </si>
+  <si>
+    <t>WEEK5_AMOUNT</t>
+  </si>
+  <si>
+    <t>第5週合計金額</t>
+  </si>
+  <si>
+    <r>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>週の合計金額</t>
+    </r>
+  </si>
+  <si>
+    <t>ESTIMATION_REQUEST_TYPE</t>
+  </si>
+  <si>
+    <t>見積請求区分</t>
+  </si>
+  <si>
+    <r>
+      <t>データタイプの区分
+（例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 1=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>見積</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>請求）</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>●</t>
+  </si>
+  <si>
+    <t>COMPANY_ID</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>会社名ID</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>取引先の会社ID</t>
+    <rPh sb="0" eb="3">
+      <t>トリヒキサキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>agent_id</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>代理店id</t>
+    <rPh sb="0" eb="3">
+      <t>ダイリテン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>delivery_info</t>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="28">
     <font>
       <sz val="10"/>
@@ -2936,7 +3177,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3106,18 +3347,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3129,24 +3376,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3164,12 +3411,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{E9CC4A5B-8520-43DE-9D80-19763DAB5B2E}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3381,7 +3643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0375D7BF-CEF0-446D-B84C-640B4B4D120C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3392,27 +3654,27 @@
       <selection activeCell="A13" sqref="A13:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" style="61" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" style="61" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" style="61" customWidth="1"/>
-    <col min="5" max="6" width="12.609375" style="61"/>
-    <col min="7" max="7" width="25.38671875" style="61" customWidth="1"/>
-    <col min="8" max="8" width="12.609375" style="61"/>
-    <col min="9" max="9" width="8.609375" style="61" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="61" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" style="61" customWidth="1"/>
-    <col min="12" max="16384" width="12.609375" style="61"/>
+    <col min="1" max="1" width="4.6328125" style="61" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" style="61" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="61"/>
+    <col min="7" max="7" width="25.36328125" style="61" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="61"/>
+    <col min="9" max="9" width="8.6328125" style="61" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="61" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" style="61" customWidth="1"/>
+    <col min="12" max="16384" width="12.6328125" style="61"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="88"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="63" t="s">
         <v>5</v>
       </c>
@@ -3433,10 +3695,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="88"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="66" t="s">
         <v>314</v>
       </c>
@@ -3452,15 +3714,15 @@
       <c r="B4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="88"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="92"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="71" t="s">
@@ -3487,10 +3749,10 @@
       <c r="I5" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="92" t="s">
+      <c r="J5" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="88"/>
+      <c r="K5" s="92"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="63">
@@ -3513,8 +3775,8 @@
       <c r="I6" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="88"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="92"/>
     </row>
     <row r="7" spans="1:11" customFormat="1" ht="15.75" customHeight="1">
       <c r="B7" s="63">
@@ -3555,8 +3817,8 @@
         <v>189</v>
       </c>
       <c r="I8" s="63"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="88"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="92"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="B9" s="63">
@@ -3575,8 +3837,8 @@
         <v>189</v>
       </c>
       <c r="I9" s="63"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="88"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="92"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="B10" s="63">
@@ -3615,8 +3877,8 @@
         <v>192</v>
       </c>
       <c r="I11" s="63"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="88"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
     </row>
     <row r="12" spans="1:11" ht="15">
       <c r="B12" s="63">
@@ -3656,8 +3918,8 @@
         <v>192</v>
       </c>
       <c r="I13" s="63"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="88"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="92"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="76"/>
@@ -3677,8 +3939,8 @@
         <v>189</v>
       </c>
       <c r="I14" s="63"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="88"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="92"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="76"/>
@@ -3719,8 +3981,8 @@
         <v>192</v>
       </c>
       <c r="I16" s="63"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="88"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="92"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="76"/>
@@ -3740,8 +4002,8 @@
         <v>189</v>
       </c>
       <c r="I17" s="63"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="88"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="92"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="76"/>
@@ -3776,169 +4038,163 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="B25:K37"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J11:K11"/>
@@ -3946,6 +4202,12 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3953,7 +4215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3964,24 +4226,24 @@
       <selection activeCell="E12" sqref="E12:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -4002,10 +4264,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="16" t="s">
         <v>288</v>
       </c>
@@ -4021,15 +4283,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -4056,10 +4318,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="104"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -4082,8 +4344,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="104"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -4148,8 +4410,8 @@
         <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="104"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="111"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
@@ -4390,8 +4652,8 @@
         <v>189</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="104"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="111"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
@@ -4412,8 +4674,8 @@
         <v>189</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="104"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="111"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
@@ -4434,8 +4696,8 @@
         <v>189</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="104"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="111"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
@@ -4456,8 +4718,8 @@
         <v>189</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="104"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="111"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
@@ -4478,8 +4740,8 @@
         <v>202</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="104"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="111"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
@@ -4500,8 +4762,8 @@
         <v>189</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="104"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="111"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="13">
@@ -4522,8 +4784,8 @@
         <v>191</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="104"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="111"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="13">
@@ -4544,8 +4806,8 @@
         <v>191</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="104"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="111"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="13">
@@ -4566,8 +4828,8 @@
         <v>191</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="104"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="111"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="13">
@@ -4588,8 +4850,8 @@
         <v>191</v>
       </c>
       <c r="I29" s="13"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="104"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="111"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="13">
@@ -4610,8 +4872,8 @@
         <v>191</v>
       </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="104"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="111"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="13">
@@ -4632,8 +4894,8 @@
         <v>189</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="104"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="111"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="13">
@@ -4654,8 +4916,8 @@
         <v>189</v>
       </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="104"/>
+      <c r="J32" s="120"/>
+      <c r="K32" s="111"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="13">
@@ -4676,8 +4938,8 @@
         <v>192</v>
       </c>
       <c r="I33" s="13"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="104"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="111"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="13">
@@ -4956,8 +5218,8 @@
         <v>192</v>
       </c>
       <c r="I47" s="13"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="104"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="111"/>
     </row>
     <row r="48" spans="2:11" ht="15">
       <c r="B48" s="13">
@@ -4976,8 +5238,8 @@
         <v>189</v>
       </c>
       <c r="I48" s="13"/>
-      <c r="J48" s="114"/>
-      <c r="K48" s="104"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="111"/>
     </row>
     <row r="49" spans="2:11" ht="15">
       <c r="B49" s="13">
@@ -5016,8 +5278,8 @@
         <v>192</v>
       </c>
       <c r="I50" s="13"/>
-      <c r="J50" s="110"/>
-      <c r="K50" s="104"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="111"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1">
       <c r="B51" s="13">
@@ -5036,8 +5298,8 @@
         <v>189</v>
       </c>
       <c r="I51" s="13"/>
-      <c r="J51" s="110"/>
-      <c r="K51" s="104"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="111"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" customHeight="1">
       <c r="B52" s="26"/>
@@ -5252,172 +5514,163 @@
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B74" s="111"/>
-      <c r="C74" s="97"/>
-      <c r="D74" s="97"/>
-      <c r="E74" s="97"/>
-      <c r="F74" s="97"/>
-      <c r="G74" s="97"/>
-      <c r="H74" s="97"/>
-      <c r="I74" s="97"/>
-      <c r="J74" s="97"/>
-      <c r="K74" s="97"/>
+      <c r="B74" s="117"/>
+      <c r="C74" s="103"/>
+      <c r="D74" s="103"/>
+      <c r="E74" s="103"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="103"/>
+      <c r="I74" s="103"/>
+      <c r="J74" s="103"/>
+      <c r="K74" s="103"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B75" s="97"/>
-      <c r="C75" s="97"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="97"/>
-      <c r="F75" s="97"/>
-      <c r="G75" s="97"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="97"/>
-      <c r="J75" s="97"/>
-      <c r="K75" s="97"/>
+      <c r="B75" s="103"/>
+      <c r="C75" s="103"/>
+      <c r="D75" s="103"/>
+      <c r="E75" s="103"/>
+      <c r="F75" s="103"/>
+      <c r="G75" s="103"/>
+      <c r="H75" s="103"/>
+      <c r="I75" s="103"/>
+      <c r="J75" s="103"/>
+      <c r="K75" s="103"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B76" s="97"/>
-      <c r="C76" s="97"/>
-      <c r="D76" s="97"/>
-      <c r="E76" s="97"/>
-      <c r="F76" s="97"/>
-      <c r="G76" s="97"/>
-      <c r="H76" s="97"/>
-      <c r="I76" s="97"/>
-      <c r="J76" s="97"/>
-      <c r="K76" s="97"/>
+      <c r="B76" s="103"/>
+      <c r="C76" s="103"/>
+      <c r="D76" s="103"/>
+      <c r="E76" s="103"/>
+      <c r="F76" s="103"/>
+      <c r="G76" s="103"/>
+      <c r="H76" s="103"/>
+      <c r="I76" s="103"/>
+      <c r="J76" s="103"/>
+      <c r="K76" s="103"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B77" s="97"/>
-      <c r="C77" s="97"/>
-      <c r="D77" s="97"/>
-      <c r="E77" s="97"/>
-      <c r="F77" s="97"/>
-      <c r="G77" s="97"/>
-      <c r="H77" s="97"/>
-      <c r="I77" s="97"/>
-      <c r="J77" s="97"/>
-      <c r="K77" s="97"/>
+      <c r="B77" s="103"/>
+      <c r="C77" s="103"/>
+      <c r="D77" s="103"/>
+      <c r="E77" s="103"/>
+      <c r="F77" s="103"/>
+      <c r="G77" s="103"/>
+      <c r="H77" s="103"/>
+      <c r="I77" s="103"/>
+      <c r="J77" s="103"/>
+      <c r="K77" s="103"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B78" s="97"/>
-      <c r="C78" s="97"/>
-      <c r="D78" s="97"/>
-      <c r="E78" s="97"/>
-      <c r="F78" s="97"/>
-      <c r="G78" s="97"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="97"/>
-      <c r="J78" s="97"/>
-      <c r="K78" s="97"/>
+      <c r="B78" s="103"/>
+      <c r="C78" s="103"/>
+      <c r="D78" s="103"/>
+      <c r="E78" s="103"/>
+      <c r="F78" s="103"/>
+      <c r="G78" s="103"/>
+      <c r="H78" s="103"/>
+      <c r="I78" s="103"/>
+      <c r="J78" s="103"/>
+      <c r="K78" s="103"/>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B79" s="97"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="97"/>
-      <c r="G79" s="97"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="97"/>
-      <c r="J79" s="97"/>
-      <c r="K79" s="97"/>
+      <c r="B79" s="103"/>
+      <c r="C79" s="103"/>
+      <c r="D79" s="103"/>
+      <c r="E79" s="103"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="103"/>
+      <c r="H79" s="103"/>
+      <c r="I79" s="103"/>
+      <c r="J79" s="103"/>
+      <c r="K79" s="103"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B80" s="97"/>
-      <c r="C80" s="97"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="97"/>
-      <c r="F80" s="97"/>
-      <c r="G80" s="97"/>
-      <c r="H80" s="97"/>
-      <c r="I80" s="97"/>
-      <c r="J80" s="97"/>
-      <c r="K80" s="97"/>
+      <c r="B80" s="103"/>
+      <c r="C80" s="103"/>
+      <c r="D80" s="103"/>
+      <c r="E80" s="103"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="103"/>
+      <c r="H80" s="103"/>
+      <c r="I80" s="103"/>
+      <c r="J80" s="103"/>
+      <c r="K80" s="103"/>
     </row>
     <row r="81" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B81" s="97"/>
-      <c r="C81" s="97"/>
-      <c r="D81" s="97"/>
-      <c r="E81" s="97"/>
-      <c r="F81" s="97"/>
-      <c r="G81" s="97"/>
-      <c r="H81" s="97"/>
-      <c r="I81" s="97"/>
-      <c r="J81" s="97"/>
-      <c r="K81" s="97"/>
+      <c r="B81" s="103"/>
+      <c r="C81" s="103"/>
+      <c r="D81" s="103"/>
+      <c r="E81" s="103"/>
+      <c r="F81" s="103"/>
+      <c r="G81" s="103"/>
+      <c r="H81" s="103"/>
+      <c r="I81" s="103"/>
+      <c r="J81" s="103"/>
+      <c r="K81" s="103"/>
     </row>
     <row r="82" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B82" s="97"/>
-      <c r="C82" s="97"/>
-      <c r="D82" s="97"/>
-      <c r="E82" s="97"/>
-      <c r="F82" s="97"/>
-      <c r="G82" s="97"/>
-      <c r="H82" s="97"/>
-      <c r="I82" s="97"/>
-      <c r="J82" s="97"/>
-      <c r="K82" s="97"/>
+      <c r="B82" s="103"/>
+      <c r="C82" s="103"/>
+      <c r="D82" s="103"/>
+      <c r="E82" s="103"/>
+      <c r="F82" s="103"/>
+      <c r="G82" s="103"/>
+      <c r="H82" s="103"/>
+      <c r="I82" s="103"/>
+      <c r="J82" s="103"/>
+      <c r="K82" s="103"/>
     </row>
     <row r="83" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B83" s="97"/>
-      <c r="C83" s="97"/>
-      <c r="D83" s="97"/>
-      <c r="E83" s="97"/>
-      <c r="F83" s="97"/>
-      <c r="G83" s="97"/>
-      <c r="H83" s="97"/>
-      <c r="I83" s="97"/>
-      <c r="J83" s="97"/>
-      <c r="K83" s="97"/>
+      <c r="B83" s="103"/>
+      <c r="C83" s="103"/>
+      <c r="D83" s="103"/>
+      <c r="E83" s="103"/>
+      <c r="F83" s="103"/>
+      <c r="G83" s="103"/>
+      <c r="H83" s="103"/>
+      <c r="I83" s="103"/>
+      <c r="J83" s="103"/>
+      <c r="K83" s="103"/>
     </row>
     <row r="84" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B84" s="97"/>
-      <c r="C84" s="97"/>
-      <c r="D84" s="97"/>
-      <c r="E84" s="97"/>
-      <c r="F84" s="97"/>
-      <c r="G84" s="97"/>
-      <c r="H84" s="97"/>
-      <c r="I84" s="97"/>
-      <c r="J84" s="97"/>
-      <c r="K84" s="97"/>
+      <c r="B84" s="103"/>
+      <c r="C84" s="103"/>
+      <c r="D84" s="103"/>
+      <c r="E84" s="103"/>
+      <c r="F84" s="103"/>
+      <c r="G84" s="103"/>
+      <c r="H84" s="103"/>
+      <c r="I84" s="103"/>
+      <c r="J84" s="103"/>
+      <c r="K84" s="103"/>
     </row>
     <row r="85" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B85" s="97"/>
-      <c r="C85" s="97"/>
-      <c r="D85" s="97"/>
-      <c r="E85" s="97"/>
-      <c r="F85" s="97"/>
-      <c r="G85" s="97"/>
-      <c r="H85" s="97"/>
-      <c r="I85" s="97"/>
-      <c r="J85" s="97"/>
-      <c r="K85" s="97"/>
+      <c r="B85" s="103"/>
+      <c r="C85" s="103"/>
+      <c r="D85" s="103"/>
+      <c r="E85" s="103"/>
+      <c r="F85" s="103"/>
+      <c r="G85" s="103"/>
+      <c r="H85" s="103"/>
+      <c r="I85" s="103"/>
+      <c r="J85" s="103"/>
+      <c r="K85" s="103"/>
     </row>
     <row r="86" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B86" s="97"/>
-      <c r="C86" s="97"/>
-      <c r="D86" s="97"/>
-      <c r="E86" s="97"/>
-      <c r="F86" s="97"/>
-      <c r="G86" s="97"/>
-      <c r="H86" s="97"/>
-      <c r="I86" s="97"/>
-      <c r="J86" s="97"/>
-      <c r="K86" s="97"/>
+      <c r="B86" s="103"/>
+      <c r="C86" s="103"/>
+      <c r="D86" s="103"/>
+      <c r="E86" s="103"/>
+      <c r="F86" s="103"/>
+      <c r="G86" s="103"/>
+      <c r="H86" s="103"/>
+      <c r="I86" s="103"/>
+      <c r="J86" s="103"/>
+      <c r="K86" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="J51:K51"/>
     <mergeCell ref="J47:K47"/>
@@ -5434,6 +5687,15 @@
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5442,7 +5704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5453,24 +5715,24 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -5491,10 +5753,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="16" t="s">
         <v>289</v>
       </c>
@@ -5510,15 +5772,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -5545,10 +5807,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="104"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -5571,8 +5833,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="104"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -5581,7 +5843,7 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F7" s="41" t="s">
         <v>126</v>
@@ -5591,10 +5853,10 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="104"/>
-    </row>
-    <row r="8" spans="2:11" ht="13.8">
+      <c r="J7" s="120"/>
+      <c r="K7" s="111"/>
+    </row>
+    <row r="8" spans="2:11" ht="14">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -5611,8 +5873,8 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="104"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="111"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -5631,8 +5893,8 @@
         <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="104"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="111"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
@@ -5651,8 +5913,8 @@
         <v>246</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="104"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
@@ -5671,10 +5933,10 @@
         <v>192</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="104"/>
-    </row>
-    <row r="12" spans="2:11" ht="13.8">
+      <c r="J11" s="120"/>
+      <c r="K11" s="111"/>
+    </row>
+    <row r="12" spans="2:11" ht="14">
       <c r="B12" s="13">
         <v>10</v>
       </c>
@@ -5691,8 +5953,8 @@
         <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="104"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="111"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1">
       <c r="B13" s="13">
@@ -5711,8 +5973,8 @@
         <v>192</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="104"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="111"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
@@ -5731,8 +5993,8 @@
         <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="104"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="111"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
@@ -5745,8 +6007,8 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="104"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="111"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
@@ -5759,8 +6021,8 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="104"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="111"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
@@ -5773,8 +6035,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="20"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="104"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="111"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
@@ -5787,8 +6049,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="104"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="111"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="13">
@@ -5801,8 +6063,8 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="104"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="111"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
@@ -5815,8 +6077,8 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="104"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="111"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
@@ -5829,8 +6091,8 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="104"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="111"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
@@ -5843,8 +6105,8 @@
       <c r="G22" s="14"/>
       <c r="H22" s="20"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="104"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="111"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
@@ -5857,8 +6119,8 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="104"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="111"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
@@ -5871,8 +6133,8 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="104"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="111"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="26"/>
@@ -6003,163 +6265,171 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B40" s="111"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="103"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="103"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="103"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B46" s="97"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="103"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="97"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="97"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="103"/>
+      <c r="K47" s="103"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B48" s="97"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="97"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="103"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B49" s="97"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="97"/>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="103"/>
+      <c r="K49" s="103"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B50" s="97"/>
-      <c r="C50" s="97"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="97"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="103"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="97"/>
-      <c r="J51" s="97"/>
-      <c r="K51" s="97"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="103"/>
+      <c r="K51" s="103"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B52" s="97"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="97"/>
-      <c r="F52" s="97"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="97"/>
-      <c r="I52" s="97"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="103"/>
+      <c r="K52" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="B40:K52"/>
     <mergeCell ref="B2:E2"/>
@@ -6176,14 +6446,6 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6191,7 +6453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6202,24 +6464,24 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -6240,10 +6502,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="16" t="s">
         <v>290</v>
       </c>
@@ -6259,15 +6521,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -6294,10 +6556,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="104"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -6320,8 +6582,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="104"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -6340,10 +6602,10 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="104"/>
-    </row>
-    <row r="8" spans="2:11" ht="15">
+      <c r="J7" s="120"/>
+      <c r="K7" s="111"/>
+    </row>
+    <row r="8" spans="2:11" ht="16">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -6364,8 +6626,8 @@
         <v>202</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="104"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="111"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -6384,10 +6646,10 @@
         <v>192</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="104"/>
-    </row>
-    <row r="10" spans="2:11" ht="13.8">
+      <c r="J9" s="120"/>
+      <c r="K9" s="111"/>
+    </row>
+    <row r="10" spans="2:11" ht="14">
       <c r="B10" s="13">
         <v>10</v>
       </c>
@@ -6404,8 +6666,8 @@
         <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="104"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
@@ -6424,8 +6686,8 @@
         <v>192</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="104"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="111"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
@@ -6444,10 +6706,10 @@
         <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="104"/>
-    </row>
-    <row r="13" spans="2:11" ht="13.8">
+      <c r="J12" s="116"/>
+      <c r="K12" s="111"/>
+    </row>
+    <row r="13" spans="2:11" ht="14">
       <c r="B13" s="13">
         <v>3</v>
       </c>
@@ -6458,8 +6720,8 @@
       <c r="G13" s="14"/>
       <c r="H13" s="20"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="104"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="111"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
@@ -6472,8 +6734,8 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="104"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="111"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
@@ -6486,8 +6748,8 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="104"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="111"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
@@ -6500,8 +6762,8 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="104"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="111"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
@@ -6514,8 +6776,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="104"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="111"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
@@ -6528,8 +6790,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="20"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="104"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="111"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="13">
@@ -6542,8 +6804,8 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="104"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="111"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
@@ -6556,8 +6818,8 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="104"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="111"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
@@ -6570,8 +6832,8 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="104"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="111"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
@@ -6584,8 +6846,8 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="104"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="111"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
@@ -6598,8 +6860,8 @@
       <c r="G23" s="14"/>
       <c r="H23" s="20"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="104"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="111"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
@@ -6612,8 +6874,8 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="104"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="111"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
@@ -6626,8 +6888,8 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="104"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="111"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="26"/>
@@ -6758,169 +7020,170 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B41" s="111"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="103"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="103"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="103"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B46" s="97"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="103"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="97"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="97"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="103"/>
+      <c r="K47" s="103"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B48" s="97"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="97"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="103"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B49" s="97"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="97"/>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="103"/>
+      <c r="K49" s="103"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B50" s="97"/>
-      <c r="C50" s="97"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="97"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="103"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="97"/>
-      <c r="J51" s="97"/>
-      <c r="K51" s="97"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="103"/>
+      <c r="K51" s="103"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B52" s="97"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="97"/>
-      <c r="F52" s="97"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="97"/>
-      <c r="I52" s="97"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="103"/>
+      <c r="K52" s="103"/>
     </row>
     <row r="53" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B53" s="97"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="103"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="103"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="103"/>
+      <c r="K53" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B41:K53"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
@@ -6933,13 +7196,12 @@
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B41:K53"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6947,7 +7209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6956,24 +7218,24 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -6994,10 +7256,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="16" t="s">
         <v>291</v>
       </c>
@@ -7013,15 +7275,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -7048,10 +7310,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="104"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -7074,8 +7336,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="104"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -7094,8 +7356,8 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="104"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="111"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
@@ -7114,8 +7376,8 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="104"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="111"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -7134,8 +7396,8 @@
         <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="104"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="111"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
@@ -7294,8 +7556,8 @@
         <v>189</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="104"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="111"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
@@ -7314,8 +7576,8 @@
         <v>189</v>
       </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="104"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="111"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="13">
@@ -7334,8 +7596,8 @@
         <v>189</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="104"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="111"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
@@ -7354,8 +7616,8 @@
         <v>189</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="104"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="111"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13"/>
@@ -7394,10 +7656,10 @@
         <v>192</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="104"/>
-    </row>
-    <row r="23" spans="2:11" ht="13.8">
+      <c r="J22" s="120"/>
+      <c r="K22" s="111"/>
+    </row>
+    <row r="23" spans="2:11" ht="14">
       <c r="B23" s="13">
         <v>10</v>
       </c>
@@ -7414,8 +7676,8 @@
         <v>189</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="104"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="111"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
@@ -7434,8 +7696,8 @@
         <v>192</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="104"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="111"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
@@ -7454,8 +7716,8 @@
         <v>189</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="104"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="111"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="7" t="s">
@@ -7463,173 +7725,163 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B30" s="111"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="103"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="103"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J8:K8"/>
@@ -7637,6 +7889,16 @@
     <mergeCell ref="B30:K42"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7644,7 +7906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7655,24 +7917,24 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -7693,10 +7955,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="16" t="s">
         <v>292</v>
       </c>
@@ -7712,15 +7974,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -7747,10 +8009,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="104"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -7773,8 +8035,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="104"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -7797,8 +8059,8 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="104"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="111"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
@@ -7817,8 +8079,8 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="104"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="111"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -7857,8 +8119,8 @@
         <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="104"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
@@ -7877,10 +8139,10 @@
         <v>192</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="104"/>
-    </row>
-    <row r="12" spans="1:11" ht="13.8">
+      <c r="J11" s="120"/>
+      <c r="K11" s="111"/>
+    </row>
+    <row r="12" spans="1:11" ht="14">
       <c r="B12" s="13">
         <v>10</v>
       </c>
@@ -7897,8 +8159,8 @@
         <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="104"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="111"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="13">
@@ -7917,8 +8179,8 @@
         <v>192</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="104"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="111"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
@@ -7937,8 +8199,8 @@
         <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="104"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="111"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="22"/>
@@ -7973,169 +8235,163 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B22" s="111"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B28" s="97"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="B22:K34"/>
@@ -8143,6 +8399,12 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8150,7 +8412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8161,24 +8423,24 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -8199,10 +8461,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="16" t="s">
         <v>173</v>
       </c>
@@ -8218,15 +8480,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -8253,10 +8515,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="104"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -8279,8 +8541,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="104"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -8323,8 +8585,8 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="104"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="111"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -8565,8 +8827,8 @@
         <v>189</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="104"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="111"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
@@ -8587,8 +8849,8 @@
         <v>189</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="104"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="111"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
@@ -8609,8 +8871,8 @@
         <v>189</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="104"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="111"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
@@ -8631,8 +8893,8 @@
         <v>189</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="104"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="111"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
@@ -8653,8 +8915,8 @@
         <v>202</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="104"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="111"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
@@ -8675,8 +8937,8 @@
         <v>189</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="104"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="111"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
@@ -8697,8 +8959,8 @@
         <v>191</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="104"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="111"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="13">
@@ -8719,8 +8981,8 @@
         <v>191</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="104"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="111"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="13">
@@ -8741,8 +9003,8 @@
         <v>191</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="104"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="111"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="13">
@@ -8763,8 +9025,8 @@
         <v>191</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="104"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="111"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="13">
@@ -8785,8 +9047,8 @@
         <v>191</v>
       </c>
       <c r="I29" s="13"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="104"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="111"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="13">
@@ -8807,8 +9069,8 @@
         <v>189</v>
       </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="104"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="111"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="13">
@@ -8829,8 +9091,8 @@
         <v>189</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="104"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="111"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="13">
@@ -8851,8 +9113,8 @@
         <v>192</v>
       </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="104"/>
+      <c r="J32" s="120"/>
+      <c r="K32" s="111"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="13">
@@ -9091,10 +9353,10 @@
         <v>192</v>
       </c>
       <c r="I44" s="13"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="104"/>
-    </row>
-    <row r="45" spans="2:11" ht="13.8">
+      <c r="J44" s="120"/>
+      <c r="K44" s="111"/>
+    </row>
+    <row r="45" spans="2:11" ht="14">
       <c r="B45" s="13">
         <v>10</v>
       </c>
@@ -9111,8 +9373,8 @@
         <v>189</v>
       </c>
       <c r="I45" s="13"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="104"/>
+      <c r="J45" s="120"/>
+      <c r="K45" s="111"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
       <c r="B46" s="13">
@@ -9131,8 +9393,8 @@
         <v>192</v>
       </c>
       <c r="I46" s="13"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="104"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="111"/>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1">
       <c r="B47" s="13">
@@ -9151,8 +9413,8 @@
         <v>189</v>
       </c>
       <c r="I47" s="13"/>
-      <c r="J47" s="110"/>
-      <c r="K47" s="104"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="111"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="26"/>
@@ -9403,169 +9665,170 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B73" s="111"/>
-      <c r="C73" s="97"/>
-      <c r="D73" s="97"/>
-      <c r="E73" s="97"/>
-      <c r="F73" s="97"/>
-      <c r="G73" s="97"/>
-      <c r="H73" s="97"/>
-      <c r="I73" s="97"/>
-      <c r="J73" s="97"/>
-      <c r="K73" s="97"/>
+      <c r="B73" s="117"/>
+      <c r="C73" s="103"/>
+      <c r="D73" s="103"/>
+      <c r="E73" s="103"/>
+      <c r="F73" s="103"/>
+      <c r="G73" s="103"/>
+      <c r="H73" s="103"/>
+      <c r="I73" s="103"/>
+      <c r="J73" s="103"/>
+      <c r="K73" s="103"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B74" s="97"/>
-      <c r="C74" s="97"/>
-      <c r="D74" s="97"/>
-      <c r="E74" s="97"/>
-      <c r="F74" s="97"/>
-      <c r="G74" s="97"/>
-      <c r="H74" s="97"/>
-      <c r="I74" s="97"/>
-      <c r="J74" s="97"/>
-      <c r="K74" s="97"/>
+      <c r="B74" s="103"/>
+      <c r="C74" s="103"/>
+      <c r="D74" s="103"/>
+      <c r="E74" s="103"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="103"/>
+      <c r="I74" s="103"/>
+      <c r="J74" s="103"/>
+      <c r="K74" s="103"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B75" s="97"/>
-      <c r="C75" s="97"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="97"/>
-      <c r="F75" s="97"/>
-      <c r="G75" s="97"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="97"/>
-      <c r="J75" s="97"/>
-      <c r="K75" s="97"/>
+      <c r="B75" s="103"/>
+      <c r="C75" s="103"/>
+      <c r="D75" s="103"/>
+      <c r="E75" s="103"/>
+      <c r="F75" s="103"/>
+      <c r="G75" s="103"/>
+      <c r="H75" s="103"/>
+      <c r="I75" s="103"/>
+      <c r="J75" s="103"/>
+      <c r="K75" s="103"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B76" s="97"/>
-      <c r="C76" s="97"/>
-      <c r="D76" s="97"/>
-      <c r="E76" s="97"/>
-      <c r="F76" s="97"/>
-      <c r="G76" s="97"/>
-      <c r="H76" s="97"/>
-      <c r="I76" s="97"/>
-      <c r="J76" s="97"/>
-      <c r="K76" s="97"/>
+      <c r="B76" s="103"/>
+      <c r="C76" s="103"/>
+      <c r="D76" s="103"/>
+      <c r="E76" s="103"/>
+      <c r="F76" s="103"/>
+      <c r="G76" s="103"/>
+      <c r="H76" s="103"/>
+      <c r="I76" s="103"/>
+      <c r="J76" s="103"/>
+      <c r="K76" s="103"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B77" s="97"/>
-      <c r="C77" s="97"/>
-      <c r="D77" s="97"/>
-      <c r="E77" s="97"/>
-      <c r="F77" s="97"/>
-      <c r="G77" s="97"/>
-      <c r="H77" s="97"/>
-      <c r="I77" s="97"/>
-      <c r="J77" s="97"/>
-      <c r="K77" s="97"/>
+      <c r="B77" s="103"/>
+      <c r="C77" s="103"/>
+      <c r="D77" s="103"/>
+      <c r="E77" s="103"/>
+      <c r="F77" s="103"/>
+      <c r="G77" s="103"/>
+      <c r="H77" s="103"/>
+      <c r="I77" s="103"/>
+      <c r="J77" s="103"/>
+      <c r="K77" s="103"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B78" s="97"/>
-      <c r="C78" s="97"/>
-      <c r="D78" s="97"/>
-      <c r="E78" s="97"/>
-      <c r="F78" s="97"/>
-      <c r="G78" s="97"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="97"/>
-      <c r="J78" s="97"/>
-      <c r="K78" s="97"/>
+      <c r="B78" s="103"/>
+      <c r="C78" s="103"/>
+      <c r="D78" s="103"/>
+      <c r="E78" s="103"/>
+      <c r="F78" s="103"/>
+      <c r="G78" s="103"/>
+      <c r="H78" s="103"/>
+      <c r="I78" s="103"/>
+      <c r="J78" s="103"/>
+      <c r="K78" s="103"/>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B79" s="97"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="97"/>
-      <c r="G79" s="97"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="97"/>
-      <c r="J79" s="97"/>
-      <c r="K79" s="97"/>
+      <c r="B79" s="103"/>
+      <c r="C79" s="103"/>
+      <c r="D79" s="103"/>
+      <c r="E79" s="103"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="103"/>
+      <c r="H79" s="103"/>
+      <c r="I79" s="103"/>
+      <c r="J79" s="103"/>
+      <c r="K79" s="103"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B80" s="97"/>
-      <c r="C80" s="97"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="97"/>
-      <c r="F80" s="97"/>
-      <c r="G80" s="97"/>
-      <c r="H80" s="97"/>
-      <c r="I80" s="97"/>
-      <c r="J80" s="97"/>
-      <c r="K80" s="97"/>
+      <c r="B80" s="103"/>
+      <c r="C80" s="103"/>
+      <c r="D80" s="103"/>
+      <c r="E80" s="103"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="103"/>
+      <c r="H80" s="103"/>
+      <c r="I80" s="103"/>
+      <c r="J80" s="103"/>
+      <c r="K80" s="103"/>
     </row>
     <row r="81" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B81" s="97"/>
-      <c r="C81" s="97"/>
-      <c r="D81" s="97"/>
-      <c r="E81" s="97"/>
-      <c r="F81" s="97"/>
-      <c r="G81" s="97"/>
-      <c r="H81" s="97"/>
-      <c r="I81" s="97"/>
-      <c r="J81" s="97"/>
-      <c r="K81" s="97"/>
+      <c r="B81" s="103"/>
+      <c r="C81" s="103"/>
+      <c r="D81" s="103"/>
+      <c r="E81" s="103"/>
+      <c r="F81" s="103"/>
+      <c r="G81" s="103"/>
+      <c r="H81" s="103"/>
+      <c r="I81" s="103"/>
+      <c r="J81" s="103"/>
+      <c r="K81" s="103"/>
     </row>
     <row r="82" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B82" s="97"/>
-      <c r="C82" s="97"/>
-      <c r="D82" s="97"/>
-      <c r="E82" s="97"/>
-      <c r="F82" s="97"/>
-      <c r="G82" s="97"/>
-      <c r="H82" s="97"/>
-      <c r="I82" s="97"/>
-      <c r="J82" s="97"/>
-      <c r="K82" s="97"/>
+      <c r="B82" s="103"/>
+      <c r="C82" s="103"/>
+      <c r="D82" s="103"/>
+      <c r="E82" s="103"/>
+      <c r="F82" s="103"/>
+      <c r="G82" s="103"/>
+      <c r="H82" s="103"/>
+      <c r="I82" s="103"/>
+      <c r="J82" s="103"/>
+      <c r="K82" s="103"/>
     </row>
     <row r="83" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B83" s="97"/>
-      <c r="C83" s="97"/>
-      <c r="D83" s="97"/>
-      <c r="E83" s="97"/>
-      <c r="F83" s="97"/>
-      <c r="G83" s="97"/>
-      <c r="H83" s="97"/>
-      <c r="I83" s="97"/>
-      <c r="J83" s="97"/>
-      <c r="K83" s="97"/>
+      <c r="B83" s="103"/>
+      <c r="C83" s="103"/>
+      <c r="D83" s="103"/>
+      <c r="E83" s="103"/>
+      <c r="F83" s="103"/>
+      <c r="G83" s="103"/>
+      <c r="H83" s="103"/>
+      <c r="I83" s="103"/>
+      <c r="J83" s="103"/>
+      <c r="K83" s="103"/>
     </row>
     <row r="84" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B84" s="97"/>
-      <c r="C84" s="97"/>
-      <c r="D84" s="97"/>
-      <c r="E84" s="97"/>
-      <c r="F84" s="97"/>
-      <c r="G84" s="97"/>
-      <c r="H84" s="97"/>
-      <c r="I84" s="97"/>
-      <c r="J84" s="97"/>
-      <c r="K84" s="97"/>
+      <c r="B84" s="103"/>
+      <c r="C84" s="103"/>
+      <c r="D84" s="103"/>
+      <c r="E84" s="103"/>
+      <c r="F84" s="103"/>
+      <c r="G84" s="103"/>
+      <c r="H84" s="103"/>
+      <c r="I84" s="103"/>
+      <c r="J84" s="103"/>
+      <c r="K84" s="103"/>
     </row>
     <row r="85" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B85" s="97"/>
-      <c r="C85" s="97"/>
-      <c r="D85" s="97"/>
-      <c r="E85" s="97"/>
-      <c r="F85" s="97"/>
-      <c r="G85" s="97"/>
-      <c r="H85" s="97"/>
-      <c r="I85" s="97"/>
-      <c r="J85" s="97"/>
-      <c r="K85" s="97"/>
+      <c r="B85" s="103"/>
+      <c r="C85" s="103"/>
+      <c r="D85" s="103"/>
+      <c r="E85" s="103"/>
+      <c r="F85" s="103"/>
+      <c r="G85" s="103"/>
+      <c r="H85" s="103"/>
+      <c r="I85" s="103"/>
+      <c r="J85" s="103"/>
+      <c r="K85" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B73:K85"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -9578,13 +9841,12 @@
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B73:K85"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9592,36 +9854,36 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFECC845-0A93-43B1-98DD-C24BE4886987}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:K53"/>
+  <dimension ref="A2:K62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -9642,12 +9904,12 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="16" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>329</v>
@@ -9661,15 +9923,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -9696,10 +9958,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="104"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -9722,8 +9984,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="104"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -9732,672 +9994,881 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
         <v>191</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="104"/>
-    </row>
-    <row r="8" spans="2:11" ht="15">
+      <c r="J7" s="120"/>
+      <c r="K7" s="111"/>
+    </row>
+    <row r="8" spans="2:11" ht="16">
       <c r="B8" s="13">
         <v>3</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="25"/>
       <c r="E8" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="20" t="s">
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="104"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1">
+      <c r="J8" s="120"/>
+      <c r="K8" s="111"/>
+    </row>
+    <row r="9" spans="2:11" s="89" customFormat="1" ht="15.75" customHeight="1">
       <c r="B9" s="13">
-        <v>4</v>
-      </c>
-      <c r="C9" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="G9" s="14"/>
+        <v>365</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>367</v>
+      </c>
       <c r="H9" s="20" t="s">
         <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="104"/>
-    </row>
-    <row r="10" spans="2:11" ht="13.8">
+      <c r="J9" s="120"/>
+      <c r="K9" s="111"/>
+    </row>
+    <row r="10" spans="2:11" s="89" customFormat="1" ht="15.75" customHeight="1">
       <c r="B10" s="13">
-        <v>5</v>
-      </c>
-      <c r="C10" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>337</v>
-      </c>
-      <c r="G10" s="14"/>
+        <v>193</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="H10" s="20" t="s">
         <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="104"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="20" t="s">
         <v>189</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="104"/>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1">
+      <c r="J11" s="120"/>
+      <c r="K11" s="111"/>
+    </row>
+    <row r="12" spans="2:11" s="89" customFormat="1" ht="14">
       <c r="B12" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="F12" s="117" t="s">
-        <v>342</v>
-      </c>
-      <c r="G12" s="24"/>
+      <c r="E12" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="G12" s="14"/>
       <c r="H12" s="20" t="s">
         <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="104"/>
-    </row>
-    <row r="13" spans="2:11" ht="15">
+      <c r="J12" s="120"/>
+      <c r="K12" s="111"/>
+    </row>
+    <row r="13" spans="2:11" ht="14">
       <c r="B13" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="20" t="s">
         <v>189</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="104"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="111"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>326</v>
+        <v>339</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="104"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="111"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="64" t="s">
-        <v>308</v>
-      </c>
-      <c r="F15" s="75" t="s">
-        <v>309</v>
-      </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="64" t="s">
-        <v>189</v>
+      <c r="E15" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="F15" s="90" t="s">
+        <v>341</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="79" t="s">
+        <v>347</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="104"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1">
+      <c r="J15" s="116"/>
+      <c r="K15" s="111"/>
+    </row>
+    <row r="16" spans="2:11" s="85" customFormat="1" ht="15">
       <c r="B16" s="13">
-        <v>11</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="F16" s="75" t="s">
-        <v>311</v>
-      </c>
-      <c r="G16" s="75"/>
+        <v>344</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>345</v>
+      </c>
+      <c r="G16" s="123" t="s">
+        <v>346</v>
+      </c>
       <c r="H16" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="104"/>
-    </row>
-    <row r="17" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="76"/>
+        <v>347</v>
+      </c>
+      <c r="I16" s="63"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="92"/>
+    </row>
+    <row r="17" spans="1:11" s="85" customFormat="1" ht="15">
       <c r="B17" s="13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
-      <c r="E17" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="F17" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="64"/>
+      <c r="E17" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>349</v>
+      </c>
+      <c r="G17" s="123" t="s">
+        <v>350</v>
+      </c>
       <c r="H17" s="64" t="s">
-        <v>192</v>
+        <v>347</v>
       </c>
       <c r="I17" s="63"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="88"/>
-    </row>
-    <row r="18" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="J17" s="86"/>
+      <c r="K17" s="87"/>
+    </row>
+    <row r="18" spans="1:11" s="85" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="76"/>
       <c r="B18" s="13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
       <c r="E18" s="77" t="s">
-        <v>186</v>
+        <v>351</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="79" t="s">
-        <v>189</v>
+        <v>352</v>
+      </c>
+      <c r="G18" s="123" t="s">
+        <v>353</v>
+      </c>
+      <c r="H18" s="64" t="s">
+        <v>347</v>
       </c>
       <c r="I18" s="63"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="88"/>
-    </row>
-    <row r="19" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="J18" s="95"/>
+      <c r="K18" s="92"/>
+    </row>
+    <row r="19" spans="1:11" s="85" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="76"/>
       <c r="B19" s="13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
       <c r="E19" s="77" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>323</v>
-      </c>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64" t="s">
-        <v>191</v>
+        <v>355</v>
+      </c>
+      <c r="G19" s="123" t="s">
+        <v>356</v>
+      </c>
+      <c r="H19" s="79" t="s">
+        <v>347</v>
       </c>
       <c r="I19" s="63"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="62"/>
-    </row>
-    <row r="20" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="J19" s="95"/>
+      <c r="K19" s="92"/>
+    </row>
+    <row r="20" spans="1:11" s="85" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="76"/>
       <c r="B20" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
       <c r="E20" s="77" t="s">
-        <v>187</v>
+        <v>357</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="64"/>
+        <v>358</v>
+      </c>
+      <c r="G20" s="123" t="s">
+        <v>359</v>
+      </c>
       <c r="H20" s="64" t="s">
-        <v>192</v>
+        <v>347</v>
       </c>
       <c r="I20" s="63"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="88"/>
-    </row>
-    <row r="21" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="J20" s="88"/>
+      <c r="K20" s="87"/>
+    </row>
+    <row r="21" spans="1:11" s="85" customFormat="1" ht="24.5">
       <c r="A21" s="76"/>
       <c r="B21" s="13">
-        <v>16</v>
-      </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="F21" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="I21" s="63"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="88"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125" t="s">
+        <v>360</v>
+      </c>
+      <c r="F21" s="126" t="s">
+        <v>361</v>
+      </c>
+      <c r="G21" s="127" t="s">
+        <v>362</v>
+      </c>
+      <c r="H21" s="124" t="s">
+        <v>363</v>
+      </c>
+      <c r="I21" s="128" t="s">
+        <v>364</v>
+      </c>
+      <c r="J21" s="95"/>
+      <c r="K21" s="92"/>
+    </row>
+    <row r="22" spans="1:11" ht="15">
       <c r="B22" s="13">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="14" t="s">
+        <v>189</v>
+      </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="104"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="111"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="20"/>
+      <c r="E23" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>326</v>
+      </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="104"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="111"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="E24" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="F24" s="75" t="s">
+        <v>309</v>
+      </c>
+      <c r="G24" s="75"/>
+      <c r="H24" s="64" t="s">
+        <v>189</v>
+      </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="104"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="111"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
+        <v>17</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="G25" s="75"/>
+      <c r="H25" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="111"/>
+    </row>
+    <row r="26" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="76"/>
+      <c r="B26" s="13">
+        <v>18</v>
+      </c>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="I26" s="63"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="92"/>
+    </row>
+    <row r="27" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="76"/>
+      <c r="B27" s="13">
+        <v>19</v>
+      </c>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="64"/>
+      <c r="H27" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="I27" s="63"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="92"/>
+    </row>
+    <row r="28" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="76"/>
+      <c r="B28" s="13">
         <v>20</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="104"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B26" s="26"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="29"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B27" s="26"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="29"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B28" s="26"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="29"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B29" s="26"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="29"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B30" s="26"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="29"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="77" t="s">
+        <v>322</v>
+      </c>
+      <c r="F28" s="78" t="s">
+        <v>323</v>
+      </c>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="I28" s="63"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="62"/>
+    </row>
+    <row r="29" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A29" s="76"/>
+      <c r="B29" s="13">
+        <v>21</v>
+      </c>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" s="63"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="92"/>
+    </row>
+    <row r="30" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A30" s="76"/>
+      <c r="B30" s="13">
+        <v>22</v>
+      </c>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="64"/>
+      <c r="H30" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30" s="63"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="92"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B31" s="26"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="29"/>
+      <c r="B31" s="13">
+        <v>23</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="111"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B32" s="26"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="29"/>
+      <c r="B32" s="13">
+        <v>24</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="120"/>
+      <c r="K32" s="111"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B33" s="26"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="29"/>
+      <c r="B33" s="13">
+        <v>25</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="111"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B34" s="26"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="29"/>
+      <c r="B34" s="13">
+        <v>26</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="111"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
+      <c r="I35" s="26"/>
       <c r="J35" s="22"/>
+      <c r="K35" s="29"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B36" s="23"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="29"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B37" s="26"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="29"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B38" s="26"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="29"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B39" s="26"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="29"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="29"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B41" s="26"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="29"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B42" s="26"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="29"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B43" s="26"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="29"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B45" s="23"/>
+    </row>
+    <row r="49" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B49" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B41" s="111"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B46" s="97"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="97"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="97"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B48" s="97"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="97"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
-    </row>
-    <row r="49" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B49" s="97"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="97"/>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
-    </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B50" s="97"/>
-      <c r="C50" s="97"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="97"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="103"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="97"/>
-      <c r="J51" s="97"/>
-      <c r="K51" s="97"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="103"/>
+      <c r="K51" s="103"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B52" s="97"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="97"/>
-      <c r="F52" s="97"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="97"/>
-      <c r="I52" s="97"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="103"/>
+      <c r="K52" s="103"/>
     </row>
     <row r="53" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B53" s="97"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="103"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="103"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="103"/>
+      <c r="K53" s="103"/>
+    </row>
+    <row r="54" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
+      <c r="K54" s="103"/>
+    </row>
+    <row r="55" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B55" s="103"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="103"/>
+      <c r="H55" s="103"/>
+      <c r="I55" s="103"/>
+      <c r="J55" s="103"/>
+      <c r="K55" s="103"/>
+    </row>
+    <row r="56" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B56" s="103"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="103"/>
+      <c r="H56" s="103"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="103"/>
+      <c r="K56" s="103"/>
+    </row>
+    <row r="57" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B57" s="103"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="103"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="103"/>
+      <c r="K57" s="103"/>
+    </row>
+    <row r="58" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B58" s="103"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
+      <c r="F58" s="103"/>
+      <c r="G58" s="103"/>
+      <c r="H58" s="103"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="103"/>
+    </row>
+    <row r="59" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B59" s="103"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="103"/>
+      <c r="H59" s="103"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="103"/>
+      <c r="K59" s="103"/>
+    </row>
+    <row r="60" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B60" s="103"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="103"/>
+      <c r="G60" s="103"/>
+      <c r="H60" s="103"/>
+      <c r="I60" s="103"/>
+      <c r="J60" s="103"/>
+      <c r="K60" s="103"/>
+    </row>
+    <row r="61" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B61" s="103"/>
+      <c r="C61" s="103"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="103"/>
+      <c r="F61" s="103"/>
+      <c r="G61" s="103"/>
+      <c r="H61" s="103"/>
+      <c r="I61" s="103"/>
+      <c r="J61" s="103"/>
+      <c r="K61" s="103"/>
+    </row>
+    <row r="62" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B62" s="103"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="103"/>
+      <c r="I62" s="103"/>
+      <c r="J62" s="103"/>
+      <c r="K62" s="103"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B41:K53"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
+  <mergeCells count="31">
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B50:K62"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10406,7 +10877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10416,9 +10887,9 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
@@ -10463,34 +10934,34 @@
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="4"/>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="95"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="101"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="4"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="98"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="4"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="101"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="107"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1">
@@ -10591,7 +11062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10601,11 +11072,11 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1"/>
@@ -10619,12 +11090,12 @@
       <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="111"/>
     </row>
     <row r="4" spans="2:16" ht="33.75" customHeight="1">
       <c r="B4" s="12">
@@ -10636,12 +11107,12 @@
       <c r="D4" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="104"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111"/>
     </row>
     <row r="5" spans="2:16" ht="33.75" customHeight="1">
       <c r="B5" s="12">
@@ -10653,12 +11124,12 @@
       <c r="D5" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="104"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="111"/>
     </row>
     <row r="6" spans="2:16" ht="33.75" customHeight="1">
       <c r="B6" s="12">
@@ -10670,20 +11141,20 @@
       <c r="D6" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="106" t="s">
+      <c r="E6" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="104"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="111"/>
       <c r="K6" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="95"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="101"/>
     </row>
     <row r="7" spans="2:16" ht="33.75" customHeight="1">
       <c r="B7" s="12">
@@ -10698,15 +11169,15 @@
       <c r="E7" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="104"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="98"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="111"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="104"/>
     </row>
     <row r="8" spans="2:16" ht="33.75" customHeight="1">
       <c r="B8" s="12">
@@ -10718,18 +11189,18 @@
       <c r="D8" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="104"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="98"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="111"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="104"/>
     </row>
     <row r="9" spans="2:16" ht="33.75" customHeight="1">
       <c r="B9" s="12">
@@ -10741,18 +11212,18 @@
       <c r="D9" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="104"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="98"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="111"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="104"/>
     </row>
     <row r="10" spans="2:16" ht="33.75" customHeight="1">
       <c r="B10" s="12">
@@ -10764,18 +11235,18 @@
       <c r="D10" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="98"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="111"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="104"/>
     </row>
     <row r="11" spans="2:16" ht="33.75" customHeight="1">
       <c r="B11" s="12">
@@ -10787,18 +11258,18 @@
       <c r="D11" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="112" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="104"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="98"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="111"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="104"/>
     </row>
     <row r="12" spans="2:16" ht="33.75" customHeight="1">
       <c r="B12" s="12">
@@ -10810,18 +11281,18 @@
       <c r="D12" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="107" t="s">
+      <c r="E12" s="113" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="104"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="98"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="111"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="104"/>
     </row>
     <row r="13" spans="2:16" ht="33.75" customHeight="1">
       <c r="B13" s="12">
@@ -10833,18 +11304,18 @@
       <c r="D13" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="106" t="s">
+      <c r="E13" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="101"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="111"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="107"/>
     </row>
     <row r="14" spans="2:16" ht="33.75" customHeight="1">
       <c r="B14" s="12">
@@ -10856,12 +11327,12 @@
       <c r="D14" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="106" t="s">
+      <c r="E14" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="104"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="111"/>
     </row>
     <row r="15" spans="2:16" ht="33.75" customHeight="1">
       <c r="B15" s="12">
@@ -10873,26 +11344,21 @@
       <c r="D15" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="107" t="s">
+      <c r="E15" s="113" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="104"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="111"/>
     </row>
     <row r="16" spans="2:16" ht="33.75" customHeight="1">
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K6:P13"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
@@ -10903,32 +11369,37 @@
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E14:H14"/>
+    <mergeCell ref="K6:P13"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E15:H15"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <hyperlinks>
-    <hyperlink ref="C7" location="担当者情報!A1" display="PERSON_CHARGE_INFO" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C8" location="単価情報!A1" display="UNIT_PRICE_INFO" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C9" location="案件マスタ情報!A1" display="MATTER_MASTER_INFO" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C10" location="見積情報!A1" display="ESTIMATION_INFO" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C11" location="見積請求作成情報!A1" display="見積請求作成情報" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C12" location="PDF作成情報!A1" display="PDF作成情報" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="C13" location="見積請求作成情報!A1" display="QUOTATION_CLAIM_SETTING_INFO" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C14" location="請求減算ルール情報!A1" display="CLAIM_SUBTRACTION_RULE" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="C15" location="請求情報!A1" display="請求情報" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D10" location="見積情報!A1" display="見積情報" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D11" location="見積請求作成情報!A1" display="見積請求作成情報" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D13" location="見積請求設定情報!A1" display="見積請求設定情報" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D14" location="請求減算ルール!A1" display="請求減算ルール" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C4" location="基本設定情報!A1" display="BASIC_SETTING_INFO" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="C5" location="取引先情報!A1" display="BUSINESS_PARTNER_INFO" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="C6" location="取引先店舗情報!A1" display="BUSINESS_PARTNER_STORE" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="C7" location="担当者情報!A1" display="PERSON_CHARGE_INFO"/>
+    <hyperlink ref="C8" location="単価情報!A1" display="UNIT_PRICE_INFO"/>
+    <hyperlink ref="C9" location="案件マスタ情報!A1" display="MATTER_MASTER_INFO"/>
+    <hyperlink ref="C10" location="見積情報!A1" display="ESTIMATION_INFO"/>
+    <hyperlink ref="C11" location="見積請求作成情報!A1" display="見積請求作成情報"/>
+    <hyperlink ref="C12" location="PDF作成情報!A1" display="PDF作成情報"/>
+    <hyperlink ref="C13" location="見積請求作成情報!A1" display="QUOTATION_CLAIM_SETTING_INFO"/>
+    <hyperlink ref="C14" location="請求減算ルール情報!A1" display="CLAIM_SUBTRACTION_RULE"/>
+    <hyperlink ref="C15" location="請求情報!A1" display="請求情報"/>
+    <hyperlink ref="D10" location="見積情報!A1" display="見積情報"/>
+    <hyperlink ref="D11" location="見積請求作成情報!A1" display="見積請求作成情報"/>
+    <hyperlink ref="D13" location="見積請求設定情報!A1" display="見積請求設定情報"/>
+    <hyperlink ref="D14" location="請求減算ルール!A1" display="請求減算ルール"/>
+    <hyperlink ref="C4" location="基本設定情報!A1" display="BASIC_SETTING_INFO"/>
+    <hyperlink ref="C5" location="取引先情報!A1" display="BUSINESS_PARTNER_INFO"/>
+    <hyperlink ref="C6" location="取引先店舗情報!A1" display="BUSINESS_PARTNER_STORE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10939,24 +11410,24 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -10977,10 +11448,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="16" t="s">
         <v>280</v>
       </c>
@@ -10996,15 +11467,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -11031,10 +11502,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="104"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -11057,8 +11528,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="104"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -11077,8 +11548,8 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="104"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="111"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
@@ -11097,8 +11568,8 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="104"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="111"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -11120,7 +11591,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="2:11" ht="15.3">
+    <row r="10" spans="2:11" ht="16.5">
       <c r="B10" s="13">
         <v>5</v>
       </c>
@@ -11137,8 +11608,8 @@
         <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="104"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="2:11" ht="15">
       <c r="B11" s="13">
@@ -11257,8 +11728,8 @@
         <v>190</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="104"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="111"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
@@ -11277,8 +11748,8 @@
         <v>190</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="104"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="111"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="22"/>
@@ -11298,8 +11769,8 @@
         <v>192</v>
       </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="104"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="111"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="A19" s="22"/>
@@ -11319,8 +11790,8 @@
         <v>189</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="104"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="111"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="A20" s="22"/>
@@ -11340,8 +11811,8 @@
         <v>192</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="104"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="111"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="22"/>
@@ -11361,8 +11832,8 @@
         <v>189</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="104"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="111"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="22"/>
@@ -11397,160 +11868,160 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B29" s="111"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="103"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="103"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -11576,7 +12047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11584,27 +12055,27 @@
   <dimension ref="A2:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -11625,10 +12096,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="17" t="s">
         <v>282</v>
       </c>
@@ -11644,15 +12115,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -11679,10 +12150,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="104"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -11705,8 +12176,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="104"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -11727,8 +12198,8 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="104"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="111"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
@@ -11749,8 +12220,8 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="104"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="111"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -11769,8 +12240,8 @@
         <v>192</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="104"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="111"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
@@ -11789,8 +12260,8 @@
         <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="104"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="22"/>
@@ -11810,8 +12281,8 @@
         <v>192</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="104"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="111"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
@@ -11830,8 +12301,8 @@
         <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="104"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="111"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="26"/>
@@ -11851,168 +12322,163 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B18" s="111"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B28" s="97"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B18:K30"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="B2:E2"/>
@@ -12020,6 +12486,11 @@
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B18:K30"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12027,7 +12498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12038,24 +12509,24 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -12076,10 +12547,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="17" t="s">
         <v>284</v>
       </c>
@@ -12095,15 +12566,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -12130,10 +12601,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="104"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -12154,8 +12625,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="104"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -12178,8 +12649,8 @@
         <v>202</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="104"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="111"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
@@ -12318,10 +12789,10 @@
         <v>192</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="104"/>
-    </row>
-    <row r="15" spans="2:11" ht="13.8">
+      <c r="J14" s="120"/>
+      <c r="K14" s="111"/>
+    </row>
+    <row r="15" spans="2:11" ht="14">
       <c r="B15" s="13">
         <v>10</v>
       </c>
@@ -12338,8 +12809,8 @@
         <v>189</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="104"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="111"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
@@ -12358,8 +12829,8 @@
         <v>192</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="104"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="111"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
@@ -12378,8 +12849,8 @@
         <v>189</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="104"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="111"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="26"/>
@@ -12582,174 +13053,174 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B39" s="111"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="103"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="103"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="103"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B46" s="97"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="103"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="97"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="97"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="103"/>
+      <c r="K47" s="103"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B48" s="97"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="97"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="103"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B49" s="97"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="97"/>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="103"/>
+      <c r="K49" s="103"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B50" s="97"/>
-      <c r="C50" s="97"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="97"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="103"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="97"/>
-      <c r="J51" s="97"/>
-      <c r="K51" s="97"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="103"/>
+      <c r="K51" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B39:K51"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B39:K51"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12758,7 +13229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12769,25 +13240,25 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="5" max="5" width="31.27734375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="5" max="5" width="31.26953125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -12808,10 +13279,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="16" t="s">
         <v>285</v>
       </c>
@@ -12827,15 +13298,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -12862,10 +13333,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="104"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -12886,8 +13357,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="104"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -12906,8 +13377,8 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="104"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="111"/>
     </row>
     <row r="8" spans="2:11" ht="15">
       <c r="B8" s="13">
@@ -12926,8 +13397,8 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="104"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="111"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -12946,8 +13417,8 @@
         <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="104"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="111"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
@@ -12970,8 +13441,8 @@
         <v>202</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="104"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="2:11" s="57" customFormat="1" ht="49.5" customHeight="1">
       <c r="B11" s="12">
@@ -12992,8 +13463,8 @@
         <v>202</v>
       </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="116"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="122"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
@@ -13034,10 +13505,10 @@
         <v>192</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="104"/>
-    </row>
-    <row r="14" spans="2:11" ht="13.8">
+      <c r="J13" s="120"/>
+      <c r="K13" s="111"/>
+    </row>
+    <row r="14" spans="2:11" ht="14">
       <c r="B14" s="13">
         <v>10</v>
       </c>
@@ -13054,8 +13525,8 @@
         <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="104"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="111"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
@@ -13074,8 +13545,8 @@
         <v>192</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="104"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="111"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
@@ -13094,8 +13565,8 @@
         <v>189</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="104"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="111"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
@@ -13108,8 +13579,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="104"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="111"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
@@ -13122,10 +13593,10 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="104"/>
-    </row>
-    <row r="19" spans="1:11" ht="13.8">
+      <c r="J18" s="120"/>
+      <c r="K18" s="111"/>
+    </row>
+    <row r="19" spans="1:11" ht="14">
       <c r="B19" s="13">
         <v>14</v>
       </c>
@@ -13136,8 +13607,8 @@
       <c r="G19" s="14"/>
       <c r="H19" s="20"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="104"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="111"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
@@ -13150,8 +13621,8 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="104"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="111"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
@@ -13164,8 +13635,8 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="104"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="111"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -13212,169 +13683,163 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B30" s="111"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="103"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="103"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -13389,6 +13854,12 @@
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13397,7 +13868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13408,24 +13879,24 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -13446,10 +13917,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="16" t="s">
         <v>286</v>
       </c>
@@ -13465,15 +13936,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -13500,10 +13971,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="104"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -13553,7 +14024,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="35"/>
     </row>
-    <row r="8" spans="2:11" ht="13.8">
+    <row r="8" spans="2:11" ht="14">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -13593,7 +14064,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="2:11" s="57" customFormat="1" ht="47.05" customHeight="1">
+    <row r="10" spans="2:11" s="57" customFormat="1" ht="47" customHeight="1">
       <c r="B10" s="12">
         <v>5</v>
       </c>
@@ -13632,10 +14103,10 @@
         <v>192</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="104"/>
-    </row>
-    <row r="12" spans="2:11" ht="13.8">
+      <c r="J11" s="120"/>
+      <c r="K11" s="111"/>
+    </row>
+    <row r="12" spans="2:11" ht="14">
       <c r="B12" s="13">
         <v>7</v>
       </c>
@@ -13652,8 +14123,8 @@
         <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="104"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="111"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1">
       <c r="B13" s="13">
@@ -13672,8 +14143,8 @@
         <v>192</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="104"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="111"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
@@ -13692,8 +14163,8 @@
         <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="104"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="111"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
@@ -13723,7 +14194,7 @@
       <c r="J16" s="38"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="13.8">
+    <row r="17" spans="1:11" ht="14">
       <c r="B17" s="13">
         <v>12</v>
       </c>
@@ -13793,7 +14264,7 @@
       <c r="J21" s="38"/>
       <c r="K21" s="35"/>
     </row>
-    <row r="22" spans="1:11" ht="13.8">
+    <row r="22" spans="1:11" ht="14">
       <c r="B22" s="13">
         <v>17</v>
       </c>
@@ -13856,160 +14327,160 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B31" s="111"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="103"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="103"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="103"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -14029,7 +14500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14040,25 +14511,25 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -14079,10 +14550,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="16" t="s">
         <v>287</v>
       </c>
@@ -14098,15 +14569,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -14133,10 +14604,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="104"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -14159,8 +14630,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="104"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -14225,8 +14696,8 @@
         <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="104"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="111"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
@@ -14467,8 +14938,8 @@
         <v>189</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="104"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="111"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
@@ -14489,8 +14960,8 @@
         <v>189</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="104"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="111"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
@@ -14511,8 +14982,8 @@
         <v>189</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="104"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="111"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
@@ -14533,8 +15004,8 @@
         <v>189</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="104"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="111"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
@@ -14555,8 +15026,8 @@
         <v>202</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="104"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="111"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
@@ -14577,8 +15048,8 @@
         <v>189</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="104"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="111"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="13">
@@ -14599,8 +15070,8 @@
         <v>191</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="104"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="111"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="13">
@@ -14621,8 +15092,8 @@
         <v>191</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="104"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="111"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="13">
@@ -14643,8 +15114,8 @@
         <v>191</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="104"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="111"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="13">
@@ -14665,8 +15136,8 @@
         <v>191</v>
       </c>
       <c r="I29" s="13"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="104"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="111"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="13">
@@ -14687,8 +15158,8 @@
         <v>191</v>
       </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="104"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="111"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="13">
@@ -14709,8 +15180,8 @@
         <v>189</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="104"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="111"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="13">
@@ -14731,8 +15202,8 @@
         <v>189</v>
       </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="104"/>
+      <c r="J32" s="120"/>
+      <c r="K32" s="111"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="B33" s="13">
@@ -14753,8 +15224,8 @@
         <v>189</v>
       </c>
       <c r="I33" s="13"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="104"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="111"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="B34" s="13">
@@ -14893,8 +15364,8 @@
         <v>192</v>
       </c>
       <c r="I40" s="13"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="104"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="111"/>
     </row>
     <row r="41" spans="1:11" ht="15">
       <c r="B41" s="13">
@@ -14913,8 +15384,8 @@
         <v>189</v>
       </c>
       <c r="I41" s="13"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="104"/>
+      <c r="J41" s="120"/>
+      <c r="K41" s="111"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
       <c r="B42" s="13">
@@ -14933,8 +15404,8 @@
         <v>192</v>
       </c>
       <c r="I42" s="13"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="104"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="111"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="B43" s="13">
@@ -14953,8 +15424,8 @@
         <v>189</v>
       </c>
       <c r="I43" s="13"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="104"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="111"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="B44" s="26"/>
@@ -15025,163 +15496,172 @@
       </c>
     </row>
     <row r="54" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B54" s="111"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="97"/>
-      <c r="J54" s="97"/>
-      <c r="K54" s="97"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
+      <c r="K54" s="103"/>
     </row>
     <row r="55" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B55" s="97"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="97"/>
-      <c r="J55" s="97"/>
-      <c r="K55" s="97"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="103"/>
+      <c r="H55" s="103"/>
+      <c r="I55" s="103"/>
+      <c r="J55" s="103"/>
+      <c r="K55" s="103"/>
     </row>
     <row r="56" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B56" s="97"/>
-      <c r="C56" s="97"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="97"/>
-      <c r="H56" s="97"/>
-      <c r="I56" s="97"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="103"/>
+      <c r="H56" s="103"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="103"/>
+      <c r="K56" s="103"/>
     </row>
     <row r="57" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B57" s="97"/>
-      <c r="C57" s="97"/>
-      <c r="D57" s="97"/>
-      <c r="E57" s="97"/>
-      <c r="F57" s="97"/>
-      <c r="G57" s="97"/>
-      <c r="H57" s="97"/>
-      <c r="I57" s="97"/>
-      <c r="J57" s="97"/>
-      <c r="K57" s="97"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="103"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="103"/>
+      <c r="K57" s="103"/>
     </row>
     <row r="58" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B58" s="97"/>
-      <c r="C58" s="97"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="97"/>
-      <c r="I58" s="97"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="97"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
+      <c r="F58" s="103"/>
+      <c r="G58" s="103"/>
+      <c r="H58" s="103"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="103"/>
     </row>
     <row r="59" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B59" s="97"/>
-      <c r="C59" s="97"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="97"/>
-      <c r="F59" s="97"/>
-      <c r="G59" s="97"/>
-      <c r="H59" s="97"/>
-      <c r="I59" s="97"/>
-      <c r="J59" s="97"/>
-      <c r="K59" s="97"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="103"/>
+      <c r="H59" s="103"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="103"/>
+      <c r="K59" s="103"/>
     </row>
     <row r="60" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B60" s="97"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="97"/>
-      <c r="F60" s="97"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="97"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="97"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="103"/>
+      <c r="G60" s="103"/>
+      <c r="H60" s="103"/>
+      <c r="I60" s="103"/>
+      <c r="J60" s="103"/>
+      <c r="K60" s="103"/>
     </row>
     <row r="61" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="97"/>
-      <c r="J61" s="97"/>
-      <c r="K61" s="97"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="103"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="103"/>
+      <c r="F61" s="103"/>
+      <c r="G61" s="103"/>
+      <c r="H61" s="103"/>
+      <c r="I61" s="103"/>
+      <c r="J61" s="103"/>
+      <c r="K61" s="103"/>
     </row>
     <row r="62" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B62" s="97"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="97"/>
-      <c r="J62" s="97"/>
-      <c r="K62" s="97"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="103"/>
+      <c r="I62" s="103"/>
+      <c r="J62" s="103"/>
+      <c r="K62" s="103"/>
     </row>
     <row r="63" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B63" s="97"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="97"/>
-      <c r="F63" s="97"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="97"/>
-      <c r="J63" s="97"/>
-      <c r="K63" s="97"/>
+      <c r="B63" s="103"/>
+      <c r="C63" s="103"/>
+      <c r="D63" s="103"/>
+      <c r="E63" s="103"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="103"/>
+      <c r="I63" s="103"/>
+      <c r="J63" s="103"/>
+      <c r="K63" s="103"/>
     </row>
     <row r="64" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B64" s="97"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="97"/>
-      <c r="E64" s="97"/>
-      <c r="F64" s="97"/>
-      <c r="G64" s="97"/>
-      <c r="H64" s="97"/>
-      <c r="I64" s="97"/>
-      <c r="J64" s="97"/>
-      <c r="K64" s="97"/>
+      <c r="B64" s="103"/>
+      <c r="C64" s="103"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="103"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="103"/>
+      <c r="H64" s="103"/>
+      <c r="I64" s="103"/>
+      <c r="J64" s="103"/>
+      <c r="K64" s="103"/>
     </row>
     <row r="65" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B65" s="97"/>
-      <c r="C65" s="97"/>
-      <c r="D65" s="97"/>
-      <c r="E65" s="97"/>
-      <c r="F65" s="97"/>
-      <c r="G65" s="97"/>
-      <c r="H65" s="97"/>
-      <c r="I65" s="97"/>
-      <c r="J65" s="97"/>
-      <c r="K65" s="97"/>
+      <c r="B65" s="103"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="103"/>
+      <c r="F65" s="103"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="103"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="103"/>
+      <c r="K65" s="103"/>
     </row>
     <row r="66" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B66" s="97"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="97"/>
-      <c r="J66" s="97"/>
-      <c r="K66" s="97"/>
+      <c r="B66" s="103"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="103"/>
+      <c r="H66" s="103"/>
+      <c r="I66" s="103"/>
+      <c r="J66" s="103"/>
+      <c r="K66" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="B54:K66"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
@@ -15198,15 +15678,6 @@
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ansteypeファイル/DB設計 テーブル定義書.xlsx
+++ b/ansteypeファイル/DB設計 テーブル定義書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ans_client\ansteypeファイル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ans_client\ansteypeファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75BF355-E095-498D-8EF2-51193E93EB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="23230" windowHeight="13870" tabRatio="756" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="19110" yWindow="-16320" windowWidth="38640" windowHeight="15720" tabRatio="756" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一時保存記録" sheetId="19" r:id="rId1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="375">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -2796,12 +2797,31 @@
     <t>delivery_info</t>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <t>file_name</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>file_path</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ファイルパス</t>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2995,6 +3015,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3177,7 +3204,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3347,24 +3374,35 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3376,24 +3414,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3411,27 +3449,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3643,7 +3666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3654,27 +3677,27 @@
       <selection activeCell="A13" sqref="A13:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="61" customWidth="1"/>
-    <col min="2" max="3" width="8.36328125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" style="61" customWidth="1"/>
-    <col min="5" max="6" width="12.6328125" style="61"/>
-    <col min="7" max="7" width="25.36328125" style="61" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" style="61"/>
-    <col min="9" max="9" width="8.6328125" style="61" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" style="61" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" style="61" customWidth="1"/>
-    <col min="12" max="16384" width="12.6328125" style="61"/>
+    <col min="1" max="1" width="4.609375" style="61" customWidth="1"/>
+    <col min="2" max="3" width="8.38671875" style="61" customWidth="1"/>
+    <col min="4" max="4" width="8.609375" style="61" customWidth="1"/>
+    <col min="5" max="6" width="12.609375" style="61"/>
+    <col min="7" max="7" width="25.38671875" style="61" customWidth="1"/>
+    <col min="8" max="8" width="12.609375" style="61"/>
+    <col min="9" max="9" width="8.609375" style="61" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="61" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" style="61" customWidth="1"/>
+    <col min="12" max="16384" width="12.609375" style="61"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="92"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="95"/>
       <c r="F2" s="63" t="s">
         <v>5</v>
       </c>
@@ -3695,10 +3718,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="92"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="66" t="s">
         <v>314</v>
       </c>
@@ -3714,15 +3737,15 @@
       <c r="B4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="92"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="95"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="71" t="s">
@@ -3749,10 +3772,10 @@
       <c r="I5" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="92"/>
+      <c r="K5" s="95"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="63">
@@ -3775,8 +3798,8 @@
       <c r="I6" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="92"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="95"/>
     </row>
     <row r="7" spans="1:11" customFormat="1" ht="15.75" customHeight="1">
       <c r="B7" s="63">
@@ -3817,8 +3840,8 @@
         <v>189</v>
       </c>
       <c r="I8" s="63"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="92"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="95"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="B9" s="63">
@@ -3837,8 +3860,8 @@
         <v>189</v>
       </c>
       <c r="I9" s="63"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="92"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="95"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="B10" s="63">
@@ -3877,8 +3900,8 @@
         <v>192</v>
       </c>
       <c r="I11" s="63"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="95"/>
     </row>
     <row r="12" spans="1:11" ht="15">
       <c r="B12" s="63">
@@ -3918,8 +3941,8 @@
         <v>192</v>
       </c>
       <c r="I13" s="63"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="92"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="95"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="76"/>
@@ -3939,8 +3962,8 @@
         <v>189</v>
       </c>
       <c r="I14" s="63"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="92"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="95"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="76"/>
@@ -3981,8 +4004,8 @@
         <v>192</v>
       </c>
       <c r="I16" s="63"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="92"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="95"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="76"/>
@@ -4002,8 +4025,8 @@
         <v>189</v>
       </c>
       <c r="I17" s="63"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="92"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="95"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="76"/>
@@ -4038,163 +4061,169 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B25" s="97"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="98"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="98"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="B25:K37"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J11:K11"/>
@@ -4202,12 +4231,6 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4215,7 +4238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4226,19 +4249,19 @@
       <selection activeCell="E12" sqref="E12:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="3" width="8.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.609375" customWidth="1"/>
+    <col min="2" max="3" width="8.38671875" customWidth="1"/>
+    <col min="4" max="4" width="8.609375" customWidth="1"/>
+    <col min="7" max="7" width="25.38671875" customWidth="1"/>
+    <col min="9" max="9" width="8.609375" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="119" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="110"/>
@@ -4264,7 +4287,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="118"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="110"/>
       <c r="D3" s="110"/>
       <c r="E3" s="111"/>
@@ -4283,7 +4306,7 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
       <c r="F4" s="110"/>
@@ -4318,7 +4341,7 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="120" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="111"/>
@@ -4344,7 +4367,7 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="120"/>
+      <c r="J6" s="121"/>
       <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
@@ -4410,7 +4433,7 @@
         <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="120"/>
+      <c r="J9" s="121"/>
       <c r="K9" s="111"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
@@ -4652,7 +4675,7 @@
         <v>189</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="120"/>
+      <c r="J20" s="121"/>
       <c r="K20" s="111"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
@@ -4674,7 +4697,7 @@
         <v>189</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="120"/>
+      <c r="J21" s="121"/>
       <c r="K21" s="111"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
@@ -4696,7 +4719,7 @@
         <v>189</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="120"/>
+      <c r="J22" s="121"/>
       <c r="K22" s="111"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
@@ -4718,7 +4741,7 @@
         <v>189</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="120"/>
+      <c r="J23" s="121"/>
       <c r="K23" s="111"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
@@ -4740,7 +4763,7 @@
         <v>202</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="120"/>
+      <c r="J24" s="121"/>
       <c r="K24" s="111"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
@@ -4762,7 +4785,7 @@
         <v>189</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="120"/>
+      <c r="J25" s="121"/>
       <c r="K25" s="111"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
@@ -4784,7 +4807,7 @@
         <v>191</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="120"/>
+      <c r="J26" s="121"/>
       <c r="K26" s="111"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
@@ -4806,7 +4829,7 @@
         <v>191</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="120"/>
+      <c r="J27" s="121"/>
       <c r="K27" s="111"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
@@ -4828,7 +4851,7 @@
         <v>191</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="120"/>
+      <c r="J28" s="121"/>
       <c r="K28" s="111"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
@@ -4850,7 +4873,7 @@
         <v>191</v>
       </c>
       <c r="I29" s="13"/>
-      <c r="J29" s="120"/>
+      <c r="J29" s="121"/>
       <c r="K29" s="111"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
@@ -4872,7 +4895,7 @@
         <v>191</v>
       </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="120"/>
+      <c r="J30" s="121"/>
       <c r="K30" s="111"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
@@ -4894,7 +4917,7 @@
         <v>189</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="120"/>
+      <c r="J31" s="121"/>
       <c r="K31" s="111"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
@@ -4916,7 +4939,7 @@
         <v>189</v>
       </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="120"/>
+      <c r="J32" s="121"/>
       <c r="K32" s="111"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
@@ -4938,7 +4961,7 @@
         <v>192</v>
       </c>
       <c r="I33" s="13"/>
-      <c r="J33" s="120"/>
+      <c r="J33" s="121"/>
       <c r="K33" s="111"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
@@ -5218,7 +5241,7 @@
         <v>192</v>
       </c>
       <c r="I47" s="13"/>
-      <c r="J47" s="120"/>
+      <c r="J47" s="121"/>
       <c r="K47" s="111"/>
     </row>
     <row r="48" spans="2:11" ht="15">
@@ -5238,7 +5261,7 @@
         <v>189</v>
       </c>
       <c r="I48" s="13"/>
-      <c r="J48" s="120"/>
+      <c r="J48" s="121"/>
       <c r="K48" s="111"/>
     </row>
     <row r="49" spans="2:11" ht="15">
@@ -5278,7 +5301,7 @@
         <v>192</v>
       </c>
       <c r="I50" s="13"/>
-      <c r="J50" s="116"/>
+      <c r="J50" s="117"/>
       <c r="K50" s="111"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1">
@@ -5298,7 +5321,7 @@
         <v>189</v>
       </c>
       <c r="I51" s="13"/>
-      <c r="J51" s="116"/>
+      <c r="J51" s="117"/>
       <c r="K51" s="111"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" customHeight="1">
@@ -5514,163 +5537,172 @@
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B74" s="117"/>
-      <c r="C74" s="103"/>
-      <c r="D74" s="103"/>
-      <c r="E74" s="103"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="103"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="103"/>
-      <c r="K74" s="103"/>
+      <c r="B74" s="118"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="104"/>
+      <c r="E74" s="104"/>
+      <c r="F74" s="104"/>
+      <c r="G74" s="104"/>
+      <c r="H74" s="104"/>
+      <c r="I74" s="104"/>
+      <c r="J74" s="104"/>
+      <c r="K74" s="104"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B75" s="103"/>
-      <c r="C75" s="103"/>
-      <c r="D75" s="103"/>
-      <c r="E75" s="103"/>
-      <c r="F75" s="103"/>
-      <c r="G75" s="103"/>
-      <c r="H75" s="103"/>
-      <c r="I75" s="103"/>
-      <c r="J75" s="103"/>
-      <c r="K75" s="103"/>
+      <c r="B75" s="104"/>
+      <c r="C75" s="104"/>
+      <c r="D75" s="104"/>
+      <c r="E75" s="104"/>
+      <c r="F75" s="104"/>
+      <c r="G75" s="104"/>
+      <c r="H75" s="104"/>
+      <c r="I75" s="104"/>
+      <c r="J75" s="104"/>
+      <c r="K75" s="104"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B76" s="103"/>
-      <c r="C76" s="103"/>
-      <c r="D76" s="103"/>
-      <c r="E76" s="103"/>
-      <c r="F76" s="103"/>
-      <c r="G76" s="103"/>
-      <c r="H76" s="103"/>
-      <c r="I76" s="103"/>
-      <c r="J76" s="103"/>
-      <c r="K76" s="103"/>
+      <c r="B76" s="104"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="104"/>
+      <c r="E76" s="104"/>
+      <c r="F76" s="104"/>
+      <c r="G76" s="104"/>
+      <c r="H76" s="104"/>
+      <c r="I76" s="104"/>
+      <c r="J76" s="104"/>
+      <c r="K76" s="104"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B77" s="103"/>
-      <c r="C77" s="103"/>
-      <c r="D77" s="103"/>
-      <c r="E77" s="103"/>
-      <c r="F77" s="103"/>
-      <c r="G77" s="103"/>
-      <c r="H77" s="103"/>
-      <c r="I77" s="103"/>
-      <c r="J77" s="103"/>
-      <c r="K77" s="103"/>
+      <c r="B77" s="104"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="104"/>
+      <c r="F77" s="104"/>
+      <c r="G77" s="104"/>
+      <c r="H77" s="104"/>
+      <c r="I77" s="104"/>
+      <c r="J77" s="104"/>
+      <c r="K77" s="104"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B78" s="103"/>
-      <c r="C78" s="103"/>
-      <c r="D78" s="103"/>
-      <c r="E78" s="103"/>
-      <c r="F78" s="103"/>
-      <c r="G78" s="103"/>
-      <c r="H78" s="103"/>
-      <c r="I78" s="103"/>
-      <c r="J78" s="103"/>
-      <c r="K78" s="103"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="104"/>
+      <c r="D78" s="104"/>
+      <c r="E78" s="104"/>
+      <c r="F78" s="104"/>
+      <c r="G78" s="104"/>
+      <c r="H78" s="104"/>
+      <c r="I78" s="104"/>
+      <c r="J78" s="104"/>
+      <c r="K78" s="104"/>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B79" s="103"/>
-      <c r="C79" s="103"/>
-      <c r="D79" s="103"/>
-      <c r="E79" s="103"/>
-      <c r="F79" s="103"/>
-      <c r="G79" s="103"/>
-      <c r="H79" s="103"/>
-      <c r="I79" s="103"/>
-      <c r="J79" s="103"/>
-      <c r="K79" s="103"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="104"/>
+      <c r="D79" s="104"/>
+      <c r="E79" s="104"/>
+      <c r="F79" s="104"/>
+      <c r="G79" s="104"/>
+      <c r="H79" s="104"/>
+      <c r="I79" s="104"/>
+      <c r="J79" s="104"/>
+      <c r="K79" s="104"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B80" s="103"/>
-      <c r="C80" s="103"/>
-      <c r="D80" s="103"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="103"/>
-      <c r="H80" s="103"/>
-      <c r="I80" s="103"/>
-      <c r="J80" s="103"/>
-      <c r="K80" s="103"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="104"/>
+      <c r="E80" s="104"/>
+      <c r="F80" s="104"/>
+      <c r="G80" s="104"/>
+      <c r="H80" s="104"/>
+      <c r="I80" s="104"/>
+      <c r="J80" s="104"/>
+      <c r="K80" s="104"/>
     </row>
     <row r="81" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B81" s="103"/>
-      <c r="C81" s="103"/>
-      <c r="D81" s="103"/>
-      <c r="E81" s="103"/>
-      <c r="F81" s="103"/>
-      <c r="G81" s="103"/>
-      <c r="H81" s="103"/>
-      <c r="I81" s="103"/>
-      <c r="J81" s="103"/>
-      <c r="K81" s="103"/>
+      <c r="B81" s="104"/>
+      <c r="C81" s="104"/>
+      <c r="D81" s="104"/>
+      <c r="E81" s="104"/>
+      <c r="F81" s="104"/>
+      <c r="G81" s="104"/>
+      <c r="H81" s="104"/>
+      <c r="I81" s="104"/>
+      <c r="J81" s="104"/>
+      <c r="K81" s="104"/>
     </row>
     <row r="82" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B82" s="103"/>
-      <c r="C82" s="103"/>
-      <c r="D82" s="103"/>
-      <c r="E82" s="103"/>
-      <c r="F82" s="103"/>
-      <c r="G82" s="103"/>
-      <c r="H82" s="103"/>
-      <c r="I82" s="103"/>
-      <c r="J82" s="103"/>
-      <c r="K82" s="103"/>
+      <c r="B82" s="104"/>
+      <c r="C82" s="104"/>
+      <c r="D82" s="104"/>
+      <c r="E82" s="104"/>
+      <c r="F82" s="104"/>
+      <c r="G82" s="104"/>
+      <c r="H82" s="104"/>
+      <c r="I82" s="104"/>
+      <c r="J82" s="104"/>
+      <c r="K82" s="104"/>
     </row>
     <row r="83" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B83" s="103"/>
-      <c r="C83" s="103"/>
-      <c r="D83" s="103"/>
-      <c r="E83" s="103"/>
-      <c r="F83" s="103"/>
-      <c r="G83" s="103"/>
-      <c r="H83" s="103"/>
-      <c r="I83" s="103"/>
-      <c r="J83" s="103"/>
-      <c r="K83" s="103"/>
+      <c r="B83" s="104"/>
+      <c r="C83" s="104"/>
+      <c r="D83" s="104"/>
+      <c r="E83" s="104"/>
+      <c r="F83" s="104"/>
+      <c r="G83" s="104"/>
+      <c r="H83" s="104"/>
+      <c r="I83" s="104"/>
+      <c r="J83" s="104"/>
+      <c r="K83" s="104"/>
     </row>
     <row r="84" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B84" s="103"/>
-      <c r="C84" s="103"/>
-      <c r="D84" s="103"/>
-      <c r="E84" s="103"/>
-      <c r="F84" s="103"/>
-      <c r="G84" s="103"/>
-      <c r="H84" s="103"/>
-      <c r="I84" s="103"/>
-      <c r="J84" s="103"/>
-      <c r="K84" s="103"/>
+      <c r="B84" s="104"/>
+      <c r="C84" s="104"/>
+      <c r="D84" s="104"/>
+      <c r="E84" s="104"/>
+      <c r="F84" s="104"/>
+      <c r="G84" s="104"/>
+      <c r="H84" s="104"/>
+      <c r="I84" s="104"/>
+      <c r="J84" s="104"/>
+      <c r="K84" s="104"/>
     </row>
     <row r="85" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B85" s="103"/>
-      <c r="C85" s="103"/>
-      <c r="D85" s="103"/>
-      <c r="E85" s="103"/>
-      <c r="F85" s="103"/>
-      <c r="G85" s="103"/>
-      <c r="H85" s="103"/>
-      <c r="I85" s="103"/>
-      <c r="J85" s="103"/>
-      <c r="K85" s="103"/>
+      <c r="B85" s="104"/>
+      <c r="C85" s="104"/>
+      <c r="D85" s="104"/>
+      <c r="E85" s="104"/>
+      <c r="F85" s="104"/>
+      <c r="G85" s="104"/>
+      <c r="H85" s="104"/>
+      <c r="I85" s="104"/>
+      <c r="J85" s="104"/>
+      <c r="K85" s="104"/>
     </row>
     <row r="86" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B86" s="103"/>
-      <c r="C86" s="103"/>
-      <c r="D86" s="103"/>
-      <c r="E86" s="103"/>
-      <c r="F86" s="103"/>
-      <c r="G86" s="103"/>
-      <c r="H86" s="103"/>
-      <c r="I86" s="103"/>
-      <c r="J86" s="103"/>
-      <c r="K86" s="103"/>
+      <c r="B86" s="104"/>
+      <c r="C86" s="104"/>
+      <c r="D86" s="104"/>
+      <c r="E86" s="104"/>
+      <c r="F86" s="104"/>
+      <c r="G86" s="104"/>
+      <c r="H86" s="104"/>
+      <c r="I86" s="104"/>
+      <c r="J86" s="104"/>
+      <c r="K86" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="J51:K51"/>
     <mergeCell ref="J47:K47"/>
@@ -5687,15 +5719,6 @@
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5704,7 +5727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5715,19 +5738,19 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="3" width="8.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.609375" customWidth="1"/>
+    <col min="2" max="3" width="8.38671875" customWidth="1"/>
+    <col min="4" max="4" width="8.609375" customWidth="1"/>
+    <col min="7" max="7" width="25.38671875" customWidth="1"/>
+    <col min="9" max="9" width="8.609375" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="119" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="110"/>
@@ -5753,7 +5776,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="118"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="110"/>
       <c r="D3" s="110"/>
       <c r="E3" s="111"/>
@@ -5772,7 +5795,7 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
       <c r="F4" s="110"/>
@@ -5807,7 +5830,7 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="120" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="111"/>
@@ -5833,7 +5856,7 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="120"/>
+      <c r="J6" s="121"/>
       <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
@@ -5853,10 +5876,10 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="120"/>
+      <c r="J7" s="121"/>
       <c r="K7" s="111"/>
     </row>
-    <row r="8" spans="2:11" ht="14">
+    <row r="8" spans="2:11" ht="13.8">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -5873,7 +5896,7 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="120"/>
+      <c r="J8" s="121"/>
       <c r="K8" s="111"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
@@ -5893,7 +5916,7 @@
         <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="116"/>
+      <c r="J9" s="117"/>
       <c r="K9" s="111"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
@@ -5913,7 +5936,7 @@
         <v>246</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="120"/>
+      <c r="J10" s="121"/>
       <c r="K10" s="111"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1">
@@ -5933,10 +5956,10 @@
         <v>192</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="120"/>
+      <c r="J11" s="121"/>
       <c r="K11" s="111"/>
     </row>
-    <row r="12" spans="2:11" ht="14">
+    <row r="12" spans="2:11" ht="13.8">
       <c r="B12" s="13">
         <v>10</v>
       </c>
@@ -5953,7 +5976,7 @@
         <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="120"/>
+      <c r="J12" s="121"/>
       <c r="K12" s="111"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1">
@@ -5973,7 +5996,7 @@
         <v>192</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="116"/>
+      <c r="J13" s="117"/>
       <c r="K13" s="111"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1">
@@ -5993,7 +6016,7 @@
         <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="116"/>
+      <c r="J14" s="117"/>
       <c r="K14" s="111"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
@@ -6007,7 +6030,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="120"/>
+      <c r="J15" s="121"/>
       <c r="K15" s="111"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
@@ -6021,7 +6044,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="120"/>
+      <c r="J16" s="121"/>
       <c r="K16" s="111"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1">
@@ -6035,7 +6058,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="20"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="120"/>
+      <c r="J17" s="121"/>
       <c r="K17" s="111"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
@@ -6049,7 +6072,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="116"/>
+      <c r="J18" s="117"/>
       <c r="K18" s="111"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
@@ -6063,7 +6086,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="116"/>
+      <c r="J19" s="117"/>
       <c r="K19" s="111"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
@@ -6077,7 +6100,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="120"/>
+      <c r="J20" s="121"/>
       <c r="K20" s="111"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
@@ -6091,7 +6114,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="120"/>
+      <c r="J21" s="121"/>
       <c r="K21" s="111"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
@@ -6105,7 +6128,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="20"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="120"/>
+      <c r="J22" s="121"/>
       <c r="K22" s="111"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
@@ -6119,7 +6142,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="116"/>
+      <c r="J23" s="117"/>
       <c r="K23" s="111"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
@@ -6133,7 +6156,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="116"/>
+      <c r="J24" s="117"/>
       <c r="K24" s="111"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
@@ -6265,171 +6288,163 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B40" s="117"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="103"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="104"/>
+      <c r="K44" s="104"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B45" s="103"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B46" s="103"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
-      <c r="K46" s="103"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="104"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B47" s="103"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="103"/>
-      <c r="K47" s="103"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="104"/>
+      <c r="K47" s="104"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B48" s="103"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103"/>
-      <c r="K48" s="103"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="104"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B49" s="103"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="103"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="103"/>
-      <c r="K50" s="103"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="104"/>
+      <c r="J50" s="104"/>
+      <c r="K50" s="104"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="103"/>
-      <c r="K51" s="103"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="104"/>
+      <c r="K51" s="104"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B52" s="103"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="103"/>
-      <c r="K52" s="103"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
+      <c r="K52" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="B40:K52"/>
     <mergeCell ref="B2:E2"/>
@@ -6446,6 +6461,14 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6453,7 +6476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6464,19 +6487,19 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="3" width="8.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.609375" customWidth="1"/>
+    <col min="2" max="3" width="8.38671875" customWidth="1"/>
+    <col min="4" max="4" width="8.609375" customWidth="1"/>
+    <col min="7" max="7" width="25.38671875" customWidth="1"/>
+    <col min="9" max="9" width="8.609375" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="119" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="110"/>
@@ -6502,7 +6525,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="118"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="110"/>
       <c r="D3" s="110"/>
       <c r="E3" s="111"/>
@@ -6521,7 +6544,7 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
       <c r="F4" s="110"/>
@@ -6556,7 +6579,7 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="120" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="111"/>
@@ -6582,7 +6605,7 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="120"/>
+      <c r="J6" s="121"/>
       <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
@@ -6602,10 +6625,10 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="120"/>
+      <c r="J7" s="121"/>
       <c r="K7" s="111"/>
     </row>
-    <row r="8" spans="2:11" ht="16">
+    <row r="8" spans="2:11" ht="15">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -6626,7 +6649,7 @@
         <v>202</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="120"/>
+      <c r="J8" s="121"/>
       <c r="K8" s="111"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
@@ -6646,10 +6669,10 @@
         <v>192</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="120"/>
+      <c r="J9" s="121"/>
       <c r="K9" s="111"/>
     </row>
-    <row r="10" spans="2:11" ht="14">
+    <row r="10" spans="2:11" ht="13.8">
       <c r="B10" s="13">
         <v>10</v>
       </c>
@@ -6666,7 +6689,7 @@
         <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="120"/>
+      <c r="J10" s="121"/>
       <c r="K10" s="111"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1">
@@ -6686,7 +6709,7 @@
         <v>192</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="116"/>
+      <c r="J11" s="117"/>
       <c r="K11" s="111"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
@@ -6706,10 +6729,10 @@
         <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="116"/>
+      <c r="J12" s="117"/>
       <c r="K12" s="111"/>
     </row>
-    <row r="13" spans="2:11" ht="14">
+    <row r="13" spans="2:11" ht="13.8">
       <c r="B13" s="13">
         <v>3</v>
       </c>
@@ -6720,7 +6743,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="20"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="120"/>
+      <c r="J13" s="121"/>
       <c r="K13" s="111"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1">
@@ -6734,7 +6757,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="116"/>
+      <c r="J14" s="117"/>
       <c r="K14" s="111"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
@@ -6748,7 +6771,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="116"/>
+      <c r="J15" s="117"/>
       <c r="K15" s="111"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
@@ -6762,7 +6785,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="120"/>
+      <c r="J16" s="121"/>
       <c r="K16" s="111"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1">
@@ -6776,7 +6799,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="120"/>
+      <c r="J17" s="121"/>
       <c r="K17" s="111"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
@@ -6790,7 +6813,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="20"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="120"/>
+      <c r="J18" s="121"/>
       <c r="K18" s="111"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
@@ -6804,7 +6827,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="116"/>
+      <c r="J19" s="117"/>
       <c r="K19" s="111"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
@@ -6818,7 +6841,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="116"/>
+      <c r="J20" s="117"/>
       <c r="K20" s="111"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
@@ -6832,7 +6855,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="120"/>
+      <c r="J21" s="121"/>
       <c r="K21" s="111"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
@@ -6846,7 +6869,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="120"/>
+      <c r="J22" s="121"/>
       <c r="K22" s="111"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
@@ -6860,7 +6883,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="20"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="120"/>
+      <c r="J23" s="121"/>
       <c r="K23" s="111"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
@@ -6874,7 +6897,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="116"/>
+      <c r="J24" s="117"/>
       <c r="K24" s="111"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
@@ -6888,7 +6911,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="116"/>
+      <c r="J25" s="117"/>
       <c r="K25" s="111"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
@@ -7020,170 +7043,169 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B41" s="117"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="104"/>
+      <c r="K44" s="104"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B45" s="103"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B46" s="103"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
-      <c r="K46" s="103"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="104"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B47" s="103"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="103"/>
-      <c r="K47" s="103"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="104"/>
+      <c r="K47" s="104"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B48" s="103"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103"/>
-      <c r="K48" s="103"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="104"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B49" s="103"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="103"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="103"/>
-      <c r="K50" s="103"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="104"/>
+      <c r="J50" s="104"/>
+      <c r="K50" s="104"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="103"/>
-      <c r="K51" s="103"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="104"/>
+      <c r="K51" s="104"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B52" s="103"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="103"/>
-      <c r="K52" s="103"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
+      <c r="K52" s="104"/>
     </row>
     <row r="53" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B53" s="103"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="103"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
-      <c r="K53" s="103"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B41:K53"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
@@ -7196,12 +7218,13 @@
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B41:K53"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7209,7 +7232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7218,19 +7241,19 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="3" width="8.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.609375" customWidth="1"/>
+    <col min="2" max="3" width="8.38671875" customWidth="1"/>
+    <col min="4" max="4" width="8.609375" customWidth="1"/>
+    <col min="7" max="7" width="25.38671875" customWidth="1"/>
+    <col min="9" max="9" width="8.609375" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="119" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="110"/>
@@ -7256,7 +7279,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="118"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="110"/>
       <c r="D3" s="110"/>
       <c r="E3" s="111"/>
@@ -7275,7 +7298,7 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
       <c r="F4" s="110"/>
@@ -7310,7 +7333,7 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="120" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="111"/>
@@ -7336,7 +7359,7 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="120"/>
+      <c r="J6" s="121"/>
       <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
@@ -7356,7 +7379,7 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="120"/>
+      <c r="J7" s="121"/>
       <c r="K7" s="111"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1">
@@ -7376,7 +7399,7 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="116"/>
+      <c r="J8" s="117"/>
       <c r="K8" s="111"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
@@ -7396,7 +7419,7 @@
         <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="116"/>
+      <c r="J9" s="117"/>
       <c r="K9" s="111"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
@@ -7556,7 +7579,7 @@
         <v>189</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="120"/>
+      <c r="J17" s="121"/>
       <c r="K17" s="111"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
@@ -7576,7 +7599,7 @@
         <v>189</v>
       </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="120"/>
+      <c r="J18" s="121"/>
       <c r="K18" s="111"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
@@ -7596,7 +7619,7 @@
         <v>189</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="120"/>
+      <c r="J19" s="121"/>
       <c r="K19" s="111"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
@@ -7616,7 +7639,7 @@
         <v>189</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="116"/>
+      <c r="J20" s="117"/>
       <c r="K20" s="111"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
@@ -7656,10 +7679,10 @@
         <v>192</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="120"/>
+      <c r="J22" s="121"/>
       <c r="K22" s="111"/>
     </row>
-    <row r="23" spans="2:11" ht="14">
+    <row r="23" spans="2:11" ht="13.8">
       <c r="B23" s="13">
         <v>10</v>
       </c>
@@ -7676,7 +7699,7 @@
         <v>189</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="120"/>
+      <c r="J23" s="121"/>
       <c r="K23" s="111"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
@@ -7696,7 +7719,7 @@
         <v>192</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="116"/>
+      <c r="J24" s="117"/>
       <c r="K24" s="111"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
@@ -7716,7 +7739,7 @@
         <v>189</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="116"/>
+      <c r="J25" s="117"/>
       <c r="K25" s="111"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
@@ -7725,163 +7748,173 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B30" s="117"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="103"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="103"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="103"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J8:K8"/>
@@ -7889,16 +7922,6 @@
     <mergeCell ref="B30:K42"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7906,7 +7929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7917,19 +7940,19 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="3" width="8.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.609375" customWidth="1"/>
+    <col min="2" max="3" width="8.38671875" customWidth="1"/>
+    <col min="4" max="4" width="8.609375" customWidth="1"/>
+    <col min="7" max="7" width="25.38671875" customWidth="1"/>
+    <col min="9" max="9" width="8.609375" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="119" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="110"/>
@@ -7955,7 +7978,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B3" s="118"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="110"/>
       <c r="D3" s="110"/>
       <c r="E3" s="111"/>
@@ -7974,7 +7997,7 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
       <c r="F4" s="110"/>
@@ -8009,7 +8032,7 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="120" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="111"/>
@@ -8035,7 +8058,7 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="120"/>
+      <c r="J6" s="121"/>
       <c r="K6" s="111"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
@@ -8059,7 +8082,7 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="120"/>
+      <c r="J7" s="121"/>
       <c r="K7" s="111"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
@@ -8079,7 +8102,7 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="120"/>
+      <c r="J8" s="121"/>
       <c r="K8" s="111"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
@@ -8119,7 +8142,7 @@
         <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="120"/>
+      <c r="J10" s="121"/>
       <c r="K10" s="111"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
@@ -8139,10 +8162,10 @@
         <v>192</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="120"/>
+      <c r="J11" s="121"/>
       <c r="K11" s="111"/>
     </row>
-    <row r="12" spans="1:11" ht="14">
+    <row r="12" spans="1:11" ht="13.8">
       <c r="B12" s="13">
         <v>10</v>
       </c>
@@ -8159,7 +8182,7 @@
         <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="120"/>
+      <c r="J12" s="121"/>
       <c r="K12" s="111"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
@@ -8179,7 +8202,7 @@
         <v>192</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="116"/>
+      <c r="J13" s="117"/>
       <c r="K13" s="111"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
@@ -8199,7 +8222,7 @@
         <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="116"/>
+      <c r="J14" s="117"/>
       <c r="K14" s="111"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
@@ -8235,163 +8258,169 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B22" s="117"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="104"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B30" s="103"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="B22:K34"/>
@@ -8399,12 +8428,6 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8412,7 +8435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8423,19 +8446,19 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="3" width="8.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.609375" customWidth="1"/>
+    <col min="2" max="3" width="8.38671875" customWidth="1"/>
+    <col min="4" max="4" width="8.609375" customWidth="1"/>
+    <col min="7" max="7" width="25.38671875" customWidth="1"/>
+    <col min="9" max="9" width="8.609375" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="119" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="110"/>
@@ -8461,7 +8484,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="118"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="110"/>
       <c r="D3" s="110"/>
       <c r="E3" s="111"/>
@@ -8480,7 +8503,7 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
       <c r="F4" s="110"/>
@@ -8515,7 +8538,7 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="120" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="111"/>
@@ -8541,7 +8564,7 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="120"/>
+      <c r="J6" s="121"/>
       <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
@@ -8585,7 +8608,7 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="120"/>
+      <c r="J8" s="121"/>
       <c r="K8" s="111"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
@@ -8827,7 +8850,7 @@
         <v>189</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="120"/>
+      <c r="J19" s="121"/>
       <c r="K19" s="111"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
@@ -8849,7 +8872,7 @@
         <v>189</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="120"/>
+      <c r="J20" s="121"/>
       <c r="K20" s="111"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
@@ -8871,7 +8894,7 @@
         <v>189</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="120"/>
+      <c r="J21" s="121"/>
       <c r="K21" s="111"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
@@ -8893,7 +8916,7 @@
         <v>189</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="120"/>
+      <c r="J22" s="121"/>
       <c r="K22" s="111"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
@@ -8915,7 +8938,7 @@
         <v>202</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="120"/>
+      <c r="J23" s="121"/>
       <c r="K23" s="111"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
@@ -8937,7 +8960,7 @@
         <v>189</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="120"/>
+      <c r="J24" s="121"/>
       <c r="K24" s="111"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
@@ -8959,7 +8982,7 @@
         <v>191</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="120"/>
+      <c r="J25" s="121"/>
       <c r="K25" s="111"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
@@ -8981,7 +9004,7 @@
         <v>191</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="120"/>
+      <c r="J26" s="121"/>
       <c r="K26" s="111"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
@@ -9003,7 +9026,7 @@
         <v>191</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="120"/>
+      <c r="J27" s="121"/>
       <c r="K27" s="111"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
@@ -9025,7 +9048,7 @@
         <v>191</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="120"/>
+      <c r="J28" s="121"/>
       <c r="K28" s="111"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
@@ -9047,7 +9070,7 @@
         <v>191</v>
       </c>
       <c r="I29" s="13"/>
-      <c r="J29" s="120"/>
+      <c r="J29" s="121"/>
       <c r="K29" s="111"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
@@ -9069,7 +9092,7 @@
         <v>189</v>
       </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="120"/>
+      <c r="J30" s="121"/>
       <c r="K30" s="111"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
@@ -9091,7 +9114,7 @@
         <v>189</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="120"/>
+      <c r="J31" s="121"/>
       <c r="K31" s="111"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
@@ -9113,7 +9136,7 @@
         <v>192</v>
       </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="120"/>
+      <c r="J32" s="121"/>
       <c r="K32" s="111"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
@@ -9353,10 +9376,10 @@
         <v>192</v>
       </c>
       <c r="I44" s="13"/>
-      <c r="J44" s="120"/>
+      <c r="J44" s="121"/>
       <c r="K44" s="111"/>
     </row>
-    <row r="45" spans="2:11" ht="14">
+    <row r="45" spans="2:11" ht="13.8">
       <c r="B45" s="13">
         <v>10</v>
       </c>
@@ -9373,7 +9396,7 @@
         <v>189</v>
       </c>
       <c r="I45" s="13"/>
-      <c r="J45" s="120"/>
+      <c r="J45" s="121"/>
       <c r="K45" s="111"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -9393,7 +9416,7 @@
         <v>192</v>
       </c>
       <c r="I46" s="13"/>
-      <c r="J46" s="116"/>
+      <c r="J46" s="117"/>
       <c r="K46" s="111"/>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1">
@@ -9413,7 +9436,7 @@
         <v>189</v>
       </c>
       <c r="I47" s="13"/>
-      <c r="J47" s="116"/>
+      <c r="J47" s="117"/>
       <c r="K47" s="111"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
@@ -9665,170 +9688,169 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B73" s="117"/>
-      <c r="C73" s="103"/>
-      <c r="D73" s="103"/>
-      <c r="E73" s="103"/>
-      <c r="F73" s="103"/>
-      <c r="G73" s="103"/>
-      <c r="H73" s="103"/>
-      <c r="I73" s="103"/>
-      <c r="J73" s="103"/>
-      <c r="K73" s="103"/>
+      <c r="B73" s="118"/>
+      <c r="C73" s="104"/>
+      <c r="D73" s="104"/>
+      <c r="E73" s="104"/>
+      <c r="F73" s="104"/>
+      <c r="G73" s="104"/>
+      <c r="H73" s="104"/>
+      <c r="I73" s="104"/>
+      <c r="J73" s="104"/>
+      <c r="K73" s="104"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B74" s="103"/>
-      <c r="C74" s="103"/>
-      <c r="D74" s="103"/>
-      <c r="E74" s="103"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="103"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="103"/>
-      <c r="K74" s="103"/>
+      <c r="B74" s="104"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="104"/>
+      <c r="E74" s="104"/>
+      <c r="F74" s="104"/>
+      <c r="G74" s="104"/>
+      <c r="H74" s="104"/>
+      <c r="I74" s="104"/>
+      <c r="J74" s="104"/>
+      <c r="K74" s="104"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B75" s="103"/>
-      <c r="C75" s="103"/>
-      <c r="D75" s="103"/>
-      <c r="E75" s="103"/>
-      <c r="F75" s="103"/>
-      <c r="G75" s="103"/>
-      <c r="H75" s="103"/>
-      <c r="I75" s="103"/>
-      <c r="J75" s="103"/>
-      <c r="K75" s="103"/>
+      <c r="B75" s="104"/>
+      <c r="C75" s="104"/>
+      <c r="D75" s="104"/>
+      <c r="E75" s="104"/>
+      <c r="F75" s="104"/>
+      <c r="G75" s="104"/>
+      <c r="H75" s="104"/>
+      <c r="I75" s="104"/>
+      <c r="J75" s="104"/>
+      <c r="K75" s="104"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B76" s="103"/>
-      <c r="C76" s="103"/>
-      <c r="D76" s="103"/>
-      <c r="E76" s="103"/>
-      <c r="F76" s="103"/>
-      <c r="G76" s="103"/>
-      <c r="H76" s="103"/>
-      <c r="I76" s="103"/>
-      <c r="J76" s="103"/>
-      <c r="K76" s="103"/>
+      <c r="B76" s="104"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="104"/>
+      <c r="E76" s="104"/>
+      <c r="F76" s="104"/>
+      <c r="G76" s="104"/>
+      <c r="H76" s="104"/>
+      <c r="I76" s="104"/>
+      <c r="J76" s="104"/>
+      <c r="K76" s="104"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B77" s="103"/>
-      <c r="C77" s="103"/>
-      <c r="D77" s="103"/>
-      <c r="E77" s="103"/>
-      <c r="F77" s="103"/>
-      <c r="G77" s="103"/>
-      <c r="H77" s="103"/>
-      <c r="I77" s="103"/>
-      <c r="J77" s="103"/>
-      <c r="K77" s="103"/>
+      <c r="B77" s="104"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="104"/>
+      <c r="F77" s="104"/>
+      <c r="G77" s="104"/>
+      <c r="H77" s="104"/>
+      <c r="I77" s="104"/>
+      <c r="J77" s="104"/>
+      <c r="K77" s="104"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B78" s="103"/>
-      <c r="C78" s="103"/>
-      <c r="D78" s="103"/>
-      <c r="E78" s="103"/>
-      <c r="F78" s="103"/>
-      <c r="G78" s="103"/>
-      <c r="H78" s="103"/>
-      <c r="I78" s="103"/>
-      <c r="J78" s="103"/>
-      <c r="K78" s="103"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="104"/>
+      <c r="D78" s="104"/>
+      <c r="E78" s="104"/>
+      <c r="F78" s="104"/>
+      <c r="G78" s="104"/>
+      <c r="H78" s="104"/>
+      <c r="I78" s="104"/>
+      <c r="J78" s="104"/>
+      <c r="K78" s="104"/>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B79" s="103"/>
-      <c r="C79" s="103"/>
-      <c r="D79" s="103"/>
-      <c r="E79" s="103"/>
-      <c r="F79" s="103"/>
-      <c r="G79" s="103"/>
-      <c r="H79" s="103"/>
-      <c r="I79" s="103"/>
-      <c r="J79" s="103"/>
-      <c r="K79" s="103"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="104"/>
+      <c r="D79" s="104"/>
+      <c r="E79" s="104"/>
+      <c r="F79" s="104"/>
+      <c r="G79" s="104"/>
+      <c r="H79" s="104"/>
+      <c r="I79" s="104"/>
+      <c r="J79" s="104"/>
+      <c r="K79" s="104"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B80" s="103"/>
-      <c r="C80" s="103"/>
-      <c r="D80" s="103"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="103"/>
-      <c r="H80" s="103"/>
-      <c r="I80" s="103"/>
-      <c r="J80" s="103"/>
-      <c r="K80" s="103"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="104"/>
+      <c r="E80" s="104"/>
+      <c r="F80" s="104"/>
+      <c r="G80" s="104"/>
+      <c r="H80" s="104"/>
+      <c r="I80" s="104"/>
+      <c r="J80" s="104"/>
+      <c r="K80" s="104"/>
     </row>
     <row r="81" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B81" s="103"/>
-      <c r="C81" s="103"/>
-      <c r="D81" s="103"/>
-      <c r="E81" s="103"/>
-      <c r="F81" s="103"/>
-      <c r="G81" s="103"/>
-      <c r="H81" s="103"/>
-      <c r="I81" s="103"/>
-      <c r="J81" s="103"/>
-      <c r="K81" s="103"/>
+      <c r="B81" s="104"/>
+      <c r="C81" s="104"/>
+      <c r="D81" s="104"/>
+      <c r="E81" s="104"/>
+      <c r="F81" s="104"/>
+      <c r="G81" s="104"/>
+      <c r="H81" s="104"/>
+      <c r="I81" s="104"/>
+      <c r="J81" s="104"/>
+      <c r="K81" s="104"/>
     </row>
     <row r="82" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B82" s="103"/>
-      <c r="C82" s="103"/>
-      <c r="D82" s="103"/>
-      <c r="E82" s="103"/>
-      <c r="F82" s="103"/>
-      <c r="G82" s="103"/>
-      <c r="H82" s="103"/>
-      <c r="I82" s="103"/>
-      <c r="J82" s="103"/>
-      <c r="K82" s="103"/>
+      <c r="B82" s="104"/>
+      <c r="C82" s="104"/>
+      <c r="D82" s="104"/>
+      <c r="E82" s="104"/>
+      <c r="F82" s="104"/>
+      <c r="G82" s="104"/>
+      <c r="H82" s="104"/>
+      <c r="I82" s="104"/>
+      <c r="J82" s="104"/>
+      <c r="K82" s="104"/>
     </row>
     <row r="83" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B83" s="103"/>
-      <c r="C83" s="103"/>
-      <c r="D83" s="103"/>
-      <c r="E83" s="103"/>
-      <c r="F83" s="103"/>
-      <c r="G83" s="103"/>
-      <c r="H83" s="103"/>
-      <c r="I83" s="103"/>
-      <c r="J83" s="103"/>
-      <c r="K83" s="103"/>
+      <c r="B83" s="104"/>
+      <c r="C83" s="104"/>
+      <c r="D83" s="104"/>
+      <c r="E83" s="104"/>
+      <c r="F83" s="104"/>
+      <c r="G83" s="104"/>
+      <c r="H83" s="104"/>
+      <c r="I83" s="104"/>
+      <c r="J83" s="104"/>
+      <c r="K83" s="104"/>
     </row>
     <row r="84" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B84" s="103"/>
-      <c r="C84" s="103"/>
-      <c r="D84" s="103"/>
-      <c r="E84" s="103"/>
-      <c r="F84" s="103"/>
-      <c r="G84" s="103"/>
-      <c r="H84" s="103"/>
-      <c r="I84" s="103"/>
-      <c r="J84" s="103"/>
-      <c r="K84" s="103"/>
+      <c r="B84" s="104"/>
+      <c r="C84" s="104"/>
+      <c r="D84" s="104"/>
+      <c r="E84" s="104"/>
+      <c r="F84" s="104"/>
+      <c r="G84" s="104"/>
+      <c r="H84" s="104"/>
+      <c r="I84" s="104"/>
+      <c r="J84" s="104"/>
+      <c r="K84" s="104"/>
     </row>
     <row r="85" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B85" s="103"/>
-      <c r="C85" s="103"/>
-      <c r="D85" s="103"/>
-      <c r="E85" s="103"/>
-      <c r="F85" s="103"/>
-      <c r="G85" s="103"/>
-      <c r="H85" s="103"/>
-      <c r="I85" s="103"/>
-      <c r="J85" s="103"/>
-      <c r="K85" s="103"/>
+      <c r="B85" s="104"/>
+      <c r="C85" s="104"/>
+      <c r="D85" s="104"/>
+      <c r="E85" s="104"/>
+      <c r="F85" s="104"/>
+      <c r="G85" s="104"/>
+      <c r="H85" s="104"/>
+      <c r="I85" s="104"/>
+      <c r="J85" s="104"/>
+      <c r="K85" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B73:K85"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -9841,12 +9863,13 @@
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B73:K85"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9854,31 +9877,33 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:K62"/>
+  <dimension ref="A2:K64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="3" width="8.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" customWidth="1"/>
-    <col min="5" max="5" width="29.1796875" customWidth="1"/>
-    <col min="6" max="6" width="25.54296875" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.609375" customWidth="1"/>
+    <col min="2" max="3" width="8.38671875" customWidth="1"/>
+    <col min="4" max="4" width="8.609375" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="7" max="7" width="25.38671875" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.609375" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="119" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="110"/>
@@ -9904,7 +9929,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="118"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="110"/>
       <c r="D3" s="110"/>
       <c r="E3" s="111"/>
@@ -9923,7 +9948,7 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
       <c r="F4" s="110"/>
@@ -9958,7 +9983,7 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="120" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="111"/>
@@ -9984,7 +10009,7 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="120"/>
+      <c r="J6" s="121"/>
       <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
@@ -10004,10 +10029,10 @@
         <v>191</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="120"/>
+      <c r="J7" s="121"/>
       <c r="K7" s="111"/>
     </row>
-    <row r="8" spans="2:11" ht="16">
+    <row r="8" spans="2:11" ht="15">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -10024,10 +10049,10 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="120"/>
+      <c r="J8" s="121"/>
       <c r="K8" s="111"/>
     </row>
-    <row r="9" spans="2:11" s="89" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
         <v>1</v>
       </c>
@@ -10046,10 +10071,10 @@
         <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="120"/>
+      <c r="J9" s="121"/>
       <c r="K9" s="111"/>
     </row>
-    <row r="10" spans="2:11" s="89" customFormat="1" ht="15.75" customHeight="1">
+    <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
         <v>1</v>
       </c>
@@ -10068,7 +10093,7 @@
         <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="120"/>
+      <c r="J10" s="121"/>
       <c r="K10" s="111"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1">
@@ -10088,10 +10113,10 @@
         <v>189</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="120"/>
+      <c r="J11" s="121"/>
       <c r="K11" s="111"/>
     </row>
-    <row r="12" spans="2:11" s="89" customFormat="1" ht="14">
+    <row r="12" spans="2:11" ht="13.8">
       <c r="B12" s="13">
         <v>5</v>
       </c>
@@ -10108,10 +10133,10 @@
         <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="120"/>
+      <c r="J12" s="121"/>
       <c r="K12" s="111"/>
     </row>
-    <row r="13" spans="2:11" ht="14">
+    <row r="13" spans="2:11" ht="13.8">
       <c r="B13" s="13">
         <v>5</v>
       </c>
@@ -10128,7 +10153,7 @@
         <v>189</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="120"/>
+      <c r="J13" s="121"/>
       <c r="K13" s="111"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1">
@@ -10148,7 +10173,7 @@
         <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="116"/>
+      <c r="J14" s="117"/>
       <c r="K14" s="111"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
@@ -10160,7 +10185,7 @@
       <c r="E15" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="F15" s="90" t="s">
+      <c r="F15" s="85" t="s">
         <v>341</v>
       </c>
       <c r="G15" s="24"/>
@@ -10168,10 +10193,10 @@
         <v>347</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="116"/>
+      <c r="J15" s="117"/>
       <c r="K15" s="111"/>
     </row>
-    <row r="16" spans="2:11" s="85" customFormat="1" ht="15">
+    <row r="16" spans="2:11" s="61" customFormat="1" ht="15">
       <c r="B16" s="13">
         <v>8</v>
       </c>
@@ -10183,17 +10208,17 @@
       <c r="F16" s="73" t="s">
         <v>345</v>
       </c>
-      <c r="G16" s="123" t="s">
+      <c r="G16" s="86" t="s">
         <v>346</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>347</v>
       </c>
       <c r="I16" s="63"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="92"/>
-    </row>
-    <row r="17" spans="1:11" s="85" customFormat="1" ht="15">
+      <c r="J16" s="94"/>
+      <c r="K16" s="95"/>
+    </row>
+    <row r="17" spans="1:11" s="61" customFormat="1" ht="15">
       <c r="B17" s="13">
         <v>9</v>
       </c>
@@ -10205,17 +10230,17 @@
       <c r="F17" s="73" t="s">
         <v>349</v>
       </c>
-      <c r="G17" s="123" t="s">
+      <c r="G17" s="86" t="s">
         <v>350</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>347</v>
       </c>
       <c r="I17" s="63"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="87"/>
-    </row>
-    <row r="18" spans="1:11" s="85" customFormat="1" ht="15.75" customHeight="1">
+      <c r="J17" s="74"/>
+      <c r="K17" s="62"/>
+    </row>
+    <row r="18" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="76"/>
       <c r="B18" s="13">
         <v>10</v>
@@ -10228,17 +10253,17 @@
       <c r="F18" s="78" t="s">
         <v>352</v>
       </c>
-      <c r="G18" s="123" t="s">
+      <c r="G18" s="86" t="s">
         <v>353</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>347</v>
       </c>
       <c r="I18" s="63"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="92"/>
-    </row>
-    <row r="19" spans="1:11" s="85" customFormat="1" ht="15.75" customHeight="1">
+      <c r="J18" s="96"/>
+      <c r="K18" s="95"/>
+    </row>
+    <row r="19" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="76"/>
       <c r="B19" s="13">
         <v>11</v>
@@ -10251,17 +10276,17 @@
       <c r="F19" s="78" t="s">
         <v>355</v>
       </c>
-      <c r="G19" s="123" t="s">
+      <c r="G19" s="86" t="s">
         <v>356</v>
       </c>
       <c r="H19" s="79" t="s">
         <v>347</v>
       </c>
       <c r="I19" s="63"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="92"/>
-    </row>
-    <row r="20" spans="1:11" s="85" customFormat="1" ht="15.75" customHeight="1">
+      <c r="J19" s="96"/>
+      <c r="K19" s="95"/>
+    </row>
+    <row r="20" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="76"/>
       <c r="B20" s="13">
         <v>12</v>
@@ -10274,40 +10299,40 @@
       <c r="F20" s="78" t="s">
         <v>358</v>
       </c>
-      <c r="G20" s="123" t="s">
+      <c r="G20" s="86" t="s">
         <v>359</v>
       </c>
       <c r="H20" s="64" t="s">
         <v>347</v>
       </c>
       <c r="I20" s="63"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="87"/>
-    </row>
-    <row r="21" spans="1:11" s="85" customFormat="1" ht="24.5">
+      <c r="J20" s="70"/>
+      <c r="K20" s="62"/>
+    </row>
+    <row r="21" spans="1:11" s="61" customFormat="1" ht="24">
       <c r="A21" s="76"/>
       <c r="B21" s="13">
         <v>13</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125" t="s">
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88" t="s">
         <v>360</v>
       </c>
-      <c r="F21" s="126" t="s">
+      <c r="F21" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="G21" s="127" t="s">
+      <c r="G21" s="90" t="s">
         <v>362</v>
       </c>
-      <c r="H21" s="124" t="s">
+      <c r="H21" s="87" t="s">
         <v>363</v>
       </c>
-      <c r="I21" s="128" t="s">
+      <c r="I21" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="J21" s="95"/>
-      <c r="K21" s="92"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="95"/>
     </row>
     <row r="22" spans="1:11" ht="15">
       <c r="B22" s="13">
@@ -10326,207 +10351,219 @@
         <v>189</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="120"/>
+      <c r="J22" s="121"/>
       <c r="K22" s="111"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+    <row r="23" spans="1:11" ht="16.5">
       <c r="B23" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
-        <v>324</v>
+      <c r="E23" s="124" t="s">
+        <v>371</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>325</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="G23" s="42"/>
       <c r="H23" s="14" t="s">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="116"/>
+      <c r="J23" s="121"/>
       <c r="K23" s="111"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1">
+    <row r="24" spans="1:11" ht="15">
       <c r="B24" s="13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="64" t="s">
-        <v>308</v>
-      </c>
-      <c r="F24" s="75" t="s">
-        <v>309</v>
-      </c>
-      <c r="G24" s="75"/>
-      <c r="H24" s="64" t="s">
+      <c r="E24" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="14" t="s">
         <v>189</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="116"/>
+      <c r="J24" s="121"/>
       <c r="K24" s="111"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
+        <v>15</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="111"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B26" s="13">
+        <v>16</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="F26" s="75" t="s">
+        <v>309</v>
+      </c>
+      <c r="G26" s="75"/>
+      <c r="H26" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="111"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B27" s="13">
         <v>17</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="64" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="F25" s="75" t="s">
+      <c r="F27" s="75" t="s">
         <v>311</v>
       </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="64" t="s">
+      <c r="G27" s="75"/>
+      <c r="H27" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="111"/>
-    </row>
-    <row r="26" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="13">
-        <v>18</v>
-      </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="F26" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="I26" s="63"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="92"/>
-    </row>
-    <row r="27" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="13">
-        <v>19</v>
-      </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="F27" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="64"/>
-      <c r="H27" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="I27" s="63"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="92"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="111"/>
     </row>
     <row r="28" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="76"/>
       <c r="B28" s="13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="64"/>
       <c r="D28" s="64"/>
       <c r="E28" s="77" t="s">
-        <v>322</v>
+        <v>185</v>
       </c>
       <c r="F28" s="78" t="s">
-        <v>323</v>
+        <v>28</v>
       </c>
       <c r="G28" s="64"/>
       <c r="H28" s="64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I28" s="63"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="62"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="95"/>
     </row>
     <row r="29" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="76"/>
       <c r="B29" s="13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
       <c r="E29" s="77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F29" s="78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" s="64"/>
-      <c r="H29" s="64" t="s">
-        <v>192</v>
+      <c r="H29" s="79" t="s">
+        <v>189</v>
       </c>
       <c r="I29" s="63"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="92"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="95"/>
     </row>
     <row r="30" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="13">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C30" s="64"/>
       <c r="D30" s="64"/>
       <c r="E30" s="77" t="s">
+        <v>322</v>
+      </c>
+      <c r="F30" s="78" t="s">
+        <v>323</v>
+      </c>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="I30" s="63"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="62"/>
+    </row>
+    <row r="31" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A31" s="76"/>
+      <c r="B31" s="13">
+        <v>21</v>
+      </c>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31" s="63"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="95"/>
+    </row>
+    <row r="32" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="76"/>
+      <c r="B32" s="13">
+        <v>22</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="F30" s="78" t="s">
+      <c r="F32" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="64"/>
-      <c r="H30" s="79" t="s">
+      <c r="G32" s="64"/>
+      <c r="H32" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="I30" s="63"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="92"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B31" s="13">
-        <v>23</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="111"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B32" s="13">
-        <v>24</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="111"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="95"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="B33" s="13">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -10535,46 +10572,50 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="116"/>
+      <c r="J33" s="121"/>
       <c r="K33" s="111"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="B34" s="13">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="21"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="116"/>
+      <c r="J34" s="121"/>
       <c r="K34" s="111"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B35" s="26"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="29"/>
+      <c r="B35" s="13">
+        <v>25</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="111"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B36" s="26"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="29"/>
+      <c r="B36" s="13">
+        <v>26</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="111"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="B37" s="26"/>
@@ -10661,183 +10702,224 @@
       <c r="K43" s="29"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
+      <c r="E44" s="27"/>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
+      <c r="I44" s="26"/>
       <c r="J44" s="22"/>
+      <c r="K44" s="29"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B45" s="23"/>
-    </row>
-    <row r="49" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B49" s="7" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="29"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B47" s="23"/>
+    </row>
+    <row r="51" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B51" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B50" s="117"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="103"/>
-      <c r="K50" s="103"/>
-    </row>
-    <row r="51" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="103"/>
-      <c r="K51" s="103"/>
-    </row>
     <row r="52" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B52" s="103"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="103"/>
-      <c r="K52" s="103"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
+      <c r="K52" s="104"/>
     </row>
     <row r="53" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B53" s="103"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="103"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
-      <c r="K53" s="103"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="104"/>
     </row>
     <row r="54" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B54" s="103"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
-      <c r="K54" s="103"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="104"/>
     </row>
     <row r="55" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B55" s="103"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="103"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="103"/>
-      <c r="H55" s="103"/>
-      <c r="I55" s="103"/>
-      <c r="J55" s="103"/>
-      <c r="K55" s="103"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
     </row>
     <row r="56" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B56" s="103"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="103"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="103"/>
-      <c r="H56" s="103"/>
-      <c r="I56" s="103"/>
-      <c r="J56" s="103"/>
-      <c r="K56" s="103"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="104"/>
     </row>
     <row r="57" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B57" s="103"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="103"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="103"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="103"/>
-      <c r="K57" s="103"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="104"/>
     </row>
     <row r="58" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B58" s="103"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="103"/>
-      <c r="I58" s="103"/>
-      <c r="J58" s="103"/>
-      <c r="K58" s="103"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="104"/>
     </row>
     <row r="59" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B59" s="103"/>
-      <c r="C59" s="103"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="103"/>
-      <c r="J59" s="103"/>
-      <c r="K59" s="103"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="104"/>
     </row>
     <row r="60" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B60" s="103"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="103"/>
-      <c r="I60" s="103"/>
-      <c r="J60" s="103"/>
-      <c r="K60" s="103"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="104"/>
+      <c r="K60" s="104"/>
     </row>
     <row r="61" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B61" s="103"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="103"/>
-      <c r="F61" s="103"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="103"/>
-      <c r="I61" s="103"/>
-      <c r="J61" s="103"/>
-      <c r="K61" s="103"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
+      <c r="I61" s="104"/>
+      <c r="J61" s="104"/>
+      <c r="K61" s="104"/>
     </row>
     <row r="62" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B62" s="103"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="103"/>
-      <c r="I62" s="103"/>
-      <c r="J62" s="103"/>
-      <c r="K62" s="103"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
+      <c r="I62" s="104"/>
+      <c r="J62" s="104"/>
+      <c r="K62" s="104"/>
+    </row>
+    <row r="63" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B63" s="104"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="104"/>
+      <c r="G63" s="104"/>
+      <c r="H63" s="104"/>
+      <c r="I63" s="104"/>
+      <c r="J63" s="104"/>
+      <c r="K63" s="104"/>
+    </row>
+    <row r="64" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B64" s="104"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="104"/>
+      <c r="G64" s="104"/>
+      <c r="H64" s="104"/>
+      <c r="I64" s="104"/>
+      <c r="J64" s="104"/>
+      <c r="K64" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B52:K64"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
@@ -10854,21 +10936,6 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B50:K62"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10877,7 +10944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10887,9 +10954,9 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.08984375" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
@@ -10934,34 +11001,34 @@
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="4"/>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="102"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="4"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="4"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="107"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="108"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1">
@@ -11062,7 +11129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -11072,11 +11139,11 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="7.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1"/>
@@ -11090,7 +11157,7 @@
       <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="109" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="110"/>
@@ -11107,7 +11174,7 @@
       <c r="D4" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="115" t="s">
+      <c r="E4" s="112" t="s">
         <v>157</v>
       </c>
       <c r="F4" s="110"/>
@@ -11124,7 +11191,7 @@
       <c r="D5" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="113" t="s">
         <v>158</v>
       </c>
       <c r="F5" s="110"/>
@@ -11141,20 +11208,20 @@
       <c r="D6" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="112" t="s">
+      <c r="E6" s="113" t="s">
         <v>159</v>
       </c>
       <c r="F6" s="110"/>
       <c r="G6" s="110"/>
       <c r="H6" s="111"/>
-      <c r="K6" s="108" t="s">
+      <c r="K6" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="102"/>
     </row>
     <row r="7" spans="2:16" ht="33.75" customHeight="1">
       <c r="B7" s="12">
@@ -11166,18 +11233,18 @@
       <c r="D7" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="116" t="s">
         <v>160</v>
       </c>
       <c r="F7" s="110"/>
       <c r="G7" s="110"/>
       <c r="H7" s="111"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="104"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="105"/>
     </row>
     <row r="8" spans="2:16" ht="33.75" customHeight="1">
       <c r="B8" s="12">
@@ -11189,18 +11256,18 @@
       <c r="D8" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="112" t="s">
+      <c r="E8" s="113" t="s">
         <v>162</v>
       </c>
       <c r="F8" s="110"/>
       <c r="G8" s="110"/>
       <c r="H8" s="111"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="104"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="105"/>
     </row>
     <row r="9" spans="2:16" ht="33.75" customHeight="1">
       <c r="B9" s="12">
@@ -11212,18 +11279,18 @@
       <c r="D9" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="112" t="s">
+      <c r="E9" s="113" t="s">
         <v>165</v>
       </c>
       <c r="F9" s="110"/>
       <c r="G9" s="110"/>
       <c r="H9" s="111"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="104"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="105"/>
     </row>
     <row r="10" spans="2:16" ht="33.75" customHeight="1">
       <c r="B10" s="12">
@@ -11235,18 +11302,18 @@
       <c r="D10" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="112" t="s">
+      <c r="E10" s="113" t="s">
         <v>166</v>
       </c>
       <c r="F10" s="110"/>
       <c r="G10" s="110"/>
       <c r="H10" s="111"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="104"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="105"/>
     </row>
     <row r="11" spans="2:16" ht="33.75" customHeight="1">
       <c r="B11" s="12">
@@ -11258,18 +11325,18 @@
       <c r="D11" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="112" t="s">
+      <c r="E11" s="113" t="s">
         <v>167</v>
       </c>
       <c r="F11" s="110"/>
       <c r="G11" s="110"/>
       <c r="H11" s="111"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="104"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="105"/>
     </row>
     <row r="12" spans="2:16" ht="33.75" customHeight="1">
       <c r="B12" s="12">
@@ -11281,18 +11348,18 @@
       <c r="D12" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="114" t="s">
         <v>168</v>
       </c>
       <c r="F12" s="110"/>
       <c r="G12" s="110"/>
       <c r="H12" s="111"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="104"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="105"/>
     </row>
     <row r="13" spans="2:16" ht="33.75" customHeight="1">
       <c r="B13" s="12">
@@ -11304,18 +11371,18 @@
       <c r="D13" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="112" t="s">
+      <c r="E13" s="113" t="s">
         <v>169</v>
       </c>
       <c r="F13" s="110"/>
       <c r="G13" s="110"/>
       <c r="H13" s="111"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="107"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="108"/>
     </row>
     <row r="14" spans="2:16" ht="33.75" customHeight="1">
       <c r="B14" s="12">
@@ -11327,7 +11394,7 @@
       <c r="D14" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="112" t="s">
+      <c r="E14" s="113" t="s">
         <v>170</v>
       </c>
       <c r="F14" s="110"/>
@@ -11344,7 +11411,7 @@
       <c r="D15" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="113" t="s">
+      <c r="E15" s="114" t="s">
         <v>168</v>
       </c>
       <c r="F15" s="110"/>
@@ -11352,13 +11419,18 @@
       <c r="H15" s="111"/>
     </row>
     <row r="16" spans="2:16" ht="33.75" customHeight="1">
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K6:P13"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
@@ -11369,37 +11441,32 @@
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E14:H14"/>
-    <mergeCell ref="K6:P13"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E15:H15"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <hyperlinks>
-    <hyperlink ref="C7" location="担当者情報!A1" display="PERSON_CHARGE_INFO"/>
-    <hyperlink ref="C8" location="単価情報!A1" display="UNIT_PRICE_INFO"/>
-    <hyperlink ref="C9" location="案件マスタ情報!A1" display="MATTER_MASTER_INFO"/>
-    <hyperlink ref="C10" location="見積情報!A1" display="ESTIMATION_INFO"/>
-    <hyperlink ref="C11" location="見積請求作成情報!A1" display="見積請求作成情報"/>
-    <hyperlink ref="C12" location="PDF作成情報!A1" display="PDF作成情報"/>
-    <hyperlink ref="C13" location="見積請求作成情報!A1" display="QUOTATION_CLAIM_SETTING_INFO"/>
-    <hyperlink ref="C14" location="請求減算ルール情報!A1" display="CLAIM_SUBTRACTION_RULE"/>
-    <hyperlink ref="C15" location="請求情報!A1" display="請求情報"/>
-    <hyperlink ref="D10" location="見積情報!A1" display="見積情報"/>
-    <hyperlink ref="D11" location="見積請求作成情報!A1" display="見積請求作成情報"/>
-    <hyperlink ref="D13" location="見積請求設定情報!A1" display="見積請求設定情報"/>
-    <hyperlink ref="D14" location="請求減算ルール!A1" display="請求減算ルール"/>
-    <hyperlink ref="C4" location="基本設定情報!A1" display="BASIC_SETTING_INFO"/>
-    <hyperlink ref="C5" location="取引先情報!A1" display="BUSINESS_PARTNER_INFO"/>
-    <hyperlink ref="C6" location="取引先店舗情報!A1" display="BUSINESS_PARTNER_STORE"/>
+    <hyperlink ref="C7" location="担当者情報!A1" display="PERSON_CHARGE_INFO" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C8" location="単価情報!A1" display="UNIT_PRICE_INFO" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C9" location="案件マスタ情報!A1" display="MATTER_MASTER_INFO" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C10" location="見積情報!A1" display="ESTIMATION_INFO" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C11" location="見積請求作成情報!A1" display="見積請求作成情報" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C12" location="PDF作成情報!A1" display="PDF作成情報" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C13" location="見積請求作成情報!A1" display="QUOTATION_CLAIM_SETTING_INFO" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C14" location="請求減算ルール情報!A1" display="CLAIM_SUBTRACTION_RULE" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="C15" location="請求情報!A1" display="請求情報" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="D10" location="見積情報!A1" display="見積情報" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="D11" location="見積請求作成情報!A1" display="見積請求作成情報" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="D13" location="見積請求設定情報!A1" display="見積請求設定情報" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="D14" location="請求減算ルール!A1" display="請求減算ルール" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="C4" location="基本設定情報!A1" display="BASIC_SETTING_INFO" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="C5" location="取引先情報!A1" display="BUSINESS_PARTNER_INFO" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="C6" location="取引先店舗情報!A1" display="BUSINESS_PARTNER_STORE" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11410,19 +11477,19 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="3" width="8.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.609375" customWidth="1"/>
+    <col min="2" max="3" width="8.38671875" customWidth="1"/>
+    <col min="4" max="4" width="8.609375" customWidth="1"/>
+    <col min="7" max="7" width="25.38671875" customWidth="1"/>
+    <col min="9" max="9" width="8.609375" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="119" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="110"/>
@@ -11448,7 +11515,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="118"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="110"/>
       <c r="D3" s="110"/>
       <c r="E3" s="111"/>
@@ -11467,7 +11534,7 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
       <c r="F4" s="110"/>
@@ -11502,7 +11569,7 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="120" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="111"/>
@@ -11528,7 +11595,7 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="120"/>
+      <c r="J6" s="121"/>
       <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
@@ -11548,7 +11615,7 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="120"/>
+      <c r="J7" s="121"/>
       <c r="K7" s="111"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1">
@@ -11568,7 +11635,7 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="120"/>
+      <c r="J8" s="121"/>
       <c r="K8" s="111"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
@@ -11591,7 +11658,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="2:11" ht="16.5">
+    <row r="10" spans="2:11" ht="15.3">
       <c r="B10" s="13">
         <v>5</v>
       </c>
@@ -11608,7 +11675,7 @@
         <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="120"/>
+      <c r="J10" s="121"/>
       <c r="K10" s="111"/>
     </row>
     <row r="11" spans="2:11" ht="15">
@@ -11728,7 +11795,7 @@
         <v>190</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="116"/>
+      <c r="J16" s="117"/>
       <c r="K16" s="111"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
@@ -11748,7 +11815,7 @@
         <v>190</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="116"/>
+      <c r="J17" s="117"/>
       <c r="K17" s="111"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
@@ -11769,7 +11836,7 @@
         <v>192</v>
       </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="116"/>
+      <c r="J18" s="117"/>
       <c r="K18" s="111"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
@@ -11790,7 +11857,7 @@
         <v>189</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="116"/>
+      <c r="J19" s="117"/>
       <c r="K19" s="111"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
@@ -11811,7 +11878,7 @@
         <v>192</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="116"/>
+      <c r="J20" s="117"/>
       <c r="K20" s="111"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
@@ -11832,7 +11899,7 @@
         <v>189</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="116"/>
+      <c r="J21" s="117"/>
       <c r="K21" s="111"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
@@ -11868,160 +11935,160 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B29" s="117"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B30" s="103"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="103"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="103"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="103"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -12047,7 +12114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12058,19 +12125,19 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="3" width="8.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.609375" customWidth="1"/>
+    <col min="2" max="3" width="8.38671875" customWidth="1"/>
+    <col min="4" max="4" width="8.609375" customWidth="1"/>
+    <col min="7" max="7" width="25.38671875" customWidth="1"/>
+    <col min="9" max="9" width="8.609375" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="119" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="110"/>
@@ -12096,7 +12163,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B3" s="118"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="110"/>
       <c r="D3" s="110"/>
       <c r="E3" s="111"/>
@@ -12115,7 +12182,7 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
       <c r="F4" s="110"/>
@@ -12150,7 +12217,7 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="120" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="111"/>
@@ -12176,7 +12243,7 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="120"/>
+      <c r="J6" s="121"/>
       <c r="K6" s="111"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
@@ -12198,7 +12265,7 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="120"/>
+      <c r="J7" s="121"/>
       <c r="K7" s="111"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
@@ -12220,7 +12287,7 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="120"/>
+      <c r="J8" s="121"/>
       <c r="K8" s="111"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
@@ -12240,7 +12307,7 @@
         <v>192</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="116"/>
+      <c r="J9" s="117"/>
       <c r="K9" s="111"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
@@ -12260,7 +12327,7 @@
         <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="116"/>
+      <c r="J10" s="117"/>
       <c r="K10" s="111"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
@@ -12281,7 +12348,7 @@
         <v>192</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="116"/>
+      <c r="J11" s="117"/>
       <c r="K11" s="111"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
@@ -12301,7 +12368,7 @@
         <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="116"/>
+      <c r="J12" s="117"/>
       <c r="K12" s="111"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
@@ -12322,163 +12389,168 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B18" s="117"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="104"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B30" s="103"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:K30"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="B2:E2"/>
@@ -12486,11 +12558,6 @@
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B18:K30"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12498,7 +12565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12509,19 +12576,19 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="3" width="8.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.609375" customWidth="1"/>
+    <col min="2" max="3" width="8.38671875" customWidth="1"/>
+    <col min="4" max="4" width="8.609375" customWidth="1"/>
+    <col min="7" max="7" width="25.38671875" customWidth="1"/>
+    <col min="9" max="9" width="8.609375" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="119" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="110"/>
@@ -12547,7 +12614,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="118"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="110"/>
       <c r="D3" s="110"/>
       <c r="E3" s="111"/>
@@ -12566,7 +12633,7 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
       <c r="F4" s="110"/>
@@ -12601,7 +12668,7 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="120" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="111"/>
@@ -12625,7 +12692,7 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="120"/>
+      <c r="J6" s="121"/>
       <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
@@ -12649,7 +12716,7 @@
         <v>202</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="120"/>
+      <c r="J7" s="121"/>
       <c r="K7" s="111"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1">
@@ -12789,10 +12856,10 @@
         <v>192</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="120"/>
+      <c r="J14" s="121"/>
       <c r="K14" s="111"/>
     </row>
-    <row r="15" spans="2:11" ht="14">
+    <row r="15" spans="2:11" ht="13.8">
       <c r="B15" s="13">
         <v>10</v>
       </c>
@@ -12809,7 +12876,7 @@
         <v>189</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="120"/>
+      <c r="J15" s="121"/>
       <c r="K15" s="111"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
@@ -12829,7 +12896,7 @@
         <v>192</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="116"/>
+      <c r="J16" s="117"/>
       <c r="K16" s="111"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1">
@@ -12849,7 +12916,7 @@
         <v>189</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="116"/>
+      <c r="J17" s="117"/>
       <c r="K17" s="111"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
@@ -13053,174 +13120,174 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B39" s="117"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="103"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="104"/>
+      <c r="K44" s="104"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B45" s="103"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B46" s="103"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
-      <c r="K46" s="103"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="104"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B47" s="103"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="103"/>
-      <c r="K47" s="103"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="104"/>
+      <c r="K47" s="104"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B48" s="103"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103"/>
-      <c r="K48" s="103"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="104"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B49" s="103"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="103"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="103"/>
-      <c r="K50" s="103"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="104"/>
+      <c r="J50" s="104"/>
+      <c r="K50" s="104"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="103"/>
-      <c r="K51" s="103"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="104"/>
+      <c r="K51" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B39:K51"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B39:K51"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13229,7 +13296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13240,20 +13307,20 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="3" width="8.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" customWidth="1"/>
-    <col min="5" max="5" width="31.26953125" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.609375" customWidth="1"/>
+    <col min="2" max="3" width="8.38671875" customWidth="1"/>
+    <col min="4" max="4" width="8.609375" customWidth="1"/>
+    <col min="5" max="5" width="31.27734375" customWidth="1"/>
+    <col min="7" max="7" width="25.38671875" customWidth="1"/>
+    <col min="9" max="9" width="8.609375" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="119" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="110"/>
@@ -13279,7 +13346,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="118"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="110"/>
       <c r="D3" s="110"/>
       <c r="E3" s="111"/>
@@ -13298,7 +13365,7 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
       <c r="F4" s="110"/>
@@ -13333,7 +13400,7 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="120" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="111"/>
@@ -13357,7 +13424,7 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="120"/>
+      <c r="J6" s="121"/>
       <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
@@ -13377,7 +13444,7 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="120"/>
+      <c r="J7" s="121"/>
       <c r="K7" s="111"/>
     </row>
     <row r="8" spans="2:11" ht="15">
@@ -13397,7 +13464,7 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="120"/>
+      <c r="J8" s="121"/>
       <c r="K8" s="111"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
@@ -13417,7 +13484,7 @@
         <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="116"/>
+      <c r="J9" s="117"/>
       <c r="K9" s="111"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
@@ -13441,7 +13508,7 @@
         <v>202</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="116"/>
+      <c r="J10" s="117"/>
       <c r="K10" s="111"/>
     </row>
     <row r="11" spans="2:11" s="57" customFormat="1" ht="49.5" customHeight="1">
@@ -13463,8 +13530,8 @@
         <v>202</v>
       </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="123"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
@@ -13505,10 +13572,10 @@
         <v>192</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="120"/>
+      <c r="J13" s="121"/>
       <c r="K13" s="111"/>
     </row>
-    <row r="14" spans="2:11" ht="14">
+    <row r="14" spans="2:11" ht="13.8">
       <c r="B14" s="13">
         <v>10</v>
       </c>
@@ -13525,7 +13592,7 @@
         <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="120"/>
+      <c r="J14" s="121"/>
       <c r="K14" s="111"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
@@ -13545,7 +13612,7 @@
         <v>192</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="116"/>
+      <c r="J15" s="117"/>
       <c r="K15" s="111"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
@@ -13565,7 +13632,7 @@
         <v>189</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="116"/>
+      <c r="J16" s="117"/>
       <c r="K16" s="111"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
@@ -13579,7 +13646,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="120"/>
+      <c r="J17" s="121"/>
       <c r="K17" s="111"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
@@ -13593,10 +13660,10 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="120"/>
+      <c r="J18" s="121"/>
       <c r="K18" s="111"/>
     </row>
-    <row r="19" spans="1:11" ht="14">
+    <row r="19" spans="1:11" ht="13.8">
       <c r="B19" s="13">
         <v>14</v>
       </c>
@@ -13607,7 +13674,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="20"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="120"/>
+      <c r="J19" s="121"/>
       <c r="K19" s="111"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
@@ -13621,7 +13688,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="116"/>
+      <c r="J20" s="117"/>
       <c r="K20" s="111"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
@@ -13635,7 +13702,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="116"/>
+      <c r="J21" s="117"/>
       <c r="K21" s="111"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
@@ -13683,163 +13750,169 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B30" s="117"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="103"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="103"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="103"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -13854,12 +13927,6 @@
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13868,7 +13935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13879,19 +13946,19 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="3" width="8.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.609375" customWidth="1"/>
+    <col min="2" max="3" width="8.38671875" customWidth="1"/>
+    <col min="4" max="4" width="8.609375" customWidth="1"/>
+    <col min="7" max="7" width="25.38671875" customWidth="1"/>
+    <col min="9" max="9" width="8.609375" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="119" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="110"/>
@@ -13917,7 +13984,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="118"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="110"/>
       <c r="D3" s="110"/>
       <c r="E3" s="111"/>
@@ -13936,7 +14003,7 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
       <c r="F4" s="110"/>
@@ -13971,7 +14038,7 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="120" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="111"/>
@@ -14024,7 +14091,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="35"/>
     </row>
-    <row r="8" spans="2:11" ht="14">
+    <row r="8" spans="2:11" ht="13.8">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -14064,7 +14131,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="2:11" s="57" customFormat="1" ht="47" customHeight="1">
+    <row r="10" spans="2:11" s="57" customFormat="1" ht="47.05" customHeight="1">
       <c r="B10" s="12">
         <v>5</v>
       </c>
@@ -14103,10 +14170,10 @@
         <v>192</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="120"/>
+      <c r="J11" s="121"/>
       <c r="K11" s="111"/>
     </row>
-    <row r="12" spans="2:11" ht="14">
+    <row r="12" spans="2:11" ht="13.8">
       <c r="B12" s="13">
         <v>7</v>
       </c>
@@ -14123,7 +14190,7 @@
         <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="120"/>
+      <c r="J12" s="121"/>
       <c r="K12" s="111"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1">
@@ -14143,7 +14210,7 @@
         <v>192</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="116"/>
+      <c r="J13" s="117"/>
       <c r="K13" s="111"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1">
@@ -14163,7 +14230,7 @@
         <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="116"/>
+      <c r="J14" s="117"/>
       <c r="K14" s="111"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
@@ -14194,7 +14261,7 @@
       <c r="J16" s="38"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="14">
+    <row r="17" spans="1:11" ht="13.8">
       <c r="B17" s="13">
         <v>12</v>
       </c>
@@ -14264,7 +14331,7 @@
       <c r="J21" s="38"/>
       <c r="K21" s="35"/>
     </row>
-    <row r="22" spans="1:11" ht="14">
+    <row r="22" spans="1:11" ht="13.8">
       <c r="B22" s="13">
         <v>17</v>
       </c>
@@ -14327,160 +14394,160 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B31" s="117"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="103"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="103"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="103"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -14500,7 +14567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14511,20 +14578,20 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="3" width="8.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.609375" customWidth="1"/>
+    <col min="2" max="3" width="8.38671875" customWidth="1"/>
+    <col min="4" max="4" width="8.609375" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25.38671875" customWidth="1"/>
+    <col min="9" max="9" width="8.609375" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="119" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="110"/>
@@ -14550,7 +14617,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="118"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="110"/>
       <c r="D3" s="110"/>
       <c r="E3" s="111"/>
@@ -14569,7 +14636,7 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
       <c r="F4" s="110"/>
@@ -14604,7 +14671,7 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="120" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="111"/>
@@ -14630,7 +14697,7 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="120"/>
+      <c r="J6" s="121"/>
       <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
@@ -14696,7 +14763,7 @@
         <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="120"/>
+      <c r="J9" s="121"/>
       <c r="K9" s="111"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
@@ -14938,7 +15005,7 @@
         <v>189</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="120"/>
+      <c r="J20" s="121"/>
       <c r="K20" s="111"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
@@ -14960,7 +15027,7 @@
         <v>189</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="120"/>
+      <c r="J21" s="121"/>
       <c r="K21" s="111"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
@@ -14982,7 +15049,7 @@
         <v>189</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="120"/>
+      <c r="J22" s="121"/>
       <c r="K22" s="111"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
@@ -15004,7 +15071,7 @@
         <v>189</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="120"/>
+      <c r="J23" s="121"/>
       <c r="K23" s="111"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
@@ -15026,7 +15093,7 @@
         <v>202</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="120"/>
+      <c r="J24" s="121"/>
       <c r="K24" s="111"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
@@ -15048,7 +15115,7 @@
         <v>189</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="120"/>
+      <c r="J25" s="121"/>
       <c r="K25" s="111"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
@@ -15070,7 +15137,7 @@
         <v>191</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="120"/>
+      <c r="J26" s="121"/>
       <c r="K26" s="111"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
@@ -15092,7 +15159,7 @@
         <v>191</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="120"/>
+      <c r="J27" s="121"/>
       <c r="K27" s="111"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
@@ -15114,7 +15181,7 @@
         <v>191</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="120"/>
+      <c r="J28" s="121"/>
       <c r="K28" s="111"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
@@ -15136,7 +15203,7 @@
         <v>191</v>
       </c>
       <c r="I29" s="13"/>
-      <c r="J29" s="120"/>
+      <c r="J29" s="121"/>
       <c r="K29" s="111"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
@@ -15158,7 +15225,7 @@
         <v>191</v>
       </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="120"/>
+      <c r="J30" s="121"/>
       <c r="K30" s="111"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
@@ -15180,7 +15247,7 @@
         <v>189</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="120"/>
+      <c r="J31" s="121"/>
       <c r="K31" s="111"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
@@ -15202,7 +15269,7 @@
         <v>189</v>
       </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="120"/>
+      <c r="J32" s="121"/>
       <c r="K32" s="111"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
@@ -15224,7 +15291,7 @@
         <v>189</v>
       </c>
       <c r="I33" s="13"/>
-      <c r="J33" s="120"/>
+      <c r="J33" s="121"/>
       <c r="K33" s="111"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
@@ -15364,7 +15431,7 @@
         <v>192</v>
       </c>
       <c r="I40" s="13"/>
-      <c r="J40" s="120"/>
+      <c r="J40" s="121"/>
       <c r="K40" s="111"/>
     </row>
     <row r="41" spans="1:11" ht="15">
@@ -15384,7 +15451,7 @@
         <v>189</v>
       </c>
       <c r="I41" s="13"/>
-      <c r="J41" s="120"/>
+      <c r="J41" s="121"/>
       <c r="K41" s="111"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
@@ -15404,7 +15471,7 @@
         <v>192</v>
       </c>
       <c r="I42" s="13"/>
-      <c r="J42" s="116"/>
+      <c r="J42" s="117"/>
       <c r="K42" s="111"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
@@ -15424,7 +15491,7 @@
         <v>189</v>
       </c>
       <c r="I43" s="13"/>
-      <c r="J43" s="116"/>
+      <c r="J43" s="117"/>
       <c r="K43" s="111"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
@@ -15496,172 +15563,163 @@
       </c>
     </row>
     <row r="54" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B54" s="117"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
-      <c r="K54" s="103"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="104"/>
     </row>
     <row r="55" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B55" s="103"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="103"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="103"/>
-      <c r="H55" s="103"/>
-      <c r="I55" s="103"/>
-      <c r="J55" s="103"/>
-      <c r="K55" s="103"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
     </row>
     <row r="56" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B56" s="103"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="103"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="103"/>
-      <c r="H56" s="103"/>
-      <c r="I56" s="103"/>
-      <c r="J56" s="103"/>
-      <c r="K56" s="103"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="104"/>
     </row>
     <row r="57" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B57" s="103"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="103"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="103"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="103"/>
-      <c r="K57" s="103"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="104"/>
     </row>
     <row r="58" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B58" s="103"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="103"/>
-      <c r="I58" s="103"/>
-      <c r="J58" s="103"/>
-      <c r="K58" s="103"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="104"/>
     </row>
     <row r="59" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B59" s="103"/>
-      <c r="C59" s="103"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="103"/>
-      <c r="J59" s="103"/>
-      <c r="K59" s="103"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="104"/>
     </row>
     <row r="60" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B60" s="103"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="103"/>
-      <c r="I60" s="103"/>
-      <c r="J60" s="103"/>
-      <c r="K60" s="103"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="104"/>
+      <c r="K60" s="104"/>
     </row>
     <row r="61" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B61" s="103"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="103"/>
-      <c r="F61" s="103"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="103"/>
-      <c r="I61" s="103"/>
-      <c r="J61" s="103"/>
-      <c r="K61" s="103"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
+      <c r="I61" s="104"/>
+      <c r="J61" s="104"/>
+      <c r="K61" s="104"/>
     </row>
     <row r="62" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B62" s="103"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="103"/>
-      <c r="I62" s="103"/>
-      <c r="J62" s="103"/>
-      <c r="K62" s="103"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
+      <c r="I62" s="104"/>
+      <c r="J62" s="104"/>
+      <c r="K62" s="104"/>
     </row>
     <row r="63" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B63" s="103"/>
-      <c r="C63" s="103"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="103"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="103"/>
-      <c r="I63" s="103"/>
-      <c r="J63" s="103"/>
-      <c r="K63" s="103"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="104"/>
+      <c r="G63" s="104"/>
+      <c r="H63" s="104"/>
+      <c r="I63" s="104"/>
+      <c r="J63" s="104"/>
+      <c r="K63" s="104"/>
     </row>
     <row r="64" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B64" s="103"/>
-      <c r="C64" s="103"/>
-      <c r="D64" s="103"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="103"/>
-      <c r="G64" s="103"/>
-      <c r="H64" s="103"/>
-      <c r="I64" s="103"/>
-      <c r="J64" s="103"/>
-      <c r="K64" s="103"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="104"/>
+      <c r="G64" s="104"/>
+      <c r="H64" s="104"/>
+      <c r="I64" s="104"/>
+      <c r="J64" s="104"/>
+      <c r="K64" s="104"/>
     </row>
     <row r="65" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B65" s="103"/>
-      <c r="C65" s="103"/>
-      <c r="D65" s="103"/>
-      <c r="E65" s="103"/>
-      <c r="F65" s="103"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="103"/>
-      <c r="I65" s="103"/>
-      <c r="J65" s="103"/>
-      <c r="K65" s="103"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="104"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="104"/>
+      <c r="G65" s="104"/>
+      <c r="H65" s="104"/>
+      <c r="I65" s="104"/>
+      <c r="J65" s="104"/>
+      <c r="K65" s="104"/>
     </row>
     <row r="66" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B66" s="103"/>
-      <c r="C66" s="103"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="103"/>
-      <c r="F66" s="103"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="103"/>
-      <c r="I66" s="103"/>
-      <c r="J66" s="103"/>
-      <c r="K66" s="103"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="104"/>
+      <c r="G66" s="104"/>
+      <c r="H66" s="104"/>
+      <c r="I66" s="104"/>
+      <c r="J66" s="104"/>
+      <c r="K66" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="B54:K66"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
@@ -15678,6 +15736,15 @@
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ansteypeファイル/DB設計 テーブル定義書.xlsx
+++ b/ansteypeファイル/DB設計 テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ans_client\ansteypeファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75BF355-E095-498D-8EF2-51193E93EB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD53735-382B-4B82-9188-47901E7D7614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="-16320" windowWidth="38640" windowHeight="15720" tabRatio="756" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="376">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -2798,10 +2798,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>file_name</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>file_path</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -2814,6 +2810,14 @@
   </si>
   <si>
     <t>ファイルパス</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>pdf_file_name</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>excel_file_name</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -9882,10 +9886,10 @@
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:K64"/>
+  <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -10361,10 +10365,10 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="124" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G23" s="42"/>
       <c r="H23" s="14" t="s">
@@ -10381,10 +10385,10 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="14" t="s">
@@ -10394,43 +10398,43 @@
       <c r="J24" s="121"/>
       <c r="K24" s="111"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1">
+    <row r="25" spans="1:11" ht="16.5">
       <c r="B25" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="14" t="s">
-        <v>324</v>
+      <c r="E25" s="124" t="s">
+        <v>374</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>325</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="G25" s="42"/>
       <c r="H25" s="14" t="s">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="117"/>
+      <c r="J25" s="121"/>
       <c r="K25" s="111"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="B26" s="13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="64" t="s">
-        <v>308</v>
-      </c>
-      <c r="F26" s="75" t="s">
-        <v>309</v>
-      </c>
-      <c r="G26" s="75"/>
-      <c r="H26" s="64" t="s">
-        <v>189</v>
+      <c r="E26" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>326</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="117"/>
@@ -10438,61 +10442,60 @@
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="B27" s="13">
-        <v>17</v>
-      </c>
-      <c r="C27" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="64" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F27" s="75" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G27" s="75"/>
       <c r="H27" s="64" t="s">
         <v>189</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="121"/>
+      <c r="J27" s="117"/>
       <c r="K27" s="111"/>
     </row>
-    <row r="28" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="76"/>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="B28" s="13">
-        <v>18</v>
-      </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="F28" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="64"/>
+        <v>17</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="F28" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="G28" s="75"/>
       <c r="H28" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="I28" s="63"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="95"/>
+        <v>189</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="111"/>
     </row>
     <row r="29" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="76"/>
       <c r="B29" s="13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
       <c r="E29" s="77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F29" s="78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="64"/>
-      <c r="H29" s="79" t="s">
-        <v>189</v>
+      <c r="H29" s="64" t="s">
+        <v>192</v>
       </c>
       <c r="I29" s="63"/>
       <c r="J29" s="96"/>
@@ -10501,115 +10504,122 @@
     <row r="30" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="64"/>
       <c r="D30" s="64"/>
       <c r="E30" s="77" t="s">
-        <v>322</v>
+        <v>186</v>
       </c>
       <c r="F30" s="78" t="s">
-        <v>323</v>
+        <v>29</v>
       </c>
       <c r="G30" s="64"/>
-      <c r="H30" s="64" t="s">
-        <v>191</v>
+      <c r="H30" s="79" t="s">
+        <v>189</v>
       </c>
       <c r="I30" s="63"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="62"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="95"/>
     </row>
     <row r="31" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
       <c r="A31" s="76"/>
       <c r="B31" s="13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
       <c r="E31" s="77" t="s">
-        <v>187</v>
+        <v>322</v>
       </c>
       <c r="F31" s="78" t="s">
-        <v>30</v>
+        <v>323</v>
       </c>
       <c r="G31" s="64"/>
       <c r="H31" s="64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I31" s="63"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="95"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="62"/>
     </row>
     <row r="32" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="76"/>
       <c r="B32" s="13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="64"/>
       <c r="D32" s="64"/>
       <c r="E32" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F32" s="78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" s="64"/>
-      <c r="H32" s="79" t="s">
-        <v>189</v>
+      <c r="H32" s="64" t="s">
+        <v>192</v>
       </c>
       <c r="I32" s="63"/>
       <c r="J32" s="96"/>
       <c r="K32" s="95"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1">
+    <row r="33" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A33" s="76"/>
       <c r="B33" s="13">
-        <v>23</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="111"/>
+        <v>22</v>
+      </c>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="64"/>
+      <c r="H33" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="I33" s="63"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="95"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="B34" s="13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="20"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="13"/>
       <c r="J34" s="121"/>
       <c r="K34" s="111"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="B35" s="13">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="117"/>
+      <c r="J35" s="121"/>
       <c r="K35" s="111"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="B36" s="13">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="21"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -10618,16 +10628,18 @@
       <c r="K36" s="111"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B37" s="26"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="29"/>
+      <c r="B37" s="13">
+        <v>26</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="111"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="B38" s="26"/>
@@ -10726,39 +10738,39 @@
       <c r="K45" s="29"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
+      <c r="E46" s="27"/>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
+      <c r="I46" s="26"/>
       <c r="J46" s="22"/>
+      <c r="K46" s="29"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B47" s="23"/>
-    </row>
-    <row r="51" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B51" s="7" t="s">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B48" s="23"/>
+    </row>
+    <row r="52" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B52" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B52" s="118"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="104"/>
-      <c r="F52" s="104"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="104"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="104"/>
-      <c r="K52" s="104"/>
-    </row>
     <row r="53" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B53" s="104"/>
+      <c r="B53" s="118"/>
       <c r="C53" s="104"/>
       <c r="D53" s="104"/>
       <c r="E53" s="104"/>
@@ -10901,25 +10913,38 @@
       <c r="J64" s="104"/>
       <c r="K64" s="104"/>
     </row>
+    <row r="65" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B65" s="104"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="104"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="104"/>
+      <c r="G65" s="104"/>
+      <c r="H65" s="104"/>
+      <c r="I65" s="104"/>
+      <c r="J65" s="104"/>
+      <c r="K65" s="104"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="J27:K27"/>
+  <mergeCells count="34">
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B52:K64"/>
-    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B53:K65"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J25:K25"/>
     <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>

--- a/ansteypeファイル/DB設計 テーブル定義書.xlsx
+++ b/ansteypeファイル/DB設計 テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ans_client\ansteypeファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD53735-382B-4B82-9188-47901E7D7614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565FD09C-ED03-47E9-B2D4-D48DBA64E94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="-16320" windowWidth="38640" windowHeight="15720" tabRatio="756" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="-16320" windowWidth="38640" windowHeight="15720" tabRatio="756" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一時保存記録" sheetId="19" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="386">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -2820,12 +2820,170 @@
     <t>excel_file_name</t>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>_year</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>_month</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>_week</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>取得条件年</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>取得条件月</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>取得条件週</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>_agency</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>取得条件代理店</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ダイリテン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>送付状態</t>
+    <rPh sb="0" eb="2">
+      <t>ソウフ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>delivery_status</t>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3026,6 +3184,20 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3208,7 +3380,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3454,6 +3626,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4247,10 +4421,10 @@
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:K86"/>
+  <dimension ref="A2:K90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:H12"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -5230,59 +5404,59 @@
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1">
       <c r="B47" s="13">
-        <v>41</v>
-      </c>
-      <c r="C47" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="C47" s="13"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="42" t="s">
-        <v>273</v>
+      <c r="E47" s="125" t="s">
+        <v>376</v>
       </c>
       <c r="F47" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="14"/>
+        <v>379</v>
+      </c>
+      <c r="G47" s="42"/>
       <c r="H47" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I47" s="13"/>
-      <c r="J47" s="121"/>
-      <c r="K47" s="111"/>
-    </row>
-    <row r="48" spans="2:11" ht="15">
+      <c r="J47" s="38"/>
+      <c r="K47" s="35"/>
+    </row>
+    <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="13">
-        <v>42</v>
-      </c>
-      <c r="C48" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C48" s="13"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="42" t="s">
-        <v>274</v>
+      <c r="E48" s="125" t="s">
+        <v>377</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="G48" s="42"/>
+      <c r="H48" s="14" t="s">
         <v>189</v>
       </c>
       <c r="I48" s="13"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="111"/>
-    </row>
-    <row r="49" spans="2:11" ht="15">
+      <c r="J48" s="38"/>
+      <c r="K48" s="35"/>
+    </row>
+    <row r="49" spans="2:11" ht="15.75" customHeight="1">
       <c r="B49" s="13">
-        <v>43</v>
-      </c>
-      <c r="C49" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="C49" s="13"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="42" t="s">
-        <v>312</v>
+      <c r="E49" s="125" t="s">
+        <v>378</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="G49" s="14"/>
+        <v>381</v>
+      </c>
+      <c r="G49" s="42"/>
       <c r="H49" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="38"/>
@@ -5290,91 +5464,123 @@
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1">
       <c r="B50" s="13">
-        <v>44</v>
-      </c>
-      <c r="C50" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="C50" s="13"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="42" t="s">
-        <v>275</v>
+      <c r="E50" s="125" t="s">
+        <v>382</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="14"/>
+        <v>383</v>
+      </c>
+      <c r="G50" s="42"/>
       <c r="H50" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I50" s="13"/>
-      <c r="J50" s="117"/>
-      <c r="K50" s="111"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="35"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1">
       <c r="B51" s="13">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I51" s="13"/>
+      <c r="J51" s="121"/>
+      <c r="K51" s="111"/>
+    </row>
+    <row r="52" spans="2:11" ht="15">
+      <c r="B52" s="13">
+        <v>42</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="F52" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I52" s="13"/>
+      <c r="J52" s="121"/>
+      <c r="K52" s="111"/>
+    </row>
+    <row r="53" spans="2:11" ht="15">
+      <c r="B53" s="13">
+        <v>43</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I53" s="13"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="35"/>
+    </row>
+    <row r="54" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B54" s="13">
+        <v>44</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I54" s="13"/>
+      <c r="J54" s="117"/>
+      <c r="K54" s="111"/>
+    </row>
+    <row r="55" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B55" s="13">
+        <v>45</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="F51" s="42" t="s">
+      <c r="F55" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="24"/>
-      <c r="H51" s="20" t="s">
+      <c r="G55" s="24"/>
+      <c r="H55" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="I51" s="13"/>
-      <c r="J51" s="117"/>
-      <c r="K51" s="111"/>
-    </row>
-    <row r="52" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B52" s="26"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="29"/>
-    </row>
-    <row r="53" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B53" s="26"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="29"/>
-    </row>
-    <row r="54" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B54" s="26"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="29"/>
-    </row>
-    <row r="55" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B55" s="26"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="29"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="117"/>
+      <c r="K55" s="111"/>
     </row>
     <row r="56" spans="2:11" ht="15.75" customHeight="1">
       <c r="B56" s="26"/>
@@ -5521,75 +5727,75 @@
       <c r="K67" s="29"/>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
+      <c r="E68" s="27"/>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
       <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
+      <c r="I68" s="26"/>
       <c r="J68" s="22"/>
+      <c r="K68" s="29"/>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B69" s="23"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="29"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B70" s="26"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="29"/>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B71" s="26"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="29"/>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="23"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B77" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B74" s="118"/>
-      <c r="C74" s="104"/>
-      <c r="D74" s="104"/>
-      <c r="E74" s="104"/>
-      <c r="F74" s="104"/>
-      <c r="G74" s="104"/>
-      <c r="H74" s="104"/>
-      <c r="I74" s="104"/>
-      <c r="J74" s="104"/>
-      <c r="K74" s="104"/>
-    </row>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B75" s="104"/>
-      <c r="C75" s="104"/>
-      <c r="D75" s="104"/>
-      <c r="E75" s="104"/>
-      <c r="F75" s="104"/>
-      <c r="G75" s="104"/>
-      <c r="H75" s="104"/>
-      <c r="I75" s="104"/>
-      <c r="J75" s="104"/>
-      <c r="K75" s="104"/>
-    </row>
-    <row r="76" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B76" s="104"/>
-      <c r="C76" s="104"/>
-      <c r="D76" s="104"/>
-      <c r="E76" s="104"/>
-      <c r="F76" s="104"/>
-      <c r="G76" s="104"/>
-      <c r="H76" s="104"/>
-      <c r="I76" s="104"/>
-      <c r="J76" s="104"/>
-      <c r="K76" s="104"/>
-    </row>
-    <row r="77" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B77" s="104"/>
-      <c r="C77" s="104"/>
-      <c r="D77" s="104"/>
-      <c r="E77" s="104"/>
-      <c r="F77" s="104"/>
-      <c r="G77" s="104"/>
-      <c r="H77" s="104"/>
-      <c r="I77" s="104"/>
-      <c r="J77" s="104"/>
-      <c r="K77" s="104"/>
-    </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B78" s="104"/>
+      <c r="B78" s="118"/>
       <c r="C78" s="104"/>
       <c r="D78" s="104"/>
       <c r="E78" s="104"/>
@@ -5696,6 +5902,54 @@
       <c r="J86" s="104"/>
       <c r="K86" s="104"/>
     </row>
+    <row r="87" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B87" s="104"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="104"/>
+      <c r="E87" s="104"/>
+      <c r="F87" s="104"/>
+      <c r="G87" s="104"/>
+      <c r="H87" s="104"/>
+      <c r="I87" s="104"/>
+      <c r="J87" s="104"/>
+      <c r="K87" s="104"/>
+    </row>
+    <row r="88" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B88" s="104"/>
+      <c r="C88" s="104"/>
+      <c r="D88" s="104"/>
+      <c r="E88" s="104"/>
+      <c r="F88" s="104"/>
+      <c r="G88" s="104"/>
+      <c r="H88" s="104"/>
+      <c r="I88" s="104"/>
+      <c r="J88" s="104"/>
+      <c r="K88" s="104"/>
+    </row>
+    <row r="89" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B89" s="104"/>
+      <c r="C89" s="104"/>
+      <c r="D89" s="104"/>
+      <c r="E89" s="104"/>
+      <c r="F89" s="104"/>
+      <c r="G89" s="104"/>
+      <c r="H89" s="104"/>
+      <c r="I89" s="104"/>
+      <c r="J89" s="104"/>
+      <c r="K89" s="104"/>
+    </row>
+    <row r="90" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B90" s="104"/>
+      <c r="C90" s="104"/>
+      <c r="D90" s="104"/>
+      <c r="E90" s="104"/>
+      <c r="F90" s="104"/>
+      <c r="G90" s="104"/>
+      <c r="H90" s="104"/>
+      <c r="I90" s="104"/>
+      <c r="J90" s="104"/>
+      <c r="K90" s="104"/>
+    </row>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="J30:K30"/>
@@ -5707,18 +5961,18 @@
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
     <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J47:K47"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B74:K86"/>
+    <mergeCell ref="B78:K90"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J52:K52"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J28:K28"/>
@@ -9886,10 +10140,10 @@
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:K65"/>
+  <dimension ref="A2:K70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -10480,226 +10734,266 @@
       <c r="J28" s="121"/>
       <c r="K28" s="111"/>
     </row>
-    <row r="29" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="76"/>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="B29" s="13">
+        <v>33</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="125" t="s">
+        <v>376</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="G29" s="42"/>
+      <c r="H29" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="35"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B30" s="13">
+        <v>34</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="125" t="s">
+        <v>377</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="G30" s="42"/>
+      <c r="H30" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="35"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B31" s="13">
+        <v>35</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="125" t="s">
+        <v>378</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="G31" s="42"/>
+      <c r="H31" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="35"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B32" s="13">
+        <v>36</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="125" t="s">
+        <v>382</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="G32" s="42"/>
+      <c r="H32" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="35"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B33" s="13">
+        <v>36</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="126" t="s">
+        <v>385</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="G33" s="42"/>
+      <c r="H33" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="35"/>
+    </row>
+    <row r="34" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A34" s="76"/>
+      <c r="B34" s="13">
         <v>18</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="77" t="s">
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="F29" s="78" t="s">
+      <c r="F34" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64" t="s">
+      <c r="G34" s="64"/>
+      <c r="H34" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="I29" s="63"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="95"/>
-    </row>
-    <row r="30" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A30" s="76"/>
-      <c r="B30" s="13">
+      <c r="I34" s="63"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="95"/>
+    </row>
+    <row r="35" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A35" s="76"/>
+      <c r="B35" s="13">
         <v>19</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="77" t="s">
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="78" t="s">
+      <c r="F35" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="64"/>
-      <c r="H30" s="79" t="s">
+      <c r="G35" s="64"/>
+      <c r="H35" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="I30" s="63"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="95"/>
-    </row>
-    <row r="31" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A31" s="76"/>
-      <c r="B31" s="13">
+      <c r="I35" s="63"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="95"/>
+    </row>
+    <row r="36" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A36" s="76"/>
+      <c r="B36" s="13">
         <v>20</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="77" t="s">
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="77" t="s">
         <v>322</v>
       </c>
-      <c r="F31" s="78" t="s">
+      <c r="F36" s="78" t="s">
         <v>323</v>
       </c>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64" t="s">
+      <c r="G36" s="64"/>
+      <c r="H36" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="I31" s="63"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="62"/>
-    </row>
-    <row r="32" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="76"/>
-      <c r="B32" s="13">
+      <c r="I36" s="63"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="62"/>
+    </row>
+    <row r="37" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A37" s="76"/>
+      <c r="B37" s="13">
         <v>21</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="77" t="s">
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="F32" s="78" t="s">
+      <c r="F37" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64" t="s">
+      <c r="G37" s="64"/>
+      <c r="H37" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="95"/>
-    </row>
-    <row r="33" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A33" s="76"/>
-      <c r="B33" s="13">
+      <c r="I37" s="63"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="95"/>
+    </row>
+    <row r="38" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A38" s="76"/>
+      <c r="B38" s="13">
         <v>22</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="77" t="s">
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="F33" s="78" t="s">
+      <c r="F38" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="64"/>
-      <c r="H33" s="79" t="s">
+      <c r="G38" s="64"/>
+      <c r="H38" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="I33" s="63"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="95"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B34" s="13">
+      <c r="I38" s="63"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="95"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B39" s="13">
         <v>23</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="121"/>
-      <c r="K34" s="111"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B35" s="13">
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="121"/>
+      <c r="K39" s="111"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B40" s="13">
         <v>24</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="111"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B36" s="13">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="121"/>
+      <c r="K40" s="111"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B41" s="13">
         <v>25</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="111"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B37" s="13">
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="111"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B42" s="13">
         <v>26</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="111"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B38" s="26"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="29"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B39" s="26"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="29"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B40" s="26"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="29"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B41" s="26"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="29"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B42" s="26"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="29"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="111"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="B43" s="26"/>
@@ -10750,87 +11044,87 @@
       <c r="K46" s="29"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
+      <c r="I47" s="26"/>
       <c r="J47" s="22"/>
+      <c r="K47" s="29"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B48" s="23"/>
-    </row>
-    <row r="52" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B52" s="7" t="s">
+      <c r="B48" s="26"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="29"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B49" s="26"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="29"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B50" s="26"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="29"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B51" s="26"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="29"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B53" s="23"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B57" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B53" s="118"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
-      <c r="K53" s="104"/>
-    </row>
-    <row r="54" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B54" s="104"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="104"/>
-      <c r="J54" s="104"/>
-      <c r="K54" s="104"/>
-    </row>
-    <row r="55" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B55" s="104"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="104"/>
-      <c r="J55" s="104"/>
-      <c r="K55" s="104"/>
-    </row>
-    <row r="56" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B56" s="104"/>
-      <c r="C56" s="104"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="104"/>
-      <c r="K56" s="104"/>
-    </row>
-    <row r="57" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B57" s="104"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="104"/>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="104"/>
-      <c r="H57" s="104"/>
-      <c r="I57" s="104"/>
-      <c r="J57" s="104"/>
-      <c r="K57" s="104"/>
-    </row>
-    <row r="58" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B58" s="104"/>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B58" s="118"/>
       <c r="C58" s="104"/>
       <c r="D58" s="104"/>
       <c r="E58" s="104"/>
@@ -10841,7 +11135,7 @@
       <c r="J58" s="104"/>
       <c r="K58" s="104"/>
     </row>
-    <row r="59" spans="2:11" ht="15.75" customHeight="1">
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
       <c r="B59" s="104"/>
       <c r="C59" s="104"/>
       <c r="D59" s="104"/>
@@ -10853,7 +11147,7 @@
       <c r="J59" s="104"/>
       <c r="K59" s="104"/>
     </row>
-    <row r="60" spans="2:11" ht="15.75" customHeight="1">
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
       <c r="B60" s="104"/>
       <c r="C60" s="104"/>
       <c r="D60" s="104"/>
@@ -10865,7 +11159,7 @@
       <c r="J60" s="104"/>
       <c r="K60" s="104"/>
     </row>
-    <row r="61" spans="2:11" ht="15.75" customHeight="1">
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="B61" s="104"/>
       <c r="C61" s="104"/>
       <c r="D61" s="104"/>
@@ -10877,7 +11171,7 @@
       <c r="J61" s="104"/>
       <c r="K61" s="104"/>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1">
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="B62" s="104"/>
       <c r="C62" s="104"/>
       <c r="D62" s="104"/>
@@ -10889,7 +11183,7 @@
       <c r="J62" s="104"/>
       <c r="K62" s="104"/>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1">
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
       <c r="B63" s="104"/>
       <c r="C63" s="104"/>
       <c r="D63" s="104"/>
@@ -10901,7 +11195,7 @@
       <c r="J63" s="104"/>
       <c r="K63" s="104"/>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1">
+    <row r="64" spans="1:11" ht="15.75" customHeight="1">
       <c r="B64" s="104"/>
       <c r="C64" s="104"/>
       <c r="D64" s="104"/>
@@ -10925,18 +11219,78 @@
       <c r="J65" s="104"/>
       <c r="K65" s="104"/>
     </row>
+    <row r="66" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B66" s="104"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="104"/>
+      <c r="G66" s="104"/>
+      <c r="H66" s="104"/>
+      <c r="I66" s="104"/>
+      <c r="J66" s="104"/>
+      <c r="K66" s="104"/>
+    </row>
+    <row r="67" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B67" s="104"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="104"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="104"/>
+      <c r="G67" s="104"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="104"/>
+      <c r="J67" s="104"/>
+      <c r="K67" s="104"/>
+    </row>
+    <row r="68" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B68" s="104"/>
+      <c r="C68" s="104"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="104"/>
+      <c r="F68" s="104"/>
+      <c r="G68" s="104"/>
+      <c r="H68" s="104"/>
+      <c r="I68" s="104"/>
+      <c r="J68" s="104"/>
+      <c r="K68" s="104"/>
+    </row>
+    <row r="69" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B69" s="104"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="104"/>
+      <c r="E69" s="104"/>
+      <c r="F69" s="104"/>
+      <c r="G69" s="104"/>
+      <c r="H69" s="104"/>
+      <c r="I69" s="104"/>
+      <c r="J69" s="104"/>
+      <c r="K69" s="104"/>
+    </row>
+    <row r="70" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B70" s="104"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="104"/>
+      <c r="E70" s="104"/>
+      <c r="F70" s="104"/>
+      <c r="G70" s="104"/>
+      <c r="H70" s="104"/>
+      <c r="I70" s="104"/>
+      <c r="J70" s="104"/>
+      <c r="K70" s="104"/>
+    </row>
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="B53:K65"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="B58:K70"/>
     <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
@@ -14597,10 +14951,10 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:K66"/>
+  <dimension ref="A2:K70"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -15297,7 +15651,7 @@
       <c r="J32" s="121"/>
       <c r="K32" s="111"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1">
+    <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="13">
         <v>27</v>
       </c>
@@ -15319,7 +15673,7 @@
       <c r="J33" s="121"/>
       <c r="K33" s="111"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1">
+    <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="13">
         <v>28</v>
       </c>
@@ -15339,7 +15693,7 @@
       <c r="J34" s="38"/>
       <c r="K34" s="35"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1">
+    <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="13">
         <v>29</v>
       </c>
@@ -15359,7 +15713,7 @@
       <c r="J35" s="38"/>
       <c r="K35" s="35"/>
     </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1">
+    <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="13">
         <v>30</v>
       </c>
@@ -15379,9 +15733,9 @@
       <c r="J36" s="38"/>
       <c r="K36" s="35"/>
     </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1">
+    <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
@@ -15399,9 +15753,9 @@
       <c r="J37" s="38"/>
       <c r="K37" s="35"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1">
+    <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
@@ -15419,17 +15773,17 @@
       <c r="J38" s="38"/>
       <c r="K38" s="35"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1">
+    <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="B39" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="14" t="s">
-        <v>232</v>
+      <c r="E39" s="125" t="s">
+        <v>376</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>114</v>
+        <v>379</v>
       </c>
       <c r="G39" s="42"/>
       <c r="H39" s="14" t="s">
@@ -15439,204 +15793,236 @@
       <c r="J39" s="38"/>
       <c r="K39" s="35"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1">
+    <row r="40" spans="2:11" ht="15.75" customHeight="1">
       <c r="B40" s="13">
-        <v>9</v>
-      </c>
-      <c r="C40" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C40" s="13"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="125" t="s">
+        <v>377</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="G40" s="42"/>
+      <c r="H40" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="35"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B41" s="13">
+        <v>35</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="125" t="s">
+        <v>378</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="G41" s="42"/>
+      <c r="H41" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="35"/>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B42" s="13">
+        <v>36</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="125" t="s">
+        <v>382</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="G42" s="42"/>
+      <c r="H42" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="35"/>
+    </row>
+    <row r="43" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B43" s="13">
+        <v>37</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="42"/>
+      <c r="H43" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="35"/>
+    </row>
+    <row r="44" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B44" s="13">
+        <v>38</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F40" s="42" t="s">
+      <c r="F44" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14" t="s">
+      <c r="G44" s="14"/>
+      <c r="H44" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="I40" s="13"/>
-      <c r="J40" s="121"/>
-      <c r="K40" s="111"/>
-    </row>
-    <row r="41" spans="1:11" ht="15">
-      <c r="B41" s="13">
-        <v>10</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14" t="s">
+      <c r="I44" s="13"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="111"/>
+    </row>
+    <row r="45" spans="2:11" ht="15">
+      <c r="B45" s="13">
+        <v>39</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F45" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="20" t="s">
+      <c r="G45" s="14"/>
+      <c r="H45" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="111"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B42" s="13">
-        <v>11</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14" t="s">
+      <c r="I45" s="13"/>
+      <c r="J45" s="121"/>
+      <c r="K45" s="111"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B46" s="13">
+        <v>40</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="F42" s="42" t="s">
+      <c r="F46" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14" t="s">
+      <c r="G46" s="14"/>
+      <c r="H46" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="117"/>
-      <c r="K42" s="111"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B43" s="13">
-        <v>12</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="21" t="s">
+      <c r="I46" s="13"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="111"/>
+    </row>
+    <row r="47" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B47" s="13">
+        <v>41</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F47" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="24"/>
-      <c r="H43" s="20" t="s">
+      <c r="G47" s="24"/>
+      <c r="H47" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="117"/>
-      <c r="K43" s="111"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B44" s="26"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="29"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B45" s="26"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="29"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B46" s="26"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="29"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B47" s="26"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="29"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="111"/>
+    </row>
+    <row r="48" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B48" s="26"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
+      <c r="I48" s="26"/>
       <c r="J48" s="22"/>
-    </row>
-    <row r="49" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B49" s="23"/>
-    </row>
-    <row r="53" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B53" s="7" t="s">
+      <c r="K48" s="29"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B49" s="26"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="29"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B50" s="26"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="29"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B51" s="26"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="29"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B53" s="23"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B57" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B54" s="118"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="104"/>
-      <c r="J54" s="104"/>
-      <c r="K54" s="104"/>
-    </row>
-    <row r="55" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B55" s="104"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="104"/>
-      <c r="J55" s="104"/>
-      <c r="K55" s="104"/>
-    </row>
-    <row r="56" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B56" s="104"/>
-      <c r="C56" s="104"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="104"/>
-      <c r="K56" s="104"/>
-    </row>
-    <row r="57" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B57" s="104"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="104"/>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="104"/>
-      <c r="H57" s="104"/>
-      <c r="I57" s="104"/>
-      <c r="J57" s="104"/>
-      <c r="K57" s="104"/>
-    </row>
-    <row r="58" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B58" s="104"/>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B58" s="118"/>
       <c r="C58" s="104"/>
       <c r="D58" s="104"/>
       <c r="E58" s="104"/>
@@ -15647,7 +16033,7 @@
       <c r="J58" s="104"/>
       <c r="K58" s="104"/>
     </row>
-    <row r="59" spans="2:11" ht="15.75" customHeight="1">
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
       <c r="B59" s="104"/>
       <c r="C59" s="104"/>
       <c r="D59" s="104"/>
@@ -15659,7 +16045,7 @@
       <c r="J59" s="104"/>
       <c r="K59" s="104"/>
     </row>
-    <row r="60" spans="2:11" ht="15.75" customHeight="1">
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
       <c r="B60" s="104"/>
       <c r="C60" s="104"/>
       <c r="D60" s="104"/>
@@ -15671,7 +16057,7 @@
       <c r="J60" s="104"/>
       <c r="K60" s="104"/>
     </row>
-    <row r="61" spans="2:11" ht="15.75" customHeight="1">
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="B61" s="104"/>
       <c r="C61" s="104"/>
       <c r="D61" s="104"/>
@@ -15683,7 +16069,7 @@
       <c r="J61" s="104"/>
       <c r="K61" s="104"/>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1">
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="B62" s="104"/>
       <c r="C62" s="104"/>
       <c r="D62" s="104"/>
@@ -15695,7 +16081,7 @@
       <c r="J62" s="104"/>
       <c r="K62" s="104"/>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1">
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
       <c r="B63" s="104"/>
       <c r="C63" s="104"/>
       <c r="D63" s="104"/>
@@ -15707,7 +16093,7 @@
       <c r="J63" s="104"/>
       <c r="K63" s="104"/>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1">
+    <row r="64" spans="1:11" ht="15.75" customHeight="1">
       <c r="B64" s="104"/>
       <c r="C64" s="104"/>
       <c r="D64" s="104"/>
@@ -15743,24 +16129,72 @@
       <c r="J66" s="104"/>
       <c r="K66" s="104"/>
     </row>
+    <row r="67" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B67" s="104"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="104"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="104"/>
+      <c r="G67" s="104"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="104"/>
+      <c r="J67" s="104"/>
+      <c r="K67" s="104"/>
+    </row>
+    <row r="68" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B68" s="104"/>
+      <c r="C68" s="104"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="104"/>
+      <c r="F68" s="104"/>
+      <c r="G68" s="104"/>
+      <c r="H68" s="104"/>
+      <c r="I68" s="104"/>
+      <c r="J68" s="104"/>
+      <c r="K68" s="104"/>
+    </row>
+    <row r="69" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B69" s="104"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="104"/>
+      <c r="E69" s="104"/>
+      <c r="F69" s="104"/>
+      <c r="G69" s="104"/>
+      <c r="H69" s="104"/>
+      <c r="I69" s="104"/>
+      <c r="J69" s="104"/>
+      <c r="K69" s="104"/>
+    </row>
+    <row r="70" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B70" s="104"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="104"/>
+      <c r="E70" s="104"/>
+      <c r="F70" s="104"/>
+      <c r="G70" s="104"/>
+      <c r="H70" s="104"/>
+      <c r="I70" s="104"/>
+      <c r="J70" s="104"/>
+      <c r="K70" s="104"/>
+    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B54:K66"/>
+    <mergeCell ref="B58:K70"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="J22:K22"/>

--- a/ansteypeファイル/DB設計 テーブル定義書.xlsx
+++ b/ansteypeファイル/DB設計 テーブル定義書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ans_client\ansteypeファイル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ans_client\ansteypeファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D56C808-DB51-4F46-BF00-0E4A23B11569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="-16320" windowWidth="38640" windowHeight="15720" tabRatio="756" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="-16320" windowWidth="38640" windowHeight="15720" tabRatio="756" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="一時保存記録" sheetId="19" r:id="rId1"/>
@@ -29,13 +28,14 @@
     <sheet name="請求減算ルール情報" sheetId="17" r:id="rId14"/>
     <sheet name="請求情報" sheetId="18" r:id="rId15"/>
     <sheet name="送付情報" sheetId="20" r:id="rId16"/>
+    <sheet name="見積・請求金額集計" sheetId="21" r:id="rId17"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="429">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -2991,11 +2991,321 @@
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <t>見積・請求金額集計</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>CONDITIONS_YEAR</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>CONDITIONS_MONTH</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>CONDITIONS_AGENCY</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>COMPANY_ID</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>COMPANY_NAME</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>STORE_ID</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>店舗ID</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>STORE_NAME</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>WEEK1_AMOUNT</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>第1週合計金額</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>週の合計金額</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>WEEK2_AMOUNT</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>第2週合計金額</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>WEEK3_AMOUNT</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>第3週合計金額</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>WEEK4_AMOUNT</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>第4週合計金額</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>週の合計金額</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>WEEK5_AMOUNT</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>第5週合計金額</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>週の合計金額</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>見積請求区分</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TOTAL_AMOUNT</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>総合計金額</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>NUMERIC(10, 2)</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>CREATOR</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>LAST_UPDATE_DATE</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>LAST_UPDATER</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>週の合計金額</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>週の合計金額</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>データタイプの区分
+（例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 1=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>見積</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>請求）</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>総金額</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ESTIMATION_REQUEST_TYPE</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ESTIMATION_REQUEST_SUMMARY</t>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="31">
     <font>
       <sz val="10"/>
@@ -3388,12 +3698,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3585,16 +3896,23 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3606,24 +3924,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3641,11 +3959,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+  <cellStyles count="4">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3857,7 +4201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3868,27 +4212,27 @@
       <selection activeCell="A13" sqref="A13:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" style="61" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" style="61" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" style="61" customWidth="1"/>
-    <col min="5" max="6" width="12.609375" style="61"/>
-    <col min="7" max="7" width="25.38671875" style="61" customWidth="1"/>
-    <col min="8" max="8" width="12.609375" style="61"/>
-    <col min="9" max="9" width="8.609375" style="61" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="61" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" style="61" customWidth="1"/>
-    <col min="12" max="16384" width="12.609375" style="61"/>
+    <col min="1" max="1" width="4.6328125" style="61" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" style="61" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="61"/>
+    <col min="7" max="7" width="25.36328125" style="61" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="61"/>
+    <col min="9" max="9" width="8.6328125" style="61" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="61" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" style="61" customWidth="1"/>
+    <col min="12" max="16384" width="12.6328125" style="61"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="63" t="s">
         <v>5</v>
       </c>
@@ -3909,10 +4253,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B3" s="97"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="66" t="s">
         <v>312</v>
       </c>
@@ -3928,15 +4272,15 @@
       <c r="B4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="96"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="105"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="71" t="s">
@@ -3963,10 +4307,10 @@
       <c r="I5" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="100" t="s">
+      <c r="J5" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="96"/>
+      <c r="K5" s="105"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="63">
@@ -3989,8 +4333,8 @@
       <c r="I6" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="105"/>
     </row>
     <row r="7" spans="1:11" customFormat="1" ht="15.75" customHeight="1">
       <c r="B7" s="63">
@@ -4031,8 +4375,8 @@
         <v>189</v>
       </c>
       <c r="I8" s="63"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="105"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="B9" s="63">
@@ -4051,8 +4395,8 @@
         <v>189</v>
       </c>
       <c r="I9" s="63"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="96"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="105"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="B10" s="63">
@@ -4091,8 +4435,8 @@
         <v>192</v>
       </c>
       <c r="I11" s="63"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="96"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="105"/>
     </row>
     <row r="12" spans="1:11" ht="15">
       <c r="B12" s="63">
@@ -4132,8 +4476,8 @@
         <v>192</v>
       </c>
       <c r="I13" s="63"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="96"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="105"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="76"/>
@@ -4153,8 +4497,8 @@
         <v>189</v>
       </c>
       <c r="I14" s="63"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="96"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="105"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="76"/>
@@ -4195,8 +4539,8 @@
         <v>192</v>
       </c>
       <c r="I16" s="63"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="96"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="105"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="76"/>
@@ -4216,8 +4560,8 @@
         <v>189</v>
       </c>
       <c r="I17" s="63"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="96"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="105"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="76"/>
@@ -4252,163 +4596,169 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B25" s="101"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="102"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B27" s="102"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="102"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B28" s="102"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B30" s="102"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="102"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="102"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="102"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="102"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="102"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="102"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="102"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="102"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="B25:K37"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J11:K11"/>
@@ -4416,12 +4766,6 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4429,35 +4773,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:K91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B56"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -4478,10 +4822,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="122"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="16" t="s">
         <v>286</v>
       </c>
@@ -4497,15 +4841,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="121"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -4532,10 +4876,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -4558,8 +4902,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="124"/>
-      <c r="K6" s="115"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -4624,8 +4968,8 @@
         <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="115"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="121"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
@@ -4884,8 +5228,8 @@
         <v>189</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="115"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="121"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
@@ -4906,8 +5250,8 @@
         <v>189</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="115"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="121"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
@@ -4928,8 +5272,8 @@
         <v>189</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="115"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="121"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
@@ -4950,8 +5294,8 @@
         <v>189</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="115"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="121"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
@@ -4972,8 +5316,8 @@
         <v>200</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="115"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="121"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="13">
@@ -4994,8 +5338,8 @@
         <v>189</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="115"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="121"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="13">
@@ -5016,8 +5360,8 @@
         <v>191</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="115"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="121"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="13">
@@ -5038,8 +5382,8 @@
         <v>191</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="115"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="121"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="13">
@@ -5060,8 +5404,8 @@
         <v>191</v>
       </c>
       <c r="I29" s="13"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="115"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="121"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="13">
@@ -5082,8 +5426,8 @@
         <v>191</v>
       </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="115"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="121"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="13">
@@ -5104,8 +5448,8 @@
         <v>191</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="115"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="121"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="13">
@@ -5126,8 +5470,8 @@
         <v>189</v>
       </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="115"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="121"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="13">
@@ -5148,8 +5492,8 @@
         <v>189</v>
       </c>
       <c r="I33" s="13"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="115"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="121"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="13">
@@ -5170,8 +5514,8 @@
         <v>192</v>
       </c>
       <c r="I34" s="13"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="115"/>
+      <c r="J34" s="131"/>
+      <c r="K34" s="121"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="13">
@@ -5530,8 +5874,8 @@
         <v>192</v>
       </c>
       <c r="I52" s="13"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="115"/>
+      <c r="J52" s="131"/>
+      <c r="K52" s="121"/>
     </row>
     <row r="53" spans="2:11" ht="15">
       <c r="B53" s="13">
@@ -5550,8 +5894,8 @@
         <v>189</v>
       </c>
       <c r="I53" s="13"/>
-      <c r="J53" s="124"/>
-      <c r="K53" s="115"/>
+      <c r="J53" s="131"/>
+      <c r="K53" s="121"/>
     </row>
     <row r="54" spans="2:11" ht="15">
       <c r="B54" s="13">
@@ -5590,8 +5934,8 @@
         <v>192</v>
       </c>
       <c r="I55" s="13"/>
-      <c r="J55" s="120"/>
-      <c r="K55" s="115"/>
+      <c r="J55" s="127"/>
+      <c r="K55" s="121"/>
     </row>
     <row r="56" spans="2:11" ht="15.75" customHeight="1">
       <c r="B56" s="13">
@@ -5610,8 +5954,8 @@
         <v>189</v>
       </c>
       <c r="I56" s="13"/>
-      <c r="J56" s="120"/>
-      <c r="K56" s="115"/>
+      <c r="J56" s="127"/>
+      <c r="K56" s="121"/>
     </row>
     <row r="57" spans="2:11" ht="15.75" customHeight="1">
       <c r="B57" s="26"/>
@@ -5826,163 +6170,172 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B79" s="121"/>
-      <c r="C79" s="107"/>
-      <c r="D79" s="107"/>
-      <c r="E79" s="107"/>
-      <c r="F79" s="107"/>
-      <c r="G79" s="107"/>
-      <c r="H79" s="107"/>
-      <c r="I79" s="107"/>
-      <c r="J79" s="107"/>
-      <c r="K79" s="107"/>
+      <c r="B79" s="128"/>
+      <c r="C79" s="114"/>
+      <c r="D79" s="114"/>
+      <c r="E79" s="114"/>
+      <c r="F79" s="114"/>
+      <c r="G79" s="114"/>
+      <c r="H79" s="114"/>
+      <c r="I79" s="114"/>
+      <c r="J79" s="114"/>
+      <c r="K79" s="114"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B80" s="107"/>
-      <c r="C80" s="107"/>
-      <c r="D80" s="107"/>
-      <c r="E80" s="107"/>
-      <c r="F80" s="107"/>
-      <c r="G80" s="107"/>
-      <c r="H80" s="107"/>
-      <c r="I80" s="107"/>
-      <c r="J80" s="107"/>
-      <c r="K80" s="107"/>
+      <c r="B80" s="114"/>
+      <c r="C80" s="114"/>
+      <c r="D80" s="114"/>
+      <c r="E80" s="114"/>
+      <c r="F80" s="114"/>
+      <c r="G80" s="114"/>
+      <c r="H80" s="114"/>
+      <c r="I80" s="114"/>
+      <c r="J80" s="114"/>
+      <c r="K80" s="114"/>
     </row>
     <row r="81" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B81" s="107"/>
-      <c r="C81" s="107"/>
-      <c r="D81" s="107"/>
-      <c r="E81" s="107"/>
-      <c r="F81" s="107"/>
-      <c r="G81" s="107"/>
-      <c r="H81" s="107"/>
-      <c r="I81" s="107"/>
-      <c r="J81" s="107"/>
-      <c r="K81" s="107"/>
+      <c r="B81" s="114"/>
+      <c r="C81" s="114"/>
+      <c r="D81" s="114"/>
+      <c r="E81" s="114"/>
+      <c r="F81" s="114"/>
+      <c r="G81" s="114"/>
+      <c r="H81" s="114"/>
+      <c r="I81" s="114"/>
+      <c r="J81" s="114"/>
+      <c r="K81" s="114"/>
     </row>
     <row r="82" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B82" s="107"/>
-      <c r="C82" s="107"/>
-      <c r="D82" s="107"/>
-      <c r="E82" s="107"/>
-      <c r="F82" s="107"/>
-      <c r="G82" s="107"/>
-      <c r="H82" s="107"/>
-      <c r="I82" s="107"/>
-      <c r="J82" s="107"/>
-      <c r="K82" s="107"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
+      <c r="G82" s="114"/>
+      <c r="H82" s="114"/>
+      <c r="I82" s="114"/>
+      <c r="J82" s="114"/>
+      <c r="K82" s="114"/>
     </row>
     <row r="83" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B83" s="107"/>
-      <c r="C83" s="107"/>
-      <c r="D83" s="107"/>
-      <c r="E83" s="107"/>
-      <c r="F83" s="107"/>
-      <c r="G83" s="107"/>
-      <c r="H83" s="107"/>
-      <c r="I83" s="107"/>
-      <c r="J83" s="107"/>
-      <c r="K83" s="107"/>
+      <c r="B83" s="114"/>
+      <c r="C83" s="114"/>
+      <c r="D83" s="114"/>
+      <c r="E83" s="114"/>
+      <c r="F83" s="114"/>
+      <c r="G83" s="114"/>
+      <c r="H83" s="114"/>
+      <c r="I83" s="114"/>
+      <c r="J83" s="114"/>
+      <c r="K83" s="114"/>
     </row>
     <row r="84" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B84" s="107"/>
-      <c r="C84" s="107"/>
-      <c r="D84" s="107"/>
-      <c r="E84" s="107"/>
-      <c r="F84" s="107"/>
-      <c r="G84" s="107"/>
-      <c r="H84" s="107"/>
-      <c r="I84" s="107"/>
-      <c r="J84" s="107"/>
-      <c r="K84" s="107"/>
+      <c r="B84" s="114"/>
+      <c r="C84" s="114"/>
+      <c r="D84" s="114"/>
+      <c r="E84" s="114"/>
+      <c r="F84" s="114"/>
+      <c r="G84" s="114"/>
+      <c r="H84" s="114"/>
+      <c r="I84" s="114"/>
+      <c r="J84" s="114"/>
+      <c r="K84" s="114"/>
     </row>
     <row r="85" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B85" s="107"/>
-      <c r="C85" s="107"/>
-      <c r="D85" s="107"/>
-      <c r="E85" s="107"/>
-      <c r="F85" s="107"/>
-      <c r="G85" s="107"/>
-      <c r="H85" s="107"/>
-      <c r="I85" s="107"/>
-      <c r="J85" s="107"/>
-      <c r="K85" s="107"/>
+      <c r="B85" s="114"/>
+      <c r="C85" s="114"/>
+      <c r="D85" s="114"/>
+      <c r="E85" s="114"/>
+      <c r="F85" s="114"/>
+      <c r="G85" s="114"/>
+      <c r="H85" s="114"/>
+      <c r="I85" s="114"/>
+      <c r="J85" s="114"/>
+      <c r="K85" s="114"/>
     </row>
     <row r="86" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B86" s="107"/>
-      <c r="C86" s="107"/>
-      <c r="D86" s="107"/>
-      <c r="E86" s="107"/>
-      <c r="F86" s="107"/>
-      <c r="G86" s="107"/>
-      <c r="H86" s="107"/>
-      <c r="I86" s="107"/>
-      <c r="J86" s="107"/>
-      <c r="K86" s="107"/>
+      <c r="B86" s="114"/>
+      <c r="C86" s="114"/>
+      <c r="D86" s="114"/>
+      <c r="E86" s="114"/>
+      <c r="F86" s="114"/>
+      <c r="G86" s="114"/>
+      <c r="H86" s="114"/>
+      <c r="I86" s="114"/>
+      <c r="J86" s="114"/>
+      <c r="K86" s="114"/>
     </row>
     <row r="87" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B87" s="107"/>
-      <c r="C87" s="107"/>
-      <c r="D87" s="107"/>
-      <c r="E87" s="107"/>
-      <c r="F87" s="107"/>
-      <c r="G87" s="107"/>
-      <c r="H87" s="107"/>
-      <c r="I87" s="107"/>
-      <c r="J87" s="107"/>
-      <c r="K87" s="107"/>
+      <c r="B87" s="114"/>
+      <c r="C87" s="114"/>
+      <c r="D87" s="114"/>
+      <c r="E87" s="114"/>
+      <c r="F87" s="114"/>
+      <c r="G87" s="114"/>
+      <c r="H87" s="114"/>
+      <c r="I87" s="114"/>
+      <c r="J87" s="114"/>
+      <c r="K87" s="114"/>
     </row>
     <row r="88" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B88" s="107"/>
-      <c r="C88" s="107"/>
-      <c r="D88" s="107"/>
-      <c r="E88" s="107"/>
-      <c r="F88" s="107"/>
-      <c r="G88" s="107"/>
-      <c r="H88" s="107"/>
-      <c r="I88" s="107"/>
-      <c r="J88" s="107"/>
-      <c r="K88" s="107"/>
+      <c r="B88" s="114"/>
+      <c r="C88" s="114"/>
+      <c r="D88" s="114"/>
+      <c r="E88" s="114"/>
+      <c r="F88" s="114"/>
+      <c r="G88" s="114"/>
+      <c r="H88" s="114"/>
+      <c r="I88" s="114"/>
+      <c r="J88" s="114"/>
+      <c r="K88" s="114"/>
     </row>
     <row r="89" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B89" s="107"/>
-      <c r="C89" s="107"/>
-      <c r="D89" s="107"/>
-      <c r="E89" s="107"/>
-      <c r="F89" s="107"/>
-      <c r="G89" s="107"/>
-      <c r="H89" s="107"/>
-      <c r="I89" s="107"/>
-      <c r="J89" s="107"/>
-      <c r="K89" s="107"/>
+      <c r="B89" s="114"/>
+      <c r="C89" s="114"/>
+      <c r="D89" s="114"/>
+      <c r="E89" s="114"/>
+      <c r="F89" s="114"/>
+      <c r="G89" s="114"/>
+      <c r="H89" s="114"/>
+      <c r="I89" s="114"/>
+      <c r="J89" s="114"/>
+      <c r="K89" s="114"/>
     </row>
     <row r="90" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B90" s="107"/>
-      <c r="C90" s="107"/>
-      <c r="D90" s="107"/>
-      <c r="E90" s="107"/>
-      <c r="F90" s="107"/>
-      <c r="G90" s="107"/>
-      <c r="H90" s="107"/>
-      <c r="I90" s="107"/>
-      <c r="J90" s="107"/>
-      <c r="K90" s="107"/>
+      <c r="B90" s="114"/>
+      <c r="C90" s="114"/>
+      <c r="D90" s="114"/>
+      <c r="E90" s="114"/>
+      <c r="F90" s="114"/>
+      <c r="G90" s="114"/>
+      <c r="H90" s="114"/>
+      <c r="I90" s="114"/>
+      <c r="J90" s="114"/>
+      <c r="K90" s="114"/>
     </row>
     <row r="91" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B91" s="107"/>
-      <c r="C91" s="107"/>
-      <c r="D91" s="107"/>
-      <c r="E91" s="107"/>
-      <c r="F91" s="107"/>
-      <c r="G91" s="107"/>
-      <c r="H91" s="107"/>
-      <c r="I91" s="107"/>
-      <c r="J91" s="107"/>
-      <c r="K91" s="107"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="114"/>
+      <c r="G91" s="114"/>
+      <c r="H91" s="114"/>
+      <c r="I91" s="114"/>
+      <c r="J91" s="114"/>
+      <c r="K91" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="J52:K52"/>
@@ -5999,15 +6352,6 @@
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6016,7 +6360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6027,24 +6371,24 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -6065,10 +6409,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="122"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="16" t="s">
         <v>287</v>
       </c>
@@ -6084,15 +6428,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="121"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -6119,10 +6463,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -6145,8 +6489,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="124"/>
-      <c r="K6" s="115"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -6165,10 +6509,10 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="115"/>
-    </row>
-    <row r="8" spans="2:11" ht="13.8">
+      <c r="J7" s="131"/>
+      <c r="K7" s="121"/>
+    </row>
+    <row r="8" spans="2:11" ht="14">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -6185,8 +6529,8 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="115"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -6205,8 +6549,8 @@
         <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="115"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="121"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
@@ -6225,8 +6569,8 @@
         <v>244</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="115"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="121"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
@@ -6245,10 +6589,10 @@
         <v>192</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="115"/>
-    </row>
-    <row r="12" spans="2:11" ht="13.8">
+      <c r="J11" s="131"/>
+      <c r="K11" s="121"/>
+    </row>
+    <row r="12" spans="2:11" ht="14">
       <c r="B12" s="13">
         <v>10</v>
       </c>
@@ -6265,8 +6609,8 @@
         <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="115"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="121"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1">
       <c r="B13" s="13">
@@ -6285,8 +6629,8 @@
         <v>192</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="115"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="121"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
@@ -6305,8 +6649,8 @@
         <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="115"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="121"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
@@ -6319,8 +6663,8 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="115"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="121"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
@@ -6333,8 +6677,8 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="115"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="121"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
@@ -6347,8 +6691,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="20"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="115"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="121"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
@@ -6361,8 +6705,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="115"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="121"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="13">
@@ -6375,8 +6719,8 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="115"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="121"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
@@ -6389,8 +6733,8 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="115"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="121"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
@@ -6403,8 +6747,8 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="115"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="121"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
@@ -6417,8 +6761,8 @@
       <c r="G22" s="14"/>
       <c r="H22" s="20"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="115"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="121"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
@@ -6431,8 +6775,8 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="115"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="121"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
@@ -6445,8 +6789,8 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="115"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="121"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="26"/>
@@ -6577,171 +6921,163 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B40" s="121"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="107"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B45" s="107"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="107"/>
-      <c r="K46" s="107"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B47" s="107"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B48" s="107"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="107"/>
-      <c r="K48" s="107"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="114"/>
+      <c r="K48" s="114"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="107"/>
-      <c r="K49" s="107"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="114"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="107"/>
-      <c r="G50" s="107"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="107"/>
-      <c r="J50" s="107"/>
-      <c r="K50" s="107"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="114"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B51" s="107"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="107"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="107"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="107"/>
-      <c r="J51" s="107"/>
-      <c r="K51" s="107"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="114"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B52" s="107"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="107"/>
-      <c r="K52" s="107"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="B40:K52"/>
     <mergeCell ref="B2:E2"/>
@@ -6758,6 +7094,14 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6765,7 +7109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6776,24 +7120,24 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -6814,10 +7158,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="122"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="16" t="s">
         <v>288</v>
       </c>
@@ -6833,15 +7177,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="121"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -6868,10 +7212,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -6894,8 +7238,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="124"/>
-      <c r="K6" s="115"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -6914,10 +7258,10 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="115"/>
-    </row>
-    <row r="8" spans="2:11" ht="15">
+      <c r="J7" s="131"/>
+      <c r="K7" s="121"/>
+    </row>
+    <row r="8" spans="2:11" ht="16">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -6938,8 +7282,8 @@
         <v>200</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="115"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -6958,10 +7302,10 @@
         <v>192</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="115"/>
-    </row>
-    <row r="10" spans="2:11" ht="13.8">
+      <c r="J9" s="131"/>
+      <c r="K9" s="121"/>
+    </row>
+    <row r="10" spans="2:11" ht="14">
       <c r="B10" s="13">
         <v>10</v>
       </c>
@@ -6978,8 +7322,8 @@
         <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="115"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="121"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
@@ -6998,8 +7342,8 @@
         <v>192</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="115"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="121"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
@@ -7018,10 +7362,10 @@
         <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="115"/>
-    </row>
-    <row r="13" spans="2:11" ht="13.8">
+      <c r="J12" s="127"/>
+      <c r="K12" s="121"/>
+    </row>
+    <row r="13" spans="2:11" ht="14">
       <c r="B13" s="13">
         <v>3</v>
       </c>
@@ -7032,8 +7376,8 @@
       <c r="G13" s="14"/>
       <c r="H13" s="20"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="115"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="121"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
@@ -7046,8 +7390,8 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="115"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="121"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
@@ -7060,8 +7404,8 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="115"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="121"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
@@ -7074,8 +7418,8 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="115"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="121"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
@@ -7088,8 +7432,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="115"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="121"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
@@ -7102,8 +7446,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="20"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="115"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="121"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="13">
@@ -7116,8 +7460,8 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="115"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="121"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
@@ -7130,8 +7474,8 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="115"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="121"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
@@ -7144,8 +7488,8 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="115"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="121"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
@@ -7158,8 +7502,8 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="115"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="121"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
@@ -7172,8 +7516,8 @@
       <c r="G23" s="14"/>
       <c r="H23" s="20"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="115"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="121"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
@@ -7186,8 +7530,8 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="115"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="121"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
@@ -7200,8 +7544,8 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="115"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="121"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="26"/>
@@ -7332,170 +7676,169 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B41" s="121"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="107"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B45" s="107"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="107"/>
-      <c r="K46" s="107"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B47" s="107"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B48" s="107"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="107"/>
-      <c r="K48" s="107"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="114"/>
+      <c r="K48" s="114"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="107"/>
-      <c r="K49" s="107"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="114"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="107"/>
-      <c r="G50" s="107"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="107"/>
-      <c r="J50" s="107"/>
-      <c r="K50" s="107"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="114"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B51" s="107"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="107"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="107"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="107"/>
-      <c r="J51" s="107"/>
-      <c r="K51" s="107"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="114"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B52" s="107"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="107"/>
-      <c r="K52" s="107"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="114"/>
     </row>
     <row r="53" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B53" s="107"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="107"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
-      <c r="K53" s="107"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B41:K53"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
@@ -7508,12 +7851,13 @@
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B41:K53"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7521,7 +7865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7530,24 +7874,24 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -7568,10 +7912,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="122"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="16" t="s">
         <v>289</v>
       </c>
@@ -7587,15 +7931,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="121"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -7622,10 +7966,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -7648,8 +7992,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="124"/>
-      <c r="K6" s="115"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -7668,8 +8012,8 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="115"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="121"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
@@ -7688,8 +8032,8 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="115"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -7708,8 +8052,8 @@
         <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="115"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="121"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
@@ -7868,8 +8212,8 @@
         <v>189</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="115"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="121"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
@@ -7888,8 +8232,8 @@
         <v>189</v>
       </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="115"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="121"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
       <c r="B19" s="13">
@@ -7908,8 +8252,8 @@
         <v>189</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="115"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="121"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
@@ -7928,8 +8272,8 @@
         <v>189</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="115"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="121"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13"/>
@@ -7968,10 +8312,10 @@
         <v>192</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="115"/>
-    </row>
-    <row r="23" spans="2:11" ht="13.8">
+      <c r="J22" s="131"/>
+      <c r="K22" s="121"/>
+    </row>
+    <row r="23" spans="2:11" ht="14">
       <c r="B23" s="13">
         <v>10</v>
       </c>
@@ -7988,8 +8332,8 @@
         <v>189</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="115"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="121"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
@@ -8008,8 +8352,8 @@
         <v>192</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="115"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="121"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
@@ -8028,8 +8372,8 @@
         <v>189</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="115"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="121"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="7" t="s">
@@ -8037,163 +8381,173 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B30" s="121"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="114"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J8:K8"/>
@@ -8201,16 +8555,6 @@
     <mergeCell ref="B30:K42"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8218,7 +8562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8229,24 +8573,24 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -8267,10 +8611,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B3" s="122"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="16" t="s">
         <v>290</v>
       </c>
@@ -8286,15 +8630,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="121"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -8321,10 +8665,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -8347,8 +8691,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="124"/>
-      <c r="K6" s="115"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -8371,8 +8715,8 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="115"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="121"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
@@ -8391,8 +8735,8 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="115"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -8431,8 +8775,8 @@
         <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="115"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="121"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
@@ -8451,10 +8795,10 @@
         <v>192</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="115"/>
-    </row>
-    <row r="12" spans="1:11" ht="13.8">
+      <c r="J11" s="131"/>
+      <c r="K11" s="121"/>
+    </row>
+    <row r="12" spans="1:11" ht="14">
       <c r="B12" s="13">
         <v>10</v>
       </c>
@@ -8471,8 +8815,8 @@
         <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="115"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="121"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="13">
@@ -8491,8 +8835,8 @@
         <v>192</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="115"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="121"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
@@ -8511,8 +8855,8 @@
         <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="115"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="121"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="22"/>
@@ -8547,163 +8891,169 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B22" s="121"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="114"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="B22:K34"/>
@@ -8711,12 +9061,6 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8724,35 +9068,35 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:K85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -8773,10 +9117,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="122"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="16" t="s">
         <v>173</v>
       </c>
@@ -8792,15 +9136,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="121"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -8827,10 +9171,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -8853,8 +9197,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="124"/>
-      <c r="K6" s="115"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -8897,8 +9241,8 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="115"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -9139,8 +9483,8 @@
         <v>189</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="115"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="121"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
@@ -9161,8 +9505,8 @@
         <v>189</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="115"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="121"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
@@ -9183,8 +9527,8 @@
         <v>189</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="115"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="121"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
@@ -9205,8 +9549,8 @@
         <v>189</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="115"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="121"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
@@ -9227,8 +9571,8 @@
         <v>200</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="115"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="121"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
@@ -9249,8 +9593,8 @@
         <v>189</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="115"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="121"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
@@ -9271,8 +9615,8 @@
         <v>191</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="115"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="121"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="13">
@@ -9293,8 +9637,8 @@
         <v>191</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="115"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="121"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="13">
@@ -9315,8 +9659,8 @@
         <v>191</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="115"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="121"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="13">
@@ -9337,8 +9681,8 @@
         <v>191</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="115"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="121"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="13">
@@ -9359,8 +9703,8 @@
         <v>191</v>
       </c>
       <c r="I29" s="13"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="115"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="121"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="13">
@@ -9381,8 +9725,8 @@
         <v>189</v>
       </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="115"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="121"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="13">
@@ -9403,8 +9747,8 @@
         <v>189</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="115"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="121"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="13">
@@ -9425,8 +9769,8 @@
         <v>192</v>
       </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="115"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="121"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="13">
@@ -9665,10 +10009,10 @@
         <v>192</v>
       </c>
       <c r="I44" s="13"/>
-      <c r="J44" s="124"/>
-      <c r="K44" s="115"/>
-    </row>
-    <row r="45" spans="2:11" ht="13.8">
+      <c r="J44" s="131"/>
+      <c r="K44" s="121"/>
+    </row>
+    <row r="45" spans="2:11" ht="14">
       <c r="B45" s="13">
         <v>10</v>
       </c>
@@ -9685,8 +10029,8 @@
         <v>189</v>
       </c>
       <c r="I45" s="13"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="115"/>
+      <c r="J45" s="131"/>
+      <c r="K45" s="121"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
       <c r="B46" s="13">
@@ -9705,8 +10049,8 @@
         <v>192</v>
       </c>
       <c r="I46" s="13"/>
-      <c r="J46" s="120"/>
-      <c r="K46" s="115"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="121"/>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1">
       <c r="B47" s="13">
@@ -9725,8 +10069,8 @@
         <v>189</v>
       </c>
       <c r="I47" s="13"/>
-      <c r="J47" s="120"/>
-      <c r="K47" s="115"/>
+      <c r="J47" s="127"/>
+      <c r="K47" s="121"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="26"/>
@@ -9977,170 +10321,169 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B73" s="121"/>
-      <c r="C73" s="107"/>
-      <c r="D73" s="107"/>
-      <c r="E73" s="107"/>
-      <c r="F73" s="107"/>
-      <c r="G73" s="107"/>
-      <c r="H73" s="107"/>
-      <c r="I73" s="107"/>
-      <c r="J73" s="107"/>
-      <c r="K73" s="107"/>
+      <c r="B73" s="128"/>
+      <c r="C73" s="114"/>
+      <c r="D73" s="114"/>
+      <c r="E73" s="114"/>
+      <c r="F73" s="114"/>
+      <c r="G73" s="114"/>
+      <c r="H73" s="114"/>
+      <c r="I73" s="114"/>
+      <c r="J73" s="114"/>
+      <c r="K73" s="114"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B74" s="107"/>
-      <c r="C74" s="107"/>
-      <c r="D74" s="107"/>
-      <c r="E74" s="107"/>
-      <c r="F74" s="107"/>
-      <c r="G74" s="107"/>
-      <c r="H74" s="107"/>
-      <c r="I74" s="107"/>
-      <c r="J74" s="107"/>
-      <c r="K74" s="107"/>
+      <c r="B74" s="114"/>
+      <c r="C74" s="114"/>
+      <c r="D74" s="114"/>
+      <c r="E74" s="114"/>
+      <c r="F74" s="114"/>
+      <c r="G74" s="114"/>
+      <c r="H74" s="114"/>
+      <c r="I74" s="114"/>
+      <c r="J74" s="114"/>
+      <c r="K74" s="114"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B75" s="107"/>
-      <c r="C75" s="107"/>
-      <c r="D75" s="107"/>
-      <c r="E75" s="107"/>
-      <c r="F75" s="107"/>
-      <c r="G75" s="107"/>
-      <c r="H75" s="107"/>
-      <c r="I75" s="107"/>
-      <c r="J75" s="107"/>
-      <c r="K75" s="107"/>
+      <c r="B75" s="114"/>
+      <c r="C75" s="114"/>
+      <c r="D75" s="114"/>
+      <c r="E75" s="114"/>
+      <c r="F75" s="114"/>
+      <c r="G75" s="114"/>
+      <c r="H75" s="114"/>
+      <c r="I75" s="114"/>
+      <c r="J75" s="114"/>
+      <c r="K75" s="114"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B76" s="107"/>
-      <c r="C76" s="107"/>
-      <c r="D76" s="107"/>
-      <c r="E76" s="107"/>
-      <c r="F76" s="107"/>
-      <c r="G76" s="107"/>
-      <c r="H76" s="107"/>
-      <c r="I76" s="107"/>
-      <c r="J76" s="107"/>
-      <c r="K76" s="107"/>
+      <c r="B76" s="114"/>
+      <c r="C76" s="114"/>
+      <c r="D76" s="114"/>
+      <c r="E76" s="114"/>
+      <c r="F76" s="114"/>
+      <c r="G76" s="114"/>
+      <c r="H76" s="114"/>
+      <c r="I76" s="114"/>
+      <c r="J76" s="114"/>
+      <c r="K76" s="114"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B77" s="107"/>
-      <c r="C77" s="107"/>
-      <c r="D77" s="107"/>
-      <c r="E77" s="107"/>
-      <c r="F77" s="107"/>
-      <c r="G77" s="107"/>
-      <c r="H77" s="107"/>
-      <c r="I77" s="107"/>
-      <c r="J77" s="107"/>
-      <c r="K77" s="107"/>
+      <c r="B77" s="114"/>
+      <c r="C77" s="114"/>
+      <c r="D77" s="114"/>
+      <c r="E77" s="114"/>
+      <c r="F77" s="114"/>
+      <c r="G77" s="114"/>
+      <c r="H77" s="114"/>
+      <c r="I77" s="114"/>
+      <c r="J77" s="114"/>
+      <c r="K77" s="114"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B78" s="107"/>
-      <c r="C78" s="107"/>
-      <c r="D78" s="107"/>
-      <c r="E78" s="107"/>
-      <c r="F78" s="107"/>
-      <c r="G78" s="107"/>
-      <c r="H78" s="107"/>
-      <c r="I78" s="107"/>
-      <c r="J78" s="107"/>
-      <c r="K78" s="107"/>
+      <c r="B78" s="114"/>
+      <c r="C78" s="114"/>
+      <c r="D78" s="114"/>
+      <c r="E78" s="114"/>
+      <c r="F78" s="114"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B79" s="107"/>
-      <c r="C79" s="107"/>
-      <c r="D79" s="107"/>
-      <c r="E79" s="107"/>
-      <c r="F79" s="107"/>
-      <c r="G79" s="107"/>
-      <c r="H79" s="107"/>
-      <c r="I79" s="107"/>
-      <c r="J79" s="107"/>
-      <c r="K79" s="107"/>
+      <c r="B79" s="114"/>
+      <c r="C79" s="114"/>
+      <c r="D79" s="114"/>
+      <c r="E79" s="114"/>
+      <c r="F79" s="114"/>
+      <c r="G79" s="114"/>
+      <c r="H79" s="114"/>
+      <c r="I79" s="114"/>
+      <c r="J79" s="114"/>
+      <c r="K79" s="114"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B80" s="107"/>
-      <c r="C80" s="107"/>
-      <c r="D80" s="107"/>
-      <c r="E80" s="107"/>
-      <c r="F80" s="107"/>
-      <c r="G80" s="107"/>
-      <c r="H80" s="107"/>
-      <c r="I80" s="107"/>
-      <c r="J80" s="107"/>
-      <c r="K80" s="107"/>
+      <c r="B80" s="114"/>
+      <c r="C80" s="114"/>
+      <c r="D80" s="114"/>
+      <c r="E80" s="114"/>
+      <c r="F80" s="114"/>
+      <c r="G80" s="114"/>
+      <c r="H80" s="114"/>
+      <c r="I80" s="114"/>
+      <c r="J80" s="114"/>
+      <c r="K80" s="114"/>
     </row>
     <row r="81" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B81" s="107"/>
-      <c r="C81" s="107"/>
-      <c r="D81" s="107"/>
-      <c r="E81" s="107"/>
-      <c r="F81" s="107"/>
-      <c r="G81" s="107"/>
-      <c r="H81" s="107"/>
-      <c r="I81" s="107"/>
-      <c r="J81" s="107"/>
-      <c r="K81" s="107"/>
+      <c r="B81" s="114"/>
+      <c r="C81" s="114"/>
+      <c r="D81" s="114"/>
+      <c r="E81" s="114"/>
+      <c r="F81" s="114"/>
+      <c r="G81" s="114"/>
+      <c r="H81" s="114"/>
+      <c r="I81" s="114"/>
+      <c r="J81" s="114"/>
+      <c r="K81" s="114"/>
     </row>
     <row r="82" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B82" s="107"/>
-      <c r="C82" s="107"/>
-      <c r="D82" s="107"/>
-      <c r="E82" s="107"/>
-      <c r="F82" s="107"/>
-      <c r="G82" s="107"/>
-      <c r="H82" s="107"/>
-      <c r="I82" s="107"/>
-      <c r="J82" s="107"/>
-      <c r="K82" s="107"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
+      <c r="G82" s="114"/>
+      <c r="H82" s="114"/>
+      <c r="I82" s="114"/>
+      <c r="J82" s="114"/>
+      <c r="K82" s="114"/>
     </row>
     <row r="83" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B83" s="107"/>
-      <c r="C83" s="107"/>
-      <c r="D83" s="107"/>
-      <c r="E83" s="107"/>
-      <c r="F83" s="107"/>
-      <c r="G83" s="107"/>
-      <c r="H83" s="107"/>
-      <c r="I83" s="107"/>
-      <c r="J83" s="107"/>
-      <c r="K83" s="107"/>
+      <c r="B83" s="114"/>
+      <c r="C83" s="114"/>
+      <c r="D83" s="114"/>
+      <c r="E83" s="114"/>
+      <c r="F83" s="114"/>
+      <c r="G83" s="114"/>
+      <c r="H83" s="114"/>
+      <c r="I83" s="114"/>
+      <c r="J83" s="114"/>
+      <c r="K83" s="114"/>
     </row>
     <row r="84" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B84" s="107"/>
-      <c r="C84" s="107"/>
-      <c r="D84" s="107"/>
-      <c r="E84" s="107"/>
-      <c r="F84" s="107"/>
-      <c r="G84" s="107"/>
-      <c r="H84" s="107"/>
-      <c r="I84" s="107"/>
-      <c r="J84" s="107"/>
-      <c r="K84" s="107"/>
+      <c r="B84" s="114"/>
+      <c r="C84" s="114"/>
+      <c r="D84" s="114"/>
+      <c r="E84" s="114"/>
+      <c r="F84" s="114"/>
+      <c r="G84" s="114"/>
+      <c r="H84" s="114"/>
+      <c r="I84" s="114"/>
+      <c r="J84" s="114"/>
+      <c r="K84" s="114"/>
     </row>
     <row r="85" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B85" s="107"/>
-      <c r="C85" s="107"/>
-      <c r="D85" s="107"/>
-      <c r="E85" s="107"/>
-      <c r="F85" s="107"/>
-      <c r="G85" s="107"/>
-      <c r="H85" s="107"/>
-      <c r="I85" s="107"/>
-      <c r="J85" s="107"/>
-      <c r="K85" s="107"/>
+      <c r="B85" s="114"/>
+      <c r="C85" s="114"/>
+      <c r="D85" s="114"/>
+      <c r="E85" s="114"/>
+      <c r="F85" s="114"/>
+      <c r="G85" s="114"/>
+      <c r="H85" s="114"/>
+      <c r="I85" s="114"/>
+      <c r="J85" s="114"/>
+      <c r="K85" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B73:K85"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -10153,12 +10496,13 @@
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B73:K85"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10166,38 +10510,38 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:K70"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -10218,10 +10562,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="122"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="16" t="s">
         <v>368</v>
       </c>
@@ -10237,15 +10581,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="121"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -10272,10 +10616,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -10298,8 +10642,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="124"/>
-      <c r="K6" s="115"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -10318,10 +10662,10 @@
         <v>191</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="115"/>
-    </row>
-    <row r="8" spans="2:11" ht="15">
+      <c r="J7" s="131"/>
+      <c r="K7" s="121"/>
+    </row>
+    <row r="8" spans="2:11" ht="16">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -10338,8 +10682,8 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="115"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -10360,8 +10704,8 @@
         <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="115"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="121"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
@@ -10382,8 +10726,8 @@
         <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="115"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="121"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="13">
@@ -10402,10 +10746,10 @@
         <v>189</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="115"/>
-    </row>
-    <row r="12" spans="2:11" ht="13.8">
+      <c r="J11" s="131"/>
+      <c r="K11" s="121"/>
+    </row>
+    <row r="12" spans="2:11" ht="14">
       <c r="B12" s="13">
         <v>5</v>
       </c>
@@ -10422,10 +10766,10 @@
         <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="115"/>
-    </row>
-    <row r="13" spans="2:11" ht="13.8">
+      <c r="J12" s="131"/>
+      <c r="K12" s="121"/>
+    </row>
+    <row r="13" spans="2:11" ht="14">
       <c r="B13" s="13">
         <v>5</v>
       </c>
@@ -10442,8 +10786,8 @@
         <v>189</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="115"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="121"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
@@ -10462,8 +10806,8 @@
         <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="115"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="121"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
@@ -10482,8 +10826,8 @@
         <v>345</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="115"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="121"/>
     </row>
     <row r="16" spans="2:11" s="61" customFormat="1" ht="15">
       <c r="B16" s="13">
@@ -10504,8 +10848,8 @@
         <v>345</v>
       </c>
       <c r="I16" s="63"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="96"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="105"/>
     </row>
     <row r="17" spans="1:11" s="61" customFormat="1" ht="15">
       <c r="B17" s="13">
@@ -10549,8 +10893,8 @@
         <v>345</v>
       </c>
       <c r="I18" s="63"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="96"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="105"/>
     </row>
     <row r="19" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="76"/>
@@ -10572,8 +10916,8 @@
         <v>345</v>
       </c>
       <c r="I19" s="63"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="96"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="105"/>
     </row>
     <row r="20" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="76"/>
@@ -10598,7 +10942,7 @@
       <c r="J20" s="70"/>
       <c r="K20" s="62"/>
     </row>
-    <row r="21" spans="1:11" s="61" customFormat="1" ht="24">
+    <row r="21" spans="1:11" s="61" customFormat="1" ht="24.5">
       <c r="A21" s="76"/>
       <c r="B21" s="13">
         <v>13</v>
@@ -10620,8 +10964,8 @@
       <c r="I21" s="91" t="s">
         <v>362</v>
       </c>
-      <c r="J21" s="99"/>
-      <c r="K21" s="96"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="105"/>
     </row>
     <row r="22" spans="1:11" ht="15">
       <c r="B22" s="13">
@@ -10640,8 +10984,8 @@
         <v>189</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="115"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="121"/>
     </row>
     <row r="23" spans="1:11" ht="16.5">
       <c r="B23" s="13">
@@ -10660,8 +11004,8 @@
         <v>189</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="115"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="121"/>
     </row>
     <row r="24" spans="1:11" ht="15">
       <c r="B24" s="13">
@@ -10680,8 +11024,8 @@
         <v>189</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="115"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="121"/>
     </row>
     <row r="25" spans="1:11" ht="16.5">
       <c r="B25" s="13">
@@ -10700,8 +11044,8 @@
         <v>189</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="115"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="121"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="B26" s="13">
@@ -10722,8 +11066,8 @@
         <v>324</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="115"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="121"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="B27" s="13">
@@ -10742,8 +11086,8 @@
         <v>189</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="115"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="121"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="B28" s="13">
@@ -10762,8 +11106,8 @@
         <v>189</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="115"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="121"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="B29" s="13">
@@ -10883,8 +11227,8 @@
         <v>192</v>
       </c>
       <c r="I34" s="63"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="96"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="105"/>
     </row>
     <row r="35" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="76"/>
@@ -10904,8 +11248,8 @@
         <v>189</v>
       </c>
       <c r="I35" s="63"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="96"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="105"/>
     </row>
     <row r="36" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="76"/>
@@ -10946,8 +11290,8 @@
         <v>192</v>
       </c>
       <c r="I37" s="63"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="96"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="105"/>
     </row>
     <row r="38" spans="1:11" s="61" customFormat="1" ht="15.75" customHeight="1">
       <c r="A38" s="76"/>
@@ -10967,8 +11311,8 @@
         <v>189</v>
       </c>
       <c r="I38" s="63"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="96"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="105"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="B39" s="13">
@@ -10981,8 +11325,8 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="13"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="115"/>
+      <c r="J39" s="131"/>
+      <c r="K39" s="121"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="B40" s="13">
@@ -10995,8 +11339,8 @@
       <c r="G40" s="14"/>
       <c r="H40" s="20"/>
       <c r="I40" s="13"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="115"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="121"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="B41" s="13">
@@ -11009,8 +11353,8 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="13"/>
-      <c r="J41" s="120"/>
-      <c r="K41" s="115"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="121"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
       <c r="B42" s="13">
@@ -11023,8 +11367,8 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="115"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="121"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="B43" s="26"/>
@@ -11155,186 +11499,163 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B58" s="121"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="107"/>
-      <c r="G58" s="107"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="107"/>
-      <c r="J58" s="107"/>
-      <c r="K58" s="107"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="114"/>
+      <c r="K58" s="114"/>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B59" s="107"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="107"/>
-      <c r="G59" s="107"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="107"/>
-      <c r="J59" s="107"/>
-      <c r="K59" s="107"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="114"/>
+      <c r="K59" s="114"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B60" s="107"/>
-      <c r="C60" s="107"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="107"/>
-      <c r="F60" s="107"/>
-      <c r="G60" s="107"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="107"/>
-      <c r="J60" s="107"/>
-      <c r="K60" s="107"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="114"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="114"/>
+      <c r="H60" s="114"/>
+      <c r="I60" s="114"/>
+      <c r="J60" s="114"/>
+      <c r="K60" s="114"/>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B61" s="107"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="107"/>
-      <c r="K61" s="107"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="114"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="114"/>
+      <c r="I61" s="114"/>
+      <c r="J61" s="114"/>
+      <c r="K61" s="114"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B62" s="107"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="107"/>
-      <c r="G62" s="107"/>
-      <c r="H62" s="107"/>
-      <c r="I62" s="107"/>
-      <c r="J62" s="107"/>
-      <c r="K62" s="107"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="114"/>
+      <c r="H62" s="114"/>
+      <c r="I62" s="114"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="114"/>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B63" s="107"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="107"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="107"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="114"/>
+      <c r="H63" s="114"/>
+      <c r="I63" s="114"/>
+      <c r="J63" s="114"/>
+      <c r="K63" s="114"/>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B64" s="107"/>
-      <c r="C64" s="107"/>
-      <c r="D64" s="107"/>
-      <c r="E64" s="107"/>
-      <c r="F64" s="107"/>
-      <c r="G64" s="107"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="107"/>
-      <c r="J64" s="107"/>
-      <c r="K64" s="107"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="114"/>
+      <c r="F64" s="114"/>
+      <c r="G64" s="114"/>
+      <c r="H64" s="114"/>
+      <c r="I64" s="114"/>
+      <c r="J64" s="114"/>
+      <c r="K64" s="114"/>
     </row>
     <row r="65" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B65" s="107"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="107"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="107"/>
-      <c r="J65" s="107"/>
-      <c r="K65" s="107"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="114"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="114"/>
+      <c r="I65" s="114"/>
+      <c r="J65" s="114"/>
+      <c r="K65" s="114"/>
     </row>
     <row r="66" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B66" s="107"/>
-      <c r="C66" s="107"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="107"/>
-      <c r="F66" s="107"/>
-      <c r="G66" s="107"/>
-      <c r="H66" s="107"/>
-      <c r="I66" s="107"/>
-      <c r="J66" s="107"/>
-      <c r="K66" s="107"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="114"/>
+      <c r="J66" s="114"/>
+      <c r="K66" s="114"/>
     </row>
     <row r="67" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B67" s="107"/>
-      <c r="C67" s="107"/>
-      <c r="D67" s="107"/>
-      <c r="E67" s="107"/>
-      <c r="F67" s="107"/>
-      <c r="G67" s="107"/>
-      <c r="H67" s="107"/>
-      <c r="I67" s="107"/>
-      <c r="J67" s="107"/>
-      <c r="K67" s="107"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="114"/>
+      <c r="J67" s="114"/>
+      <c r="K67" s="114"/>
     </row>
     <row r="68" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B68" s="107"/>
-      <c r="C68" s="107"/>
-      <c r="D68" s="107"/>
-      <c r="E68" s="107"/>
-      <c r="F68" s="107"/>
-      <c r="G68" s="107"/>
-      <c r="H68" s="107"/>
-      <c r="I68" s="107"/>
-      <c r="J68" s="107"/>
-      <c r="K68" s="107"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="114"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="114"/>
+      <c r="I68" s="114"/>
+      <c r="J68" s="114"/>
+      <c r="K68" s="114"/>
     </row>
     <row r="69" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B69" s="107"/>
-      <c r="C69" s="107"/>
-      <c r="D69" s="107"/>
-      <c r="E69" s="107"/>
-      <c r="F69" s="107"/>
-      <c r="G69" s="107"/>
-      <c r="H69" s="107"/>
-      <c r="I69" s="107"/>
-      <c r="J69" s="107"/>
-      <c r="K69" s="107"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
     </row>
     <row r="70" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B70" s="107"/>
-      <c r="C70" s="107"/>
-      <c r="D70" s="107"/>
-      <c r="E70" s="107"/>
-      <c r="F70" s="107"/>
-      <c r="G70" s="107"/>
-      <c r="H70" s="107"/>
-      <c r="I70" s="107"/>
-      <c r="J70" s="107"/>
-      <c r="K70" s="107"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="114"/>
+      <c r="H70" s="114"/>
+      <c r="I70" s="114"/>
+      <c r="J70" s="114"/>
+      <c r="K70" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J34:K34"/>
@@ -11346,6 +11667,735 @@
     <mergeCell ref="J40:K40"/>
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+  </mergeCells>
+  <phoneticPr fontId="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A2:K40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" style="98" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" style="98" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" style="98" customWidth="1"/>
+    <col min="5" max="5" width="31.453125" style="98" customWidth="1"/>
+    <col min="6" max="6" width="32.453125" style="98" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="98" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" style="98" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" style="98" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="98" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" style="98" customWidth="1"/>
+    <col min="12" max="16384" width="12.6328125" style="98"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B2" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="G3" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="69"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B4" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="106"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="105"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B5" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="105"/>
+    </row>
+    <row r="6" spans="1:11" s="134" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B6" s="135">
+        <v>1</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="137" t="s">
+        <v>390</v>
+      </c>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" s="136" t="s">
+        <v>391</v>
+      </c>
+      <c r="J6" s="138"/>
+      <c r="K6" s="139"/>
+    </row>
+    <row r="7" spans="1:11" s="99" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B7" s="135">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="94" t="s">
+        <v>392</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="100"/>
+    </row>
+    <row r="8" spans="1:11" s="99" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B8" s="135">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="100"/>
+    </row>
+    <row r="9" spans="1:11" s="99" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B9" s="135">
+        <v>4</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="100"/>
+    </row>
+    <row r="10" spans="1:11" s="99" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B10" s="135">
+        <v>5</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="121"/>
+    </row>
+    <row r="11" spans="1:11" s="99" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B11" s="135">
+        <v>6</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="121"/>
+    </row>
+    <row r="12" spans="1:11" s="99" customFormat="1" ht="15">
+      <c r="B12" s="135">
+        <v>7</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="121"/>
+    </row>
+    <row r="13" spans="1:11" s="99" customFormat="1" ht="15">
+      <c r="B13" s="135">
+        <v>8</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="121"/>
+    </row>
+    <row r="14" spans="1:11" ht="15">
+      <c r="B14" s="135">
+        <v>9</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="I14" s="63"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="105"/>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="B15" s="135">
+        <v>10</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="I15" s="63"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" s="76"/>
+      <c r="B16" s="135">
+        <v>11</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>424</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="I16" s="63"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="105"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A17" s="76"/>
+      <c r="B17" s="135">
+        <v>12</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>345</v>
+      </c>
+      <c r="I17" s="63"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="105"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A18" s="76"/>
+      <c r="B18" s="135">
+        <v>13</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="H18" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="I18" s="63"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="96"/>
+    </row>
+    <row r="19" spans="1:11" ht="30">
+      <c r="A19" s="76"/>
+      <c r="B19" s="135">
+        <v>14</v>
+      </c>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="145" t="s">
+        <v>427</v>
+      </c>
+      <c r="F19" s="145" t="s">
+        <v>413</v>
+      </c>
+      <c r="G19" s="146" t="s">
+        <v>425</v>
+      </c>
+      <c r="H19" s="143" t="s">
+        <v>361</v>
+      </c>
+      <c r="I19" s="144"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="105"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A20" s="76"/>
+      <c r="B20" s="135">
+        <v>15</v>
+      </c>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="I20" s="63"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="105"/>
+    </row>
+    <row r="21" spans="1:11" s="134" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B21" s="135">
+        <v>16</v>
+      </c>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="I21" s="135"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="141"/>
+    </row>
+    <row r="22" spans="1:11" s="134" customFormat="1" ht="15">
+      <c r="B22" s="135">
+        <v>17</v>
+      </c>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="I22" s="135"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="141"/>
+    </row>
+    <row r="23" spans="1:11" s="134" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B23" s="135">
+        <v>18</v>
+      </c>
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="I23" s="135"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="141"/>
+    </row>
+    <row r="24" spans="1:11" s="134" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B24" s="135">
+        <v>19</v>
+      </c>
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="I24" s="135"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="141"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B27" s="84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+    </row>
+    <row r="37" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="103"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="103"/>
+    </row>
+    <row r="39" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
+    </row>
+    <row r="40" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="B28:K40"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11354,7 +12404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -11364,9 +12414,9 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
@@ -11411,34 +12461,34 @@
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="4"/>
-      <c r="D10" s="103" t="s">
+      <c r="D10" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="105"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="112"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1">
       <c r="B11" s="4"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="108"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="115"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="4"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="111"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="118"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1">
@@ -11539,7 +12589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -11549,11 +12599,11 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1"/>
@@ -11567,12 +12617,12 @@
       <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="115"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="121"/>
     </row>
     <row r="4" spans="2:16" ht="33.75" customHeight="1">
       <c r="B4" s="12">
@@ -11584,12 +12634,12 @@
       <c r="D4" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="122" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="115"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="121"/>
     </row>
     <row r="5" spans="2:16" ht="33.75" customHeight="1">
       <c r="B5" s="12">
@@ -11601,12 +12651,12 @@
       <c r="D5" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="E5" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="115"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="121"/>
     </row>
     <row r="6" spans="2:16" ht="33.75" customHeight="1">
       <c r="B6" s="12">
@@ -11618,20 +12668,20 @@
       <c r="D6" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="E6" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="115"/>
-      <c r="K6" s="112" t="s">
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="121"/>
+      <c r="K6" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="105"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="112"/>
     </row>
     <row r="7" spans="2:16" ht="33.75" customHeight="1">
       <c r="B7" s="12">
@@ -11643,18 +12693,18 @@
       <c r="D7" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="126" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="115"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="108"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="121"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="115"/>
     </row>
     <row r="8" spans="2:16" ht="33.75" customHeight="1">
       <c r="B8" s="12">
@@ -11666,18 +12716,18 @@
       <c r="D8" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="116" t="s">
+      <c r="E8" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="115"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="108"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="121"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="115"/>
     </row>
     <row r="9" spans="2:16" ht="33.75" customHeight="1">
       <c r="B9" s="12">
@@ -11689,18 +12739,18 @@
       <c r="D9" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="115"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="108"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="121"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="115"/>
     </row>
     <row r="10" spans="2:16" ht="33.75" customHeight="1">
       <c r="B10" s="12">
@@ -11712,18 +12762,18 @@
       <c r="D10" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="116" t="s">
+      <c r="E10" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="115"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="108"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="115"/>
     </row>
     <row r="11" spans="2:16" ht="33.75" customHeight="1">
       <c r="B11" s="12">
@@ -11735,18 +12785,18 @@
       <c r="D11" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="123" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="115"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="108"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="115"/>
     </row>
     <row r="12" spans="2:16" ht="33.75" customHeight="1">
       <c r="B12" s="12">
@@ -11758,18 +12808,18 @@
       <c r="D12" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="117" t="s">
+      <c r="E12" s="124" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="115"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="108"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="115"/>
     </row>
     <row r="13" spans="2:16" ht="33.75" customHeight="1">
       <c r="B13" s="12">
@@ -11781,18 +12831,18 @@
       <c r="D13" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="116" t="s">
+      <c r="E13" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="115"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="111"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="118"/>
     </row>
     <row r="14" spans="2:16" ht="33.75" customHeight="1">
       <c r="B14" s="12">
@@ -11804,12 +12854,12 @@
       <c r="D14" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="116" t="s">
+      <c r="E14" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="115"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
     </row>
     <row r="15" spans="2:16" ht="33.75" customHeight="1">
       <c r="B15" s="12">
@@ -11821,21 +12871,26 @@
       <c r="D15" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="117" t="s">
+      <c r="E15" s="124" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="115"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
     </row>
     <row r="16" spans="2:16" ht="33.75" customHeight="1">
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K6:P13"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
@@ -11846,37 +12901,32 @@
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E14:H14"/>
-    <mergeCell ref="K6:P13"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E15:H15"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <hyperlinks>
-    <hyperlink ref="C7" location="担当者情報!A1" display="PERSON_CHARGE_INFO" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C8" location="単価情報!A1" display="UNIT_PRICE_INFO" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C9" location="案件マスタ情報!A1" display="MATTER_MASTER_INFO" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C10" location="見積情報!A1" display="ESTIMATION_INFO" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C11" location="見積請求作成情報!A1" display="見積請求作成情報" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C12" location="PDF作成情報!A1" display="PDF作成情報" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="C13" location="見積請求作成情報!A1" display="QUOTATION_CLAIM_SETTING_INFO" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C14" location="請求減算ルール情報!A1" display="CLAIM_SUBTRACTION_RULE" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C15" location="請求情報!A1" display="請求情報" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="D10" location="見積情報!A1" display="見積情報" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="D11" location="見積請求作成情報!A1" display="見積請求作成情報" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="D13" location="見積請求設定情報!A1" display="見積請求設定情報" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="D14" location="請求減算ルール!A1" display="請求減算ルール" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="C4" location="基本設定情報!A1" display="BASIC_SETTING_INFO" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="C5" location="取引先情報!A1" display="BUSINESS_PARTNER_INFO" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="C6" location="取引先店舗情報!A1" display="BUSINESS_PARTNER_STORE" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="C7" location="担当者情報!A1" display="PERSON_CHARGE_INFO"/>
+    <hyperlink ref="C8" location="単価情報!A1" display="UNIT_PRICE_INFO"/>
+    <hyperlink ref="C9" location="案件マスタ情報!A1" display="MATTER_MASTER_INFO"/>
+    <hyperlink ref="C10" location="見積情報!A1" display="ESTIMATION_INFO"/>
+    <hyperlink ref="C11" location="見積請求作成情報!A1" display="見積請求作成情報"/>
+    <hyperlink ref="C12" location="PDF作成情報!A1" display="PDF作成情報"/>
+    <hyperlink ref="C13" location="見積請求作成情報!A1" display="QUOTATION_CLAIM_SETTING_INFO"/>
+    <hyperlink ref="C14" location="請求減算ルール情報!A1" display="CLAIM_SUBTRACTION_RULE"/>
+    <hyperlink ref="C15" location="請求情報!A1" display="請求情報"/>
+    <hyperlink ref="D10" location="見積情報!A1" display="見積情報"/>
+    <hyperlink ref="D11" location="見積請求作成情報!A1" display="見積請求作成情報"/>
+    <hyperlink ref="D13" location="見積請求設定情報!A1" display="見積請求設定情報"/>
+    <hyperlink ref="D14" location="請求減算ルール!A1" display="請求減算ルール"/>
+    <hyperlink ref="C4" location="基本設定情報!A1" display="BASIC_SETTING_INFO"/>
+    <hyperlink ref="C5" location="取引先情報!A1" display="BUSINESS_PARTNER_INFO"/>
+    <hyperlink ref="C6" location="取引先店舗情報!A1" display="BUSINESS_PARTNER_STORE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11887,24 +12937,24 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -11925,10 +12975,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="122"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="16" t="s">
         <v>278</v>
       </c>
@@ -11944,15 +12994,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="121"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -11979,10 +13029,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -12005,8 +13055,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="124"/>
-      <c r="K6" s="115"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -12025,8 +13075,8 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="115"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="121"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
@@ -12045,8 +13095,8 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="115"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -12068,7 +13118,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="2:11" ht="15.3">
+    <row r="10" spans="2:11" ht="16.5">
       <c r="B10" s="13">
         <v>5</v>
       </c>
@@ -12085,8 +13135,8 @@
         <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="115"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="121"/>
     </row>
     <row r="11" spans="2:11" ht="15">
       <c r="B11" s="13">
@@ -12205,8 +13255,8 @@
         <v>190</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="115"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="121"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
@@ -12225,8 +13275,8 @@
         <v>190</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="115"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="121"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="22"/>
@@ -12246,8 +13296,8 @@
         <v>192</v>
       </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="115"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="121"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="A19" s="22"/>
@@ -12267,8 +13317,8 @@
         <v>189</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="115"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="121"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="A20" s="22"/>
@@ -12288,8 +13338,8 @@
         <v>192</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="115"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="121"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="22"/>
@@ -12309,8 +13359,8 @@
         <v>189</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="115"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="121"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="22"/>
@@ -12345,160 +13395,160 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B29" s="121"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="114"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -12524,7 +13574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12535,24 +13585,24 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -12573,10 +13623,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B3" s="122"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="17" t="s">
         <v>280</v>
       </c>
@@ -12592,15 +13642,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="121"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -12627,10 +13677,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -12653,8 +13703,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="124"/>
-      <c r="K6" s="115"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -12675,8 +13725,8 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="115"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="121"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
@@ -12697,8 +13747,8 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="115"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -12717,8 +13767,8 @@
         <v>192</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="115"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="121"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
@@ -12737,8 +13787,8 @@
         <v>189</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="115"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="121"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="22"/>
@@ -12758,8 +13808,8 @@
         <v>192</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="115"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="121"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
@@ -12778,8 +13828,8 @@
         <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="115"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="121"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="26"/>
@@ -12799,163 +13849,168 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B18" s="121"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="114"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:K30"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="B2:E2"/>
@@ -12963,11 +14018,6 @@
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B18:K30"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12975,7 +14025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12983,28 +14033,28 @@
   <dimension ref="A2:K51"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="E8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -13025,10 +14075,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="122"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="17" t="s">
         <v>282</v>
       </c>
@@ -13044,15 +14094,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="121"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -13079,10 +14129,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -13103,8 +14153,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="124"/>
-      <c r="K6" s="115"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -13127,8 +14177,8 @@
         <v>200</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="115"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="121"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1">
       <c r="B8" s="13">
@@ -13267,10 +14317,10 @@
         <v>192</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="115"/>
-    </row>
-    <row r="15" spans="2:11" ht="13.8">
+      <c r="J14" s="131"/>
+      <c r="K14" s="121"/>
+    </row>
+    <row r="15" spans="2:11" ht="14">
       <c r="B15" s="13">
         <v>10</v>
       </c>
@@ -13287,8 +14337,8 @@
         <v>189</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="115"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="121"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
@@ -13307,8 +14357,8 @@
         <v>192</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="115"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="121"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
@@ -13327,8 +14377,8 @@
         <v>189</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="115"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="121"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
       <c r="B18" s="26"/>
@@ -13531,174 +14581,174 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B39" s="121"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="114"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="107"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B45" s="107"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="107"/>
-      <c r="K46" s="107"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B47" s="107"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B48" s="107"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="107"/>
-      <c r="K48" s="107"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="114"/>
+      <c r="K48" s="114"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="107"/>
-      <c r="K49" s="107"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="114"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="107"/>
-      <c r="G50" s="107"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="107"/>
-      <c r="J50" s="107"/>
-      <c r="K50" s="107"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="114"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B51" s="107"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="107"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="107"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="107"/>
-      <c r="J51" s="107"/>
-      <c r="K51" s="107"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B39:K51"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B39:K51"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13707,7 +14757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13718,25 +14768,25 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="5" max="5" width="31.27734375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="5" max="5" width="31.26953125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -13757,10 +14807,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="122"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="16" t="s">
         <v>283</v>
       </c>
@@ -13776,15 +14826,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="121"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -13811,10 +14861,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -13835,8 +14885,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="124"/>
-      <c r="K6" s="115"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -13855,8 +14905,8 @@
         <v>189</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="115"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="121"/>
     </row>
     <row r="8" spans="2:11" ht="15">
       <c r="B8" s="13">
@@ -13875,8 +14925,8 @@
         <v>189</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="115"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1">
       <c r="B9" s="13">
@@ -13895,8 +14945,8 @@
         <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="115"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="121"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
@@ -13919,8 +14969,8 @@
         <v>200</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="115"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="121"/>
     </row>
     <row r="11" spans="2:11" s="57" customFormat="1" ht="49.5" customHeight="1">
       <c r="B11" s="12">
@@ -13941,8 +14991,8 @@
         <v>200</v>
       </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="126"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="133"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1">
       <c r="B12" s="13">
@@ -13983,10 +15033,10 @@
         <v>192</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="115"/>
-    </row>
-    <row r="14" spans="2:11" ht="13.8">
+      <c r="J13" s="131"/>
+      <c r="K13" s="121"/>
+    </row>
+    <row r="14" spans="2:11" ht="14">
       <c r="B14" s="13">
         <v>10</v>
       </c>
@@ -14003,8 +15053,8 @@
         <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="115"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="121"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
@@ -14023,8 +15073,8 @@
         <v>192</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="115"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="121"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1">
       <c r="B16" s="13">
@@ -14043,8 +15093,8 @@
         <v>189</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="115"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="121"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="B17" s="13">
@@ -14057,8 +15107,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="115"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="121"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="B18" s="13">
@@ -14071,10 +15121,10 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="115"/>
-    </row>
-    <row r="19" spans="1:11" ht="13.8">
+      <c r="J18" s="131"/>
+      <c r="K18" s="121"/>
+    </row>
+    <row r="19" spans="1:11" ht="14">
       <c r="B19" s="13">
         <v>14</v>
       </c>
@@ -14085,8 +15135,8 @@
       <c r="G19" s="14"/>
       <c r="H19" s="20"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="115"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="121"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="B20" s="13">
@@ -14099,8 +15149,8 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="115"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="121"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="B21" s="13">
@@ -14113,8 +15163,8 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="115"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="121"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="B22" s="26"/>
@@ -14161,163 +15211,169 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B30" s="121"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="114"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -14332,12 +15388,6 @@
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14346,7 +15396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14357,24 +15407,24 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -14395,10 +15445,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="122"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="16" t="s">
         <v>284</v>
       </c>
@@ -14414,15 +15464,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="121"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -14449,10 +15499,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -14502,7 +15552,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="35"/>
     </row>
-    <row r="8" spans="2:11" ht="13.8">
+    <row r="8" spans="2:11" ht="14">
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -14542,7 +15592,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="2:11" s="57" customFormat="1" ht="47.05" customHeight="1">
+    <row r="10" spans="2:11" s="57" customFormat="1" ht="47" customHeight="1">
       <c r="B10" s="12">
         <v>5</v>
       </c>
@@ -14581,10 +15631,10 @@
         <v>192</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="115"/>
-    </row>
-    <row r="12" spans="2:11" ht="13.8">
+      <c r="J11" s="131"/>
+      <c r="K11" s="121"/>
+    </row>
+    <row r="12" spans="2:11" ht="14">
       <c r="B12" s="13">
         <v>7</v>
       </c>
@@ -14601,8 +15651,8 @@
         <v>189</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="115"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="121"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1">
       <c r="B13" s="13">
@@ -14621,8 +15671,8 @@
         <v>192</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="115"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="121"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1">
       <c r="B14" s="13">
@@ -14641,8 +15691,8 @@
         <v>189</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="115"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="121"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1">
       <c r="B15" s="13">
@@ -14672,7 +15722,7 @@
       <c r="J16" s="38"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="13.8">
+    <row r="17" spans="1:11" ht="14">
       <c r="B17" s="13">
         <v>12</v>
       </c>
@@ -14742,7 +15792,7 @@
       <c r="J21" s="38"/>
       <c r="K21" s="35"/>
     </row>
-    <row r="22" spans="1:11" ht="13.8">
+    <row r="22" spans="1:11" ht="14">
       <c r="B22" s="13">
         <v>17</v>
       </c>
@@ -14805,160 +15855,160 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B31" s="121"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="114"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -14978,7 +16028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14989,25 +16039,25 @@
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.609375" customWidth="1"/>
-    <col min="2" max="3" width="8.38671875" customWidth="1"/>
-    <col min="4" max="4" width="8.609375" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="25.38671875" customWidth="1"/>
-    <col min="9" max="9" width="8.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
@@ -15028,10 +16078,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B3" s="122"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="16" t="s">
         <v>285</v>
       </c>
@@ -15047,15 +16097,15 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="121"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
@@ -15082,10 +16132,10 @@
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1">
       <c r="B6" s="13">
@@ -15108,8 +16158,8 @@
       <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="124"/>
-      <c r="K6" s="115"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1">
       <c r="B7" s="13">
@@ -15174,8 +16224,8 @@
         <v>189</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="115"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="121"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1">
       <c r="B10" s="13">
@@ -15434,8 +16484,8 @@
         <v>189</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="115"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="121"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="13">
@@ -15456,8 +16506,8 @@
         <v>189</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="115"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="121"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="13">
@@ -15478,8 +16528,8 @@
         <v>189</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="115"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="121"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="13">
@@ -15500,8 +16550,8 @@
         <v>189</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="115"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="121"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="13">
@@ -15522,8 +16572,8 @@
         <v>200</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="115"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="121"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="13">
@@ -15544,8 +16594,8 @@
         <v>189</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="115"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="121"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="13">
@@ -15566,8 +16616,8 @@
         <v>191</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="115"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="121"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="13">
@@ -15588,8 +16638,8 @@
         <v>191</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="115"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="121"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="13">
@@ -15610,8 +16660,8 @@
         <v>191</v>
       </c>
       <c r="I29" s="13"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="115"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="121"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="13">
@@ -15632,8 +16682,8 @@
         <v>191</v>
       </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="115"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="121"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="13">
@@ -15654,8 +16704,8 @@
         <v>191</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="115"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="121"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="13">
@@ -15676,8 +16726,8 @@
         <v>189</v>
       </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="115"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="121"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="13">
@@ -15698,8 +16748,8 @@
         <v>189</v>
       </c>
       <c r="I33" s="13"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="115"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="121"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="13">
@@ -15720,8 +16770,8 @@
         <v>189</v>
       </c>
       <c r="I34" s="13"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="115"/>
+      <c r="J34" s="131"/>
+      <c r="K34" s="121"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="13">
@@ -15940,8 +16990,8 @@
         <v>192</v>
       </c>
       <c r="I45" s="13"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="115"/>
+      <c r="J45" s="131"/>
+      <c r="K45" s="121"/>
     </row>
     <row r="46" spans="2:11" ht="15">
       <c r="B46" s="13">
@@ -15960,8 +17010,8 @@
         <v>189</v>
       </c>
       <c r="I46" s="13"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="115"/>
+      <c r="J46" s="131"/>
+      <c r="K46" s="121"/>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1">
       <c r="B47" s="13">
@@ -15980,8 +17030,8 @@
         <v>192</v>
       </c>
       <c r="I47" s="13"/>
-      <c r="J47" s="120"/>
-      <c r="K47" s="115"/>
+      <c r="J47" s="127"/>
+      <c r="K47" s="121"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="13">
@@ -16000,8 +17050,8 @@
         <v>189</v>
       </c>
       <c r="I48" s="13"/>
-      <c r="J48" s="120"/>
-      <c r="K48" s="115"/>
+      <c r="J48" s="127"/>
+      <c r="K48" s="121"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1">
       <c r="B49" s="26"/>
@@ -16072,172 +17122,163 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B59" s="121"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="107"/>
-      <c r="G59" s="107"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="107"/>
-      <c r="J59" s="107"/>
-      <c r="K59" s="107"/>
+      <c r="B59" s="128"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="114"/>
+      <c r="K59" s="114"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B60" s="107"/>
-      <c r="C60" s="107"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="107"/>
-      <c r="F60" s="107"/>
-      <c r="G60" s="107"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="107"/>
-      <c r="J60" s="107"/>
-      <c r="K60" s="107"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="114"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="114"/>
+      <c r="H60" s="114"/>
+      <c r="I60" s="114"/>
+      <c r="J60" s="114"/>
+      <c r="K60" s="114"/>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B61" s="107"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="107"/>
-      <c r="K61" s="107"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="114"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="114"/>
+      <c r="I61" s="114"/>
+      <c r="J61" s="114"/>
+      <c r="K61" s="114"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B62" s="107"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="107"/>
-      <c r="G62" s="107"/>
-      <c r="H62" s="107"/>
-      <c r="I62" s="107"/>
-      <c r="J62" s="107"/>
-      <c r="K62" s="107"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="114"/>
+      <c r="H62" s="114"/>
+      <c r="I62" s="114"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="114"/>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B63" s="107"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="107"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="107"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="114"/>
+      <c r="H63" s="114"/>
+      <c r="I63" s="114"/>
+      <c r="J63" s="114"/>
+      <c r="K63" s="114"/>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B64" s="107"/>
-      <c r="C64" s="107"/>
-      <c r="D64" s="107"/>
-      <c r="E64" s="107"/>
-      <c r="F64" s="107"/>
-      <c r="G64" s="107"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="107"/>
-      <c r="J64" s="107"/>
-      <c r="K64" s="107"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="114"/>
+      <c r="F64" s="114"/>
+      <c r="G64" s="114"/>
+      <c r="H64" s="114"/>
+      <c r="I64" s="114"/>
+      <c r="J64" s="114"/>
+      <c r="K64" s="114"/>
     </row>
     <row r="65" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B65" s="107"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="107"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="107"/>
-      <c r="J65" s="107"/>
-      <c r="K65" s="107"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="114"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="114"/>
+      <c r="I65" s="114"/>
+      <c r="J65" s="114"/>
+      <c r="K65" s="114"/>
     </row>
     <row r="66" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B66" s="107"/>
-      <c r="C66" s="107"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="107"/>
-      <c r="F66" s="107"/>
-      <c r="G66" s="107"/>
-      <c r="H66" s="107"/>
-      <c r="I66" s="107"/>
-      <c r="J66" s="107"/>
-      <c r="K66" s="107"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="114"/>
+      <c r="J66" s="114"/>
+      <c r="K66" s="114"/>
     </row>
     <row r="67" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B67" s="107"/>
-      <c r="C67" s="107"/>
-      <c r="D67" s="107"/>
-      <c r="E67" s="107"/>
-      <c r="F67" s="107"/>
-      <c r="G67" s="107"/>
-      <c r="H67" s="107"/>
-      <c r="I67" s="107"/>
-      <c r="J67" s="107"/>
-      <c r="K67" s="107"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="114"/>
+      <c r="J67" s="114"/>
+      <c r="K67" s="114"/>
     </row>
     <row r="68" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B68" s="107"/>
-      <c r="C68" s="107"/>
-      <c r="D68" s="107"/>
-      <c r="E68" s="107"/>
-      <c r="F68" s="107"/>
-      <c r="G68" s="107"/>
-      <c r="H68" s="107"/>
-      <c r="I68" s="107"/>
-      <c r="J68" s="107"/>
-      <c r="K68" s="107"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="114"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="114"/>
+      <c r="I68" s="114"/>
+      <c r="J68" s="114"/>
+      <c r="K68" s="114"/>
     </row>
     <row r="69" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B69" s="107"/>
-      <c r="C69" s="107"/>
-      <c r="D69" s="107"/>
-      <c r="E69" s="107"/>
-      <c r="F69" s="107"/>
-      <c r="G69" s="107"/>
-      <c r="H69" s="107"/>
-      <c r="I69" s="107"/>
-      <c r="J69" s="107"/>
-      <c r="K69" s="107"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
     </row>
     <row r="70" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B70" s="107"/>
-      <c r="C70" s="107"/>
-      <c r="D70" s="107"/>
-      <c r="E70" s="107"/>
-      <c r="F70" s="107"/>
-      <c r="G70" s="107"/>
-      <c r="H70" s="107"/>
-      <c r="I70" s="107"/>
-      <c r="J70" s="107"/>
-      <c r="K70" s="107"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="114"/>
+      <c r="H70" s="114"/>
+      <c r="I70" s="114"/>
+      <c r="J70" s="114"/>
+      <c r="K70" s="114"/>
     </row>
     <row r="71" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B71" s="107"/>
-      <c r="C71" s="107"/>
-      <c r="D71" s="107"/>
-      <c r="E71" s="107"/>
-      <c r="F71" s="107"/>
-      <c r="G71" s="107"/>
-      <c r="H71" s="107"/>
-      <c r="I71" s="107"/>
-      <c r="J71" s="107"/>
-      <c r="K71" s="107"/>
+      <c r="B71" s="114"/>
+      <c r="C71" s="114"/>
+      <c r="D71" s="114"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="114"/>
+      <c r="G71" s="114"/>
+      <c r="H71" s="114"/>
+      <c r="I71" s="114"/>
+      <c r="J71" s="114"/>
+      <c r="K71" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="B59:K71"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
@@ -16254,6 +17295,15 @@
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="J47:K47"/>
     <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ansteypeファイル/DB設計 テーブル定義書.xlsx
+++ b/ansteypeファイル/DB設計 テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ans_client\ansteypeファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D033A73B-EC6B-4816-99BF-161219825EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764AE8A9-B0C2-433A-9E38-3AB341C48C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="-16320" windowWidth="38640" windowHeight="15720" tabRatio="756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="-16320" windowWidth="38640" windowHeight="15720" tabRatio="756" firstSheet="4" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一時保存記録" sheetId="19" r:id="rId1"/>
@@ -26,18 +26,19 @@
     <sheet name="PDF作成情報" sheetId="16" r:id="rId11"/>
     <sheet name="見積請求設定情報" sheetId="5" r:id="rId12"/>
     <sheet name="請求減算ルール情報" sheetId="17" r:id="rId13"/>
-    <sheet name="請求情報" sheetId="18" r:id="rId14"/>
-    <sheet name="見積・請求金額集計" sheetId="21" r:id="rId15"/>
-    <sheet name="送付情報" sheetId="24" r:id="rId16"/>
-    <sheet name="見積請求作成情報 " sheetId="22" r:id="rId17"/>
-    <sheet name="送信用メール情報" sheetId="23" r:id="rId18"/>
+    <sheet name="見積作成請求情報" sheetId="18" r:id="rId14"/>
+    <sheet name="請求情報一時保存" sheetId="25" r:id="rId15"/>
+    <sheet name="見積・請求金額集計" sheetId="21" r:id="rId16"/>
+    <sheet name="送付情報" sheetId="24" r:id="rId17"/>
+    <sheet name="見積請求作成情報 " sheetId="22" r:id="rId18"/>
+    <sheet name="送信用メール情報" sheetId="23" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="438">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -1098,10 +1099,6 @@
     <rPh sb="1" eb="3">
       <t>カゼイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>実行済み見積情報</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
@@ -2676,9 +2673,6 @@
       </rPr>
       <t>週の合計金額</t>
     </r>
-  </si>
-  <si>
-    <t>ESTIMATION_REQUEST_TYPE</t>
   </si>
   <si>
     <t>見積請求区分</t>
@@ -3350,7 +3344,27 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>EX_FLG</t>
+    <r>
+      <t>billing_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>temporary_save_info</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>請求情報一時保存</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>見積作成請求情報</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -4322,8 +4336,8 @@
   </sheetPr>
   <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -4372,10 +4386,10 @@
       <c r="D3" s="123"/>
       <c r="E3" s="120"/>
       <c r="F3" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="G3" s="67" t="s">
         <v>308</v>
-      </c>
-      <c r="G3" s="67" t="s">
-        <v>309</v>
       </c>
       <c r="H3" s="68"/>
       <c r="I3" s="68"/>
@@ -4442,7 +4456,7 @@
       </c>
       <c r="G6" s="64"/>
       <c r="H6" s="64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I6" s="72" t="s">
         <v>27</v>
@@ -4457,16 +4471,16 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="G7" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>319</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>320</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="38"/>
@@ -4479,14 +4493,14 @@
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="75" t="s">
         <v>302</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>303</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I8" s="63"/>
       <c r="J8" s="119"/>
@@ -4499,35 +4513,37 @@
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="75" t="s">
         <v>304</v>
-      </c>
-      <c r="F9" s="75" t="s">
-        <v>305</v>
       </c>
       <c r="G9" s="75"/>
       <c r="H9" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I9" s="63"/>
       <c r="J9" s="119"/>
       <c r="K9" s="120"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:11" ht="36" customHeight="1">
       <c r="A10" s="76"/>
       <c r="B10" s="63">
         <v>10</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
-      <c r="E10" s="77" t="s">
-        <v>437</v>
-      </c>
-      <c r="F10" s="78" t="s">
-        <v>317</v>
-      </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64" t="s">
-        <v>189</v>
+      <c r="E10" s="88" t="s">
+        <v>421</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="G10" s="90" t="s">
+        <v>354</v>
+      </c>
+      <c r="H10" s="87" t="s">
+        <v>355</v>
       </c>
       <c r="I10" s="63"/>
       <c r="J10" s="70"/>
@@ -4540,14 +4556,14 @@
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
       <c r="E11" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" s="73" t="s">
         <v>310</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>311</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I11" s="63"/>
       <c r="J11" s="74"/>
@@ -4560,14 +4576,14 @@
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
       <c r="E12" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="F12" s="73" t="s">
         <v>312</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>313</v>
       </c>
       <c r="G12" s="64"/>
       <c r="H12" s="64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I12" s="63"/>
       <c r="J12" s="119"/>
@@ -4580,14 +4596,14 @@
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
       <c r="E13" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="F13" s="73" t="s">
         <v>314</v>
-      </c>
-      <c r="F13" s="73" t="s">
-        <v>315</v>
       </c>
       <c r="G13" s="64"/>
       <c r="H13" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I13" s="63"/>
       <c r="J13" s="74"/>
@@ -4601,14 +4617,14 @@
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F14" s="78" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="64"/>
       <c r="H14" s="64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I14" s="63"/>
       <c r="J14" s="121"/>
@@ -4622,14 +4638,14 @@
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F15" s="78" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="64"/>
       <c r="H15" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I15" s="63"/>
       <c r="J15" s="121"/>
@@ -4643,14 +4659,14 @@
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
       <c r="E16" s="77" t="s">
+        <v>315</v>
+      </c>
+      <c r="F16" s="78" t="s">
         <v>316</v>
-      </c>
-      <c r="F16" s="78" t="s">
-        <v>317</v>
       </c>
       <c r="G16" s="64"/>
       <c r="H16" s="64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I16" s="63"/>
       <c r="J16" s="70"/>
@@ -4664,14 +4680,14 @@
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
       <c r="E17" s="77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F17" s="78" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="64"/>
       <c r="H17" s="64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I17" s="63"/>
       <c r="J17" s="121"/>
@@ -4685,14 +4701,14 @@
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
       <c r="E18" s="77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F18" s="78" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="64"/>
       <c r="H18" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I18" s="63"/>
       <c r="J18" s="121"/>
@@ -4962,10 +4978,10 @@
       <c r="D3" s="135"/>
       <c r="E3" s="136"/>
       <c r="F3" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -5032,7 +5048,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
@@ -5047,7 +5063,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>83</v>
@@ -5056,7 +5072,7 @@
         <v>84</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="38"/>
@@ -5069,16 +5085,16 @@
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="G8" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>319</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>320</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="38"/>
@@ -5091,7 +5107,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>62</v>
@@ -5100,7 +5116,7 @@
         <v>85</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="146"/>
@@ -5113,7 +5129,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>63</v>
@@ -5122,7 +5138,7 @@
         <v>86</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="38"/>
@@ -5135,7 +5151,7 @@
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F11" s="42" t="s">
         <v>64</v>
@@ -5144,7 +5160,7 @@
         <v>87</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="38"/>
@@ -5157,7 +5173,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>65</v>
@@ -5166,7 +5182,7 @@
         <v>88</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="38"/>
@@ -5179,7 +5195,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>66</v>
@@ -5188,7 +5204,7 @@
         <v>89</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="38"/>
@@ -5201,7 +5217,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>67</v>
@@ -5210,7 +5226,7 @@
         <v>90</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="38"/>
@@ -5223,7 +5239,7 @@
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>68</v>
@@ -5232,7 +5248,7 @@
         <v>91</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="38"/>
@@ -5245,7 +5261,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>69</v>
@@ -5254,7 +5270,7 @@
         <v>92</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="38"/>
@@ -5267,7 +5283,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>70</v>
@@ -5276,7 +5292,7 @@
         <v>93</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="38"/>
@@ -5289,10 +5305,10 @@
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G18" s="42"/>
       <c r="H18" s="14"/>
@@ -5307,7 +5323,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>71</v>
@@ -5316,7 +5332,7 @@
         <v>94</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="38"/>
@@ -5329,7 +5345,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>60</v>
@@ -5338,7 +5354,7 @@
         <v>95</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="38"/>
@@ -5351,7 +5367,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>72</v>
@@ -5360,7 +5376,7 @@
         <v>96</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="146"/>
@@ -5373,7 +5389,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>73</v>
@@ -5382,7 +5398,7 @@
         <v>97</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="146"/>
@@ -5395,7 +5411,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>74</v>
@@ -5404,7 +5420,7 @@
         <v>97</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="146"/>
@@ -5417,7 +5433,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F24" s="42" t="s">
         <v>23</v>
@@ -5426,7 +5442,7 @@
         <v>98</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="146"/>
@@ -5439,7 +5455,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>75</v>
@@ -5448,7 +5464,7 @@
         <v>99</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="146"/>
@@ -5461,7 +5477,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F26" s="42" t="s">
         <v>76</v>
@@ -5470,7 +5486,7 @@
         <v>100</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="146"/>
@@ -5483,7 +5499,7 @@
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F27" s="42" t="s">
         <v>77</v>
@@ -5492,7 +5508,7 @@
         <v>101</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="146"/>
@@ -5505,16 +5521,16 @@
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G28" s="42" t="s">
         <v>102</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="146"/>
@@ -5527,16 +5543,16 @@
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G29" s="42" t="s">
         <v>103</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="146"/>
@@ -5549,7 +5565,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>78</v>
@@ -5558,7 +5574,7 @@
         <v>104</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="146"/>
@@ -5571,7 +5587,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F31" s="42" t="s">
         <v>79</v>
@@ -5580,7 +5596,7 @@
         <v>105</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="146"/>
@@ -5593,7 +5609,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F32" s="42" t="s">
         <v>80</v>
@@ -5602,7 +5618,7 @@
         <v>106</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="146"/>
@@ -5615,7 +5631,7 @@
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>81</v>
@@ -5624,7 +5640,7 @@
         <v>107</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="146"/>
@@ -5637,7 +5653,7 @@
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F34" s="42" t="s">
         <v>82</v>
@@ -5646,7 +5662,7 @@
         <v>108</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="146"/>
@@ -5659,14 +5675,14 @@
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>109</v>
       </c>
       <c r="G35" s="42"/>
       <c r="H35" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="38"/>
@@ -5679,14 +5695,14 @@
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F36" s="42" t="s">
         <v>110</v>
       </c>
       <c r="G36" s="42"/>
       <c r="H36" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="38"/>
@@ -5699,14 +5715,14 @@
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F37" s="42" t="s">
         <v>111</v>
       </c>
       <c r="G37" s="42"/>
       <c r="H37" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="38"/>
@@ -5719,14 +5735,14 @@
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F38" s="42" t="s">
         <v>112</v>
       </c>
       <c r="G38" s="42"/>
       <c r="H38" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="38"/>
@@ -5739,14 +5755,14 @@
       <c r="C39" s="13"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F39" s="42" t="s">
         <v>113</v>
       </c>
       <c r="G39" s="42"/>
       <c r="H39" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="38"/>
@@ -5759,14 +5775,14 @@
       <c r="C40" s="13"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F40" s="42" t="s">
         <v>114</v>
       </c>
       <c r="G40" s="42"/>
       <c r="H40" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="38"/>
@@ -5779,14 +5795,14 @@
       <c r="C41" s="13"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F41" s="42" t="s">
         <v>115</v>
       </c>
       <c r="G41" s="42"/>
       <c r="H41" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="38"/>
@@ -5799,14 +5815,14 @@
       <c r="C42" s="13"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F42" s="42" t="s">
         <v>116</v>
       </c>
       <c r="G42" s="42"/>
       <c r="H42" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="38"/>
@@ -5819,14 +5835,14 @@
       <c r="C43" s="13"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F43" s="42" t="s">
         <v>117</v>
       </c>
       <c r="G43" s="42"/>
       <c r="H43" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="38"/>
@@ -5839,14 +5855,14 @@
       <c r="C44" s="13"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F44" s="42" t="s">
         <v>118</v>
       </c>
       <c r="G44" s="42"/>
       <c r="H44" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="38"/>
@@ -5859,14 +5875,14 @@
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
       <c r="E45" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G45" s="44"/>
       <c r="H45" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="38"/>
@@ -5879,14 +5895,14 @@
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="F46" s="42" t="s">
         <v>302</v>
-      </c>
-      <c r="F46" s="42" t="s">
-        <v>303</v>
       </c>
       <c r="G46" s="42"/>
       <c r="H46" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="38"/>
@@ -5899,14 +5915,14 @@
       <c r="C47" s="13"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="F47" s="42" t="s">
         <v>304</v>
-      </c>
-      <c r="F47" s="42" t="s">
-        <v>305</v>
       </c>
       <c r="G47" s="42"/>
       <c r="H47" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="38"/>
@@ -5919,14 +5935,14 @@
       <c r="C48" s="13"/>
       <c r="D48" s="14"/>
       <c r="E48" s="93" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G48" s="42"/>
       <c r="H48" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I48" s="13"/>
       <c r="J48" s="38"/>
@@ -5939,14 +5955,14 @@
       <c r="C49" s="13"/>
       <c r="D49" s="14"/>
       <c r="E49" s="93" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G49" s="42"/>
       <c r="H49" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="38"/>
@@ -5959,14 +5975,14 @@
       <c r="C50" s="13"/>
       <c r="D50" s="14"/>
       <c r="E50" s="93" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G50" s="42"/>
       <c r="H50" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I50" s="13"/>
       <c r="J50" s="38"/>
@@ -5979,14 +5995,14 @@
       <c r="C51" s="13"/>
       <c r="D51" s="14"/>
       <c r="E51" s="93" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G51" s="42"/>
       <c r="H51" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I51" s="13"/>
       <c r="J51" s="38"/>
@@ -5999,14 +6015,14 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F52" s="42" t="s">
         <v>28</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="146"/>
@@ -6019,14 +6035,14 @@
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F53" s="42" t="s">
         <v>29</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I53" s="13"/>
       <c r="J53" s="146"/>
@@ -6039,14 +6055,14 @@
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="F54" s="42" t="s">
         <v>306</v>
-      </c>
-      <c r="F54" s="42" t="s">
-        <v>307</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="38"/>
@@ -6059,14 +6075,14 @@
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F55" s="42" t="s">
         <v>30</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I55" s="13"/>
       <c r="J55" s="142"/>
@@ -6079,14 +6095,14 @@
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F56" s="42" t="s">
         <v>31</v>
       </c>
       <c r="G56" s="24"/>
       <c r="H56" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="142"/>
@@ -6549,10 +6565,10 @@
       <c r="D3" s="135"/>
       <c r="E3" s="136"/>
       <c r="F3" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -6619,7 +6635,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
@@ -6634,14 +6650,14 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="146"/>
@@ -6656,16 +6672,16 @@
         <v>27</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="146"/>
@@ -6678,14 +6694,14 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="146"/>
@@ -6698,14 +6714,14 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F10" s="39" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="146"/>
@@ -6718,14 +6734,14 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="142"/>
@@ -6738,14 +6754,14 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="142"/>
@@ -7303,10 +7319,10 @@
       <c r="D3" s="135"/>
       <c r="E3" s="136"/>
       <c r="F3" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -7373,7 +7389,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
@@ -7388,14 +7404,14 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="146"/>
@@ -7408,14 +7424,14 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="142"/>
@@ -7428,14 +7444,14 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>37</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="142"/>
@@ -7448,14 +7464,14 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="37"/>
@@ -7468,14 +7484,14 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="37"/>
@@ -7488,14 +7504,14 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="37"/>
@@ -7508,14 +7524,14 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="37"/>
@@ -7528,14 +7544,14 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="37"/>
@@ -7548,14 +7564,14 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="37"/>
@@ -7568,14 +7584,14 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="37"/>
@@ -7588,14 +7604,14 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="146"/>
@@ -7608,14 +7624,14 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="146"/>
@@ -7628,14 +7644,14 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="146"/>
@@ -7648,14 +7664,14 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="142"/>
@@ -7666,16 +7682,16 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="50" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F21" s="45" t="s">
         <v>54</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="37"/>
@@ -7688,14 +7704,14 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="146"/>
@@ -7708,14 +7724,14 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F23" s="39" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="146"/>
@@ -7728,14 +7744,14 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="142"/>
@@ -7748,14 +7764,14 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F25" s="39" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="142"/>
@@ -8002,10 +8018,10 @@
       <c r="D3" s="135"/>
       <c r="E3" s="136"/>
       <c r="F3" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -8072,7 +8088,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
@@ -8089,16 +8105,16 @@
         <v>27</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="146"/>
@@ -8111,14 +8127,14 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="146"/>
@@ -8131,14 +8147,14 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="38"/>
@@ -8151,14 +8167,14 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="146"/>
@@ -8171,14 +8187,14 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="146"/>
@@ -8191,14 +8207,14 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="146"/>
@@ -8211,14 +8227,14 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="142"/>
@@ -8231,14 +8247,14 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14" s="39" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="24"/>
       <c r="H14" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="142"/>
@@ -8461,8 +8477,8 @@
   </sheetPr>
   <dimension ref="A2:K88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -8509,10 +8525,10 @@
       <c r="D3" s="135"/>
       <c r="E3" s="136"/>
       <c r="F3" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>119</v>
+        <v>437</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -8579,7 +8595,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
@@ -8594,7 +8610,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>83</v>
@@ -8603,7 +8619,7 @@
         <v>84</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="38"/>
@@ -8616,16 +8632,16 @@
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="G8" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>319</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>320</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="146"/>
@@ -8638,7 +8654,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>62</v>
@@ -8647,7 +8663,7 @@
         <v>85</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="38"/>
@@ -8660,7 +8676,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>63</v>
@@ -8669,7 +8685,7 @@
         <v>86</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="38"/>
@@ -8682,7 +8698,7 @@
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F11" s="42" t="s">
         <v>64</v>
@@ -8691,7 +8707,7 @@
         <v>87</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="38"/>
@@ -8704,7 +8720,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>65</v>
@@ -8713,7 +8729,7 @@
         <v>88</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="38"/>
@@ -8726,7 +8742,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>66</v>
@@ -8735,7 +8751,7 @@
         <v>89</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="38"/>
@@ -8748,7 +8764,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>67</v>
@@ -8757,7 +8773,7 @@
         <v>90</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="38"/>
@@ -8770,7 +8786,7 @@
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>68</v>
@@ -8779,7 +8795,7 @@
         <v>91</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="38"/>
@@ -8792,7 +8808,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>69</v>
@@ -8801,7 +8817,7 @@
         <v>92</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="38"/>
@@ -8814,7 +8830,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>70</v>
@@ -8823,7 +8839,7 @@
         <v>93</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="38"/>
@@ -8836,10 +8852,10 @@
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G18" s="42"/>
       <c r="H18" s="14"/>
@@ -8854,7 +8870,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>71</v>
@@ -8863,7 +8879,7 @@
         <v>94</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="146"/>
@@ -8876,7 +8892,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>60</v>
@@ -8885,7 +8901,7 @@
         <v>95</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="146"/>
@@ -8898,7 +8914,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>72</v>
@@ -8907,7 +8923,7 @@
         <v>96</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="146"/>
@@ -8920,7 +8936,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>73</v>
@@ -8929,7 +8945,7 @@
         <v>97</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="146"/>
@@ -8942,7 +8958,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>74</v>
@@ -8951,7 +8967,7 @@
         <v>97</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="146"/>
@@ -8964,7 +8980,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F24" s="42" t="s">
         <v>23</v>
@@ -8973,7 +8989,7 @@
         <v>98</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="146"/>
@@ -8986,7 +9002,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>75</v>
@@ -8995,7 +9011,7 @@
         <v>99</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="146"/>
@@ -9008,7 +9024,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F26" s="42" t="s">
         <v>76</v>
@@ -9017,7 +9033,7 @@
         <v>100</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="146"/>
@@ -9030,7 +9046,7 @@
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F27" s="42" t="s">
         <v>77</v>
@@ -9039,7 +9055,7 @@
         <v>101</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="146"/>
@@ -9052,16 +9068,16 @@
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G28" s="42" t="s">
         <v>102</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="146"/>
@@ -9074,16 +9090,16 @@
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G29" s="42" t="s">
         <v>103</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="146"/>
@@ -9096,7 +9112,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>78</v>
@@ -9105,7 +9121,7 @@
         <v>104</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="146"/>
@@ -9118,7 +9134,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F31" s="42" t="s">
         <v>79</v>
@@ -9127,7 +9143,7 @@
         <v>105</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="146"/>
@@ -9140,7 +9156,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F32" s="42" t="s">
         <v>80</v>
@@ -9149,7 +9165,7 @@
         <v>106</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="146"/>
@@ -9162,7 +9178,7 @@
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>81</v>
@@ -9171,7 +9187,7 @@
         <v>107</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="38"/>
@@ -9184,7 +9200,7 @@
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F34" s="42" t="s">
         <v>82</v>
@@ -9193,7 +9209,7 @@
         <v>108</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="38"/>
@@ -9206,14 +9222,14 @@
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>109</v>
       </c>
       <c r="G35" s="42"/>
       <c r="H35" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="38"/>
@@ -9226,14 +9242,14 @@
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F36" s="42" t="s">
         <v>110</v>
       </c>
       <c r="G36" s="42"/>
       <c r="H36" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="38"/>
@@ -9246,14 +9262,14 @@
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F37" s="42" t="s">
         <v>111</v>
       </c>
       <c r="G37" s="42"/>
       <c r="H37" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="38"/>
@@ -9266,14 +9282,14 @@
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F38" s="42" t="s">
         <v>112</v>
       </c>
       <c r="G38" s="42"/>
       <c r="H38" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="38"/>
@@ -9286,14 +9302,14 @@
       <c r="C39" s="13"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F39" s="42" t="s">
         <v>113</v>
       </c>
       <c r="G39" s="42"/>
       <c r="H39" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="38"/>
@@ -9306,14 +9322,14 @@
       <c r="C40" s="13"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F40" s="42" t="s">
         <v>114</v>
       </c>
       <c r="G40" s="42"/>
       <c r="H40" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="38"/>
@@ -9326,14 +9342,14 @@
       <c r="C41" s="154"/>
       <c r="D41" s="155"/>
       <c r="E41" s="155" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F41" s="156" t="s">
         <v>115</v>
       </c>
       <c r="G41" s="156"/>
       <c r="H41" s="155" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I41" s="154"/>
       <c r="J41" s="1"/>
@@ -9346,14 +9362,14 @@
       <c r="C42" s="158"/>
       <c r="D42" s="158"/>
       <c r="E42" s="42" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F42" s="42" t="s">
         <v>116</v>
       </c>
       <c r="G42" s="42"/>
       <c r="H42" s="158" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I42" s="157"/>
       <c r="J42" s="159"/>
@@ -9366,14 +9382,14 @@
       <c r="C43" s="158"/>
       <c r="D43" s="158"/>
       <c r="E43" s="42" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F43" s="42" t="s">
         <v>117</v>
       </c>
       <c r="G43" s="42"/>
       <c r="H43" s="158" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I43" s="157"/>
       <c r="J43" s="159"/>
@@ -9386,14 +9402,14 @@
       <c r="C44" s="158"/>
       <c r="D44" s="158"/>
       <c r="E44" s="42" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F44" s="42" t="s">
         <v>118</v>
       </c>
       <c r="G44" s="42"/>
       <c r="H44" s="158" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I44" s="157"/>
       <c r="J44" s="159"/>
@@ -9406,14 +9422,14 @@
       <c r="C45" s="158"/>
       <c r="D45" s="158"/>
       <c r="E45" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G45" s="42"/>
       <c r="H45" s="158" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I45" s="157"/>
       <c r="J45" s="159"/>
@@ -9426,14 +9442,14 @@
       <c r="C46" s="158"/>
       <c r="D46" s="158"/>
       <c r="E46" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="F46" s="42" t="s">
         <v>302</v>
-      </c>
-      <c r="F46" s="42" t="s">
-        <v>303</v>
       </c>
       <c r="G46" s="42"/>
       <c r="H46" s="158" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I46" s="157"/>
       <c r="J46" s="159"/>
@@ -9446,14 +9462,14 @@
       <c r="C47" s="158"/>
       <c r="D47" s="158"/>
       <c r="E47" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="F47" s="42" t="s">
         <v>304</v>
-      </c>
-      <c r="F47" s="42" t="s">
-        <v>305</v>
       </c>
       <c r="G47" s="42"/>
       <c r="H47" s="158" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I47" s="157"/>
       <c r="J47" s="159"/>
@@ -9466,14 +9482,14 @@
       <c r="C48" s="158"/>
       <c r="D48" s="158"/>
       <c r="E48" s="42" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G48" s="42"/>
       <c r="H48" s="158" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I48" s="157"/>
       <c r="J48" s="159"/>
@@ -9486,14 +9502,14 @@
       <c r="C49" s="158"/>
       <c r="D49" s="158"/>
       <c r="E49" s="42" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G49" s="42"/>
       <c r="H49" s="158" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I49" s="157"/>
       <c r="J49" s="159"/>
@@ -9506,14 +9522,14 @@
       <c r="C50" s="158"/>
       <c r="D50" s="158"/>
       <c r="E50" s="42" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G50" s="42"/>
       <c r="H50" s="158" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I50" s="157"/>
       <c r="J50" s="159"/>
@@ -9526,14 +9542,14 @@
       <c r="C51" s="158"/>
       <c r="D51" s="158"/>
       <c r="E51" s="42" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G51" s="42"/>
       <c r="H51" s="158" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I51" s="157"/>
       <c r="J51" s="159"/>
@@ -9546,14 +9562,14 @@
       <c r="C52" s="64"/>
       <c r="D52" s="64"/>
       <c r="E52" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="F52" s="112" t="s">
         <v>333</v>
-      </c>
-      <c r="F52" s="112" t="s">
-        <v>334</v>
       </c>
       <c r="G52" s="64"/>
       <c r="H52" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I52" s="63"/>
       <c r="J52" s="121"/>
@@ -9566,14 +9582,14 @@
       <c r="C53" s="64"/>
       <c r="D53" s="64"/>
       <c r="E53" s="77" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F53" s="113" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G53" s="78"/>
       <c r="H53" s="79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I53" s="63"/>
       <c r="J53" s="121"/>
@@ -9586,14 +9602,14 @@
       <c r="C54" s="64"/>
       <c r="D54" s="64"/>
       <c r="E54" s="161" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F54" s="162" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G54" s="78"/>
       <c r="H54" s="158" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I54" s="163"/>
       <c r="J54" s="160"/>
@@ -9606,14 +9622,14 @@
       <c r="C55" s="158"/>
       <c r="D55" s="158"/>
       <c r="E55" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F55" s="42" t="s">
         <v>28</v>
       </c>
       <c r="G55" s="42"/>
       <c r="H55" s="158" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I55" s="157"/>
       <c r="J55" s="159"/>
@@ -9626,14 +9642,14 @@
       <c r="C56" s="158"/>
       <c r="D56" s="158"/>
       <c r="E56" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F56" s="42" t="s">
         <v>29</v>
       </c>
       <c r="G56" s="42"/>
       <c r="H56" s="158" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I56" s="157"/>
       <c r="J56" s="159"/>
@@ -9646,14 +9662,14 @@
       <c r="C57" s="158"/>
       <c r="D57" s="158"/>
       <c r="E57" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="F57" s="42" t="s">
         <v>306</v>
-      </c>
-      <c r="F57" s="42" t="s">
-        <v>307</v>
       </c>
       <c r="G57" s="42"/>
       <c r="H57" s="158" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I57" s="157"/>
       <c r="J57" s="159"/>
@@ -9666,14 +9682,14 @@
       <c r="C58" s="158"/>
       <c r="D58" s="158"/>
       <c r="E58" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F58" s="42" t="s">
         <v>30</v>
       </c>
       <c r="G58" s="42"/>
       <c r="H58" s="158" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I58" s="157"/>
       <c r="J58" s="159"/>
@@ -9686,14 +9702,14 @@
       <c r="C59" s="158"/>
       <c r="D59" s="158"/>
       <c r="E59" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F59" s="42" t="s">
         <v>31</v>
       </c>
       <c r="G59" s="42"/>
       <c r="H59" s="158" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I59" s="157"/>
       <c r="J59" s="159"/>
@@ -10031,6 +10047,1583 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BBA1D-5A5A-45FC-950D-0F5FAEF528EE}">
+  <sheetPr>
+    <tabColor theme="5"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A2:K88"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.609375" customWidth="1"/>
+    <col min="2" max="3" width="8.38671875" customWidth="1"/>
+    <col min="4" max="4" width="8.609375" customWidth="1"/>
+    <col min="5" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="25.38671875" customWidth="1"/>
+    <col min="9" max="9" width="8.609375" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B2" s="144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B3" s="144"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="142"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="136"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="145" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="136"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="146"/>
+      <c r="K6" s="136"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="35"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B8" s="13">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="136"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B9" s="13">
+        <v>4</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B10" s="13">
+        <v>5</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B11" s="13">
+        <v>6</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B12" s="13">
+        <v>7</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B13" s="13">
+        <v>8</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B14" s="13">
+        <v>9</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B15" s="13">
+        <v>10</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B16" s="13">
+        <v>11</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B17" s="13">
+        <v>12</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B18" s="13">
+        <v>13</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="G18" s="42"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B19" s="13">
+        <v>14</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="136"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B20" s="13">
+        <v>15</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="136"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B21" s="13">
+        <v>16</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="136"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B22" s="13">
+        <v>17</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="136"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B23" s="13">
+        <v>18</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="136"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B24" s="13">
+        <v>19</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="136"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B25" s="13">
+        <v>20</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="136"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B26" s="13">
+        <v>21</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="136"/>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B27" s="13">
+        <v>22</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="136"/>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B28" s="13">
+        <v>23</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="136"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B29" s="13">
+        <v>24</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="136"/>
+    </row>
+    <row r="30" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B30" s="13">
+        <v>25</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="136"/>
+    </row>
+    <row r="31" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B31" s="13">
+        <v>26</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="136"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B32" s="13">
+        <v>27</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="136"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B33" s="13">
+        <v>28</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="35"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B34" s="13">
+        <v>29</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="35"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B35" s="13">
+        <v>30</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="42"/>
+      <c r="H35" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I35" s="13"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="35"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B36" s="13">
+        <v>31</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="42"/>
+      <c r="H36" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="35"/>
+    </row>
+    <row r="37" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B37" s="13">
+        <v>32</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="42"/>
+      <c r="H37" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="35"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B38" s="13">
+        <v>33</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="42"/>
+      <c r="H38" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="35"/>
+    </row>
+    <row r="39" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B39" s="13">
+        <v>34</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="42"/>
+      <c r="H39" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="35"/>
+    </row>
+    <row r="40" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B40" s="13">
+        <v>35</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" s="42"/>
+      <c r="H40" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="35"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B41" s="154">
+        <v>36</v>
+      </c>
+      <c r="C41" s="154"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" s="156" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="156"/>
+      <c r="H41" s="155" t="s">
+        <v>188</v>
+      </c>
+      <c r="I41" s="154"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="105"/>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B42" s="154">
+        <v>37</v>
+      </c>
+      <c r="C42" s="158"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="42" t="s">
+        <v>430</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="42"/>
+      <c r="H42" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="I42" s="157"/>
+      <c r="J42" s="159"/>
+      <c r="K42" s="159"/>
+    </row>
+    <row r="43" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B43" s="154">
+        <v>38</v>
+      </c>
+      <c r="C43" s="158"/>
+      <c r="D43" s="158"/>
+      <c r="E43" s="42" t="s">
+        <v>431</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" s="42"/>
+      <c r="H43" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="I43" s="157"/>
+      <c r="J43" s="159"/>
+      <c r="K43" s="159"/>
+    </row>
+    <row r="44" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B44" s="154">
+        <v>39</v>
+      </c>
+      <c r="C44" s="158"/>
+      <c r="D44" s="158"/>
+      <c r="E44" s="42" t="s">
+        <v>432</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="42"/>
+      <c r="H44" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="I44" s="157"/>
+      <c r="J44" s="159"/>
+      <c r="K44" s="159"/>
+    </row>
+    <row r="45" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B45" s="154">
+        <v>40</v>
+      </c>
+      <c r="C45" s="158"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="42"/>
+      <c r="H45" s="158" t="s">
+        <v>197</v>
+      </c>
+      <c r="I45" s="157"/>
+      <c r="J45" s="159"/>
+      <c r="K45" s="159"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B46" s="154">
+        <v>41</v>
+      </c>
+      <c r="C46" s="158"/>
+      <c r="D46" s="158"/>
+      <c r="E46" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="G46" s="42"/>
+      <c r="H46" s="158" t="s">
+        <v>186</v>
+      </c>
+      <c r="I46" s="157"/>
+      <c r="J46" s="159"/>
+      <c r="K46" s="159"/>
+    </row>
+    <row r="47" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B47" s="154">
+        <v>42</v>
+      </c>
+      <c r="C47" s="158"/>
+      <c r="D47" s="158"/>
+      <c r="E47" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="F47" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="G47" s="42"/>
+      <c r="H47" s="158" t="s">
+        <v>186</v>
+      </c>
+      <c r="I47" s="157"/>
+      <c r="J47" s="159"/>
+      <c r="K47" s="159"/>
+    </row>
+    <row r="48" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B48" s="154">
+        <v>43</v>
+      </c>
+      <c r="C48" s="158"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="G48" s="42"/>
+      <c r="H48" s="158" t="s">
+        <v>186</v>
+      </c>
+      <c r="I48" s="157"/>
+      <c r="J48" s="159"/>
+      <c r="K48" s="159"/>
+    </row>
+    <row r="49" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B49" s="154">
+        <v>44</v>
+      </c>
+      <c r="C49" s="158"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="F49" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="G49" s="42"/>
+      <c r="H49" s="158" t="s">
+        <v>186</v>
+      </c>
+      <c r="I49" s="157"/>
+      <c r="J49" s="159"/>
+      <c r="K49" s="159"/>
+    </row>
+    <row r="50" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B50" s="154">
+        <v>45</v>
+      </c>
+      <c r="C50" s="158"/>
+      <c r="D50" s="158"/>
+      <c r="E50" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="G50" s="42"/>
+      <c r="H50" s="158" t="s">
+        <v>186</v>
+      </c>
+      <c r="I50" s="157"/>
+      <c r="J50" s="159"/>
+      <c r="K50" s="159"/>
+    </row>
+    <row r="51" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B51" s="154">
+        <v>46</v>
+      </c>
+      <c r="C51" s="158"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="G51" s="42"/>
+      <c r="H51" s="158" t="s">
+        <v>186</v>
+      </c>
+      <c r="I51" s="157"/>
+      <c r="J51" s="159"/>
+      <c r="K51" s="159"/>
+    </row>
+    <row r="52" spans="2:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B52" s="154">
+        <v>47</v>
+      </c>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="F52" s="112" t="s">
+        <v>333</v>
+      </c>
+      <c r="G52" s="64"/>
+      <c r="H52" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="I52" s="63"/>
+      <c r="J52" s="121"/>
+      <c r="K52" s="120"/>
+    </row>
+    <row r="53" spans="2:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B53" s="154">
+        <v>48</v>
+      </c>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="F53" s="113" t="s">
+        <v>334</v>
+      </c>
+      <c r="G53" s="78"/>
+      <c r="H53" s="79" t="s">
+        <v>340</v>
+      </c>
+      <c r="I53" s="63"/>
+      <c r="J53" s="121"/>
+      <c r="K53" s="120"/>
+    </row>
+    <row r="54" spans="2:11" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B54" s="154">
+        <v>49</v>
+      </c>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="161" t="s">
+        <v>434</v>
+      </c>
+      <c r="F54" s="162" t="s">
+        <v>424</v>
+      </c>
+      <c r="G54" s="78"/>
+      <c r="H54" s="158" t="s">
+        <v>197</v>
+      </c>
+      <c r="I54" s="163"/>
+      <c r="J54" s="160"/>
+      <c r="K54" s="164"/>
+    </row>
+    <row r="55" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B55" s="154">
+        <v>50</v>
+      </c>
+      <c r="C55" s="158"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="42"/>
+      <c r="H55" s="158" t="s">
+        <v>189</v>
+      </c>
+      <c r="I55" s="157"/>
+      <c r="J55" s="159"/>
+      <c r="K55" s="159"/>
+    </row>
+    <row r="56" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B56" s="154">
+        <v>51</v>
+      </c>
+      <c r="C56" s="158"/>
+      <c r="D56" s="158"/>
+      <c r="E56" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="42"/>
+      <c r="H56" s="158" t="s">
+        <v>186</v>
+      </c>
+      <c r="I56" s="157"/>
+      <c r="J56" s="159"/>
+      <c r="K56" s="159"/>
+    </row>
+    <row r="57" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B57" s="154">
+        <v>52</v>
+      </c>
+      <c r="C57" s="158"/>
+      <c r="D57" s="158"/>
+      <c r="E57" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="F57" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="G57" s="42"/>
+      <c r="H57" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="I57" s="157"/>
+      <c r="J57" s="159"/>
+      <c r="K57" s="159"/>
+    </row>
+    <row r="58" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B58" s="154">
+        <v>53</v>
+      </c>
+      <c r="C58" s="158"/>
+      <c r="D58" s="158"/>
+      <c r="E58" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="F58" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="42"/>
+      <c r="H58" s="158" t="s">
+        <v>189</v>
+      </c>
+      <c r="I58" s="157"/>
+      <c r="J58" s="159"/>
+      <c r="K58" s="159"/>
+    </row>
+    <row r="59" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B59" s="154">
+        <v>54</v>
+      </c>
+      <c r="C59" s="158"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="42"/>
+      <c r="H59" s="158" t="s">
+        <v>186</v>
+      </c>
+      <c r="I59" s="157"/>
+      <c r="J59" s="159"/>
+      <c r="K59" s="159"/>
+    </row>
+    <row r="60" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B60" s="154">
+        <v>55</v>
+      </c>
+      <c r="C60" s="158"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="158"/>
+      <c r="I60" s="157"/>
+      <c r="J60" s="159"/>
+      <c r="K60" s="159"/>
+    </row>
+    <row r="61" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B61" s="154">
+        <v>56</v>
+      </c>
+      <c r="C61" s="158"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="158"/>
+      <c r="I61" s="157"/>
+      <c r="J61" s="159"/>
+      <c r="K61" s="159"/>
+    </row>
+    <row r="62" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B62" s="26"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="29"/>
+    </row>
+    <row r="63" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B63" s="26"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="29"/>
+    </row>
+    <row r="64" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B64" s="26"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="29"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B65" s="26"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="29"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B66" s="26"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="29"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B67" s="26"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="29"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B68" s="26"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="29"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B69" s="26"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="29"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B71" s="23"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B75" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B76" s="143"/>
+      <c r="C76" s="129"/>
+      <c r="D76" s="129"/>
+      <c r="E76" s="129"/>
+      <c r="F76" s="129"/>
+      <c r="G76" s="129"/>
+      <c r="H76" s="129"/>
+      <c r="I76" s="129"/>
+      <c r="J76" s="129"/>
+      <c r="K76" s="129"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B77" s="129"/>
+      <c r="C77" s="129"/>
+      <c r="D77" s="129"/>
+      <c r="E77" s="129"/>
+      <c r="F77" s="129"/>
+      <c r="G77" s="129"/>
+      <c r="H77" s="129"/>
+      <c r="I77" s="129"/>
+      <c r="J77" s="129"/>
+      <c r="K77" s="129"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B78" s="129"/>
+      <c r="C78" s="129"/>
+      <c r="D78" s="129"/>
+      <c r="E78" s="129"/>
+      <c r="F78" s="129"/>
+      <c r="G78" s="129"/>
+      <c r="H78" s="129"/>
+      <c r="I78" s="129"/>
+      <c r="J78" s="129"/>
+      <c r="K78" s="129"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B79" s="129"/>
+      <c r="C79" s="129"/>
+      <c r="D79" s="129"/>
+      <c r="E79" s="129"/>
+      <c r="F79" s="129"/>
+      <c r="G79" s="129"/>
+      <c r="H79" s="129"/>
+      <c r="I79" s="129"/>
+      <c r="J79" s="129"/>
+      <c r="K79" s="129"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B80" s="129"/>
+      <c r="C80" s="129"/>
+      <c r="D80" s="129"/>
+      <c r="E80" s="129"/>
+      <c r="F80" s="129"/>
+      <c r="G80" s="129"/>
+      <c r="H80" s="129"/>
+      <c r="I80" s="129"/>
+      <c r="J80" s="129"/>
+      <c r="K80" s="129"/>
+    </row>
+    <row r="81" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B81" s="129"/>
+      <c r="C81" s="129"/>
+      <c r="D81" s="129"/>
+      <c r="E81" s="129"/>
+      <c r="F81" s="129"/>
+      <c r="G81" s="129"/>
+      <c r="H81" s="129"/>
+      <c r="I81" s="129"/>
+      <c r="J81" s="129"/>
+      <c r="K81" s="129"/>
+    </row>
+    <row r="82" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B82" s="129"/>
+      <c r="C82" s="129"/>
+      <c r="D82" s="129"/>
+      <c r="E82" s="129"/>
+      <c r="F82" s="129"/>
+      <c r="G82" s="129"/>
+      <c r="H82" s="129"/>
+      <c r="I82" s="129"/>
+      <c r="J82" s="129"/>
+      <c r="K82" s="129"/>
+    </row>
+    <row r="83" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B83" s="129"/>
+      <c r="C83" s="129"/>
+      <c r="D83" s="129"/>
+      <c r="E83" s="129"/>
+      <c r="F83" s="129"/>
+      <c r="G83" s="129"/>
+      <c r="H83" s="129"/>
+      <c r="I83" s="129"/>
+      <c r="J83" s="129"/>
+      <c r="K83" s="129"/>
+    </row>
+    <row r="84" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B84" s="129"/>
+      <c r="C84" s="129"/>
+      <c r="D84" s="129"/>
+      <c r="E84" s="129"/>
+      <c r="F84" s="129"/>
+      <c r="G84" s="129"/>
+      <c r="H84" s="129"/>
+      <c r="I84" s="129"/>
+      <c r="J84" s="129"/>
+      <c r="K84" s="129"/>
+    </row>
+    <row r="85" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B85" s="129"/>
+      <c r="C85" s="129"/>
+      <c r="D85" s="129"/>
+      <c r="E85" s="129"/>
+      <c r="F85" s="129"/>
+      <c r="G85" s="129"/>
+      <c r="H85" s="129"/>
+      <c r="I85" s="129"/>
+      <c r="J85" s="129"/>
+      <c r="K85" s="129"/>
+    </row>
+    <row r="86" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B86" s="129"/>
+      <c r="C86" s="129"/>
+      <c r="D86" s="129"/>
+      <c r="E86" s="129"/>
+      <c r="F86" s="129"/>
+      <c r="G86" s="129"/>
+      <c r="H86" s="129"/>
+      <c r="I86" s="129"/>
+      <c r="J86" s="129"/>
+      <c r="K86" s="129"/>
+    </row>
+    <row r="87" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B87" s="129"/>
+      <c r="C87" s="129"/>
+      <c r="D87" s="129"/>
+      <c r="E87" s="129"/>
+      <c r="F87" s="129"/>
+      <c r="G87" s="129"/>
+      <c r="H87" s="129"/>
+      <c r="I87" s="129"/>
+      <c r="J87" s="129"/>
+      <c r="K87" s="129"/>
+    </row>
+    <row r="88" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B88" s="129"/>
+      <c r="C88" s="129"/>
+      <c r="D88" s="129"/>
+      <c r="E88" s="129"/>
+      <c r="F88" s="129"/>
+      <c r="G88" s="129"/>
+      <c r="H88" s="129"/>
+      <c r="I88" s="129"/>
+      <c r="J88" s="129"/>
+      <c r="K88" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B76:K88"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J8:K8"/>
+  </mergeCells>
+  <phoneticPr fontId="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -10039,7 +11632,7 @@
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -10089,10 +11682,10 @@
       <c r="D3" s="123"/>
       <c r="E3" s="120"/>
       <c r="F3" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G3" s="67" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H3" s="68"/>
       <c r="I3" s="68"/>
@@ -10148,21 +11741,21 @@
         <v>1</v>
       </c>
       <c r="C6" s="97" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D6" s="98"/>
       <c r="E6" s="98" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="98" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G6" s="98"/>
       <c r="H6" s="98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I6" s="97" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J6" s="99"/>
       <c r="K6" s="100"/>
@@ -10174,14 +11767,14 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="94" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G7" s="42"/>
       <c r="H7" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="38"/>
@@ -10194,14 +11787,14 @@
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="42" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="38"/>
@@ -10214,14 +11807,14 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="42" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="38"/>
@@ -10234,16 +11827,16 @@
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="42" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="146"/>
@@ -10256,7 +11849,7 @@
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
       <c r="E11" s="42" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F11" s="42" t="s">
         <v>21</v>
@@ -10265,7 +11858,7 @@
         <v>24</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="146"/>
@@ -10278,14 +11871,14 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="42" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="146"/>
@@ -10298,14 +11891,14 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>51</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="146"/>
@@ -10318,16 +11911,16 @@
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="G14" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>397</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>398</v>
-      </c>
       <c r="H14" s="64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I14" s="63"/>
       <c r="J14" s="119"/>
@@ -10340,16 +11933,16 @@
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I15" s="63"/>
       <c r="J15" s="74"/>
@@ -10363,16 +11956,16 @@
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
       <c r="E16" s="42" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I16" s="63"/>
       <c r="J16" s="121"/>
@@ -10386,16 +11979,16 @@
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
       <c r="E17" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="G17" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="F17" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>405</v>
-      </c>
       <c r="H17" s="79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I17" s="63"/>
       <c r="J17" s="121"/>
@@ -10409,16 +12002,16 @@
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
       <c r="E18" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="G18" s="42" t="s">
         <v>406</v>
       </c>
-      <c r="F18" s="42" t="s">
-        <v>407</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>408</v>
-      </c>
       <c r="H18" s="64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I18" s="63"/>
       <c r="J18" s="70"/>
@@ -10432,16 +12025,16 @@
       <c r="C19" s="87"/>
       <c r="D19" s="87"/>
       <c r="E19" s="103" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F19" s="103" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G19" s="104" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H19" s="101" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I19" s="102"/>
       <c r="J19" s="121"/>
@@ -10455,16 +12048,16 @@
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
       <c r="E20" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="H20" s="42" t="s">
         <v>410</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>422</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>412</v>
       </c>
       <c r="I20" s="63"/>
       <c r="J20" s="121"/>
@@ -10477,14 +12070,14 @@
       <c r="C21" s="98"/>
       <c r="D21" s="98"/>
       <c r="E21" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="42"/>
       <c r="H21" s="42" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I21" s="96"/>
       <c r="J21" s="149"/>
@@ -10497,14 +12090,14 @@
       <c r="C22" s="98"/>
       <c r="D22" s="98"/>
       <c r="E22" s="42" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="42"/>
       <c r="H22" s="42" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I22" s="96"/>
       <c r="J22" s="149"/>
@@ -10517,14 +12110,14 @@
       <c r="C23" s="98"/>
       <c r="D23" s="98"/>
       <c r="E23" s="42" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="42"/>
       <c r="H23" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I23" s="96"/>
       <c r="J23" s="151"/>
@@ -10537,14 +12130,14 @@
       <c r="C24" s="98"/>
       <c r="D24" s="98"/>
       <c r="E24" s="42" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F24" s="42" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="42" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I24" s="96"/>
       <c r="J24" s="151"/>
@@ -10738,7 +12331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91585A24-8D4A-4BF1-8EB0-20295FDB1196}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -10746,8 +12339,8 @@
   </sheetPr>
   <dimension ref="A2:K72"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -10797,10 +12390,10 @@
       <c r="D3" s="123"/>
       <c r="E3" s="120"/>
       <c r="F3" s="66" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G3" s="67" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H3" s="68"/>
       <c r="I3" s="68"/>
@@ -10867,7 +12460,7 @@
       </c>
       <c r="G6" s="64"/>
       <c r="H6" s="79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I6" s="72" t="s">
         <v>27</v>
@@ -10882,14 +12475,14 @@
       <c r="C7" s="64"/>
       <c r="D7" s="64"/>
       <c r="E7" s="64" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F7" s="112" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G7" s="64"/>
       <c r="H7" s="64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I7" s="63"/>
       <c r="J7" s="119"/>
@@ -10902,14 +12495,14 @@
       <c r="C8" s="64"/>
       <c r="D8" s="72"/>
       <c r="E8" s="64" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F8" s="112" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G8" s="112"/>
       <c r="H8" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I8" s="63"/>
       <c r="J8" s="119"/>
@@ -10922,16 +12515,16 @@
       <c r="C9" s="63"/>
       <c r="D9" s="64"/>
       <c r="E9" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>358</v>
+      </c>
+      <c r="G9" s="78" t="s">
         <v>359</v>
       </c>
-      <c r="F9" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="G9" s="78" t="s">
-        <v>361</v>
-      </c>
       <c r="H9" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I9" s="63"/>
       <c r="J9" s="119"/>
@@ -10944,7 +12537,7 @@
       <c r="C10" s="63"/>
       <c r="D10" s="64"/>
       <c r="E10" s="64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F10" s="78" t="s">
         <v>21</v>
@@ -10953,7 +12546,7 @@
         <v>24</v>
       </c>
       <c r="H10" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I10" s="63"/>
       <c r="J10" s="119"/>
@@ -10966,14 +12559,14 @@
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
       <c r="E11" s="64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F11" s="112" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I11" s="63"/>
       <c r="J11" s="119"/>
@@ -10986,14 +12579,14 @@
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
       <c r="E12" s="64" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F12" s="112" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G12" s="64"/>
       <c r="H12" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I12" s="63"/>
       <c r="J12" s="119"/>
@@ -11006,14 +12599,14 @@
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
       <c r="E13" s="64" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F13" s="112" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G13" s="64"/>
       <c r="H13" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I13" s="63"/>
       <c r="J13" s="119"/>
@@ -11024,10 +12617,10 @@
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F14" s="112" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G14" s="64"/>
       <c r="H14" s="79"/>
@@ -11040,7 +12633,7 @@
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F15" s="112" t="s">
         <v>51</v>
@@ -11058,14 +12651,14 @@
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
       <c r="E16" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="F16" s="112" t="s">
         <v>333</v>
-      </c>
-      <c r="F16" s="112" t="s">
-        <v>334</v>
       </c>
       <c r="G16" s="64"/>
       <c r="H16" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I16" s="63"/>
       <c r="J16" s="121"/>
@@ -11078,14 +12671,14 @@
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
       <c r="E17" s="77" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F17" s="113" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G17" s="78"/>
       <c r="H17" s="79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I17" s="63"/>
       <c r="J17" s="121"/>
@@ -11098,16 +12691,16 @@
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
       <c r="E18" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="F18" s="73" t="s">
         <v>338</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="G18" s="86" t="s">
         <v>339</v>
       </c>
-      <c r="G18" s="86" t="s">
+      <c r="H18" s="64" t="s">
         <v>340</v>
-      </c>
-      <c r="H18" s="64" t="s">
-        <v>341</v>
       </c>
       <c r="I18" s="63"/>
       <c r="J18" s="119"/>
@@ -11120,16 +12713,16 @@
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
       <c r="E19" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="F19" s="73" t="s">
         <v>342</v>
       </c>
-      <c r="F19" s="73" t="s">
+      <c r="G19" s="86" t="s">
         <v>343</v>
       </c>
-      <c r="G19" s="86" t="s">
-        <v>344</v>
-      </c>
       <c r="H19" s="64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I19" s="63"/>
       <c r="J19" s="74"/>
@@ -11143,16 +12736,16 @@
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
       <c r="E20" s="77" t="s">
+        <v>344</v>
+      </c>
+      <c r="F20" s="78" t="s">
         <v>345</v>
       </c>
-      <c r="F20" s="78" t="s">
+      <c r="G20" s="86" t="s">
         <v>346</v>
       </c>
-      <c r="G20" s="86" t="s">
-        <v>347</v>
-      </c>
       <c r="H20" s="64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I20" s="63"/>
       <c r="J20" s="121"/>
@@ -11166,16 +12759,16 @@
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
       <c r="E21" s="77" t="s">
+        <v>347</v>
+      </c>
+      <c r="F21" s="78" t="s">
         <v>348</v>
       </c>
-      <c r="F21" s="78" t="s">
+      <c r="G21" s="86" t="s">
         <v>349</v>
       </c>
-      <c r="G21" s="86" t="s">
-        <v>350</v>
-      </c>
       <c r="H21" s="79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I21" s="63"/>
       <c r="J21" s="121"/>
@@ -11189,16 +12782,16 @@
       <c r="C22" s="64"/>
       <c r="D22" s="64"/>
       <c r="E22" s="77" t="s">
+        <v>350</v>
+      </c>
+      <c r="F22" s="78" t="s">
         <v>351</v>
       </c>
-      <c r="F22" s="78" t="s">
+      <c r="G22" s="86" t="s">
         <v>352</v>
       </c>
-      <c r="G22" s="86" t="s">
-        <v>353</v>
-      </c>
       <c r="H22" s="64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I22" s="63"/>
       <c r="J22" s="70"/>
@@ -11212,19 +12805,19 @@
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="88" t="s">
+        <v>421</v>
+      </c>
+      <c r="F23" s="89" t="s">
+        <v>353</v>
+      </c>
+      <c r="G23" s="90" t="s">
         <v>354</v>
       </c>
-      <c r="F23" s="89" t="s">
+      <c r="H23" s="87" t="s">
         <v>355</v>
       </c>
-      <c r="G23" s="90" t="s">
+      <c r="I23" s="91" t="s">
         <v>356</v>
-      </c>
-      <c r="H23" s="87" t="s">
-        <v>357</v>
-      </c>
-      <c r="I23" s="91" t="s">
-        <v>358</v>
       </c>
       <c r="J23" s="121"/>
       <c r="K23" s="120"/>
@@ -11236,14 +12829,14 @@
       <c r="C24" s="64"/>
       <c r="D24" s="64"/>
       <c r="E24" s="64" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F24" s="75" t="s">
         <v>65</v>
       </c>
       <c r="G24" s="75"/>
       <c r="H24" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I24" s="63"/>
       <c r="J24" s="119"/>
@@ -11256,14 +12849,14 @@
       <c r="C25" s="64"/>
       <c r="D25" s="64"/>
       <c r="E25" s="114" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F25" s="75" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G25" s="75"/>
       <c r="H25" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I25" s="63"/>
       <c r="J25" s="119"/>
@@ -11276,14 +12869,14 @@
       <c r="C26" s="64"/>
       <c r="D26" s="64"/>
       <c r="E26" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="F26" s="75" t="s">
         <v>365</v>
-      </c>
-      <c r="F26" s="75" t="s">
-        <v>367</v>
       </c>
       <c r="G26" s="75"/>
       <c r="H26" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I26" s="63"/>
       <c r="J26" s="119"/>
@@ -11296,14 +12889,14 @@
       <c r="C27" s="64"/>
       <c r="D27" s="64"/>
       <c r="E27" s="114" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F27" s="75" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G27" s="75"/>
       <c r="H27" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I27" s="63"/>
       <c r="J27" s="119"/>
@@ -11316,16 +12909,16 @@
       <c r="C28" s="64"/>
       <c r="D28" s="64"/>
       <c r="E28" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="F28" s="75" t="s">
         <v>318</v>
       </c>
-      <c r="F28" s="75" t="s">
+      <c r="G28" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="H28" s="64" t="s">
         <v>319</v>
-      </c>
-      <c r="G28" s="75" t="s">
-        <v>319</v>
-      </c>
-      <c r="H28" s="64" t="s">
-        <v>320</v>
       </c>
       <c r="I28" s="63"/>
       <c r="J28" s="121"/>
@@ -11338,14 +12931,14 @@
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
       <c r="E29" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="F29" s="75" t="s">
         <v>302</v>
-      </c>
-      <c r="F29" s="75" t="s">
-        <v>303</v>
       </c>
       <c r="G29" s="75"/>
       <c r="H29" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I29" s="63"/>
       <c r="J29" s="121"/>
@@ -11358,14 +12951,14 @@
       <c r="C30" s="63"/>
       <c r="D30" s="64"/>
       <c r="E30" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="F30" s="75" t="s">
         <v>304</v>
-      </c>
-      <c r="F30" s="75" t="s">
-        <v>305</v>
       </c>
       <c r="G30" s="75"/>
       <c r="H30" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I30" s="63"/>
       <c r="J30" s="119"/>
@@ -11378,14 +12971,14 @@
       <c r="C31" s="63"/>
       <c r="D31" s="64"/>
       <c r="E31" s="115" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F31" s="75" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G31" s="75"/>
       <c r="H31" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I31" s="63"/>
       <c r="J31" s="74"/>
@@ -11398,14 +12991,14 @@
       <c r="C32" s="63"/>
       <c r="D32" s="64"/>
       <c r="E32" s="115" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F32" s="75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G32" s="75"/>
       <c r="H32" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I32" s="63"/>
       <c r="J32" s="74"/>
@@ -11418,14 +13011,14 @@
       <c r="C33" s="63"/>
       <c r="D33" s="64"/>
       <c r="E33" s="115" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F33" s="75" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G33" s="75"/>
       <c r="H33" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I33" s="63"/>
       <c r="J33" s="74"/>
@@ -11438,14 +13031,14 @@
       <c r="C34" s="63"/>
       <c r="D34" s="64"/>
       <c r="E34" s="115" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F34" s="75" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G34" s="75"/>
       <c r="H34" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I34" s="63"/>
       <c r="J34" s="74"/>
@@ -11458,14 +13051,14 @@
       <c r="C35" s="63"/>
       <c r="D35" s="64"/>
       <c r="E35" s="116" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F35" s="75" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G35" s="75"/>
       <c r="H35" s="64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I35" s="63"/>
       <c r="J35" s="74"/>
@@ -11479,14 +13072,14 @@
       <c r="C36" s="64"/>
       <c r="D36" s="64"/>
       <c r="E36" s="77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F36" s="78" t="s">
         <v>28</v>
       </c>
       <c r="G36" s="64"/>
       <c r="H36" s="64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I36" s="63"/>
       <c r="J36" s="121"/>
@@ -11500,14 +13093,14 @@
       <c r="C37" s="64"/>
       <c r="D37" s="64"/>
       <c r="E37" s="77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F37" s="78" t="s">
         <v>29</v>
       </c>
       <c r="G37" s="64"/>
       <c r="H37" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I37" s="63"/>
       <c r="J37" s="121"/>
@@ -11521,14 +13114,14 @@
       <c r="C38" s="64"/>
       <c r="D38" s="64"/>
       <c r="E38" s="77" t="s">
+        <v>315</v>
+      </c>
+      <c r="F38" s="78" t="s">
         <v>316</v>
-      </c>
-      <c r="F38" s="78" t="s">
-        <v>317</v>
       </c>
       <c r="G38" s="64"/>
       <c r="H38" s="64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I38" s="63"/>
       <c r="J38" s="70"/>
@@ -11542,14 +13135,14 @@
       <c r="C39" s="64"/>
       <c r="D39" s="64"/>
       <c r="E39" s="77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F39" s="78" t="s">
         <v>30</v>
       </c>
       <c r="G39" s="64"/>
       <c r="H39" s="64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I39" s="63"/>
       <c r="J39" s="121"/>
@@ -11563,14 +13156,14 @@
       <c r="C40" s="64"/>
       <c r="D40" s="64"/>
       <c r="E40" s="77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F40" s="78" t="s">
         <v>31</v>
       </c>
       <c r="G40" s="64"/>
       <c r="H40" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I40" s="63"/>
       <c r="J40" s="121"/>
@@ -11959,7 +13552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25522CC9-E5A1-4993-8759-08867B5E6743}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -11968,7 +13561,7 @@
   <dimension ref="A2:K56"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -12014,10 +13607,10 @@
       <c r="D3" s="135"/>
       <c r="E3" s="136"/>
       <c r="F3" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -12084,7 +13677,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
@@ -12097,14 +13690,14 @@
       <c r="C7" s="25"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="38"/>
@@ -12117,14 +13710,14 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="146"/>
@@ -12137,14 +13730,14 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="146"/>
@@ -12157,14 +13750,14 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="142"/>
@@ -12177,14 +13770,14 @@
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="146"/>
@@ -12197,14 +13790,14 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="92" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="146"/>
@@ -12217,14 +13810,14 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F13" s="42" t="s">
         <v>365</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>367</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="146"/>
@@ -12237,14 +13830,14 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="92" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="146"/>
@@ -12257,14 +13850,14 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="146"/>
@@ -12277,14 +13870,14 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F16" s="39" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="146"/>
@@ -12297,14 +13890,14 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="142"/>
@@ -12317,14 +13910,14 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="142"/>
@@ -12789,7 +14382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29E56A-6A04-40AA-955A-9A3563BA335D}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -12847,10 +14440,10 @@
       <c r="D3" s="123"/>
       <c r="E3" s="120"/>
       <c r="F3" s="66" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G3" s="67" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H3" s="68"/>
       <c r="I3" s="68"/>
@@ -12917,7 +14510,7 @@
       </c>
       <c r="G6" s="64"/>
       <c r="H6" s="79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I6" s="72" t="s">
         <v>27</v>
@@ -12930,14 +14523,14 @@
       <c r="C7" s="72"/>
       <c r="D7" s="64"/>
       <c r="E7" s="64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" s="106" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G7" s="64"/>
       <c r="H7" s="79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I7" s="72"/>
       <c r="J7" s="74"/>
@@ -12950,14 +14543,14 @@
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" s="78" t="s">
         <v>52</v>
       </c>
       <c r="G8" s="64"/>
       <c r="H8" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I8" s="63"/>
       <c r="J8" s="119"/>
@@ -12970,14 +14563,14 @@
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="64" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F9" s="78" t="s">
         <v>53</v>
       </c>
       <c r="G9" s="64"/>
       <c r="H9" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I9" s="63"/>
       <c r="J9" s="119"/>
@@ -12990,14 +14583,14 @@
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
       <c r="E10" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="78" t="s">
         <v>290</v>
-      </c>
-      <c r="F10" s="78" t="s">
-        <v>291</v>
       </c>
       <c r="G10" s="64"/>
       <c r="H10" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I10" s="63"/>
       <c r="J10" s="121"/>
@@ -13010,16 +14603,16 @@
       <c r="C11" s="107"/>
       <c r="D11" s="87"/>
       <c r="E11" s="87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F11" s="108" t="s">
         <v>54</v>
       </c>
       <c r="G11" s="109" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H11" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I11" s="107"/>
       <c r="J11" s="152"/>
@@ -13032,14 +14625,14 @@
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
       <c r="E12" s="64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F12" s="64" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="64"/>
       <c r="H12" s="64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I12" s="63"/>
       <c r="J12" s="119"/>
@@ -13052,14 +14645,14 @@
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
       <c r="E13" s="64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F13" s="106" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="64"/>
       <c r="H13" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I13" s="63"/>
       <c r="J13" s="119"/>
@@ -13072,14 +14665,14 @@
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F14" s="64" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="64"/>
       <c r="H14" s="64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I14" s="63"/>
       <c r="J14" s="121"/>
@@ -13092,14 +14685,14 @@
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F15" s="106" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="78"/>
       <c r="H15" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I15" s="63"/>
       <c r="J15" s="121"/>
@@ -13667,13 +15260,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="137" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
@@ -13684,13 +15277,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="138" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F5" s="135"/>
       <c r="G5" s="135"/>
@@ -13701,13 +15294,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="138" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F6" s="135"/>
       <c r="G6" s="135"/>
@@ -13726,13 +15319,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="141" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7" s="135"/>
       <c r="G7" s="135"/>
@@ -13749,13 +15342,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="138" t="s">
         <v>159</v>
-      </c>
-      <c r="E8" s="138" t="s">
-        <v>160</v>
       </c>
       <c r="F8" s="135"/>
       <c r="G8" s="135"/>
@@ -13772,13 +15365,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" s="138" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F9" s="135"/>
       <c r="G9" s="135"/>
@@ -13795,13 +15388,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E10" s="138" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F10" s="135"/>
       <c r="G10" s="135"/>
@@ -13818,13 +15411,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" s="138" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F11" s="135"/>
       <c r="G11" s="135"/>
@@ -13841,13 +15434,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E12" s="139" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F12" s="135"/>
       <c r="G12" s="135"/>
@@ -13864,13 +15457,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13" s="138" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F13" s="135"/>
       <c r="G13" s="135"/>
@@ -13887,13 +15480,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" s="138" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F14" s="135"/>
       <c r="G14" s="135"/>
@@ -13904,13 +15497,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="139" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F15" s="135"/>
       <c r="G15" s="135"/>
@@ -14018,7 +15611,7 @@
       <c r="D3" s="135"/>
       <c r="E3" s="136"/>
       <c r="F3" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>32</v>
@@ -14088,7 +15681,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>27</v>
@@ -14103,14 +15696,14 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="146"/>
@@ -14123,14 +15716,14 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>33</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="146"/>
@@ -14143,14 +15736,14 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="38"/>
@@ -14163,14 +15756,14 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="146"/>
@@ -14183,14 +15776,14 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="38"/>
@@ -14203,14 +15796,14 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="38"/>
@@ -14223,14 +15816,14 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="38"/>
@@ -14243,14 +15836,14 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="38"/>
@@ -14263,14 +15856,14 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="38"/>
@@ -14283,14 +15876,14 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="142"/>
@@ -14303,14 +15896,14 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="142"/>
@@ -14324,14 +15917,14 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>28</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="142"/>
@@ -14345,14 +15938,14 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>29</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="142"/>
@@ -14366,14 +15959,14 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="142"/>
@@ -14387,14 +15980,14 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="142"/>
@@ -14666,10 +16259,10 @@
       <c r="D3" s="135"/>
       <c r="E3" s="136"/>
       <c r="F3" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -14751,7 +16344,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>21</v>
@@ -14760,7 +16353,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="146"/>
@@ -14773,7 +16366,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>34</v>
@@ -14782,7 +16375,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="146"/>
@@ -14795,14 +16388,14 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="142"/>
@@ -14815,14 +16408,14 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="142"/>
@@ -14836,14 +16429,14 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="142"/>
@@ -14856,14 +16449,14 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="142"/>
@@ -15118,7 +16711,7 @@
       <c r="D3" s="135"/>
       <c r="E3" s="136"/>
       <c r="F3" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>48</v>
@@ -15203,16 +16796,16 @@
         <v>27</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>50</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="146"/>
@@ -15225,14 +16818,14 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F8" s="85" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="38"/>
@@ -15245,14 +16838,14 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>57</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="38"/>
@@ -15265,14 +16858,14 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       